--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -582,7 +582,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -648,6 +648,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +666,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -723,6 +732,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,7 +783,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -831,6 +849,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,7 +867,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -906,6 +933,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +984,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1014,6 +1050,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1023,7 +1068,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1089,6 +1134,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,11 +1164,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589326592"/>
-        <c:axId val="606629888"/>
+        <c:axId val="484492800"/>
+        <c:axId val="484494336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589326592"/>
+        <c:axId val="484492800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,14 +1211,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606629888"/>
+        <c:crossAx val="484494336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="606629888"/>
+        <c:axId val="484494336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589326592"/>
+        <c:crossAx val="484492800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1430,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1442,6 +1496,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,8 +1519,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489583360"/>
-        <c:axId val="489581568"/>
+        <c:axId val="484502912"/>
+        <c:axId val="484501376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1482,7 +1545,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1548,6 +1611,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,7 +1629,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1623,6 +1695,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,11 +1720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489578496"/>
-        <c:axId val="489580032"/>
+        <c:axId val="484498048"/>
+        <c:axId val="484499840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489578496"/>
+        <c:axId val="484498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,14 +1767,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489580032"/>
+        <c:crossAx val="484499840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489580032"/>
+        <c:axId val="484499840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,12 +1825,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489578496"/>
+        <c:crossAx val="484498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489581568"/>
+        <c:axId val="484501376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1786,12 +1867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489583360"/>
+        <c:crossAx val="484502912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489583360"/>
+        <c:axId val="484502912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489581568"/>
+        <c:crossAx val="484501376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +2031,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2016,6 +2097,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,7 +2115,7 @@
               <c:f>'model2(2)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2091,6 +2181,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1376396.3421746274</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1447474.4035657665</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1549567.1150589671</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1659572.0331019405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,7 +2232,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2199,6 +2298,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2316,7 @@
               <c:f>'model2(2)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2274,6 +2382,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1424833.9298069854</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1458951.2449930629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1500821.0152801611</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1683782.4379789643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2433,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2382,6 +2499,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,7 +2517,7 @@
               <c:f>'model2(2)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2457,6 +2583,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48437.587632358074</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11476.8414272964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-48746.099778806092</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24210.404877023771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,11 +2613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489915520"/>
-        <c:axId val="489917056"/>
+        <c:axId val="485362304"/>
+        <c:axId val="485376384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489915520"/>
+        <c:axId val="485362304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,14 +2660,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489917056"/>
+        <c:crossAx val="485376384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489917056"/>
+        <c:axId val="485376384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2718,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489915520"/>
+        <c:crossAx val="485362304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2744,7 +2879,7 @@
               <c:f>'model2(2)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2810,6 +2945,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54186.545765681185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71078.061391139228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>102092.71149320067</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>110004.9180429735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,8 +2968,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489935616"/>
-        <c:axId val="489933824"/>
+        <c:axId val="485395456"/>
+        <c:axId val="485393920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2850,7 +2994,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2916,6 +3060,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,7 +3078,7 @@
               <c:f>'model2(2)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2991,6 +3144,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,11 +3169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489930752"/>
-        <c:axId val="489932288"/>
+        <c:axId val="485390592"/>
+        <c:axId val="485392384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489930752"/>
+        <c:axId val="485390592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3054,14 +3216,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489932288"/>
+        <c:crossAx val="485392384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489932288"/>
+        <c:axId val="485392384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,12 +3274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489930752"/>
+        <c:crossAx val="485390592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489933824"/>
+        <c:axId val="485393920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,12 +3316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489935616"/>
+        <c:crossAx val="485395456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489935616"/>
+        <c:axId val="485395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,7 +3330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489933824"/>
+        <c:crossAx val="485393920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3480,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3384,6 +3546,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,7 +3564,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3459,6 +3630,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4244668.8663569177</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4415397.7453730423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4701076.0336823575</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4913912.8232615339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3501,7 +3681,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3567,6 +3747,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3576,7 +3765,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3642,6 +3831,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4297670.0194356609</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4356915.6669407403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4462748.14001079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4892523.8597752657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3882,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3750,6 +3948,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3759,7 +3966,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3825,6 +4032,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>53001.153078743257</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-58482.078432301991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-238327.89367156755</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-21388.963486268185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,11 +4062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584119424"/>
-        <c:axId val="584120960"/>
+        <c:axId val="485419264"/>
+        <c:axId val="485634048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584119424"/>
+        <c:axId val="485419264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,14 +4109,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584120960"/>
+        <c:crossAx val="485634048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584120960"/>
+        <c:axId val="485634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,7 +4167,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584119424"/>
+        <c:crossAx val="485419264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4112,7 +4328,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4178,6 +4394,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,8 +4417,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584814976"/>
-        <c:axId val="584796800"/>
+        <c:axId val="485653120"/>
+        <c:axId val="485651584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4218,7 +4443,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4284,6 +4509,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,7 +4527,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4359,6 +4593,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,11 +4618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584789376"/>
-        <c:axId val="584795264"/>
+        <c:axId val="485648256"/>
+        <c:axId val="485649792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584789376"/>
+        <c:axId val="485648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,14 +4665,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584795264"/>
+        <c:crossAx val="485649792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584795264"/>
+        <c:axId val="485649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,12 +4723,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584789376"/>
+        <c:crossAx val="485648256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584796800"/>
+        <c:axId val="485651584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,12 +4765,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584814976"/>
+        <c:crossAx val="485653120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584814976"/>
+        <c:axId val="485653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584796800"/>
+        <c:crossAx val="485651584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4668,7 +4911,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4734,6 +4977,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4748,8 +5000,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617275392"/>
-        <c:axId val="617265024"/>
+        <c:axId val="546433664"/>
+        <c:axId val="546432128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4774,7 +5026,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4840,6 +5092,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4849,7 +5110,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4915,6 +5176,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4931,11 +5201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613554432"/>
-        <c:axId val="617263488"/>
+        <c:axId val="546427264"/>
+        <c:axId val="546429184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613554432"/>
+        <c:axId val="546427264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,14 +5248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617263488"/>
+        <c:crossAx val="546429184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617263488"/>
+        <c:axId val="546429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5036,12 +5306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613554432"/>
+        <c:crossAx val="546427264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617265024"/>
+        <c:axId val="546432128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,12 +5348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617275392"/>
+        <c:crossAx val="546433664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617275392"/>
+        <c:axId val="546433664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,7 +5362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617265024"/>
+        <c:crossAx val="546432128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5242,7 +5512,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5308,6 +5578,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,7 +5596,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5383,6 +5662,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>723813.54303888045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>748483.91216020915</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>780396.40795788483</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>807941.58086079231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5713,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5491,6 +5779,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5500,7 +5797,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5566,6 +5863,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>705284.38468563731</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>711659.40260888624</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>714195.85002306115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>776458.84225744638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5608,7 +5914,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5674,6 +5980,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,7 +5998,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5749,6 +6064,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-18529.15835324314</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-36824.509551322903</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-66200.557934823679</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-31482.738603345933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5770,11 +6094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652954240"/>
-        <c:axId val="654545280"/>
+        <c:axId val="552099840"/>
+        <c:axId val="552101760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652954240"/>
+        <c:axId val="552099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5817,14 +6141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654545280"/>
+        <c:crossAx val="552101760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654545280"/>
+        <c:axId val="552101760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5875,7 +6199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652954240"/>
+        <c:crossAx val="552099840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6045,7 +6369,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6111,6 +6435,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>23389.660208595509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24670.369121328669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31912.49579767574</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27545.172902907441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,8 +6458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="679704448"/>
-        <c:axId val="679702528"/>
+        <c:axId val="564129152"/>
+        <c:axId val="564127232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6151,7 +6484,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6217,6 +6550,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6226,7 +6568,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6292,6 +6634,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6308,11 +6659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671563776"/>
-        <c:axId val="671565312"/>
+        <c:axId val="563566080"/>
+        <c:axId val="563568000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671563776"/>
+        <c:axId val="563566080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,14 +6706,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671565312"/>
+        <c:crossAx val="563568000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671565312"/>
+        <c:axId val="563568000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,12 +6764,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671563776"/>
+        <c:crossAx val="563566080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="679702528"/>
+        <c:axId val="564127232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,12 +6806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="679704448"/>
+        <c:crossAx val="564129152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="679704448"/>
+        <c:axId val="564129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6469,7 +6820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="679702528"/>
+        <c:crossAx val="564127232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6619,7 +6970,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6685,6 +7036,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6694,7 +7054,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6760,6 +7120,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5649161.7729154676</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5811354.2079807855</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6082748.5818746351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6284943.531974853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6802,7 +7171,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6868,6 +7237,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6877,7 +7255,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6943,6 +7321,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5673901.6841965364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5688910.9032006897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5725477.0413834555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6205993.5156186232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6985,7 +7372,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7051,6 +7438,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7060,7 +7456,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7126,6 +7522,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24739.911281068809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-122443.30478009582</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-357271.54049117956</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-78950.016356229782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7147,11 +7552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697812096"/>
-        <c:axId val="697813632"/>
+        <c:axId val="567488512"/>
+        <c:axId val="567490432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697812096"/>
+        <c:axId val="567488512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7194,14 +7599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697813632"/>
+        <c:crossAx val="567490432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697813632"/>
+        <c:axId val="567490432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7252,7 +7657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697812096"/>
+        <c:crossAx val="567488512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7422,7 +7827,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7488,6 +7893,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>145789.79471647067</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>162192.43506531834</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271394.3738938499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>202194.95010021751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,8 +7916,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="476567040"/>
-        <c:axId val="476565504"/>
+        <c:axId val="484398976"/>
+        <c:axId val="484397440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7528,7 +7942,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7594,6 +8008,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7603,7 +8026,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7669,6 +8092,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7685,11 +8117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476562176"/>
-        <c:axId val="476563712"/>
+        <c:axId val="484394112"/>
+        <c:axId val="484395648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476562176"/>
+        <c:axId val="484394112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7732,14 +8164,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476563712"/>
+        <c:crossAx val="484395648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476563712"/>
+        <c:axId val="484395648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7790,12 +8222,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476562176"/>
+        <c:crossAx val="484394112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="476565504"/>
+        <c:axId val="484397440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7832,12 +8264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476567040"/>
+        <c:crossAx val="484398976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="476567040"/>
+        <c:axId val="484398976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7846,7 +8278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476565504"/>
+        <c:crossAx val="484397440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7996,7 +8428,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8062,6 +8494,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8071,7 +8512,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8137,6 +8578,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>239928.28559254218</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249330.38358668654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>262835.05238547066</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>277386.33584811713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8179,7 +8629,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8245,6 +8695,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8254,7 +8713,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8320,6 +8779,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>246323.28450438916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>249335.66071236212</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>252548.19199990496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>279376.11148901522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,7 +8830,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8428,6 +8896,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8437,7 +8914,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8503,6 +8980,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6394.9989118469821</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2771256755804643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10286.860385565698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1989.7756408980931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,11 +9010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489531264"/>
-        <c:axId val="489532800"/>
+        <c:axId val="484451456"/>
+        <c:axId val="484452992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489531264"/>
+        <c:axId val="484451456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8571,14 +9057,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489532800"/>
+        <c:crossAx val="484452992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489532800"/>
+        <c:axId val="484452992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8629,7 +9115,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489531264"/>
+        <c:crossAx val="484451456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8790,7 +9276,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8856,6 +9342,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>7167.7139652071937</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9402.0979941443675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13504.668798784138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14551.283462646496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,8 +9365,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="489550976"/>
-        <c:axId val="489549184"/>
+        <c:axId val="484466688"/>
+        <c:axId val="484464896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8896,7 +9391,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8962,6 +9457,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8971,7 +9475,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9037,6 +9541,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,11 +9566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489546112"/>
-        <c:axId val="489547648"/>
+        <c:axId val="484461568"/>
+        <c:axId val="484463360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489546112"/>
+        <c:axId val="484461568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,14 +9613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489547648"/>
+        <c:crossAx val="484463360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489547648"/>
+        <c:axId val="484463360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9158,12 +9671,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489546112"/>
+        <c:crossAx val="484461568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489549184"/>
+        <c:axId val="484464896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,12 +9713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489550976"/>
+        <c:crossAx val="484466688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="489550976"/>
+        <c:axId val="484466688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9214,7 +9727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489549184"/>
+        <c:crossAx val="484464896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9364,7 +9877,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9430,6 +9943,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9439,7 +9961,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9505,6 +10027,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>555708.04543317039</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>581676.85503456905</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>615268.95587422769</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>644263.87471939344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9547,7 +10078,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9613,6 +10144,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9622,7 +10162,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9688,6 +10228,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>547345.36433575361</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>559115.82234366424</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>569628.60548030783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>626313.7762507241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9730,7 +10279,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9796,6 +10345,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9805,7 +10363,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9871,6 +10429,15 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8362.6810974167893</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22561.032690904802</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45640.350393919856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17950.098468669341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,11 +10459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489563648"/>
-        <c:axId val="489565184"/>
+        <c:axId val="484482048"/>
+        <c:axId val="484483840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489563648"/>
+        <c:axId val="484482048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9939,14 +10506,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489565184"/>
+        <c:crossAx val="484483840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489565184"/>
+        <c:axId val="484483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,7 +10564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489563648"/>
+        <c:crossAx val="484482048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10849,7 +11416,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11934,6 +12501,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="31">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="29">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="29">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="30">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="30">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="30">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="30">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="30">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="30">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="32">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="31">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="29">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="29">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="30">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="30">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="30">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="30">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="30">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="30">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="32">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="31">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="29">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="29">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="30">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="30">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="30">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="30">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="30">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="30">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11950,7 +12631,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13280,6 +13961,156 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>24670.369121328669</v>
+      </c>
+      <c r="F25" s="18">
+        <v>32850.026024313876</v>
+      </c>
+      <c r="G25" s="18">
+        <v>947615.73210261366</v>
+      </c>
+      <c r="H25" s="18">
+        <v>711659.40260888624</v>
+      </c>
+      <c r="I25" s="18">
+        <v>748483.91216020915</v>
+      </c>
+      <c r="J25" s="18">
+        <v>711659.40260888624</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-36824.509551322903</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>31912.49579767574</v>
+      </c>
+      <c r="F26" s="18">
+        <v>44322.909068871028</v>
+      </c>
+      <c r="G26" s="18">
+        <v>991938.64117148472</v>
+      </c>
+      <c r="H26" s="18">
+        <v>714195.85002306115</v>
+      </c>
+      <c r="I26" s="18">
+        <v>780396.40795788483</v>
+      </c>
+      <c r="J26" s="18">
+        <v>714195.85002306115</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-66200.557934823679</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>27545.172902907441</v>
+      </c>
+      <c r="F27" s="18">
+        <v>36483.672949503511</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1028422.3141209882</v>
+      </c>
+      <c r="H27" s="18">
+        <v>776458.84225744638</v>
+      </c>
+      <c r="I27" s="18">
+        <v>807941.58086079231</v>
+      </c>
+      <c r="J27" s="18">
+        <v>776458.84225744638</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-31482.738603345933</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13296,7 +14127,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14626,6 +15457,156 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>162192.43506531834</v>
+      </c>
+      <c r="F25" s="18">
+        <v>215968.62562693571</v>
+      </c>
+      <c r="G25" s="18">
+        <v>7575114.514949779</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="I25" s="18">
+        <v>5811354.2079807855</v>
+      </c>
+      <c r="J25" s="18">
+        <v>5688910.9032006897</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-122443.30478009582</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>271394.3738938499</v>
+      </c>
+      <c r="F26" s="18">
+        <v>376936.61543000949</v>
+      </c>
+      <c r="G26" s="18">
+        <v>7952051.1303797886</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="I26" s="18">
+        <v>6082748.5818746351</v>
+      </c>
+      <c r="J26" s="18">
+        <v>5725477.0413834555</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-357271.54049117956</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>202194.95010021751</v>
+      </c>
+      <c r="F27" s="18">
+        <v>267807.88261884107</v>
+      </c>
+      <c r="G27" s="18">
+        <v>8219859.0129986294</v>
+      </c>
+      <c r="H27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="I27" s="18">
+        <v>6284943.531974853</v>
+      </c>
+      <c r="J27" s="18">
+        <v>6205993.5156186232</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-78950.016356229782</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="N27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="O27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14642,7 +15623,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16116,6 +17097,174 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="25" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>9402.0979941443675</v>
+      </c>
+      <c r="H25" s="18">
+        <v>12519.438289383714</v>
+      </c>
+      <c r="I25" s="18">
+        <v>332004.88014220138</v>
+      </c>
+      <c r="J25" s="18">
+        <v>249335.66071236212</v>
+      </c>
+      <c r="K25" s="18">
+        <v>249330.38358668654</v>
+      </c>
+      <c r="L25" s="18">
+        <v>249335.66071236212</v>
+      </c>
+      <c r="M25" s="18">
+        <v>5.2771256755804643</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P25" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>13504.668798784138</v>
+      </c>
+      <c r="H26" s="18">
+        <v>18756.48369744005</v>
+      </c>
+      <c r="I26" s="18">
+        <v>350761.36383964145</v>
+      </c>
+      <c r="J26" s="18">
+        <v>252548.19199990496</v>
+      </c>
+      <c r="K26" s="18">
+        <v>262835.05238547066</v>
+      </c>
+      <c r="L26" s="18">
+        <v>252548.19199990496</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-10286.860385565698</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="22">
+        <v>1.6235825800310466E-2</v>
+      </c>
+      <c r="P26" s="22">
+        <v>3.3549798769067905E-2</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>48.393213658495924</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>14551.283462646496</v>
+      </c>
+      <c r="H27" s="18">
+        <v>19273.223251057465</v>
+      </c>
+      <c r="I27" s="18">
+        <v>370034.58709069889</v>
+      </c>
+      <c r="J27" s="18">
+        <v>279376.11148901522</v>
+      </c>
+      <c r="K27" s="18">
+        <v>277386.33584811713</v>
+      </c>
+      <c r="L27" s="18">
+        <v>279376.11148901522</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1989.7756408980931</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="P27" s="22">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>36.087795260697291</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -16132,7 +17281,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17547,6 +18696,165 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="18">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="18">
+        <v>744495.11575065705</v>
+      </c>
+      <c r="H25" s="18">
+        <v>559115.82234366424</v>
+      </c>
+      <c r="I25" s="18">
+        <v>581676.85503456905</v>
+      </c>
+      <c r="J25" s="18">
+        <v>559115.82234366424</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-22561.032690904802</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N25" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O25" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P25" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="18">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="18">
+        <v>791150.80950736336</v>
+      </c>
+      <c r="H26" s="18">
+        <v>569628.60548030783</v>
+      </c>
+      <c r="I26" s="18">
+        <v>615268.95587422769</v>
+      </c>
+      <c r="J26" s="18">
+        <v>569628.60548030783</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-45640.350393919856</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>51.666694813303359</v>
+      </c>
+      <c r="N26" s="21">
+        <v>44.636172502112707</v>
+      </c>
+      <c r="O26" s="21">
+        <v>37.449899885039635</v>
+      </c>
+      <c r="P26" s="21">
+        <v>59.008717736258845</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="18">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="18">
+        <v>829554.67576999869</v>
+      </c>
+      <c r="H27" s="18">
+        <v>626313.7762507241</v>
+      </c>
+      <c r="I27" s="18">
+        <v>644263.87471939344</v>
+      </c>
+      <c r="J27" s="18">
+        <v>626313.7762507241</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-17950.098468669341</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="N27" s="21">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="O27" s="21">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="P27" s="21">
+        <v>42.668193426398076</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17563,7 +18871,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18789,6 +20097,138 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="17">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="17">
+        <v>71078.061391139228</v>
+      </c>
+      <c r="H25" s="18">
+        <v>94644.557402996477</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1942678.1225090188</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1458951.2449930629</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1447474.4035657665</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1458951.2449930629</v>
+      </c>
+      <c r="M25" s="18">
+        <v>11476.8414272964</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="17">
+        <v>102092.71149320067</v>
+      </c>
+      <c r="H26" s="18">
+        <v>141795.42699500133</v>
+      </c>
+      <c r="I26" s="18">
+        <v>2084473.54950402</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1500821.0152801611</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1549567.1150589671</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1500821.0152801611</v>
+      </c>
+      <c r="M26" s="18">
+        <v>-48746.099778806092</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="17">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="17">
+        <v>110004.9180429735</v>
+      </c>
+      <c r="H27" s="18">
+        <v>145701.87912282677</v>
+      </c>
+      <c r="I27" s="18">
+        <v>2230175.428626847</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1683782.4379789643</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1659572.0331019405</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1683782.4379789643</v>
+      </c>
+      <c r="M27" s="18">
+        <v>24210.404877023771</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -18805,7 +20245,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19890,6 +21330,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="16">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="17">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="17">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="18">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="18">
+        <v>5801485.6746106083</v>
+      </c>
+      <c r="H25" s="18">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="I25" s="18">
+        <v>4415397.7453730423</v>
+      </c>
+      <c r="J25" s="18">
+        <v>4356915.6669407403</v>
+      </c>
+      <c r="K25" s="18">
+        <v>-58482.078432301991</v>
+      </c>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="31">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="16">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="17">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="17">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="18">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6198261.0592737757</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="I26" s="18">
+        <v>4701076.0336823575</v>
+      </c>
+      <c r="J26" s="18">
+        <v>4462748.14001079</v>
+      </c>
+      <c r="K26" s="18">
+        <v>-238327.89367156755</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="31">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="17">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="17">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="18">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6480164.0936093982</v>
+      </c>
+      <c r="H27" s="18">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="I27" s="18">
+        <v>4913912.8232615339</v>
+      </c>
+      <c r="J27" s="18">
+        <v>4892523.8597752657</v>
+      </c>
+      <c r="K27" s="18">
+        <v>-21388.963486268185</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -582,7 +582,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -657,6 +657,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +669,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -741,6 +744,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +789,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -858,6 +864,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +876,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -942,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +996,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1059,6 +1071,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1083,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,11 +1182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484492800"/>
-        <c:axId val="484494336"/>
+        <c:axId val="395471872"/>
+        <c:axId val="395539584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484492800"/>
+        <c:axId val="395471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,14 +1229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484494336"/>
+        <c:crossAx val="395539584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484494336"/>
+        <c:axId val="395539584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1287,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484492800"/>
+        <c:crossAx val="395471872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,7 +1448,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,6 +1523,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,8 +1540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484502912"/>
-        <c:axId val="484501376"/>
+        <c:axId val="396436992"/>
+        <c:axId val="396435456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1545,7 +1566,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1620,6 +1641,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1653,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1704,6 +1728,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1720,11 +1747,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484498048"/>
-        <c:axId val="484499840"/>
+        <c:axId val="396428032"/>
+        <c:axId val="396429568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484498048"/>
+        <c:axId val="396428032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,14 +1794,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484499840"/>
+        <c:crossAx val="396429568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484499840"/>
+        <c:axId val="396429568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,12 +1852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484498048"/>
+        <c:crossAx val="396428032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484501376"/>
+        <c:axId val="396435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1894,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484502912"/>
+        <c:crossAx val="396436992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484502912"/>
+        <c:axId val="396436992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484501376"/>
+        <c:crossAx val="396435456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2031,7 +2058,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2106,6 +2133,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,7 +2145,7 @@
               <c:f>'model2(2)turnover'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2190,6 +2220,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1659572.0331019405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1750125.8271918723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,7 +2265,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2307,6 +2340,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,7 +2352,7 @@
               <c:f>'model2(2)turnover'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2391,6 +2427,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1683782.4379789643</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1787717.2452937281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2472,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2508,6 +2547,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,7 +2559,7 @@
               <c:f>'model2(2)turnover'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2592,6 +2634,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>24210.404877023771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37591.418101855787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,11 +2658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485362304"/>
-        <c:axId val="485376384"/>
+        <c:axId val="396559104"/>
+        <c:axId val="396560640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485362304"/>
+        <c:axId val="396559104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,14 +2705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485376384"/>
+        <c:crossAx val="396560640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485376384"/>
+        <c:axId val="396560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,7 +2763,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485362304"/>
+        <c:crossAx val="396559104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2879,7 +2924,7 @@
               <c:f>'model2(2)turnover'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2954,6 +2999,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>110004.9180429735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90553.794089931776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,8 +3016,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485395456"/>
-        <c:axId val="485393920"/>
+        <c:axId val="396588160"/>
+        <c:axId val="396586368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2994,7 +3042,7 @@
               <c:f>'model2(2)turnover'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3069,6 +3117,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3078,7 +3129,7 @@
               <c:f>'model2(2)turnover'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3153,6 +3204,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,11 +3223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485390592"/>
-        <c:axId val="485392384"/>
+        <c:axId val="396583296"/>
+        <c:axId val="396584832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485390592"/>
+        <c:axId val="396583296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,14 +3270,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485392384"/>
+        <c:crossAx val="396584832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485392384"/>
+        <c:axId val="396584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3274,12 +3328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485390592"/>
+        <c:crossAx val="396583296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485393920"/>
+        <c:axId val="396586368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,12 +3370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485395456"/>
+        <c:crossAx val="396588160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485395456"/>
+        <c:axId val="396588160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485393920"/>
+        <c:crossAx val="396586368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3534,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3555,6 +3609,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,7 +3621,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3639,6 +3696,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4913912.8232615339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5099420.2574212886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3681,7 +3741,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3756,6 +3816,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,7 +3828,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3840,6 +3903,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4892523.8597752657</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5116912.1641673045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,7 +3948,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3957,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,7 +4035,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4041,6 +4110,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-21388.963486268185</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17491.906746015884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,11 +4134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485419264"/>
-        <c:axId val="485634048"/>
+        <c:axId val="396673792"/>
+        <c:axId val="396675328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485419264"/>
+        <c:axId val="396673792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4109,14 +4181,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485634048"/>
+        <c:crossAx val="396675328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485634048"/>
+        <c:axId val="396675328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4167,7 +4239,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485419264"/>
+        <c:crossAx val="396673792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4328,7 +4400,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4403,6 +4475,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4417,8 +4492,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485653120"/>
-        <c:axId val="485651584"/>
+        <c:axId val="396788864"/>
+        <c:axId val="396774784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4443,7 +4518,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4518,6 +4593,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,7 +4605,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4602,6 +4680,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4618,11 +4699,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485648256"/>
-        <c:axId val="485649792"/>
+        <c:axId val="396771712"/>
+        <c:axId val="396773248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485648256"/>
+        <c:axId val="396771712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,14 +4746,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485649792"/>
+        <c:crossAx val="396773248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485649792"/>
+        <c:axId val="396773248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4723,12 +4804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485648256"/>
+        <c:crossAx val="396771712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485651584"/>
+        <c:axId val="396774784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4765,12 +4846,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485653120"/>
+        <c:crossAx val="396788864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485653120"/>
+        <c:axId val="396788864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,7 +4860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485651584"/>
+        <c:crossAx val="396774784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4911,7 +4992,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4986,6 +5067,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,8 +5084,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="546433664"/>
-        <c:axId val="546432128"/>
+        <c:axId val="563525120"/>
+        <c:axId val="521067904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5026,7 +5110,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5101,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,7 +5197,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5185,6 +5272,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5201,11 +5291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546427264"/>
-        <c:axId val="546429184"/>
+        <c:axId val="521064448"/>
+        <c:axId val="521065984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546427264"/>
+        <c:axId val="521064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,14 +5338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546429184"/>
+        <c:crossAx val="521065984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546429184"/>
+        <c:axId val="521065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5306,12 +5396,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546427264"/>
+        <c:crossAx val="521064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546432128"/>
+        <c:axId val="521067904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,12 +5438,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546433664"/>
+        <c:crossAx val="563525120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="546433664"/>
+        <c:axId val="563525120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5362,7 +5452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546432128"/>
+        <c:crossAx val="521067904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5512,7 +5602,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5587,6 +5677,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5596,7 +5689,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5671,6 +5764,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>807941.58086079231</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>833657.54505329835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,7 +5809,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5788,6 +5884,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,7 +5896,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5872,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>776458.84225744638</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>808345.32219024934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,7 +6016,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5989,6 +6091,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5998,7 +6103,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6073,6 +6178,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-31482.738603345933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-25312.222863049014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,11 +6202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552099840"/>
-        <c:axId val="552101760"/>
+        <c:axId val="390837760"/>
+        <c:axId val="390839296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552099840"/>
+        <c:axId val="390837760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,14 +6249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552101760"/>
+        <c:crossAx val="390839296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="552101760"/>
+        <c:axId val="390839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,7 +6307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552099840"/>
+        <c:crossAx val="390837760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6369,7 +6477,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6444,6 +6552,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>27545.172902907441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25715.964192506101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6458,8 +6569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564129152"/>
-        <c:axId val="564127232"/>
+        <c:axId val="391469312"/>
+        <c:axId val="391467776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6484,7 +6595,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6559,6 +6670,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6568,7 +6682,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6643,6 +6757,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6659,11 +6776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563566080"/>
-        <c:axId val="563568000"/>
+        <c:axId val="391460352"/>
+        <c:axId val="391461888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563566080"/>
+        <c:axId val="391460352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6706,14 +6823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563568000"/>
+        <c:crossAx val="391461888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563568000"/>
+        <c:axId val="391461888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6764,12 +6881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563566080"/>
+        <c:crossAx val="391460352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564127232"/>
+        <c:axId val="391467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,12 +6923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564129152"/>
+        <c:crossAx val="391469312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564129152"/>
+        <c:axId val="391469312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6820,7 +6937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="564127232"/>
+        <c:crossAx val="391467776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6970,7 +7087,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7045,6 +7162,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7054,7 +7174,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7129,6 +7249,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6284943.531974853</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6461175.5944266198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7171,7 +7294,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7246,6 +7369,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7255,7 +7381,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7330,6 +7456,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6205993.5156186232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6431544.5871256161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7372,7 +7501,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7447,6 +7576,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,7 +7588,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7531,6 +7663,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-78950.016356229782</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29631.007301003672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7552,11 +7687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567488512"/>
-        <c:axId val="567490432"/>
+        <c:axId val="391489024"/>
+        <c:axId val="391490560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567488512"/>
+        <c:axId val="391489024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7599,14 +7734,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567490432"/>
+        <c:crossAx val="391490560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567490432"/>
+        <c:axId val="391490560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,7 +7792,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567488512"/>
+        <c:crossAx val="391489024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7827,7 +7962,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7902,6 +8037,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>202194.95010021751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>176232.06245176709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7916,8 +8054,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484398976"/>
-        <c:axId val="484397440"/>
+        <c:axId val="395446528"/>
+        <c:axId val="395444992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7942,7 +8080,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8017,6 +8155,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8026,7 +8167,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8101,6 +8242,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8117,11 +8261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484394112"/>
-        <c:axId val="484395648"/>
+        <c:axId val="391505408"/>
+        <c:axId val="391506944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484394112"/>
+        <c:axId val="391505408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8164,14 +8308,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484395648"/>
+        <c:crossAx val="391506944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484395648"/>
+        <c:axId val="391506944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8222,12 +8366,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484394112"/>
+        <c:crossAx val="391505408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484397440"/>
+        <c:axId val="395444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8264,12 +8408,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484398976"/>
+        <c:crossAx val="395446528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484398976"/>
+        <c:axId val="395446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,7 +8422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484397440"/>
+        <c:crossAx val="395444992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8428,7 +8572,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8503,6 +8647,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8512,7 +8659,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8587,6 +8734,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>277386.33584811713</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>289364.65418026631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8629,7 +8779,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8704,6 +8854,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8713,7 +8866,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8788,6 +8941,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>279376.11148901522</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>293574.63081519771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,7 +8986,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8905,6 +9061,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,7 +9073,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8989,6 +9148,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1989.7756408980931</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4209.9766349314013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,11 +9172,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484451456"/>
-        <c:axId val="484452992"/>
+        <c:axId val="395503104"/>
+        <c:axId val="395504640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484451456"/>
+        <c:axId val="395503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9057,14 +9219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484452992"/>
+        <c:crossAx val="395504640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484452992"/>
+        <c:axId val="395504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9115,7 +9277,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484451456"/>
+        <c:crossAx val="395503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,7 +9438,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9351,6 +9513,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>14551.283462646496</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11978.318332149203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9365,8 +9530,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484466688"/>
-        <c:axId val="484464896"/>
+        <c:axId val="395544448"/>
+        <c:axId val="395542912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9391,7 +9556,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9466,6 +9631,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9475,7 +9643,7 @@
               <c:f>'model2(2)turnover&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9550,6 +9718,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9566,11 +9737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484461568"/>
-        <c:axId val="484463360"/>
+        <c:axId val="395535488"/>
+        <c:axId val="395537024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484461568"/>
+        <c:axId val="395535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9613,14 +9784,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484463360"/>
+        <c:crossAx val="395537024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484463360"/>
+        <c:axId val="395537024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9671,12 +9842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484461568"/>
+        <c:crossAx val="395535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484464896"/>
+        <c:axId val="395542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9713,12 +9884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484466688"/>
+        <c:crossAx val="395544448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484466688"/>
+        <c:axId val="395544448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9727,7 +9898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484464896"/>
+        <c:crossAx val="395542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9877,7 +10048,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9952,6 +10123,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9961,7 +10135,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10036,6 +10210,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>644263.87471939344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>671333.31071150512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10078,7 +10255,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10153,6 +10330,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10162,7 +10342,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10237,6 +10417,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>626313.7762507241</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>658360.52566164348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,7 +10462,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10354,6 +10537,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10363,7 +10549,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10438,6 +10624,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17950.098468669341</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12972.785049861646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10459,11 +10648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484482048"/>
-        <c:axId val="484483840"/>
+        <c:axId val="395560064"/>
+        <c:axId val="395561600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484482048"/>
+        <c:axId val="395560064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10506,14 +10695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484483840"/>
+        <c:crossAx val="395561600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484483840"/>
+        <c:axId val="395561600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10564,7 +10753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484482048"/>
+        <c:crossAx val="395560064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11416,7 +11605,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12615,6 +12804,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="31">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="29">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="29">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="30">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="30">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="30">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="30">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="30">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="30">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12631,7 +12858,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14111,6 +14338,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>25715.964192506101</v>
+      </c>
+      <c r="F28" s="18">
+        <v>33792.332391376833</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1062214.646512365</v>
+      </c>
+      <c r="H28" s="18">
+        <v>808345.32219024934</v>
+      </c>
+      <c r="I28" s="18">
+        <v>833657.54505329835</v>
+      </c>
+      <c r="J28" s="18">
+        <v>808345.32219024934</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-25312.222863049014</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14127,7 +14404,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15607,6 +15884,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>176232.06245176709</v>
+      </c>
+      <c r="F28" s="18">
+        <v>231579.58954241459</v>
+      </c>
+      <c r="G28" s="18">
+        <v>8451438.6025410444</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6461175.5944266198</v>
+      </c>
+      <c r="J28" s="18">
+        <v>6431544.5871256161</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-29631.007301003672</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="O28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15623,7 +15950,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17265,6 +17592,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>11978.318332149203</v>
+      </c>
+      <c r="H28" s="18">
+        <v>15740.234802771431</v>
+      </c>
+      <c r="I28" s="18">
+        <v>385774.8218934703</v>
+      </c>
+      <c r="J28" s="18">
+        <v>293574.63081519771</v>
+      </c>
+      <c r="K28" s="18">
+        <v>289364.65418026631</v>
+      </c>
+      <c r="L28" s="18">
+        <v>293574.63081519771</v>
+      </c>
+      <c r="M28" s="18">
+        <v>4209.9766349314013</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="P28" s="22">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="Q28" s="22">
+        <v>47.786304387002254</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -17281,7 +17664,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18855,6 +19238,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="18">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="18">
+        <v>865125.551971448</v>
+      </c>
+      <c r="H28" s="18">
+        <v>658360.52566164348</v>
+      </c>
+      <c r="I28" s="18">
+        <v>671333.31071150512</v>
+      </c>
+      <c r="J28" s="18">
+        <v>658360.52566164348</v>
+      </c>
+      <c r="K28" s="18">
+        <v>-12972.785049861646</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="N28" s="21">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="O28" s="21">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="P28" s="21">
+        <v>55.446161314787332</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18871,7 +19307,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20229,6 +20665,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="17">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="17">
+        <v>90553.794089931776</v>
+      </c>
+      <c r="H28" s="18">
+        <v>118993.1626238223</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2349168.5912506692</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1787717.2452937281</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1750125.8271918723</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1787717.2452937281</v>
+      </c>
+      <c r="M28" s="18">
+        <v>37591.418101855787</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20245,7 +20725,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21444,6 +21924,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="15">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="31">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="16">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="17">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="17">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="18">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6723932.0826014131</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="I28" s="18">
+        <v>5099420.2574212886</v>
+      </c>
+      <c r="J28" s="18">
+        <v>5116912.1641673045</v>
+      </c>
+      <c r="K28" s="18">
+        <v>17491.906746015884</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
     <sheet name="model2(1)&amp;RSI" sheetId="11" r:id="rId2"/>
     <sheet name="model2(2)&amp;RSI" sheetId="15" r:id="rId3"/>
-    <sheet name="model2(2)turnover&amp;RSI" sheetId="13" r:id="rId4"/>
+    <sheet name="model2(2)vol&amp;RSI" sheetId="13" r:id="rId4"/>
     <sheet name="model2(1)&amp;KDJ" sheetId="10" r:id="rId5"/>
-    <sheet name="model2(2)turnover" sheetId="9" r:id="rId6"/>
+    <sheet name="model2(2)vol" sheetId="9" r:id="rId6"/>
     <sheet name="model2(2)" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -21,50 +21,50 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'model2(1)&amp;RSI'!$Q$1:$Q$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'model2(2)'!$P$1:$P$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'model2(2)&amp;RSI'!$Q$1:$Q$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model2(2)turnover'!$S$1:$S$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(2)turnover&amp;RSI'!$S$1:$S$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'model2(2)vol'!$S$1:$S$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'model2(2)vol&amp;RSI'!$S$1:$S$23</definedName>
     <definedName name="金额" localSheetId="0">OFFSET('model2(1)'!K1,0,0,COUNTA('model2(1)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!K1,0,0,COUNTA('model2(1)&amp;KDJ'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET('model2(1)&amp;RSI'!K1,0,0,COUNTA('model2(1)&amp;RSI'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="6">OFFSET('model2(2)'!K1,0,0,COUNTA('model2(2)'!K:K)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET('model2(2)&amp;RSI'!K1,0,0,COUNTA('model2(2)&amp;RSI'!K:K)-1)</definedName>
-    <definedName name="金额" localSheetId="5">OFFSET('model2(2)turnover'!M1,0,0,COUNTA('model2(2)turnover'!M:M)-1)</definedName>
-    <definedName name="金额" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!M1,0,0,COUNTA('model2(2)turnover&amp;RSI'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="5">OFFSET('model2(2)vol'!M1,0,0,COUNTA('model2(2)vol'!M:M)-1)</definedName>
+    <definedName name="金额" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!M1,0,0,COUNTA('model2(2)vol&amp;RSI'!M:M)-1)</definedName>
     <definedName name="买卖" localSheetId="0">OFFSET('model2(1)'!E1,0,0,COUNTA('model2(1)'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!E1,0,0,COUNTA('model2(1)&amp;KDJ'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="1">OFFSET('model2(1)&amp;RSI'!E1,0,0,COUNTA('model2(1)&amp;RSI'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="6">OFFSET('model2(2)'!E1,0,0,COUNTA('model2(2)'!E:E)-2)</definedName>
     <definedName name="买卖" localSheetId="2">OFFSET('model2(2)&amp;RSI'!E1,0,0,COUNTA('model2(2)&amp;RSI'!E:E)-2)</definedName>
-    <definedName name="买卖" localSheetId="5">OFFSET('model2(2)turnover'!G1,0,0,COUNTA('model2(2)turnover'!G:G)-2)</definedName>
-    <definedName name="买卖" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!G1,0,0,COUNTA('model2(2)turnover&amp;RSI'!G:G)-2)</definedName>
+    <definedName name="买卖" localSheetId="5">OFFSET('model2(2)vol'!G1,0,0,COUNTA('model2(2)vol'!G:G)-2)</definedName>
+    <definedName name="买卖" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!G1,0,0,COUNTA('model2(2)vol&amp;RSI'!G:G)-2)</definedName>
     <definedName name="时间" localSheetId="0">OFFSET('model2(1)'!A1,0,0,COUNTA('model2(1)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!A1,0,0,COUNTA('model2(1)&amp;KDJ'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="1">OFFSET('model2(1)&amp;RSI'!A1,0,0,COUNTA('model2(1)&amp;RSI'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="6">OFFSET('model2(2)'!A1,0,0,COUNTA('model2(2)'!A:A)-1)</definedName>
     <definedName name="时间" localSheetId="2">OFFSET('model2(2)&amp;RSI'!A1,0,0,COUNTA('model2(2)&amp;RSI'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="5">OFFSET('model2(2)turnover'!A1,0,0,COUNTA('model2(2)turnover'!A:A)-1)</definedName>
-    <definedName name="时间" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!A1,0,0,COUNTA('model2(2)turnover&amp;RSI'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="5">OFFSET('model2(2)vol'!A1,0,0,COUNTA('model2(2)vol'!A:A)-1)</definedName>
+    <definedName name="时间" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!A1,0,0,COUNTA('model2(2)vol&amp;RSI'!A:A)-1)</definedName>
     <definedName name="指数" localSheetId="0">OFFSET('model2(1)'!B1,0,0,COUNTA('model2(1)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!B1,0,0,COUNTA('model2(1)&amp;KDJ'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="1">OFFSET('model2(1)&amp;RSI'!B1,0,0,COUNTA('model2(1)&amp;RSI'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="6">OFFSET('model2(2)'!B1,0,0,COUNTA('model2(2)'!B:B)-1)</definedName>
     <definedName name="指数" localSheetId="2">OFFSET('model2(2)&amp;RSI'!B1,0,0,COUNTA('model2(2)&amp;RSI'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="5">OFFSET('model2(2)turnover'!B1,0,0,COUNTA('model2(2)turnover'!B:B)-1)</definedName>
-    <definedName name="指数" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!B1,0,0,COUNTA('model2(2)turnover&amp;RSI'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="5">OFFSET('model2(2)vol'!B1,0,0,COUNTA('model2(2)vol'!B:B)-1)</definedName>
+    <definedName name="指数" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!B1,0,0,COUNTA('model2(2)vol&amp;RSI'!B:B)-1)</definedName>
     <definedName name="资产" localSheetId="0">OFFSET('model2(1)'!J1,0,0,COUNTA('model2(1)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!J1,0,0,COUNTA('model2(1)&amp;KDJ'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="1">OFFSET('model2(1)&amp;RSI'!J1,0,0,COUNTA('model2(1)&amp;RSI'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="6">OFFSET('model2(2)'!J1,0,0,COUNTA('model2(2)'!J:J)-1)</definedName>
     <definedName name="资产" localSheetId="2">OFFSET('model2(2)&amp;RSI'!J1,0,0,COUNTA('model2(2)&amp;RSI'!J:J)-1)</definedName>
-    <definedName name="资产" localSheetId="5">OFFSET('model2(2)turnover'!L1,0,0,COUNTA('model2(2)turnover'!L:L)-1)</definedName>
-    <definedName name="资产" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!L1,0,0,COUNTA('model2(2)turnover&amp;RSI'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="5">OFFSET('model2(2)vol'!L1,0,0,COUNTA('model2(2)vol'!L:L)-1)</definedName>
+    <definedName name="资产" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!L1,0,0,COUNTA('model2(2)vol&amp;RSI'!L:L)-1)</definedName>
     <definedName name="资金" localSheetId="0">OFFSET('model2(1)'!I1,0,0,COUNTA('model2(1)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="4">OFFSET('model2(1)&amp;KDJ'!I1,0,0,COUNTA('model2(1)&amp;KDJ'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="1">OFFSET('model2(1)&amp;RSI'!I1,0,0,COUNTA('model2(1)&amp;RSI'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="6">OFFSET('model2(2)'!I1,0,0,COUNTA('model2(2)'!I:I)-1)</definedName>
     <definedName name="资金" localSheetId="2">OFFSET('model2(2)&amp;RSI'!I1,0,0,COUNTA('model2(2)&amp;RSI'!I:I)-1)</definedName>
-    <definedName name="资金" localSheetId="5">OFFSET('model2(2)turnover'!K1,0,0,COUNTA('model2(2)turnover'!K:K)-1)</definedName>
-    <definedName name="资金" localSheetId="3">OFFSET('model2(2)turnover&amp;RSI'!K1,0,0,COUNTA('model2(2)turnover&amp;RSI'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="5">OFFSET('model2(2)vol'!K1,0,0,COUNTA('model2(2)vol'!K:K)-1)</definedName>
+    <definedName name="资金" localSheetId="3">OFFSET('model2(2)vol&amp;RSI'!K1,0,0,COUNTA('model2(2)vol&amp;RSI'!K:K)-1)</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -130,12 +130,6 @@
     <t>sign</t>
   </si>
   <si>
-    <t>turnover</t>
-  </si>
-  <si>
-    <t>turnover mean</t>
-  </si>
-  <si>
     <t>in practice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,6 +147,14 @@
   </si>
   <si>
     <t>sign</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -660,6 +662,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,7 +674,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -747,6 +752,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +797,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -867,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,7 +887,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -954,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +1010,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1074,6 +1088,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1100,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395471872"/>
-        <c:axId val="395539584"/>
+        <c:axId val="461564928"/>
+        <c:axId val="466637568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395471872"/>
+        <c:axId val="461564928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,14 +1249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395539584"/>
+        <c:crossAx val="466637568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395539584"/>
+        <c:axId val="466637568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395471872"/>
+        <c:crossAx val="461564928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1448,7 +1468,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1526,6 +1546,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,8 +1563,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396436992"/>
-        <c:axId val="396435456"/>
+        <c:axId val="461540352"/>
+        <c:axId val="461538816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1566,7 +1589,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1644,6 +1667,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1679,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1731,6 +1757,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,11 +1776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396428032"/>
-        <c:axId val="396429568"/>
+        <c:axId val="461535488"/>
+        <c:axId val="461537280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396428032"/>
+        <c:axId val="461535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,14 +1823,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396429568"/>
+        <c:crossAx val="461537280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396429568"/>
+        <c:axId val="461537280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,12 +1881,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396428032"/>
+        <c:crossAx val="461535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396435456"/>
+        <c:axId val="461538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,12 +1923,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396436992"/>
+        <c:crossAx val="461540352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396436992"/>
+        <c:axId val="461540352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396435456"/>
+        <c:crossAx val="461538816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2061,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$K$1</c:f>
+              <c:f>'model2(2)vol'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2055,10 +2084,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2136,16 +2165,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!资金</c:f>
+              <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2223,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1750125.8271918723</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1941661.3272682622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2239,7 +2274,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$L$1</c:f>
+              <c:f>'model2(2)vol'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2262,10 +2297,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2343,16 +2378,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!资产</c:f>
+              <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2430,6 +2468,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1787717.2452937281</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1868841.842864583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2487,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover'!$M$1</c:f>
+              <c:f>'model2(2)vol'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2469,10 +2510,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2550,16 +2591,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!金额</c:f>
+              <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2637,6 +2681,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>37591.418101855787</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-72819.484403679147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,11 +2705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396559104"/>
-        <c:axId val="396560640"/>
+        <c:axId val="490072320"/>
+        <c:axId val="500101120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396559104"/>
+        <c:axId val="490072320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,14 +2752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396560640"/>
+        <c:crossAx val="500101120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396560640"/>
+        <c:axId val="500101120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,7 +2810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396559104"/>
+        <c:crossAx val="490072320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,10 +2968,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!买卖</c:f>
+              <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3002,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90553.794089931776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>191535.50007638987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,8 +3066,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396588160"/>
-        <c:axId val="396586368"/>
+        <c:axId val="500460160"/>
+        <c:axId val="500458624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3039,10 +3089,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover'!时间</c:f>
+              <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3120,16 +3170,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover'!指数</c:f>
+              <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3207,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,11 +3279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396583296"/>
-        <c:axId val="396584832"/>
+        <c:axId val="500451200"/>
+        <c:axId val="500452736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396583296"/>
+        <c:axId val="500451200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3270,14 +3326,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396584832"/>
+        <c:crossAx val="500452736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396584832"/>
+        <c:axId val="500452736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,12 +3384,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396583296"/>
+        <c:crossAx val="500451200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396586368"/>
+        <c:axId val="500458624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,12 +3426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396588160"/>
+        <c:crossAx val="500460160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396588160"/>
+        <c:axId val="500460160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +3440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396586368"/>
+        <c:crossAx val="500458624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3534,7 +3590,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3612,6 +3668,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,7 +3680,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3699,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5099420.2574212886</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5355510.8810719606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,7 +3803,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3819,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3828,7 +3893,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3906,6 +3971,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5116912.1641673045</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5056978.0408539018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,7 +4016,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4026,6 +4094,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4106,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4113,6 +4184,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>17491.906746015884</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-298532.84021805879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,11 +4208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396673792"/>
-        <c:axId val="396675328"/>
+        <c:axId val="500492544"/>
+        <c:axId val="501030912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396673792"/>
+        <c:axId val="500492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4181,14 +4255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396675328"/>
+        <c:crossAx val="501030912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396675328"/>
+        <c:axId val="501030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4239,7 +4313,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396673792"/>
+        <c:crossAx val="500492544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4400,7 +4474,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4478,6 +4552,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,8 +4569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="396788864"/>
-        <c:axId val="396774784"/>
+        <c:axId val="501066368"/>
+        <c:axId val="501064832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4518,7 +4595,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4596,6 +4673,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4605,7 +4685,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4683,6 +4763,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4699,11 +4782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="396771712"/>
-        <c:axId val="396773248"/>
+        <c:axId val="501057408"/>
+        <c:axId val="501058944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="396771712"/>
+        <c:axId val="501057408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,14 +4829,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396773248"/>
+        <c:crossAx val="501058944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="396773248"/>
+        <c:axId val="501058944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,12 +4887,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396771712"/>
+        <c:crossAx val="501057408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396774784"/>
+        <c:axId val="501064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4846,12 +4929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396788864"/>
+        <c:crossAx val="501066368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="396788864"/>
+        <c:axId val="501066368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4860,7 +4943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="396774784"/>
+        <c:crossAx val="501064832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4992,7 +5075,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5070,6 +5153,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5084,8 +5170,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563525120"/>
-        <c:axId val="521067904"/>
+        <c:axId val="577230720"/>
+        <c:axId val="577228800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5110,7 +5196,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5188,6 +5274,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5197,7 +5286,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5275,6 +5364,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5291,11 +5383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521064448"/>
-        <c:axId val="521065984"/>
+        <c:axId val="508563840"/>
+        <c:axId val="508565376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521064448"/>
+        <c:axId val="508563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,14 +5430,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521065984"/>
+        <c:crossAx val="508565376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521065984"/>
+        <c:axId val="508565376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,12 +5488,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521064448"/>
+        <c:crossAx val="508563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521067904"/>
+        <c:axId val="577228800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5438,12 +5530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563525120"/>
+        <c:crossAx val="577230720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563525120"/>
+        <c:axId val="577230720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521067904"/>
+        <c:crossAx val="577228800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5602,7 +5694,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5680,6 +5772,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,7 +5784,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5767,6 +5862,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>833657.54505329835</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>863872.29413361812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5809,7 +5907,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5887,6 +5985,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5896,7 +5997,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5974,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>808345.32219024934</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>788635.99250805273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,7 +6120,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6094,6 +6198,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,7 +6210,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6181,6 +6288,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-25312.222863049014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-75236.301625565393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6202,11 +6312,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390837760"/>
-        <c:axId val="390839296"/>
+        <c:axId val="609236864"/>
+        <c:axId val="609555200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="390837760"/>
+        <c:axId val="609236864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6249,14 +6359,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390839296"/>
+        <c:crossAx val="609555200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="390839296"/>
+        <c:axId val="609555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6307,7 +6417,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390837760"/>
+        <c:crossAx val="609236864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6477,7 +6587,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6555,6 +6665,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>25715.964192506101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30214.749080319823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,8 +6682,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391469312"/>
-        <c:axId val="391467776"/>
+        <c:axId val="338927616"/>
+        <c:axId val="338925824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6595,7 +6708,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6673,6 +6786,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,7 +6798,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6760,6 +6876,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6776,11 +6895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391460352"/>
-        <c:axId val="391461888"/>
+        <c:axId val="338922496"/>
+        <c:axId val="338924288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391460352"/>
+        <c:axId val="338922496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,14 +6942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391461888"/>
+        <c:crossAx val="338924288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391461888"/>
+        <c:axId val="338924288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6881,12 +7000,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391460352"/>
+        <c:crossAx val="338922496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391467776"/>
+        <c:axId val="338925824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6923,12 +7042,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391469312"/>
+        <c:crossAx val="338927616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391469312"/>
+        <c:axId val="338927616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +7056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391467776"/>
+        <c:crossAx val="338925824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7087,7 +7206,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7165,6 +7284,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7174,7 +7296,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7252,6 +7374,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6461175.5944266198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6704461.6868947577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7294,7 +7419,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7372,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7381,7 +7509,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7459,6 +7587,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>6431544.5871256161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6277613.1418435639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7501,7 +7632,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7579,6 +7710,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7588,7 +7722,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7666,6 +7800,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-29631.007301003672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-426848.5450511938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7687,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391489024"/>
-        <c:axId val="391490560"/>
+        <c:axId val="338951168"/>
+        <c:axId val="339288832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391489024"/>
+        <c:axId val="338951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7734,14 +7871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391490560"/>
+        <c:crossAx val="339288832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391490560"/>
+        <c:axId val="339288832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7792,7 +7929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391489024"/>
+        <c:crossAx val="338951168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7962,7 +8099,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8040,6 +8177,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>176232.06245176709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>243286.09246813794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,8 +8194,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395446528"/>
-        <c:axId val="395444992"/>
+        <c:axId val="339333504"/>
+        <c:axId val="339315328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8080,7 +8220,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8158,6 +8298,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8167,7 +8310,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8245,6 +8388,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8261,11 +8407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391505408"/>
-        <c:axId val="391506944"/>
+        <c:axId val="339312000"/>
+        <c:axId val="339313792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391505408"/>
+        <c:axId val="339312000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8308,14 +8454,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391506944"/>
+        <c:crossAx val="339313792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391506944"/>
+        <c:axId val="339313792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8366,12 +8512,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391505408"/>
+        <c:crossAx val="339312000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395444992"/>
+        <c:axId val="339315328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8408,12 +8554,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395446528"/>
+        <c:crossAx val="339333504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395446528"/>
+        <c:axId val="339333504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8422,7 +8568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395444992"/>
+        <c:crossAx val="339315328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8546,7 +8692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;RSI'!$K$1</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8569,10 +8715,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8650,16 +8796,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!资金</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8737,6 +8886,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>289364.65418026631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>314700.67919037107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8753,7 +8905,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;RSI'!$L$1</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8776,10 +8928,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8857,16 +9009,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!资产</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8944,6 +9099,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>293574.63081519771</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300779.24269139301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8960,7 +9118,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'model2(2)turnover&amp;RSI'!$M$1</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8983,10 +9141,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9064,16 +9222,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!金额</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9151,6 +9312,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4209.9766349314013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-13921.436498978059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9172,11 +9336,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395503104"/>
-        <c:axId val="395504640"/>
+        <c:axId val="351767936"/>
+        <c:axId val="351769728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395503104"/>
+        <c:axId val="351767936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9219,14 +9383,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395504640"/>
+        <c:crossAx val="351769728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395504640"/>
+        <c:axId val="351769728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9277,7 +9441,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395503104"/>
+        <c:crossAx val="351767936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9435,10 +9599,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!买卖</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9516,6 +9680,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>11978.318332149203</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25336.025010104735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9530,8 +9697,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395544448"/>
-        <c:axId val="395542912"/>
+        <c:axId val="351796608"/>
+        <c:axId val="351795072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9553,10 +9720,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!时间</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9634,16 +9801,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'model2(2)turnover&amp;RSI'!指数</c:f>
+              <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9721,6 +9891,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9737,11 +9910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395535488"/>
-        <c:axId val="395537024"/>
+        <c:axId val="351779456"/>
+        <c:axId val="351793536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395535488"/>
+        <c:axId val="351779456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9784,14 +9957,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395537024"/>
+        <c:crossAx val="351793536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395537024"/>
+        <c:axId val="351793536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9842,12 +10015,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395535488"/>
+        <c:crossAx val="351779456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395542912"/>
+        <c:axId val="351795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9884,12 +10057,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395544448"/>
+        <c:crossAx val="351796608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395544448"/>
+        <c:axId val="351796608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9898,7 +10071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395542912"/>
+        <c:crossAx val="351795072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10048,7 +10221,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10126,6 +10299,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10135,7 +10311,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10213,6 +10389,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>671333.31071150512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>703138.30974342069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10255,7 +10434,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10333,6 +10512,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10342,7 +10524,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10420,6 +10602,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>658360.52566164348</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>649504.63158885716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10462,7 +10647,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10540,6 +10725,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10549,7 +10737,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10627,6 +10815,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12972.785049861646</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-53633.678154563531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10648,11 +10839,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395560064"/>
-        <c:axId val="395561600"/>
+        <c:axId val="461511296"/>
+        <c:axId val="461513088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395560064"/>
+        <c:axId val="461511296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10695,14 +10886,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395561600"/>
+        <c:crossAx val="461513088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395561600"/>
+        <c:axId val="461513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10753,7 +10944,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395560064"/>
+        <c:crossAx val="461511296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11605,7 +11796,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12842,6 +13033,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="32">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="31">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="29">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="29">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="30">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="30">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="30">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="30">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="30">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="30">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12858,7 +13087,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14388,6 +14617,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>30214.749080319823</v>
+      </c>
+      <c r="F29" s="18">
+        <v>42317.576534062224</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1104532.2230464271</v>
+      </c>
+      <c r="H29" s="18">
+        <v>788635.99250805273</v>
+      </c>
+      <c r="I29" s="18">
+        <v>863872.29413361812</v>
+      </c>
+      <c r="J29" s="18">
+        <v>788635.99250805273</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-75236.301625565393</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14404,7 +14683,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15934,6 +16213,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>243286.09246813794</v>
+      </c>
+      <c r="F29" s="18">
+        <v>340736.83055667428</v>
+      </c>
+      <c r="G29" s="18">
+        <v>8792175.4330977183</v>
+      </c>
+      <c r="H29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="I29" s="18">
+        <v>6704461.6868947577</v>
+      </c>
+      <c r="J29" s="18">
+        <v>6277613.1418435639</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-426848.5450511938</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15950,7 +16279,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16003,10 +16332,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -16049,7 +16378,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -17645,6 +17974,62 @@
         <v>47.786304387002254</v>
       </c>
       <c r="R28" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>25336.025010104735</v>
+      </c>
+      <c r="H29" s="18">
+        <v>35484.629529237609</v>
+      </c>
+      <c r="I29" s="18">
+        <v>421259.45142270793</v>
+      </c>
+      <c r="J29" s="18">
+        <v>300779.24269139301</v>
+      </c>
+      <c r="K29" s="18">
+        <v>314700.67919037107</v>
+      </c>
+      <c r="L29" s="18">
+        <v>300779.24269139301</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-13921.436498978059</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="P29" s="22">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>49.681012025314104</v>
+      </c>
+      <c r="R29" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -17664,7 +18049,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17741,19 +18126,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="Q1" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="P1" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19288,6 +19673,59 @@
         <v>55.446161314787332</v>
       </c>
       <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="18">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="18">
+        <v>909670.369375724</v>
+      </c>
+      <c r="H29" s="18">
+        <v>649504.63158885716</v>
+      </c>
+      <c r="I29" s="18">
+        <v>703138.30974342069</v>
+      </c>
+      <c r="J29" s="18">
+        <v>649504.63158885716</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-53633.678154563531</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="N29" s="21">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="O29" s="21">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="P29" s="21">
+        <v>63.606527967071898</v>
+      </c>
+      <c r="Q29" s="1">
         <v>1</v>
       </c>
     </row>
@@ -19307,7 +19745,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19360,10 +19798,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
@@ -20706,6 +21144,50 @@
         <v>37591.418101855787</v>
       </c>
       <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="17">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="17">
+        <v>191535.50007638987</v>
+      </c>
+      <c r="H29" s="18">
+        <v>268257.00792438001</v>
+      </c>
+      <c r="I29" s="18">
+        <v>2617425.599175049</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1868841.842864583</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1941661.3272682622</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1868841.842864583</v>
+      </c>
+      <c r="M29" s="18">
+        <v>-72819.484403679147</v>
+      </c>
+      <c r="N29" s="17">
         <v>0</v>
       </c>
     </row>
@@ -20725,7 +21207,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21962,6 +22444,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="31">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="16">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="17">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="17">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="18">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="18">
+        <v>7082602.4305558074</v>
+      </c>
+      <c r="H29" s="18">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="I29" s="18">
+        <v>5355510.8810719606</v>
+      </c>
+      <c r="J29" s="18">
+        <v>5056978.0408539018</v>
+      </c>
+      <c r="K29" s="18">
+        <v>-298532.84021805879</v>
+      </c>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -665,6 +665,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +677,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -755,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +803,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -878,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +896,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -968,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,7 +1022,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1091,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1115,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,6 +1196,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461564928"/>
-        <c:axId val="466637568"/>
+        <c:axId val="296992768"/>
+        <c:axId val="297017344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461564928"/>
+        <c:axId val="296992768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +1267,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466637568"/>
+        <c:crossAx val="297017344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="466637568"/>
+        <c:axId val="297017344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461564928"/>
+        <c:crossAx val="296992768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,7 +1486,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1549,6 +1567,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,8 +1584,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461540352"/>
-        <c:axId val="461538816"/>
+        <c:axId val="296624512"/>
+        <c:axId val="296622720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1589,7 +1610,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1670,6 +1691,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1703,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1760,6 +1784,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,11 +1803,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461535488"/>
-        <c:axId val="461537280"/>
+        <c:axId val="93449600"/>
+        <c:axId val="296621184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461535488"/>
+        <c:axId val="93449600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1850,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461537280"/>
+        <c:crossAx val="296621184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461537280"/>
+        <c:axId val="296621184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,12 +1908,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461535488"/>
+        <c:crossAx val="93449600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461538816"/>
+        <c:axId val="296622720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,12 +1950,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461540352"/>
+        <c:crossAx val="296624512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461540352"/>
+        <c:axId val="296624512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +1964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461538816"/>
+        <c:crossAx val="296622720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2114,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2168,6 +2195,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2207,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2258,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1941661.3272682622</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2078896.4840478664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2333,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2381,6 +2414,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2426,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2471,6 +2507,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1868841.842864583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1930171.6984549416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,7 +2552,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2594,6 +2633,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2645,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2684,6 +2726,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-72819.484403679147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-148724.7855929248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2705,11 +2750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490072320"/>
-        <c:axId val="500101120"/>
+        <c:axId val="297012608"/>
+        <c:axId val="297022592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490072320"/>
+        <c:axId val="297012608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,14 +2797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500101120"/>
+        <c:crossAx val="297022592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500101120"/>
+        <c:axId val="297022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490072320"/>
+        <c:crossAx val="297012608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2971,7 +3016,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3052,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>191535.50007638987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137235.15677960418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,8 +3114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500460160"/>
-        <c:axId val="500458624"/>
+        <c:axId val="297058304"/>
+        <c:axId val="297044224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3092,7 +3140,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3173,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3233,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3263,6 +3314,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3279,11 +3333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500451200"/>
-        <c:axId val="500452736"/>
+        <c:axId val="297036800"/>
+        <c:axId val="297042688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500451200"/>
+        <c:axId val="297036800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,14 +3380,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500452736"/>
+        <c:crossAx val="297042688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500452736"/>
+        <c:axId val="297042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,12 +3438,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500451200"/>
+        <c:crossAx val="297036800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500458624"/>
+        <c:axId val="297044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,12 +3480,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500460160"/>
+        <c:crossAx val="297058304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500460160"/>
+        <c:axId val="297058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500458624"/>
+        <c:crossAx val="297044224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +3644,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3671,6 +3725,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,7 +3737,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3761,6 +3818,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5355510.8810719606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5703941.5221370691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,7 +3863,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3884,6 +3944,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3956,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3974,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5056978.0408539018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5200013.3228820767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,7 +4082,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4097,6 +4163,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,7 +4175,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4187,6 +4256,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-298532.84021805879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-503928.19925499242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,11 +4280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500492544"/>
-        <c:axId val="501030912"/>
+        <c:axId val="297074048"/>
+        <c:axId val="324981888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500492544"/>
+        <c:axId val="297074048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4255,14 +4327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501030912"/>
+        <c:crossAx val="324981888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501030912"/>
+        <c:axId val="324981888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,7 +4385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500492544"/>
+        <c:crossAx val="297074048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4474,7 +4546,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4555,6 +4627,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,8 +4644,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501066368"/>
-        <c:axId val="501064832"/>
+        <c:axId val="325152768"/>
+        <c:axId val="325150976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4595,7 +4670,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4676,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,7 +4763,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4766,6 +4844,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4782,11 +4863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501057408"/>
-        <c:axId val="501058944"/>
+        <c:axId val="325135360"/>
+        <c:axId val="325149440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501057408"/>
+        <c:axId val="325135360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4829,14 +4910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501058944"/>
+        <c:crossAx val="325149440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501058944"/>
+        <c:axId val="325149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,12 +4968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501057408"/>
+        <c:crossAx val="325135360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501064832"/>
+        <c:axId val="325150976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,12 +5010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501066368"/>
+        <c:crossAx val="325152768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501066368"/>
+        <c:axId val="325152768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4943,7 +5024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501064832"/>
+        <c:crossAx val="325150976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5075,7 +5156,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5156,6 +5237,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,8 +5254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="577230720"/>
-        <c:axId val="577228800"/>
+        <c:axId val="451180800"/>
+        <c:axId val="451178880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5196,7 +5280,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5277,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,7 +5373,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5367,6 +5454,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,11 +5473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508563840"/>
-        <c:axId val="508565376"/>
+        <c:axId val="446275968"/>
+        <c:axId val="446278272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508563840"/>
+        <c:axId val="446275968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,14 +5520,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508565376"/>
+        <c:crossAx val="446278272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508565376"/>
+        <c:axId val="446278272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,12 +5578,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508563840"/>
+        <c:crossAx val="446275968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="577228800"/>
+        <c:axId val="451178880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,12 +5620,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577230720"/>
+        <c:crossAx val="451180800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="577230720"/>
+        <c:axId val="451180800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,7 +5634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="577228800"/>
+        <c:crossAx val="451178880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5694,7 +5784,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5775,6 +5865,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,7 +5877,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5865,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>863872.29413361812</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>899115.89896579983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +6003,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5988,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,7 +6096,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6078,6 +6177,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>788635.99250805273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>791848.18025239441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6120,7 +6222,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6201,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6210,7 +6315,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6291,6 +6396,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-75236.301625565393</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-107267.71871340543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6312,11 +6420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609236864"/>
-        <c:axId val="609555200"/>
+        <c:axId val="482573696"/>
+        <c:axId val="517658112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609236864"/>
+        <c:axId val="482573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,14 +6467,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555200"/>
+        <c:crossAx val="517658112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609555200"/>
+        <c:axId val="517658112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,7 +6525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609236864"/>
+        <c:crossAx val="482573696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6587,7 +6695,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6668,6 +6776,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>30214.749080319823</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35243.604832181671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,8 +6793,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="338927616"/>
-        <c:axId val="338925824"/>
+        <c:axId val="79438976"/>
+        <c:axId val="79433088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6708,7 +6819,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6789,6 +6900,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,7 +6912,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6879,6 +6993,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,11 +7012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338922496"/>
-        <c:axId val="338924288"/>
+        <c:axId val="79430016"/>
+        <c:axId val="79431552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="338922496"/>
+        <c:axId val="79430016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,14 +7059,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338924288"/>
+        <c:crossAx val="79431552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="338924288"/>
+        <c:axId val="79431552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7000,12 +7117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338922496"/>
+        <c:crossAx val="79430016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338925824"/>
+        <c:axId val="79433088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7042,12 +7159,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338927616"/>
+        <c:crossAx val="79438976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="338927616"/>
+        <c:axId val="79438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7056,7 +7173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338925824"/>
+        <c:crossAx val="79433088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7206,7 +7323,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7287,6 +7404,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7296,7 +7416,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7377,6 +7497,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6704461.6868947577</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7035470.7959066108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7419,7 +7542,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7500,6 +7623,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7509,7 +7635,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7590,6 +7716,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>6277613.1418435639</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6353649.30164597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,7 +7761,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7713,6 +7842,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,7 +7854,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7803,6 +7935,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-426848.5450511938</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-681821.49426064081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7824,11 +7959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338951168"/>
-        <c:axId val="339288832"/>
+        <c:axId val="79458688"/>
+        <c:axId val="79460224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="338951168"/>
+        <c:axId val="79458688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,14 +8006,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339288832"/>
+        <c:crossAx val="79460224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339288832"/>
+        <c:axId val="79460224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +8064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338951168"/>
+        <c:crossAx val="79458688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8099,7 +8234,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8180,6 +8315,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>243286.09246813794</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>331009.10901185323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8194,8 +8332,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="339333504"/>
-        <c:axId val="339315328"/>
+        <c:axId val="79488128"/>
+        <c:axId val="79478144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8220,7 +8358,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8301,6 +8439,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8310,7 +8451,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8391,6 +8532,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8407,11 +8551,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="339312000"/>
-        <c:axId val="339313792"/>
+        <c:axId val="79475072"/>
+        <c:axId val="79476608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="339312000"/>
+        <c:axId val="79475072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8454,14 +8598,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339313792"/>
+        <c:crossAx val="79476608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="339313792"/>
+        <c:axId val="79476608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,12 +8656,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339312000"/>
+        <c:crossAx val="79475072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339315328"/>
+        <c:axId val="79478144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8554,12 +8698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339333504"/>
+        <c:crossAx val="79488128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="339333504"/>
+        <c:axId val="79488128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8568,7 +8712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339315328"/>
+        <c:crossAx val="79478144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8718,7 +8862,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8799,6 +8943,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8808,7 +8955,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8889,6 +9036,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>314700.67919037107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>332853.93727071112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8931,7 +9081,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9012,6 +9162,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9021,7 +9174,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9102,6 +9255,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>300779.24269139301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>306715.9833092558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9144,7 +9300,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9225,6 +9381,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9234,7 +9393,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9315,6 +9474,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-13921.436498978059</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-26137.953961455321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9336,11 +9498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="351767936"/>
-        <c:axId val="351769728"/>
+        <c:axId val="79556992"/>
+        <c:axId val="79558528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="351767936"/>
+        <c:axId val="79556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9383,14 +9545,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351769728"/>
+        <c:crossAx val="79558528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="351769728"/>
+        <c:axId val="79558528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9441,7 +9603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351767936"/>
+        <c:crossAx val="79556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9602,7 +9764,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9683,6 +9845,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>25336.025010104735</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18153.258080340041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9697,8 +9862,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="351796608"/>
-        <c:axId val="351795072"/>
+        <c:axId val="93401856"/>
+        <c:axId val="93400064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9723,7 +9888,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9804,6 +9969,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9813,7 +9981,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9894,6 +10062,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9910,11 +10081,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="351779456"/>
-        <c:axId val="351793536"/>
+        <c:axId val="93396992"/>
+        <c:axId val="93398528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="351779456"/>
+        <c:axId val="93396992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9957,14 +10128,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351793536"/>
+        <c:crossAx val="93398528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="351793536"/>
+        <c:axId val="93398528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10015,12 +10186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351779456"/>
+        <c:crossAx val="93396992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="351795072"/>
+        <c:axId val="93400064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10057,12 +10228,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351796608"/>
+        <c:crossAx val="93401856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="351796608"/>
+        <c:axId val="93401856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10071,7 +10242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351795072"/>
+        <c:crossAx val="93400064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10221,7 +10392,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10302,6 +10473,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10311,7 +10485,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10392,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>703138.30974342069</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>740236.84114571719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10434,7 +10611,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10515,6 +10692,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10704,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10605,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>649504.63158885716</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>660222.73659349058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10647,7 +10830,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10728,6 +10911,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10737,7 +10923,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10818,6 +11004,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-53633.678154563531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-80014.104552226607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10839,11 +11028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461511296"/>
-        <c:axId val="461513088"/>
+        <c:axId val="93437952"/>
+        <c:axId val="93439488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461511296"/>
+        <c:axId val="93437952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10886,14 +11075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461513088"/>
+        <c:crossAx val="93439488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461513088"/>
+        <c:axId val="93439488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10944,7 +11133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461511296"/>
+        <c:crossAx val="93437952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11796,7 +11985,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13071,6 +13260,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="31">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="29">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="29">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="30">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="30">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="30">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="30">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="30">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="30">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13087,7 +13314,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14667,6 +14894,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>35243.604832181671</v>
+      </c>
+      <c r="F30" s="18">
+        <v>51450.517824108145</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1155982.7408705354</v>
+      </c>
+      <c r="H30" s="18">
+        <v>791848.18025239441</v>
+      </c>
+      <c r="I30" s="18">
+        <v>899115.89896579983</v>
+      </c>
+      <c r="J30" s="18">
+        <v>791848.18025239441</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-107267.71871340543</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14683,7 +14960,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16263,6 +16540,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>331009.10901185323</v>
+      </c>
+      <c r="F30" s="18">
+        <v>483224.97497774469</v>
+      </c>
+      <c r="G30" s="18">
+        <v>9275400.408075463</v>
+      </c>
+      <c r="H30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="I30" s="18">
+        <v>7035470.7959066108</v>
+      </c>
+      <c r="J30" s="18">
+        <v>6353649.30164597</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-681821.49426064081</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16279,7 +16606,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18033,6 +18360,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>18153.258080340041</v>
+      </c>
+      <c r="H30" s="18">
+        <v>26501.106594389021</v>
+      </c>
+      <c r="I30" s="18">
+        <v>447760.55801709695</v>
+      </c>
+      <c r="J30" s="18">
+        <v>306715.9833092558</v>
+      </c>
+      <c r="K30" s="18">
+        <v>332853.93727071112</v>
+      </c>
+      <c r="L30" s="18">
+        <v>306715.9833092558</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-26137.953961455321</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="P30" s="22">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>37.04486140194178</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -18049,7 +18432,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19729,6 +20112,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="18">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="18">
+        <v>963828.80919057468</v>
+      </c>
+      <c r="H30" s="18">
+        <v>660222.73659349058</v>
+      </c>
+      <c r="I30" s="18">
+        <v>740236.84114571719</v>
+      </c>
+      <c r="J30" s="18">
+        <v>660222.73659349058</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-80014.104552226607</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="N30" s="21">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="O30" s="21">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="P30" s="21">
+        <v>36.498414111193014</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19745,7 +20181,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21191,6 +21627,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="17">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="17">
+        <v>137235.15677960418</v>
+      </c>
+      <c r="H30" s="18">
+        <v>200343.29387145772</v>
+      </c>
+      <c r="I30" s="18">
+        <v>2817768.8930465067</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1930171.6984549416</v>
+      </c>
+      <c r="K30" s="18">
+        <v>2078896.4840478664</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1930171.6984549416</v>
+      </c>
+      <c r="M30" s="18">
+        <v>-148724.7855929248</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -21207,7 +21687,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22482,6 +22962,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="15">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="16">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="17">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="17">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="18">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="18">
+        <v>7591260.2989534335</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="I30" s="18">
+        <v>5703941.5221370691</v>
+      </c>
+      <c r="J30" s="18">
+        <v>5200013.3228820767</v>
+      </c>
+      <c r="K30" s="18">
+        <v>-503928.19925499242</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -668,6 +668,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +680,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +809,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -887,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +905,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -980,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1034,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1106,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,7 +1130,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1199,6 +1214,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296992768"/>
-        <c:axId val="297017344"/>
+        <c:axId val="447552128"/>
+        <c:axId val="447619840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="296992768"/>
+        <c:axId val="447552128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,14 +1285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297017344"/>
+        <c:crossAx val="447619840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="297017344"/>
+        <c:axId val="447619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296992768"/>
+        <c:crossAx val="447552128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,7 +1504,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1570,6 +1588,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1584,8 +1605,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="296624512"/>
-        <c:axId val="296622720"/>
+        <c:axId val="484604928"/>
+        <c:axId val="484603392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1610,7 +1631,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1694,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1703,7 +1727,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1787,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,11 +1830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93449600"/>
-        <c:axId val="296621184"/>
+        <c:axId val="484600064"/>
+        <c:axId val="484601856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93449600"/>
+        <c:axId val="484600064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,14 +1877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296621184"/>
+        <c:crossAx val="484601856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="296621184"/>
+        <c:axId val="484601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,12 +1935,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93449600"/>
+        <c:crossAx val="484600064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296622720"/>
+        <c:axId val="484603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1977,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296624512"/>
+        <c:crossAx val="484604928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="296624512"/>
+        <c:axId val="484604928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296622720"/>
+        <c:crossAx val="484603392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2141,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2198,6 +2225,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2237,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2291,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2078896.4840478664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2366634.0857381918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,7 +2366,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2417,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2426,7 +2462,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2510,6 +2546,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1930171.6984549416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2155918.3428461198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2552,7 +2591,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2636,6 +2675,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,7 +2687,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2729,6 +2771,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-148724.7855929248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-210715.74289207207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2750,11 +2795,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297012608"/>
-        <c:axId val="297022592"/>
+        <c:axId val="484616448"/>
+        <c:axId val="484618240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="297012608"/>
+        <c:axId val="484616448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,14 +2842,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297022592"/>
+        <c:crossAx val="484618240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="297022592"/>
+        <c:axId val="484618240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,7 +2900,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297012608"/>
+        <c:crossAx val="484616448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,7 +3061,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3100,6 +3145,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>137235.15677960418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>287737.60169032536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3114,8 +3162,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297058304"/>
-        <c:axId val="297044224"/>
+        <c:axId val="485497472"/>
+        <c:axId val="485495936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3140,7 +3188,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3224,6 +3272,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3284,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3317,6 +3368,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3333,11 +3387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297036800"/>
-        <c:axId val="297042688"/>
+        <c:axId val="484636544"/>
+        <c:axId val="484638080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="297036800"/>
+        <c:axId val="484636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,14 +3434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297042688"/>
+        <c:crossAx val="484638080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="297042688"/>
+        <c:axId val="484638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,12 +3492,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297036800"/>
+        <c:crossAx val="484636544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="297044224"/>
+        <c:axId val="485495936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,12 +3534,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297058304"/>
+        <c:crossAx val="485497472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="297058304"/>
+        <c:axId val="485497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297044224"/>
+        <c:crossAx val="485495936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3644,7 +3698,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3728,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,7 +3794,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3821,6 +3878,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5703941.5221370691</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6068134.445580963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3923,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3947,6 +4007,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +4019,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4040,6 +4103,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5200013.3228820767</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5397198.4075353509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,7 +4148,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4166,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,7 +4244,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4259,6 +4328,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-503928.19925499242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-670936.03804561216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,11 +4352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297074048"/>
-        <c:axId val="324981888"/>
+        <c:axId val="485554432"/>
+        <c:axId val="497025024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="297074048"/>
+        <c:axId val="485554432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,14 +4399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324981888"/>
+        <c:crossAx val="497025024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="324981888"/>
+        <c:axId val="497025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297074048"/>
+        <c:crossAx val="485554432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4546,7 +4618,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4630,6 +4702,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,8 +4719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="325152768"/>
-        <c:axId val="325150976"/>
+        <c:axId val="497052288"/>
+        <c:axId val="497050752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4670,7 +4745,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4754,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4841,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4847,6 +4925,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4863,11 +4944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="325135360"/>
-        <c:axId val="325149440"/>
+        <c:axId val="497043328"/>
+        <c:axId val="497044864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="325135360"/>
+        <c:axId val="497043328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4910,14 +4991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325149440"/>
+        <c:crossAx val="497044864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="325149440"/>
+        <c:axId val="497044864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4968,12 +5049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325135360"/>
+        <c:crossAx val="497043328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325150976"/>
+        <c:axId val="497050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5010,12 +5091,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325152768"/>
+        <c:crossAx val="497052288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="325152768"/>
+        <c:axId val="497052288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="325150976"/>
+        <c:crossAx val="497050752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5156,7 +5237,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5240,6 +5321,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,8 +5338,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451180800"/>
-        <c:axId val="451178880"/>
+        <c:axId val="504877824"/>
+        <c:axId val="504785536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5280,7 +5364,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5364,6 +5448,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5373,7 +5460,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5457,6 +5544,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5473,11 +5563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446275968"/>
-        <c:axId val="446278272"/>
+        <c:axId val="504781824"/>
+        <c:axId val="504783616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446275968"/>
+        <c:axId val="504781824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5520,14 +5610,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446278272"/>
+        <c:crossAx val="504783616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446278272"/>
+        <c:axId val="504783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,12 +5668,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446275968"/>
+        <c:crossAx val="504781824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451178880"/>
+        <c:axId val="504785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,12 +5710,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451180800"/>
+        <c:crossAx val="504877824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451180800"/>
+        <c:axId val="504877824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5634,7 +5724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451178880"/>
+        <c:crossAx val="504785536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5784,7 +5874,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5868,6 +5958,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5877,7 +5970,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5961,6 +6054,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>899115.89896579983</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>935147.86044393829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6003,7 +6099,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6087,6 +6183,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6096,7 +6195,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6180,6 +6279,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>791848.18025239441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>802448.50434369978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6222,7 +6324,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6306,6 +6408,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,7 +6420,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6399,6 +6504,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-107267.71871340543</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-132699.35610023851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,11 +6528,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482573696"/>
-        <c:axId val="517658112"/>
+        <c:axId val="579819392"/>
+        <c:axId val="579837952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482573696"/>
+        <c:axId val="579819392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6467,14 +6575,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517658112"/>
+        <c:crossAx val="579837952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517658112"/>
+        <c:axId val="579837952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,7 +6633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482573696"/>
+        <c:crossAx val="579819392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6695,7 +6803,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6779,6 +6887,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>35243.604832181671</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>36031.961478138437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6793,8 +6904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79438976"/>
-        <c:axId val="79433088"/>
+        <c:axId val="481185792"/>
+        <c:axId val="481184000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6819,7 +6930,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6903,6 +7014,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,7 +7026,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6996,6 +7110,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7012,11 +7129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79430016"/>
-        <c:axId val="79431552"/>
+        <c:axId val="481180672"/>
+        <c:axId val="481182464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79430016"/>
+        <c:axId val="481180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7059,14 +7176,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79431552"/>
+        <c:crossAx val="481182464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79431552"/>
+        <c:axId val="481182464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,12 +7234,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79430016"/>
+        <c:crossAx val="481180672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79433088"/>
+        <c:axId val="481184000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7159,12 +7276,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79438976"/>
+        <c:crossAx val="481185792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79438976"/>
+        <c:axId val="481185792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79433088"/>
+        <c:crossAx val="481184000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7323,7 +7440,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7407,6 +7524,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7416,7 +7536,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7500,6 +7620,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7035470.7959066108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7381454.0731783099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,7 +7665,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7626,6 +7749,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7635,7 +7761,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7719,6 +7845,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6353649.30164597</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6495573.6328314869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,7 +7890,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7845,6 +7974,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +7986,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7938,6 +8070,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-681821.49426064081</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-885880.44034682307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,11 +8094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79458688"/>
-        <c:axId val="79460224"/>
+        <c:axId val="484129792"/>
+        <c:axId val="484131584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79458688"/>
+        <c:axId val="484129792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,14 +8141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79460224"/>
+        <c:crossAx val="484131584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79460224"/>
+        <c:axId val="484131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8064,7 +8199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79458688"/>
+        <c:crossAx val="484129792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8234,7 +8369,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8318,6 +8453,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>331009.10901185323</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>345983.27727169951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8332,8 +8470,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79488128"/>
-        <c:axId val="79478144"/>
+        <c:axId val="484151680"/>
+        <c:axId val="484149888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8358,7 +8496,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8442,6 +8580,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8451,7 +8592,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8535,6 +8676,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8551,11 +8695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79475072"/>
-        <c:axId val="79476608"/>
+        <c:axId val="484142464"/>
+        <c:axId val="484148352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79475072"/>
+        <c:axId val="484142464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8598,14 +8742,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79476608"/>
+        <c:crossAx val="484148352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79476608"/>
+        <c:axId val="484148352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8656,12 +8800,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79475072"/>
+        <c:crossAx val="484142464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79478144"/>
+        <c:axId val="484149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,12 +8842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79488128"/>
+        <c:crossAx val="484151680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="79488128"/>
+        <c:axId val="484151680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8712,7 +8856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79478144"/>
+        <c:crossAx val="484149888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8862,7 +9006,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8946,6 +9090,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8955,7 +9102,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9039,6 +9186,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>332853.93727071112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370915.43015253264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9081,7 +9231,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9165,6 +9315,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9174,7 +9327,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9258,6 +9411,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>306715.9833092558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>334926.73729592608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9300,7 +9456,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9384,6 +9540,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9393,7 +9552,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9477,6 +9636,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-26137.953961455321</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-35988.692856606562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9498,11 +9660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79556992"/>
-        <c:axId val="79558528"/>
+        <c:axId val="484167040"/>
+        <c:axId val="484168832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79556992"/>
+        <c:axId val="484167040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9545,14 +9707,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79558528"/>
+        <c:crossAx val="484168832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79558528"/>
+        <c:axId val="484168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9603,7 +9765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79556992"/>
+        <c:crossAx val="484167040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9764,7 +9926,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9848,6 +10010,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>18153.258080340041</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38061.492881821512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9862,8 +10027,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93401856"/>
-        <c:axId val="93400064"/>
+        <c:axId val="484208000"/>
+        <c:axId val="484206464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9888,7 +10053,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9972,6 +10137,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9981,7 +10149,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10065,6 +10233,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10081,11 +10252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93396992"/>
-        <c:axId val="93398528"/>
+        <c:axId val="484178560"/>
+        <c:axId val="484204928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93396992"/>
+        <c:axId val="484178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10128,14 +10299,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93398528"/>
+        <c:crossAx val="484204928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93398528"/>
+        <c:axId val="484204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10186,12 +10357,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93396992"/>
+        <c:crossAx val="484178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93400064"/>
+        <c:axId val="484206464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,12 +10399,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93401856"/>
+        <c:crossAx val="484208000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="93401856"/>
+        <c:axId val="484208000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10242,7 +10413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93400064"/>
+        <c:crossAx val="484206464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10392,7 +10563,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10476,6 +10647,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10485,7 +10659,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10569,6 +10743,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>740236.84114571719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>778165.22164902079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10611,7 +10788,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10695,6 +10872,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10704,7 +10884,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10788,6 +10968,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>660222.73659349058</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>676946.86904733058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10830,7 +11013,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10914,6 +11097,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10923,7 +11109,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11007,6 +11193,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-80014.104552226607</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-101218.35260169022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11028,11 +11217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93437952"/>
-        <c:axId val="93439488"/>
+        <c:axId val="484571776"/>
+        <c:axId val="484573568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="93437952"/>
+        <c:axId val="484571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11075,14 +11264,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93439488"/>
+        <c:crossAx val="484573568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="93439488"/>
+        <c:axId val="484573568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11133,7 +11322,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93437952"/>
+        <c:crossAx val="484571776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11985,7 +12174,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13298,6 +13487,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="31">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="29">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="29">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="30">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="30">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="30">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="30">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="30">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="30">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13314,7 +13541,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14682,13 +14909,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -14732,13 +14959,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -14782,13 +15009,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -14832,13 +15059,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -14882,13 +15109,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -14932,15 +15159,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>36031.961478138437</v>
+      </c>
+      <c r="F31" s="18">
+        <v>54346.850907870263</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1210329.5917784057</v>
+      </c>
+      <c r="H31" s="18">
+        <v>802448.50434369978</v>
+      </c>
+      <c r="I31" s="18">
+        <v>935147.86044393829</v>
+      </c>
+      <c r="J31" s="18">
+        <v>802448.50434369978</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-132699.35610023851</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -14960,7 +15237,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16328,13 +16605,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="N25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="O25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="P25" s="1">
         <v>0.95</v>
@@ -16378,13 +16655,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="N26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="O26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="P26" s="1">
         <v>0.95</v>
@@ -16428,13 +16705,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="N27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="O27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="P27" s="1">
         <v>0.95</v>
@@ -16478,13 +16755,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="N28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="O28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="P28" s="1">
         <v>0.95</v>
@@ -16528,13 +16805,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="N29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="O29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="P29" s="1">
         <v>0.95</v>
@@ -16578,15 +16855,65 @@
         <v>0</v>
       </c>
       <c r="M30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="N30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="O30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="P30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>345983.27727169951</v>
+      </c>
+      <c r="F31" s="18">
+        <v>521845.07351645955</v>
+      </c>
+      <c r="G31" s="18">
+        <v>9797245.4815919232</v>
+      </c>
+      <c r="H31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="I31" s="18">
+        <v>7381454.0731783099</v>
+      </c>
+      <c r="J31" s="18">
+        <v>6495573.6328314869</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-885880.44034682307</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="N31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="O31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="P31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16606,7 +16933,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18124,13 +18451,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.3529854833592056E-2</v>
       </c>
       <c r="P25" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.129150572941633E-2</v>
       </c>
       <c r="Q25" s="22">
-        <v>48.393213658495924</v>
+        <v>43.238107333623745</v>
       </c>
       <c r="R25" s="1">
         <v>0.95</v>
@@ -18180,13 +18507,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="22">
-        <v>1.6235825800310466E-2</v>
+        <v>1.127487902799338E-2</v>
       </c>
       <c r="P26" s="22">
-        <v>3.3549798769067905E-2</v>
+        <v>3.124291452704148E-2</v>
       </c>
       <c r="Q26" s="22">
-        <v>48.393213658495924</v>
+        <v>36.087795260697291</v>
       </c>
       <c r="R26" s="1">
         <v>0.95</v>
@@ -18236,13 +18563,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="22">
-        <v>1.127487902799338E-2</v>
+        <v>1.522906029356097E-2</v>
       </c>
       <c r="P27" s="22">
-        <v>3.124291452704148E-2</v>
+        <v>3.1869089876101056E-2</v>
       </c>
       <c r="Q27" s="22">
-        <v>36.087795260697291</v>
+        <v>47.786304387002254</v>
       </c>
       <c r="R27" s="1">
         <v>0.95</v>
@@ -18292,13 +18619,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="22">
-        <v>1.522906029356097E-2</v>
+        <v>1.3690880637471666E-2</v>
       </c>
       <c r="P28" s="22">
-        <v>3.1869089876101056E-2</v>
+        <v>2.7557571956255068E-2</v>
       </c>
       <c r="Q28" s="22">
-        <v>47.786304387002254</v>
+        <v>49.681012025314104</v>
       </c>
       <c r="R28" s="1">
         <v>0.95</v>
@@ -18348,13 +18675,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="22">
-        <v>1.3690880637471666E-2</v>
+        <v>1.1409067197893056E-2</v>
       </c>
       <c r="P29" s="22">
-        <v>2.7557571956255068E-2</v>
+        <v>3.0797975120228221E-2</v>
       </c>
       <c r="Q29" s="22">
-        <v>49.681012025314104</v>
+        <v>37.04486140194178</v>
       </c>
       <c r="R29" s="1">
         <v>0.95</v>
@@ -18404,15 +18731,71 @@
         <v>0</v>
       </c>
       <c r="O30" s="22">
-        <v>1.1409067197893056E-2</v>
+        <v>9.5075559982442139E-3</v>
       </c>
       <c r="P30" s="22">
-        <v>3.0797975120228221E-2</v>
+        <v>3.0498309977585816E-2</v>
       </c>
       <c r="Q30" s="22">
-        <v>37.04486140194178</v>
+        <v>31.174042119814576</v>
       </c>
       <c r="R30" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>38061.492881821512</v>
+      </c>
+      <c r="H31" s="18">
+        <v>57407.984304000413</v>
+      </c>
+      <c r="I31" s="18">
+        <v>505168.54232109734</v>
+      </c>
+      <c r="J31" s="18">
+        <v>334926.73729592608</v>
+      </c>
+      <c r="K31" s="18">
+        <v>370915.43015253264</v>
+      </c>
+      <c r="L31" s="18">
+        <v>334926.73729592608</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-35988.692856606562</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="P31" s="22">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>31.174042119814576</v>
+      </c>
+      <c r="R31" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18432,7 +18815,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19885,16 +20268,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="21">
-        <v>51.666694813303359</v>
+        <v>48.993281878673784</v>
       </c>
       <c r="N25" s="21">
-        <v>44.636172502112707</v>
+        <v>46.088542294299735</v>
       </c>
       <c r="O25" s="21">
-        <v>37.449899885039635</v>
+        <v>40.329447354792997</v>
       </c>
       <c r="P25" s="21">
-        <v>59.008717736258845</v>
+        <v>57.606732173313205</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -19938,16 +20321,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="21">
-        <v>51.666694813303359</v>
+        <v>31.818216710700341</v>
       </c>
       <c r="N26" s="21">
-        <v>44.636172502112707</v>
+        <v>41.331767099766601</v>
       </c>
       <c r="O26" s="21">
-        <v>37.449899885039635</v>
+        <v>40.66355393645086</v>
       </c>
       <c r="P26" s="21">
-        <v>59.008717736258845</v>
+        <v>42.668193426398076</v>
       </c>
       <c r="Q26" s="1">
         <v>1</v>
@@ -19991,16 +20374,16 @@
         <v>0</v>
       </c>
       <c r="M27" s="21">
-        <v>31.818216710700341</v>
+        <v>58.333337096251995</v>
       </c>
       <c r="N27" s="21">
-        <v>41.331767099766601</v>
+        <v>46.998957098595064</v>
       </c>
       <c r="O27" s="21">
-        <v>40.66355393645086</v>
+        <v>42.775354990498926</v>
       </c>
       <c r="P27" s="21">
-        <v>42.668193426398076</v>
+        <v>55.446161314787332</v>
       </c>
       <c r="Q27" s="1">
         <v>1</v>
@@ -20044,16 +20427,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="21">
-        <v>58.333337096251995</v>
+        <v>61.111087458471879</v>
       </c>
       <c r="N28" s="21">
-        <v>46.998957098595064</v>
+        <v>51.703000551887335</v>
       </c>
       <c r="O28" s="21">
-        <v>42.775354990498926</v>
+        <v>45.751236844295057</v>
       </c>
       <c r="P28" s="21">
-        <v>55.446161314787332</v>
+        <v>63.606527967071898</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -20097,16 +20480,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="21">
-        <v>61.111087458471879</v>
+        <v>21.951223057979316</v>
       </c>
       <c r="N29" s="21">
-        <v>51.703000551887335</v>
+        <v>41.785741387251328</v>
       </c>
       <c r="O29" s="21">
-        <v>45.751236844295057</v>
+        <v>44.429405025280481</v>
       </c>
       <c r="P29" s="21">
-        <v>63.606527967071898</v>
+        <v>36.498414111193014</v>
       </c>
       <c r="Q29" s="1">
         <v>1</v>
@@ -20150,18 +20533,71 @@
         <v>0</v>
       </c>
       <c r="M30" s="21">
-        <v>21.951223057979316</v>
+        <v>7.4074008664308382</v>
       </c>
       <c r="N30" s="21">
-        <v>41.785741387251328</v>
+        <v>30.326294546977831</v>
       </c>
       <c r="O30" s="21">
-        <v>44.429405025280481</v>
+        <v>39.728368199179599</v>
       </c>
       <c r="P30" s="21">
-        <v>36.498414111193014</v>
+        <v>11.522147242574292</v>
       </c>
       <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="18">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1021036.0206725434</v>
+      </c>
+      <c r="H31" s="18">
+        <v>676946.86904733058</v>
+      </c>
+      <c r="I31" s="18">
+        <v>778165.22164902079</v>
+      </c>
+      <c r="J31" s="18">
+        <v>676946.86904733058</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-101218.35260169022</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="N31" s="21">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="O31" s="21">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="P31" s="21">
+        <v>11.522147242574292</v>
+      </c>
+      <c r="Q31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20181,7 +20617,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21671,6 +22107,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="17">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="17">
+        <v>287737.60169032536</v>
+      </c>
+      <c r="H31" s="18">
+        <v>433993.37416421372</v>
+      </c>
+      <c r="I31" s="18">
+        <v>3251762.2672107206</v>
+      </c>
+      <c r="J31" s="18">
+        <v>2155918.3428461198</v>
+      </c>
+      <c r="K31" s="18">
+        <v>2366634.0857381918</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2155918.3428461198</v>
+      </c>
+      <c r="M31" s="18">
+        <v>-210715.74289207207</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -21687,7 +22167,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23000,6 +23480,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="31">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="16">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="17">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="17">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="18">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="18">
+        <v>8140570.9026549701</v>
+      </c>
+      <c r="H31" s="18">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="I31" s="18">
+        <v>6068134.445580963</v>
+      </c>
+      <c r="J31" s="18">
+        <v>5397198.4075353509</v>
+      </c>
+      <c r="K31" s="18">
+        <v>-670936.03804561216</v>
+      </c>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -671,6 +671,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +686,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +773,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +821,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -896,6 +908,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +923,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -992,6 +1010,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1058,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1121,6 +1145,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1160,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1217,6 +1247,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447552128"/>
-        <c:axId val="447619840"/>
+        <c:axId val="511731584"/>
+        <c:axId val="516173824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447552128"/>
+        <c:axId val="511731584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,14 +1321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447619840"/>
+        <c:crossAx val="516173824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447619840"/>
+        <c:axId val="516173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447552128"/>
+        <c:crossAx val="511731584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,7 +1540,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1591,6 +1627,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1605,8 +1647,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484604928"/>
-        <c:axId val="484603392"/>
+        <c:axId val="439527680"/>
+        <c:axId val="439526144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1631,7 +1673,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1718,6 +1760,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1727,7 +1775,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1814,6 +1862,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,11 +1884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484600064"/>
-        <c:axId val="484601856"/>
+        <c:axId val="439518720"/>
+        <c:axId val="439520256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484600064"/>
+        <c:axId val="439518720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,14 +1931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484601856"/>
+        <c:crossAx val="439520256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484601856"/>
+        <c:axId val="439520256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,12 +1989,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484600064"/>
+        <c:crossAx val="439518720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484603392"/>
+        <c:axId val="439526144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,12 +2031,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484604928"/>
+        <c:crossAx val="439527680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484604928"/>
+        <c:axId val="439527680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +2045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484603392"/>
+        <c:crossAx val="439526144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2141,7 +2195,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2228,6 +2282,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,7 +2297,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2324,6 +2384,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2366634.0857381918</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2702955.2864984185</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3237177.7389902929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,7 +2432,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2453,6 +2519,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2534,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2549,6 +2621,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2155918.3428461198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2453218.5111413379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2964830.4974419973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2669,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2678,6 +2756,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,7 +2771,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2774,6 +2858,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-210715.74289207207</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-249736.77535708062</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-272347.2415482956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,11 +2885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484616448"/>
-        <c:axId val="484618240"/>
+        <c:axId val="441718272"/>
+        <c:axId val="441719808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484616448"/>
+        <c:axId val="441718272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,14 +2932,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484618240"/>
+        <c:crossAx val="441719808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484618240"/>
+        <c:axId val="441719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2990,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484616448"/>
+        <c:crossAx val="441718272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,7 +3151,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3148,6 +3238,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>287737.60169032536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336321.20076022681</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>534222.45249187434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,8 +3258,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485497472"/>
-        <c:axId val="485495936"/>
+        <c:axId val="441739136"/>
+        <c:axId val="441737600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3188,7 +3284,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3275,6 +3371,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3386,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3371,6 +3473,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,11 +3495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484636544"/>
-        <c:axId val="484638080"/>
+        <c:axId val="441734272"/>
+        <c:axId val="441735808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484636544"/>
+        <c:axId val="441734272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,14 +3542,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484638080"/>
+        <c:crossAx val="441735808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484638080"/>
+        <c:axId val="441735808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3492,12 +3600,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484636544"/>
+        <c:crossAx val="441734272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485495936"/>
+        <c:axId val="441737600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,12 +3642,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485497472"/>
+        <c:crossAx val="441739136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="485497472"/>
+        <c:axId val="441739136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485495936"/>
+        <c:crossAx val="441737600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3698,7 +3806,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3785,6 +3893,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,7 +3908,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3881,6 +3995,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6068134.445580963</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6471218.9630682301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6865089.2319875453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +4043,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4010,6 +4130,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4019,7 +4145,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4232,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5397198.4075353509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5702596.3614385333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6043907.7728215661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,7 +4280,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4235,6 +4367,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4382,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4331,6 +4469,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-670936.03804561216</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-768622.60162969679</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-821181.45916597918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,11 +4496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485554432"/>
-        <c:axId val="497025024"/>
+        <c:axId val="441812480"/>
+        <c:axId val="441814016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485554432"/>
+        <c:axId val="441812480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,14 +4543,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497025024"/>
+        <c:crossAx val="441814016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497025024"/>
+        <c:axId val="441814016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4457,7 +4601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485554432"/>
+        <c:crossAx val="441812480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4618,7 +4762,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4705,6 +4849,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4719,8 +4869,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497052288"/>
-        <c:axId val="497050752"/>
+        <c:axId val="441841536"/>
+        <c:axId val="441840000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4745,7 +4895,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4832,6 +4982,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4841,7 +4997,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4928,6 +5084,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,11 +5106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497043328"/>
-        <c:axId val="497044864"/>
+        <c:axId val="441836672"/>
+        <c:axId val="441838208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497043328"/>
+        <c:axId val="441836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,14 +5153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497044864"/>
+        <c:crossAx val="441838208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497044864"/>
+        <c:axId val="441838208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,12 +5211,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497043328"/>
+        <c:crossAx val="441836672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497050752"/>
+        <c:axId val="441840000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,12 +5253,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497052288"/>
+        <c:crossAx val="441841536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497052288"/>
+        <c:axId val="441841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,7 +5267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497050752"/>
+        <c:crossAx val="441840000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5237,7 +5399,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5324,6 +5486,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,8 +5506,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504877824"/>
-        <c:axId val="504785536"/>
+        <c:axId val="561579904"/>
+        <c:axId val="561578368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5364,7 +5532,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5451,6 +5619,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5460,7 +5634,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5547,6 +5721,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5563,11 +5743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504781824"/>
-        <c:axId val="504783616"/>
+        <c:axId val="560878720"/>
+        <c:axId val="560880256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504781824"/>
+        <c:axId val="560878720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5610,14 +5790,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504783616"/>
+        <c:crossAx val="560880256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504783616"/>
+        <c:axId val="560880256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,12 +5848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504781824"/>
+        <c:crossAx val="560878720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504785536"/>
+        <c:axId val="561578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,12 +5890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504877824"/>
+        <c:crossAx val="561579904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504877824"/>
+        <c:axId val="561579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5724,7 +5904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504785536"/>
+        <c:crossAx val="561578368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5874,7 +6054,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5961,6 +6141,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5970,7 +6156,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6057,6 +6243,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>935147.86044393829</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>973054.9299597611</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1010526.2293089129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6099,7 +6291,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6186,6 +6378,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6195,7 +6393,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6282,6 +6480,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>802448.50434369978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>825831.66146581084</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>855691.55613315117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,7 +6528,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6411,6 +6615,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6420,7 +6630,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6507,6 +6717,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-132699.35610023851</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-147223.26849395025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-154834.67317576171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,11 +6744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="579819392"/>
-        <c:axId val="579837952"/>
+        <c:axId val="361187584"/>
+        <c:axId val="435683328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="579819392"/>
+        <c:axId val="361187584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6575,14 +6791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579837952"/>
+        <c:crossAx val="435683328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="579837952"/>
+        <c:axId val="435683328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579819392"/>
+        <c:crossAx val="361187584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6803,7 +7019,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6890,6 +7106,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>36031.961478138437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37907.069515822768</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37471.299349151806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6904,8 +7126,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481185792"/>
-        <c:axId val="481184000"/>
+        <c:axId val="435829760"/>
+        <c:axId val="435828224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6930,7 +7152,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7017,6 +7239,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7026,7 +7254,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7113,6 +7341,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,11 +7363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481180672"/>
-        <c:axId val="481182464"/>
+        <c:axId val="435816704"/>
+        <c:axId val="435826688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481180672"/>
+        <c:axId val="435816704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7176,14 +7410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481182464"/>
+        <c:crossAx val="435826688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481182464"/>
+        <c:axId val="435826688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7234,12 +7468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481180672"/>
+        <c:crossAx val="435816704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481184000"/>
+        <c:axId val="435828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7276,12 +7510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481185792"/>
+        <c:crossAx val="435829760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481185792"/>
+        <c:axId val="435829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481184000"/>
+        <c:crossAx val="435828224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7440,7 +7674,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7527,6 +7761,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7536,7 +7776,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7623,6 +7863,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>7381454.0731783099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7764384.3647912135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8138561.1202645628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,7 +7911,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7752,6 +7998,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7761,7 +8013,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7848,6 +8100,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6495573.6328314869</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6760937.3243703991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7072800.859843432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,7 +8148,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7977,6 +8235,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,7 +8250,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8073,6 +8337,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-885880.44034682307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1003447.0404208144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1065760.2604211308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8094,11 +8364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484129792"/>
-        <c:axId val="484131584"/>
+        <c:axId val="436279552"/>
+        <c:axId val="436289536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484129792"/>
+        <c:axId val="436279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8141,14 +8411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484131584"/>
+        <c:crossAx val="436289536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484131584"/>
+        <c:axId val="436289536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484129792"/>
+        <c:crossAx val="436279552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8369,7 +8639,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8456,6 +8726,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>345983.27727169951</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>382930.29161290335</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>374176.75547334965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8470,8 +8746,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484151680"/>
-        <c:axId val="484149888"/>
+        <c:axId val="436313472"/>
+        <c:axId val="436311936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8496,7 +8772,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8583,6 +8859,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,7 +8874,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8679,6 +8961,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8695,11 +8983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484142464"/>
-        <c:axId val="484148352"/>
+        <c:axId val="436308608"/>
+        <c:axId val="436310400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484142464"/>
+        <c:axId val="436308608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8742,14 +9030,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484148352"/>
+        <c:crossAx val="436310400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484148352"/>
+        <c:axId val="436310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8800,12 +9088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484142464"/>
+        <c:crossAx val="436308608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484149888"/>
+        <c:axId val="436311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8842,12 +9130,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484151680"/>
+        <c:crossAx val="436313472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484151680"/>
+        <c:axId val="436313472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8856,7 +9144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484149888"/>
+        <c:crossAx val="436311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9006,7 +9294,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9093,6 +9381,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9102,7 +9396,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9189,6 +9483,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>370915.43015253264</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>415403.48772144876</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>486069.62225993088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9231,7 +9531,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9318,6 +9618,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9327,7 +9633,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9414,6 +9720,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>334926.73729592608</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>373352.79018234083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440577.86123566027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,7 +9768,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9543,6 +9855,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9552,7 +9870,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9639,6 +9957,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-35988.692856606562</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-42050.697539107932</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-45491.761024270614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9660,11 +9984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484167040"/>
-        <c:axId val="484168832"/>
+        <c:axId val="436329088"/>
+        <c:axId val="436330880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484167040"/>
+        <c:axId val="436329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9707,14 +10031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484168832"/>
+        <c:crossAx val="436330880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484168832"/>
+        <c:axId val="436330880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,7 +10089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484167040"/>
+        <c:crossAx val="436329088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9926,7 +10250,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10013,6 +10337,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>38061.492881821512</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44488.057568916091</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70666.134538482103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10027,8 +10357,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484208000"/>
-        <c:axId val="484206464"/>
+        <c:axId val="439442432"/>
+        <c:axId val="439440896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10053,7 +10383,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10140,6 +10470,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10149,7 +10485,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10236,6 +10572,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10252,11 +10594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484178560"/>
-        <c:axId val="484204928"/>
+        <c:axId val="439433472"/>
+        <c:axId val="439439360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484178560"/>
+        <c:axId val="439433472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,14 +10641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484204928"/>
+        <c:crossAx val="439439360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484204928"/>
+        <c:axId val="439439360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10357,12 +10699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484178560"/>
+        <c:crossAx val="439433472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484206464"/>
+        <c:axId val="439440896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10399,12 +10741,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484208000"/>
+        <c:crossAx val="439442432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484208000"/>
+        <c:axId val="439442432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484206464"/>
+        <c:crossAx val="439440896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10563,7 +10905,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10650,6 +10992,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10659,7 +11007,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10746,6 +11094,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>778165.22164902079</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>818067.40008672897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>857510.87308583618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10788,7 +11142,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10875,6 +11229,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10884,7 +11244,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10971,6 +11331,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>676946.86904733058</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>704596.65126519394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>737546.10072358395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11379,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11100,6 +11466,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11109,7 +11481,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11196,6 +11568,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-101218.35260169022</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-113470.74882153503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-119964.77236225223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11217,11 +11595,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="484571776"/>
-        <c:axId val="484573568"/>
+        <c:axId val="439498624"/>
+        <c:axId val="439500160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="484571776"/>
+        <c:axId val="439498624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11264,14 +11642,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484573568"/>
+        <c:crossAx val="439500160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484573568"/>
+        <c:axId val="439500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11322,7 +11700,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484571776"/>
+        <c:crossAx val="439498624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12174,7 +12552,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13525,6 +13903,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="32">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="31">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="29">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="29">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="30">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="30">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="30">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="30">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="30">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="29">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="29">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="30">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="30">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="30">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="30">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="30">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="30">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13541,7 +13995,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15209,15 +15663,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>37907.069515822768</v>
+      </c>
+      <c r="F32" s="18">
+        <v>58228.983384127656</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1268558.5751625334</v>
+      </c>
+      <c r="H32" s="18">
+        <v>825831.66146581084</v>
+      </c>
+      <c r="I32" s="18">
+        <v>973054.9299597611</v>
+      </c>
+      <c r="J32" s="18">
+        <v>825831.66146581084</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-147223.26849395025</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>37471.299349151806</v>
+      </c>
+      <c r="F33" s="18">
+        <v>58095.039468568604</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1326653.614631102</v>
+      </c>
+      <c r="H33" s="18">
+        <v>855691.55613315117</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1010526.2293089129</v>
+      </c>
+      <c r="J33" s="18">
+        <v>855691.55613315117</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-154834.67317576171</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -15237,7 +15791,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16905,15 +17459,115 @@
         <v>0</v>
       </c>
       <c r="M31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="N31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="O31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="P31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>382930.29161290335</v>
+      </c>
+      <c r="F32" s="18">
+        <v>588218.55322526745</v>
+      </c>
+      <c r="G32" s="18">
+        <v>10385464.034817191</v>
+      </c>
+      <c r="H32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="I32" s="18">
+        <v>7764384.3647912135</v>
+      </c>
+      <c r="J32" s="18">
+        <v>6760937.3243703991</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-1003447.0404208144</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>374176.75547334965</v>
+      </c>
+      <c r="F33" s="18">
+        <v>580119.01788874704</v>
+      </c>
+      <c r="G33" s="18">
+        <v>10965583.052705938</v>
+      </c>
+      <c r="H33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="I33" s="18">
+        <v>8138561.1202645628</v>
+      </c>
+      <c r="J33" s="18">
+        <v>7072800.859843432</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-1065760.2604211308</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="N33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="O33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -16933,7 +17587,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18787,15 +19441,127 @@
         <v>0</v>
       </c>
       <c r="O31" s="22">
-        <v>9.5075559982442139E-3</v>
+        <v>7.9229633318701771E-3</v>
       </c>
       <c r="P31" s="22">
-        <v>3.0498309977585816E-2</v>
+        <v>2.9081927444980161E-2</v>
       </c>
       <c r="Q31" s="22">
-        <v>31.174042119814576</v>
+        <v>27.24359775279531</v>
       </c>
       <c r="R31" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>44488.057568916091</v>
+      </c>
+      <c r="H32" s="18">
+        <v>68338.027657116385</v>
+      </c>
+      <c r="I32" s="18">
+        <v>573506.56997821375</v>
+      </c>
+      <c r="J32" s="18">
+        <v>373352.79018234083</v>
+      </c>
+      <c r="K32" s="18">
+        <v>415403.48772144876</v>
+      </c>
+      <c r="L32" s="18">
+        <v>373352.79018234083</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-42050.697539107932</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P32" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q32" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>70666.134538482103</v>
+      </c>
+      <c r="H33" s="18">
+        <v>109559.90174910294</v>
+      </c>
+      <c r="I33" s="18">
+        <v>683066.47172731673</v>
+      </c>
+      <c r="J33" s="18">
+        <v>440577.86123566027</v>
+      </c>
+      <c r="K33" s="18">
+        <v>486069.62225993088</v>
+      </c>
+      <c r="L33" s="18">
+        <v>440577.86123566027</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-45491.761024270614</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="P33" s="22">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="Q33" s="22">
+        <v>25.166709127893537</v>
+      </c>
+      <c r="R33" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18815,7 +19581,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20586,18 +21352,124 @@
         <v>0</v>
       </c>
       <c r="M31" s="21">
-        <v>7.4074008664308382</v>
+        <v>16.766465783542337</v>
       </c>
       <c r="N31" s="21">
-        <v>30.326294546977831</v>
+        <v>25.806351625832665</v>
       </c>
       <c r="O31" s="21">
-        <v>39.728368199179599</v>
+        <v>35.087696008063951</v>
       </c>
       <c r="P31" s="21">
-        <v>11.522147242574292</v>
+        <v>7.2436628613700975</v>
       </c>
       <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="18">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1082329.6873926779</v>
+      </c>
+      <c r="H32" s="18">
+        <v>704596.65126519394</v>
+      </c>
+      <c r="I32" s="18">
+        <v>818067.40008672897</v>
+      </c>
+      <c r="J32" s="18">
+        <v>704596.65126519394</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-113470.74882153503</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N32" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O32" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P32" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="18">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1143482.3605174869</v>
+      </c>
+      <c r="H33" s="18">
+        <v>737546.10072358395</v>
+      </c>
+      <c r="I33" s="18">
+        <v>857510.87308583618</v>
+      </c>
+      <c r="J33" s="18">
+        <v>737546.10072358395</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-119964.77236225223</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="N33" s="21">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="O33" s="21">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="P33" s="21">
+        <v>1.4932587589404349</v>
+      </c>
+      <c r="Q33" s="1">
         <v>1</v>
       </c>
     </row>
@@ -20617,7 +21489,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22151,6 +23023,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="17">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="17">
+        <v>336321.20076022681</v>
+      </c>
+      <c r="H32" s="18">
+        <v>516622.41003944428</v>
+      </c>
+      <c r="I32" s="18">
+        <v>3768384.677250165</v>
+      </c>
+      <c r="J32" s="18">
+        <v>2453218.5111413379</v>
+      </c>
+      <c r="K32" s="18">
+        <v>2702955.2864984185</v>
+      </c>
+      <c r="L32" s="18">
+        <v>2453218.5111413379</v>
+      </c>
+      <c r="M32" s="18">
+        <v>-249736.77535708062</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="17">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="17">
+        <v>534222.45249187434</v>
+      </c>
+      <c r="H33" s="18">
+        <v>828251.88882096962</v>
+      </c>
+      <c r="I33" s="18">
+        <v>4596636.566071135</v>
+      </c>
+      <c r="J33" s="18">
+        <v>2964830.4974419973</v>
+      </c>
+      <c r="K33" s="18">
+        <v>3237177.7389902929</v>
+      </c>
+      <c r="L33" s="18">
+        <v>2964830.4974419973</v>
+      </c>
+      <c r="M33" s="18">
+        <v>-272347.2415482956</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -22167,7 +23127,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23518,6 +24478,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="15">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="31">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="16">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="17">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="17">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="18">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8759748.3271026202</v>
+      </c>
+      <c r="H32" s="18">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="I32" s="18">
+        <v>6471218.9630682301</v>
+      </c>
+      <c r="J32" s="18">
+        <v>5702596.3614385333</v>
+      </c>
+      <c r="K32" s="18">
+        <v>-768622.60162969679</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="15">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="31">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="17">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="17">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="18">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="18">
+        <v>9370399.9248802494</v>
+      </c>
+      <c r="H33" s="18">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="I33" s="18">
+        <v>6865089.2319875453</v>
+      </c>
+      <c r="J33" s="18">
+        <v>6043907.7728215661</v>
+      </c>
+      <c r="K33" s="18">
+        <v>-821181.45916597918</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -677,6 +677,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,7 +689,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +782,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +827,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -914,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +932,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1016,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1070,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1151,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,7 +1175,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1253,6 +1268,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511731584"/>
-        <c:axId val="516173824"/>
+        <c:axId val="454866816"/>
+        <c:axId val="457932800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511731584"/>
+        <c:axId val="454866816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,14 +1339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516173824"/>
+        <c:crossAx val="457932800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516173824"/>
+        <c:axId val="457932800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511731584"/>
+        <c:crossAx val="454866816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1540,7 +1558,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1633,6 +1651,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,8 +1668,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439527680"/>
-        <c:axId val="439526144"/>
+        <c:axId val="391673344"/>
+        <c:axId val="391671808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1673,7 +1694,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1766,6 +1787,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1799,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1868,6 +1892,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,11 +1911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439518720"/>
-        <c:axId val="439520256"/>
+        <c:axId val="391668480"/>
+        <c:axId val="391670016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439518720"/>
+        <c:axId val="391668480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,14 +1958,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439520256"/>
+        <c:crossAx val="391670016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439520256"/>
+        <c:axId val="391670016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,12 +2016,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439518720"/>
+        <c:crossAx val="391668480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439526144"/>
+        <c:axId val="391671808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,12 +2058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439527680"/>
+        <c:crossAx val="391673344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439527680"/>
+        <c:axId val="391673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439526144"/>
+        <c:crossAx val="391671808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2222,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2288,6 +2315,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,7 +2327,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2390,6 +2420,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3237177.7389902929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4686429.8676799433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +2465,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2525,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,7 +2570,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2627,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2964830.4974419973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4027965.1940349205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,7 +2708,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2762,6 +2801,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,7 +2813,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2864,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-272347.2415482956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-658464.67364502279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2885,11 +2930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441718272"/>
-        <c:axId val="441719808"/>
+        <c:axId val="391688960"/>
+        <c:axId val="391690496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441718272"/>
+        <c:axId val="391688960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,14 +2977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441719808"/>
+        <c:crossAx val="391690496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441719808"/>
+        <c:axId val="391690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,7 +3035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441718272"/>
+        <c:crossAx val="391688960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3196,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3244,6 +3289,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>534222.45249187434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1449252.1286896502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3258,8 +3306,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441739136"/>
-        <c:axId val="441737600"/>
+        <c:axId val="391853184"/>
+        <c:axId val="391847296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3284,7 +3332,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3377,6 +3425,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3437,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3479,6 +3530,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,11 +3549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441734272"/>
-        <c:axId val="441735808"/>
+        <c:axId val="391844224"/>
+        <c:axId val="391845760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441734272"/>
+        <c:axId val="391844224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,14 +3596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441735808"/>
+        <c:crossAx val="391845760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441735808"/>
+        <c:axId val="391845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,12 +3654,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441734272"/>
+        <c:crossAx val="391844224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441737600"/>
+        <c:axId val="391847296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,12 +3696,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441739136"/>
+        <c:crossAx val="391853184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441739136"/>
+        <c:axId val="391853184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3656,7 +3710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441737600"/>
+        <c:crossAx val="391847296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3806,7 +3860,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3899,6 +3953,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,7 +3965,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4001,6 +4058,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6865089.2319875453</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7429784.6436091401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,7 +4103,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4136,6 +4196,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4145,7 +4208,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4238,6 +4301,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6043907.7728215661</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5821489.671180008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,7 +4346,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4373,6 +4439,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,7 +4451,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4475,6 +4544,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-821181.45916597918</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1608294.9724291321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4496,11 +4568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441812480"/>
-        <c:axId val="441814016"/>
+        <c:axId val="392188672"/>
+        <c:axId val="392190208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441812480"/>
+        <c:axId val="392188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,14 +4615,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441814016"/>
+        <c:crossAx val="392190208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441814016"/>
+        <c:axId val="392190208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,7 +4673,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441812480"/>
+        <c:crossAx val="392188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4762,7 +4834,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4855,6 +4927,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,8 +4944,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441841536"/>
-        <c:axId val="441840000"/>
+        <c:axId val="392230016"/>
+        <c:axId val="392220032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4895,7 +4970,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4988,6 +5063,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4997,7 +5075,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5090,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,11 +5187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441836672"/>
-        <c:axId val="441838208"/>
+        <c:axId val="392216960"/>
+        <c:axId val="392218496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441836672"/>
+        <c:axId val="392216960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5153,14 +5234,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441838208"/>
+        <c:crossAx val="392218496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441838208"/>
+        <c:axId val="392218496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5211,12 +5292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441836672"/>
+        <c:crossAx val="392216960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441840000"/>
+        <c:axId val="392220032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5253,12 +5334,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441841536"/>
+        <c:crossAx val="392230016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441841536"/>
+        <c:axId val="392230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5267,7 +5348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441840000"/>
+        <c:crossAx val="392220032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5399,7 +5480,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5492,6 +5573,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,8 +5590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561579904"/>
-        <c:axId val="561578368"/>
+        <c:axId val="497563904"/>
+        <c:axId val="497562368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5532,7 +5616,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5625,6 +5709,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,7 +5721,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5727,6 +5814,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5743,11 +5833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560878720"/>
-        <c:axId val="560880256"/>
+        <c:axId val="492761856"/>
+        <c:axId val="492763776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560878720"/>
+        <c:axId val="492761856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5790,14 +5880,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560880256"/>
+        <c:crossAx val="492763776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560880256"/>
+        <c:axId val="492763776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,12 +5938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560878720"/>
+        <c:crossAx val="492761856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561578368"/>
+        <c:axId val="497562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,12 +5980,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561579904"/>
+        <c:crossAx val="497563904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561579904"/>
+        <c:axId val="497563904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561578368"/>
+        <c:crossAx val="497562368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6054,7 +6144,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6147,6 +6237,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6156,7 +6249,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6249,6 +6342,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1010526.2293089129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1055393.4618456375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,7 +6387,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6384,6 +6480,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6393,7 +6492,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6486,6 +6585,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>855691.55613315117</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>789119.89642762265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,7 +6630,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6621,6 +6723,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,7 +6735,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6723,6 +6828,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-154834.67317576171</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-266273.56541801488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,11 +6852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="361187584"/>
-        <c:axId val="435683328"/>
+        <c:axId val="370279936"/>
+        <c:axId val="370281472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="361187584"/>
+        <c:axId val="370279936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,14 +6899,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435683328"/>
+        <c:crossAx val="370281472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435683328"/>
+        <c:axId val="370281472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,7 +6957,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361187584"/>
+        <c:crossAx val="370279936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7019,7 +7127,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7112,6 +7220,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>37471.299349151806</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44867.232536724732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7126,8 +7237,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435829760"/>
-        <c:axId val="435828224"/>
+        <c:axId val="370301184"/>
+        <c:axId val="370299648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7152,7 +7263,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7245,6 +7356,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7254,7 +7368,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7347,6 +7461,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7363,11 +7480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435816704"/>
-        <c:axId val="435826688"/>
+        <c:axId val="370296320"/>
+        <c:axId val="370297856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435816704"/>
+        <c:axId val="370296320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7410,14 +7527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435826688"/>
+        <c:crossAx val="370297856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435826688"/>
+        <c:axId val="370297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7468,12 +7585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435816704"/>
+        <c:crossAx val="370296320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435828224"/>
+        <c:axId val="370299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,12 +7627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435829760"/>
+        <c:crossAx val="370301184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435829760"/>
+        <c:axId val="370301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7524,7 +7641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435828224"/>
+        <c:crossAx val="370299648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7674,7 +7791,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7767,6 +7884,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,7 +7896,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7869,6 +7989,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8138561.1202645628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8675021.761305077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7911,7 +8034,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8004,6 +8127,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8013,7 +8139,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8106,6 +8232,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7072800.859843432</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6688152.6185750011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8148,7 +8277,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8241,6 +8370,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8250,7 +8382,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8343,6 +8475,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-1065760.2604211308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1986869.1427300759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,11 +8499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436279552"/>
-        <c:axId val="436289536"/>
+        <c:axId val="370484736"/>
+        <c:axId val="370486272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436279552"/>
+        <c:axId val="370484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,14 +8546,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436289536"/>
+        <c:crossAx val="370486272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436289536"/>
+        <c:axId val="370486272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8604,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436279552"/>
+        <c:crossAx val="370484736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8639,7 +8774,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8732,6 +8867,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>374176.75547334965</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>536460.64104051457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8746,8 +8884,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436313472"/>
-        <c:axId val="436311936"/>
+        <c:axId val="370506368"/>
+        <c:axId val="370504832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8772,7 +8910,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8865,6 +9003,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8874,7 +9015,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8967,6 +9108,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8983,11 +9127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436308608"/>
-        <c:axId val="436310400"/>
+        <c:axId val="370497408"/>
+        <c:axId val="370498944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436308608"/>
+        <c:axId val="370497408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9030,14 +9174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436310400"/>
+        <c:crossAx val="370498944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436310400"/>
+        <c:axId val="370498944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,12 +9232,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436308608"/>
+        <c:crossAx val="370497408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436311936"/>
+        <c:axId val="370504832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9130,12 +9274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436313472"/>
+        <c:crossAx val="370506368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436313472"/>
+        <c:axId val="370506368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9144,7 +9288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436311936"/>
+        <c:crossAx val="370504832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9294,7 +9438,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9387,6 +9531,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9396,7 +9543,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9489,6 +9636,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>486069.62225993088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>677774.49244735925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9531,7 +9681,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9624,6 +9774,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9633,7 +9786,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9726,6 +9879,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>440577.86123566027</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>574905.15366080066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9768,7 +9924,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9861,6 +10017,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9870,7 +10029,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9963,6 +10122,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-45491.761024270614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-102869.3387865586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9984,11 +10146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436329088"/>
-        <c:axId val="436330880"/>
+        <c:axId val="370525696"/>
+        <c:axId val="370527232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436329088"/>
+        <c:axId val="370525696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10031,14 +10193,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436330880"/>
+        <c:crossAx val="370527232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436330880"/>
+        <c:axId val="370527232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,7 +10251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436329088"/>
+        <c:crossAx val="370525696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10250,7 +10412,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10343,6 +10505,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70666.134538482103</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>191704.8701874284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10357,8 +10522,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439442432"/>
-        <c:axId val="439440896"/>
+        <c:axId val="371210112"/>
+        <c:axId val="371208576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10383,7 +10548,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10476,6 +10641,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10485,7 +10653,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10578,6 +10746,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10594,11 +10765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439433472"/>
-        <c:axId val="439439360"/>
+        <c:axId val="371201152"/>
+        <c:axId val="371202688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439433472"/>
+        <c:axId val="371201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10641,14 +10812,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439439360"/>
+        <c:crossAx val="371202688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439439360"/>
+        <c:axId val="371202688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10699,12 +10870,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439433472"/>
+        <c:crossAx val="371201152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439440896"/>
+        <c:axId val="371208576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10741,12 +10912,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439442432"/>
+        <c:crossAx val="371210112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439442432"/>
+        <c:axId val="371210112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10755,7 +10926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439440896"/>
+        <c:crossAx val="371208576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10905,7 +11076,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10998,6 +11169,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,7 +11181,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11100,6 +11274,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>857510.87308583618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>904739.53891396744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11142,7 +11319,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11235,6 +11412,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11244,7 +11424,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11337,6 +11517,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>737546.10072358395</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>688722.25808283407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11379,7 +11562,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11472,6 +11655,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11481,7 +11667,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11574,6 +11760,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-119964.77236225223</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-216017.28083113336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11595,11 +11784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439498624"/>
-        <c:axId val="439500160"/>
+        <c:axId val="391644288"/>
+        <c:axId val="391645824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439498624"/>
+        <c:axId val="391644288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11642,14 +11831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439500160"/>
+        <c:crossAx val="391645824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439500160"/>
+        <c:axId val="391645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11700,7 +11889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439498624"/>
+        <c:crossAx val="391644288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12552,7 +12741,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13979,6 +14168,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="32">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="31">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="29">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="29">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="30">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="30">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="30">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="30">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="30">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13995,7 +14222,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15775,6 +16002,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>44867.232536724732</v>
+      </c>
+      <c r="F34" s="18">
+        <v>79977.243093973972</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1406630.8577250759</v>
+      </c>
+      <c r="H34" s="18">
+        <v>789119.89642762265</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1055393.4618456375</v>
+      </c>
+      <c r="J34" s="18">
+        <v>789119.89642762265</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-266273.56541801488</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15791,7 +16068,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17571,6 +17848,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>536460.64104051457</v>
+      </c>
+      <c r="F34" s="18">
+        <v>956257.84504823282</v>
+      </c>
+      <c r="G34" s="18">
+        <v>11921840.89775417</v>
+      </c>
+      <c r="H34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="I34" s="18">
+        <v>8675021.761305077</v>
+      </c>
+      <c r="J34" s="18">
+        <v>6688152.6185750011</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1986869.1427300759</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="N34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="O34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17587,7 +17914,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19565,6 +19892,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="34" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>191704.8701874284</v>
+      </c>
+      <c r="H34" s="18">
+        <v>341719.91759752762</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1024786.3893248443</v>
+      </c>
+      <c r="J34" s="18">
+        <v>574905.15366080066</v>
+      </c>
+      <c r="K34" s="18">
+        <v>677774.49244735925</v>
+      </c>
+      <c r="L34" s="18">
+        <v>574905.15366080066</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-102869.3387865586</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="P34" s="22">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>24.065913576470347</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19581,7 +19964,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21473,6 +21856,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="18">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1227668.9321953543</v>
+      </c>
+      <c r="H34" s="18">
+        <v>688722.25808283407</v>
+      </c>
+      <c r="I34" s="18">
+        <v>904739.53891396744</v>
+      </c>
+      <c r="J34" s="18">
+        <v>688722.25808283407</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-216017.28083113336</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="N34" s="21">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="O34" s="21">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6.3832437220605982</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21489,7 +21925,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23111,6 +23547,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="17">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1449252.1286896502</v>
+      </c>
+      <c r="H34" s="18">
+        <v>2583337.1760961423</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7179973.7421672773</v>
+      </c>
+      <c r="J34" s="18">
+        <v>4027965.1940349205</v>
+      </c>
+      <c r="K34" s="18">
+        <v>4686429.8676799433</v>
+      </c>
+      <c r="L34" s="18">
+        <v>4027965.1940349205</v>
+      </c>
+      <c r="M34" s="18">
+        <v>-658464.67364502279</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -23127,7 +23607,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24554,6 +25034,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="15">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="31">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="16">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="17">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="18">
+        <v>10376987.13019418</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="I34" s="18">
+        <v>7429784.6436091401</v>
+      </c>
+      <c r="J34" s="18">
+        <v>5821489.671180008</v>
+      </c>
+      <c r="K34" s="18">
+        <v>-1608294.9724291321</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -680,6 +680,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +692,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +788,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -827,7 +833,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -923,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +941,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1082,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1166,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,7 +1190,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1271,6 +1286,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,11 +1310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454866816"/>
-        <c:axId val="457932800"/>
+        <c:axId val="405057536"/>
+        <c:axId val="405059072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454866816"/>
+        <c:axId val="405057536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457932800"/>
+        <c:crossAx val="405059072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457932800"/>
+        <c:axId val="405059072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866816"/>
+        <c:crossAx val="405057536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1576,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1654,6 +1672,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45629.397993517334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,8 +1689,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391673344"/>
-        <c:axId val="391671808"/>
+        <c:axId val="155857280"/>
+        <c:axId val="155847296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1694,7 +1715,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1790,6 +1811,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1823,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1895,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1911,11 +1938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391668480"/>
-        <c:axId val="391670016"/>
+        <c:axId val="97836416"/>
+        <c:axId val="155845760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391668480"/>
+        <c:axId val="97836416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1958,14 +1985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391670016"/>
+        <c:crossAx val="155845760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391670016"/>
+        <c:axId val="155845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,12 +2043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391668480"/>
+        <c:crossAx val="97836416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391671808"/>
+        <c:axId val="155847296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +2085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391673344"/>
+        <c:crossAx val="155857280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391673344"/>
+        <c:axId val="155857280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391671808"/>
+        <c:crossAx val="155847296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2222,7 +2249,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2318,6 +2345,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,7 +2357,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2423,6 +2453,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4686429.8676799433</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5769332.1165007073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,7 +2498,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2561,6 +2594,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,7 +2606,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2666,6 +2702,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4027965.1940349205</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5663725.5784917651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,7 +2747,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2804,6 +2843,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,7 +2855,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2909,6 +2951,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-658464.67364502279</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-105606.53800894227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,11 +2975,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391688960"/>
-        <c:axId val="391690496"/>
+        <c:axId val="155970944"/>
+        <c:axId val="155972736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391688960"/>
+        <c:axId val="155970944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,14 +3022,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391690496"/>
+        <c:crossAx val="155972736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391690496"/>
+        <c:axId val="155972736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,7 +3080,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391688960"/>
+        <c:crossAx val="155970944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3196,7 +3241,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3292,6 +3337,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1449252.1286896502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1082902.248820764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,8 +3354,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391853184"/>
-        <c:axId val="391847296"/>
+        <c:axId val="371871744"/>
+        <c:axId val="371869952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3332,7 +3380,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3428,6 +3476,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,7 +3488,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3533,6 +3584,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,11 +3603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391844224"/>
-        <c:axId val="391845760"/>
+        <c:axId val="371862528"/>
+        <c:axId val="371868416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391844224"/>
+        <c:axId val="371862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,14 +3650,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391845760"/>
+        <c:crossAx val="371868416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391845760"/>
+        <c:axId val="371868416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,12 +3708,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391844224"/>
+        <c:crossAx val="371862528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="391847296"/>
+        <c:axId val="371869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3696,12 +3750,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391853184"/>
+        <c:crossAx val="371871744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391853184"/>
+        <c:axId val="371871744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,7 +3764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="391847296"/>
+        <c:crossAx val="371869952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3860,7 +3914,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3956,6 +4010,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3965,7 +4022,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4061,6 +4118,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7429784.6436091401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7795825.7760371994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,7 +4163,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4199,6 +4259,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4208,7 +4271,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4304,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5821489.671180008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6986559.0402471395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,7 +4412,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4442,6 +4508,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,7 +4520,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4547,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1608294.9724291321</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-809266.7357900599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,11 +4640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392188672"/>
-        <c:axId val="392190208"/>
+        <c:axId val="371883392"/>
+        <c:axId val="371889280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392188672"/>
+        <c:axId val="371883392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,14 +4687,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392190208"/>
+        <c:crossAx val="371889280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392190208"/>
+        <c:axId val="371889280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392188672"/>
+        <c:crossAx val="371883392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4834,7 +4906,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4930,6 +5002,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,8 +5019,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="392230016"/>
-        <c:axId val="392220032"/>
+        <c:axId val="407453696"/>
+        <c:axId val="407451904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4970,7 +5045,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5066,6 +5141,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5153,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5171,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5187,11 +5268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="392216960"/>
-        <c:axId val="392218496"/>
+        <c:axId val="403196928"/>
+        <c:axId val="407450368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="392216960"/>
+        <c:axId val="403196928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5234,14 +5315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392218496"/>
+        <c:crossAx val="407450368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="392218496"/>
+        <c:axId val="407450368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5292,12 +5373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392216960"/>
+        <c:crossAx val="403196928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392220032"/>
+        <c:axId val="407451904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5334,12 +5415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392230016"/>
+        <c:crossAx val="407453696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="392230016"/>
+        <c:axId val="407453696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5348,7 +5429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="392220032"/>
+        <c:crossAx val="407451904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5480,7 +5561,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5576,6 +5657,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,8 +5674,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497563904"/>
-        <c:axId val="497562368"/>
+        <c:axId val="458574464"/>
+        <c:axId val="458572928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5616,7 +5700,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5712,6 +5796,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,7 +5808,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5817,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5833,11 +5923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492761856"/>
-        <c:axId val="492763776"/>
+        <c:axId val="442611200"/>
+        <c:axId val="442612736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492761856"/>
+        <c:axId val="442611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,14 +5970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492763776"/>
+        <c:crossAx val="442612736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492763776"/>
+        <c:axId val="442612736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5938,12 +6028,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492761856"/>
+        <c:crossAx val="442611200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497562368"/>
+        <c:axId val="458572928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,12 +6070,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497563904"/>
+        <c:crossAx val="458574464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="497563904"/>
+        <c:axId val="458574464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +6084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497562368"/>
+        <c:crossAx val="458572928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6144,7 +6234,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6240,6 +6330,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,7 +6342,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6345,6 +6438,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1055393.4618456375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1093417.9601735687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6387,7 +6483,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6483,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,7 +6591,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6588,6 +6687,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>789119.89642762265</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935455.00165414216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6630,7 +6732,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6726,6 +6828,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6735,7 +6840,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6831,6 +6936,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-266273.56541801488</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-157962.95851942652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6852,11 +6960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370279936"/>
-        <c:axId val="370281472"/>
+        <c:axId val="490516864"/>
+        <c:axId val="490518400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370279936"/>
+        <c:axId val="490516864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6899,14 +7007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370281472"/>
+        <c:crossAx val="490518400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370281472"/>
+        <c:axId val="490518400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6957,7 +7065,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370279936"/>
+        <c:crossAx val="490516864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7127,7 +7235,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7223,6 +7331,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44867.232536724732</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7237,8 +7348,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370301184"/>
-        <c:axId val="370299648"/>
+        <c:axId val="495549440"/>
+        <c:axId val="495547904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7263,7 +7374,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7359,6 +7470,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7368,7 +7482,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7464,6 +7578,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,11 +7597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370296320"/>
-        <c:axId val="370297856"/>
+        <c:axId val="491865600"/>
+        <c:axId val="491867520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370296320"/>
+        <c:axId val="491865600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7527,14 +7644,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370297856"/>
+        <c:crossAx val="491867520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370297856"/>
+        <c:axId val="491867520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7585,12 +7702,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370296320"/>
+        <c:crossAx val="491865600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370299648"/>
+        <c:axId val="495547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7627,12 +7744,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370301184"/>
+        <c:crossAx val="495549440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370301184"/>
+        <c:axId val="495549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7641,7 +7758,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370299648"/>
+        <c:crossAx val="495547904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7791,7 +7908,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7887,6 +8004,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7896,7 +8016,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7992,6 +8112,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>8675021.761305077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9041062.8937331364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8034,7 +8157,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8130,6 +8253,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8139,7 +8265,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8235,6 +8361,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6688152.6185750011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7972175.7616298608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8277,7 +8406,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8373,6 +8502,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8382,7 +8514,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8478,6 +8610,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1986869.1427300759</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1068887.1321032755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8499,11 +8634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370484736"/>
-        <c:axId val="370486272"/>
+        <c:axId val="89699072"/>
+        <c:axId val="89700608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370484736"/>
+        <c:axId val="89699072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8546,14 +8681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370486272"/>
+        <c:crossAx val="89700608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370486272"/>
+        <c:axId val="89700608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8604,7 +8739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370484736"/>
+        <c:crossAx val="89699072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,7 +8909,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8870,6 +9005,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>536460.64104051457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,8 +9022,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370506368"/>
-        <c:axId val="370504832"/>
+        <c:axId val="97531392"/>
+        <c:axId val="97529856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8910,7 +9048,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9006,6 +9144,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9015,7 +9156,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9111,6 +9252,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9127,11 +9271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370497408"/>
-        <c:axId val="370498944"/>
+        <c:axId val="97518336"/>
+        <c:axId val="97519872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370497408"/>
+        <c:axId val="97518336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,14 +9318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370498944"/>
+        <c:crossAx val="97519872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370498944"/>
+        <c:axId val="97519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9232,12 +9376,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370497408"/>
+        <c:crossAx val="97518336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370504832"/>
+        <c:axId val="97529856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9274,12 +9418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370506368"/>
+        <c:crossAx val="97531392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370506368"/>
+        <c:axId val="97531392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9288,7 +9432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370504832"/>
+        <c:crossAx val="97529856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9438,7 +9582,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9534,6 +9678,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9543,7 +9690,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9639,6 +9786,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>677774.49244735925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>828558.34987809858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9681,7 +9831,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9777,6 +9927,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9786,7 +9939,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9882,6 +10035,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>574905.15366080066</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>804597.58554773952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9924,7 +10080,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10020,6 +10176,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10029,7 +10188,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10125,6 +10284,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-102869.3387865586</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-23960.764330359059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10146,11 +10308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370525696"/>
-        <c:axId val="370527232"/>
+        <c:axId val="97665408"/>
+        <c:axId val="97666944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370525696"/>
+        <c:axId val="97665408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10193,14 +10355,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370527232"/>
+        <c:crossAx val="97666944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370527232"/>
+        <c:axId val="97666944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10251,7 +10413,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370525696"/>
+        <c:crossAx val="97665408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10412,7 +10574,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10508,6 +10670,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>191704.8701874284</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150783.8574307393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10522,8 +10687,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371210112"/>
-        <c:axId val="371208576"/>
+        <c:axId val="97694464"/>
+        <c:axId val="97692672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10548,7 +10713,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10644,6 +10809,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10653,7 +10821,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10749,6 +10917,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10765,11 +10936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371201152"/>
-        <c:axId val="371202688"/>
+        <c:axId val="97689600"/>
+        <c:axId val="97691136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371201152"/>
+        <c:axId val="97689600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10812,14 +10983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371202688"/>
+        <c:crossAx val="97691136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371202688"/>
+        <c:axId val="97691136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10870,12 +11041,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371201152"/>
+        <c:crossAx val="97689600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371208576"/>
+        <c:axId val="97692672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10912,12 +11083,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371210112"/>
+        <c:crossAx val="97694464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371210112"/>
+        <c:axId val="97694464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10926,7 +11097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371208576"/>
+        <c:crossAx val="97692672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11076,7 +11247,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11172,6 +11343,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,7 +11355,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11277,6 +11451,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>904739.53891396744</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>950368.93690748478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11319,7 +11496,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11415,6 +11592,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11424,7 +11604,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11520,6 +11700,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>688722.25808283407</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>828882.19078370929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11562,7 +11745,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11658,6 +11841,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11667,7 +11853,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11763,6 +11949,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-216017.28083113336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-121486.74612377549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11784,11 +11973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="391644288"/>
-        <c:axId val="391645824"/>
+        <c:axId val="97705984"/>
+        <c:axId val="97707520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="391644288"/>
+        <c:axId val="97705984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11831,14 +12020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391645824"/>
+        <c:crossAx val="97707520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="391645824"/>
+        <c:axId val="97707520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11889,7 +12078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391644288"/>
+        <c:crossAx val="97705984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12741,7 +12930,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14206,6 +14395,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="31">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="29">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="29">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="30">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="30">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="30">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="30">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="30">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="30">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14222,7 +14449,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16052,6 +16279,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="18">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1466230.3838157791</v>
+      </c>
+      <c r="H35" s="18">
+        <v>935455.00165414216</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1093417.9601735687</v>
+      </c>
+      <c r="J35" s="18">
+        <v>935455.00165414216</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-157962.95851942652</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16068,7 +16345,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17898,6 +18175,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>12495573.069952</v>
+      </c>
+      <c r="H35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="I35" s="18">
+        <v>9041062.8937331364</v>
+      </c>
+      <c r="J35" s="18">
+        <v>7972175.7616298608</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-1068887.1321032755</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="N35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17914,7 +18241,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19948,6 +20275,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>150783.8574307393</v>
+      </c>
+      <c r="H35" s="18">
+        <v>236338.33029163285</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1261124.7196164771</v>
+      </c>
+      <c r="J35" s="18">
+        <v>804597.58554773952</v>
+      </c>
+      <c r="K35" s="18">
+        <v>828558.34987809858</v>
+      </c>
+      <c r="L35" s="18">
+        <v>804597.58554773952</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-23960.764330359059</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="P35" s="22">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>13.872208778425705</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -19964,7 +20347,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21909,6 +22292,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>45629.397993517334</v>
+      </c>
+      <c r="F35" s="18">
+        <v>71519.431308843879</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1299188.3635041981</v>
+      </c>
+      <c r="H35" s="18">
+        <v>828882.19078370929</v>
+      </c>
+      <c r="I35" s="18">
+        <v>950368.93690748478</v>
+      </c>
+      <c r="J35" s="18">
+        <v>828882.19078370929</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-121486.74612377549</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="N35" s="21">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="O35" s="21">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="P35" s="21">
+        <v>-3.9291702422202448</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21925,7 +22361,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23591,6 +24027,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="17">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1082902.248820764</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1697338.9175489994</v>
+      </c>
+      <c r="I35" s="18">
+        <v>8877312.6597162765</v>
+      </c>
+      <c r="J35" s="18">
+        <v>5663725.5784917651</v>
+      </c>
+      <c r="K35" s="18">
+        <v>5769332.1165007073</v>
+      </c>
+      <c r="L35" s="18">
+        <v>5663725.5784917651</v>
+      </c>
+      <c r="M35" s="18">
+        <v>-105606.53800894227</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -23607,7 +24087,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25072,6 +25552,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="15">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="31">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="16">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="17">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="17">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="18">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="18">
+        <v>10950719.30239201</v>
+      </c>
+      <c r="H35" s="18">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="I35" s="18">
+        <v>7795825.7760371994</v>
+      </c>
+      <c r="J35" s="18">
+        <v>6986559.0402471395</v>
+      </c>
+      <c r="K35" s="18">
+        <v>-809266.7357900599</v>
+      </c>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -683,6 +683,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -692,7 +695,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -791,6 +794,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +839,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -932,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +950,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1040,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1094,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1181,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1205,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1289,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,11 +1328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405057536"/>
-        <c:axId val="405059072"/>
+        <c:axId val="511623168"/>
+        <c:axId val="511624704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="405057536"/>
+        <c:axId val="511623168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,14 +1375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405059072"/>
+        <c:crossAx val="511624704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="405059072"/>
+        <c:axId val="511624704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405057536"/>
+        <c:crossAx val="511623168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1576,7 +1594,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1675,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45629.397993517334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,8 +1710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155857280"/>
-        <c:axId val="155847296"/>
+        <c:axId val="431722880"/>
+        <c:axId val="431721088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1715,7 +1736,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1814,6 +1835,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1847,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1922,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,11 +1965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97836416"/>
-        <c:axId val="155845760"/>
+        <c:axId val="431717760"/>
+        <c:axId val="431719552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97836416"/>
+        <c:axId val="431717760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,14 +2012,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155845760"/>
+        <c:crossAx val="431719552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155845760"/>
+        <c:axId val="431719552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2070,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97836416"/>
+        <c:crossAx val="431717760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155847296"/>
+        <c:axId val="431721088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2112,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155857280"/>
+        <c:crossAx val="431722880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155857280"/>
+        <c:axId val="431722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,7 +2126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155847296"/>
+        <c:crossAx val="431721088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2276,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2348,6 +2375,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +2387,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2456,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5769332.1165007073</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6412356.9407751895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2531,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2597,6 +2630,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,7 +2642,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2705,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5663725.5784917651</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6377769.0479670847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,7 +2786,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2846,6 +2885,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,7 +2897,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2954,6 +2996,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-105606.53800894227</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-34587.892808104865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,11 +3020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155970944"/>
-        <c:axId val="155972736"/>
+        <c:axId val="434847104"/>
+        <c:axId val="434848896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="155970944"/>
+        <c:axId val="434847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,14 +3067,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155972736"/>
+        <c:crossAx val="434848896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155972736"/>
+        <c:axId val="434848896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155970944"/>
+        <c:crossAx val="434847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,7 +3286,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3340,6 +3385,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1082902.248820764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>643024.82427448209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,8 +3402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="371871744"/>
-        <c:axId val="371869952"/>
+        <c:axId val="434880512"/>
+        <c:axId val="434878720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3380,7 +3428,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3479,6 +3527,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3488,7 +3539,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3587,6 +3638,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,11 +3657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371862528"/>
-        <c:axId val="371868416"/>
+        <c:axId val="434863104"/>
+        <c:axId val="434877184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371862528"/>
+        <c:axId val="434863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,14 +3704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371868416"/>
+        <c:crossAx val="434877184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371868416"/>
+        <c:axId val="434877184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3708,12 +3762,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371862528"/>
+        <c:crossAx val="434863104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371869952"/>
+        <c:axId val="434878720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,12 +3804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371871744"/>
+        <c:crossAx val="434880512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="371871744"/>
+        <c:axId val="434880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371869952"/>
+        <c:crossAx val="434878720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3914,7 +3968,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4013,6 +4067,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4022,7 +4079,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4121,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7795825.7760371994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8128674.1780120125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,7 +4223,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4262,6 +4322,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,7 +4334,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4370,6 +4433,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6986559.0402471395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7407013.3741792245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,7 +4478,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4511,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4520,7 +4589,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4619,6 +4688,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-809266.7357900599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-721660.80383278802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4640,11 +4712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371883392"/>
-        <c:axId val="371889280"/>
+        <c:axId val="445320576"/>
+        <c:axId val="476427392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="371883392"/>
+        <c:axId val="445320576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,14 +4759,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371889280"/>
+        <c:crossAx val="476427392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="371889280"/>
+        <c:axId val="476427392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371883392"/>
+        <c:crossAx val="445320576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4906,7 +4978,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5005,6 +5077,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,8 +5094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="407453696"/>
-        <c:axId val="407451904"/>
+        <c:axId val="484892672"/>
+        <c:axId val="484890880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5045,7 +5120,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5144,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5153,7 +5231,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5252,6 +5330,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5268,11 +5349,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403196928"/>
-        <c:axId val="407450368"/>
+        <c:axId val="476470272"/>
+        <c:axId val="484889344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403196928"/>
+        <c:axId val="476470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,14 +5396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407450368"/>
+        <c:crossAx val="484889344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407450368"/>
+        <c:axId val="484889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5373,12 +5454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403196928"/>
+        <c:crossAx val="476470272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="407451904"/>
+        <c:axId val="484890880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5415,12 +5496,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407453696"/>
+        <c:crossAx val="484892672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="407453696"/>
+        <c:axId val="484892672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5429,7 +5510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407451904"/>
+        <c:crossAx val="484890880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5561,7 +5642,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5660,6 +5741,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,8 +5758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="458574464"/>
-        <c:axId val="458572928"/>
+        <c:axId val="564298880"/>
+        <c:axId val="524283264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5700,7 +5784,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5799,6 +5883,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5808,7 +5895,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5907,6 +5994,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5923,11 +6013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442611200"/>
-        <c:axId val="442612736"/>
+        <c:axId val="524279808"/>
+        <c:axId val="524281728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442611200"/>
+        <c:axId val="524279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5970,14 +6060,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442612736"/>
+        <c:crossAx val="524281728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442612736"/>
+        <c:axId val="524281728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6028,12 +6118,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442611200"/>
+        <c:crossAx val="524279808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458572928"/>
+        <c:axId val="524283264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,12 +6160,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458574464"/>
+        <c:crossAx val="564298880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="458574464"/>
+        <c:axId val="564298880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6084,7 +6174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="458572928"/>
+        <c:crossAx val="524283264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6234,7 +6324,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6333,6 +6423,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,7 +6435,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6441,6 +6534,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1093417.9601735687</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1165936.9559691674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6483,7 +6579,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6582,6 +6678,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6690,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6690,6 +6789,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935455.00165414216</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1019703.8642914734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,7 +6834,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6831,6 +6933,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,7 +6945,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6939,6 +7044,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-157962.95851942652</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-146233.091677694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,11 +7068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490516864"/>
-        <c:axId val="490518400"/>
+        <c:axId val="617547648"/>
+        <c:axId val="617566208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490516864"/>
+        <c:axId val="617547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,14 +7115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490518400"/>
+        <c:crossAx val="617566208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490518400"/>
+        <c:axId val="617566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7065,7 +7173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490516864"/>
+        <c:crossAx val="617547648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7235,7 +7343,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7334,6 +7442,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>72518.995795598632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7348,8 +7459,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495549440"/>
-        <c:axId val="495547904"/>
+        <c:axId val="617615360"/>
+        <c:axId val="617612416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7374,7 +7485,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7473,6 +7584,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,7 +7596,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7581,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,11 +7714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491865600"/>
-        <c:axId val="491867520"/>
+        <c:axId val="617603456"/>
+        <c:axId val="617604992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491865600"/>
+        <c:axId val="617603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7644,14 +7761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491867520"/>
+        <c:crossAx val="617604992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491867520"/>
+        <c:axId val="617604992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7702,12 +7819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491865600"/>
+        <c:crossAx val="617603456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495547904"/>
+        <c:axId val="617612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7744,12 +7861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495549440"/>
+        <c:crossAx val="617615360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495549440"/>
+        <c:axId val="617615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7758,7 +7875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495547904"/>
+        <c:crossAx val="617612416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7908,7 +8025,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8007,6 +8124,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8016,7 +8136,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8115,6 +8235,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>9041062.8937331364</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9706759.6976827625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8157,7 +8280,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8256,6 +8379,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,7 +8391,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8364,6 +8490,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7972175.7616298608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8737837.3527231254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8406,7 +8535,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8505,6 +8634,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8514,7 +8646,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8613,6 +8745,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-1068887.1321032755</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-968922.34495963715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8634,11 +8769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89699072"/>
-        <c:axId val="89700608"/>
+        <c:axId val="617644416"/>
+        <c:axId val="617647488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89699072"/>
+        <c:axId val="617644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,14 +8816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89700608"/>
+        <c:crossAx val="617647488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89700608"/>
+        <c:axId val="617647488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8739,7 +8874,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89699072"/>
+        <c:crossAx val="617644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8909,7 +9044,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9008,6 +9143,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>665696.80394962698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9022,8 +9160,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97531392"/>
-        <c:axId val="97529856"/>
+        <c:axId val="617931520"/>
+        <c:axId val="617925632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9048,7 +9186,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9147,6 +9285,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9156,7 +9297,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9255,6 +9396,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9271,11 +9415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97518336"/>
-        <c:axId val="97519872"/>
+        <c:axId val="617794944"/>
+        <c:axId val="617923712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97518336"/>
+        <c:axId val="617794944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9318,14 +9462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97519872"/>
+        <c:crossAx val="617923712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97519872"/>
+        <c:axId val="617923712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9376,12 +9520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97518336"/>
+        <c:crossAx val="617794944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97529856"/>
+        <c:axId val="617925632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9418,12 +9562,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97531392"/>
+        <c:crossAx val="617931520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97531392"/>
+        <c:axId val="617931520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9432,7 +9576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97529856"/>
+        <c:crossAx val="617925632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9582,7 +9726,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9681,6 +9825,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9690,7 +9837,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9789,6 +9936,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>828558.34987809858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1007628.5541064353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9831,7 +9981,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9930,6 +10080,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9939,7 +10092,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10038,6 +10191,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>804597.58554773952</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>993756.80797894648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10080,7 +10236,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10179,6 +10335,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10188,7 +10347,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10287,6 +10446,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-23960.764330359059</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-13871.74612748879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10308,11 +10470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97665408"/>
-        <c:axId val="97666944"/>
+        <c:axId val="618023552"/>
+        <c:axId val="618144128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97665408"/>
+        <c:axId val="618023552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10355,14 +10517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97666944"/>
+        <c:crossAx val="618144128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97666944"/>
+        <c:axId val="618144128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97665408"/>
+        <c:crossAx val="618023552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10574,7 +10736,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10673,6 +10835,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>150783.8574307393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>179070.20422833675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10687,8 +10852,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97694464"/>
-        <c:axId val="97692672"/>
+        <c:axId val="631084928"/>
+        <c:axId val="618244736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10713,7 +10878,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10812,6 +10977,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10821,7 +10989,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10920,6 +11088,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10936,11 +11107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97689600"/>
-        <c:axId val="97691136"/>
+        <c:axId val="618236928"/>
+        <c:axId val="618243200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97689600"/>
+        <c:axId val="618236928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10983,14 +11154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97691136"/>
+        <c:crossAx val="618243200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97691136"/>
+        <c:axId val="618243200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11041,12 +11212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97689600"/>
+        <c:crossAx val="618236928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97692672"/>
+        <c:axId val="618244736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11083,12 +11254,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97694464"/>
+        <c:crossAx val="631084928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="97694464"/>
+        <c:axId val="631084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11097,7 +11268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97692672"/>
+        <c:crossAx val="618244736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11247,7 +11418,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11346,6 +11517,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11355,7 +11529,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11454,6 +11628,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>950368.93690748478</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>986628.43480528414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11496,7 +11673,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11595,6 +11772,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11604,7 +11784,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11703,6 +11883,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>828882.19078370929</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>875535.21665258589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11745,7 +11928,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11844,6 +12027,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11853,7 +12039,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11952,6 +12138,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-121486.74612377549</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-111093.21815269825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11973,11 +12162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97705984"/>
-        <c:axId val="97707520"/>
+        <c:axId val="633018240"/>
+        <c:axId val="633028992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="97705984"/>
+        <c:axId val="633018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12020,14 +12209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97707520"/>
+        <c:crossAx val="633028992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97707520"/>
+        <c:axId val="633028992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12078,7 +12267,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97705984"/>
+        <c:crossAx val="633018240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12930,7 +13119,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14433,6 +14622,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="31">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="29">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="29">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="30">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="30">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="30">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="30">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="30">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="30">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14449,7 +14676,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16329,6 +16556,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>72518.995795598632</v>
+      </c>
+      <c r="F36" s="18">
+        <v>112258.50261751573</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1578488.8864332947</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1019703.8642914734</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1165936.9559691674</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1019703.8642914734</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-146233.091677694</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16345,7 +16622,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18225,6 +18502,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>665696.80394962698</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1030490.3644733953</v>
+      </c>
+      <c r="G36" s="18">
+        <v>13526063.434425395</v>
+      </c>
+      <c r="H36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9706759.6976827625</v>
+      </c>
+      <c r="J36" s="18">
+        <v>8737837.3527231254</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-968922.34495963715</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="N36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="O36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18241,7 +18568,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20331,6 +20658,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>179070.20422833675</v>
+      </c>
+      <c r="H36" s="18">
+        <v>277198.44669037557</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1538323.1663068528</v>
+      </c>
+      <c r="J36" s="18">
+        <v>993756.80797894648</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1007628.5541064353</v>
+      </c>
+      <c r="L36" s="18">
+        <v>993756.80797894648</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-13871.74612748879</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>41.247076733252584</v>
+      </c>
+      <c r="R36" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -20347,7 +20730,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22345,6 +22728,59 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="18">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1355317.614812956</v>
+      </c>
+      <c r="H36" s="18">
+        <v>875535.21665258589</v>
+      </c>
+      <c r="I36" s="18">
+        <v>986628.43480528414</v>
+      </c>
+      <c r="J36" s="18">
+        <v>875535.21665258589</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-111093.21815269825</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="N36" s="21">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="O36" s="21">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="P36" s="21">
+        <v>24.637298119742262</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22361,7 +22797,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ35"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24071,6 +24507,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="17">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="17">
+        <v>643024.82427448209</v>
+      </c>
+      <c r="H36" s="18">
+        <v>995394.42220634886</v>
+      </c>
+      <c r="I36" s="18">
+        <v>9872707.0819226261</v>
+      </c>
+      <c r="J36" s="18">
+        <v>6377769.0479670847</v>
+      </c>
+      <c r="K36" s="18">
+        <v>6412356.9407751895</v>
+      </c>
+      <c r="L36" s="18">
+        <v>6377769.0479670847</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-34587.892808104865</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -24087,7 +24567,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25590,6 +26070,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="15">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="31">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="16">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="17">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="17">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="18">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="18">
+        <v>11465964.484628707</v>
+      </c>
+      <c r="H36" s="18">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="I36" s="18">
+        <v>8128674.1780120125</v>
+      </c>
+      <c r="J36" s="18">
+        <v>7407013.3741792245</v>
+      </c>
+      <c r="K36" s="18">
+        <v>-721660.80383278802</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -686,6 +686,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +698,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -797,6 +800,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>972150.5019069548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005663.5411852957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +845,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -941,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +959,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>862228.92259935837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>919766.84470354044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1106,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1196,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1220,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1307,6 +1322,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-109921.57930759643</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85896.696481755236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511623168"/>
-        <c:axId val="511624704"/>
+        <c:axId val="446073856"/>
+        <c:axId val="458232960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511623168"/>
+        <c:axId val="446073856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511624704"/>
+        <c:crossAx val="458232960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511624704"/>
+        <c:axId val="458232960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511623168"/>
+        <c:crossAx val="446073856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1594,7 +1612,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1714,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,8 +1731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="431722880"/>
-        <c:axId val="431721088"/>
+        <c:axId val="476933120"/>
+        <c:axId val="476931584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1736,7 +1757,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1838,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1871,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1949,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431717760"/>
-        <c:axId val="431719552"/>
+        <c:axId val="476928256"/>
+        <c:axId val="476930048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431717760"/>
+        <c:axId val="476928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,14 +2039,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431719552"/>
+        <c:crossAx val="476930048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431719552"/>
+        <c:axId val="476930048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,12 +2097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431717760"/>
+        <c:crossAx val="476928256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="431721088"/>
+        <c:axId val="476931584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2112,12 +2139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431722880"/>
+        <c:crossAx val="476933120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="431722880"/>
+        <c:axId val="476933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="431721088"/>
+        <c:crossAx val="476931584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2276,7 +2303,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2378,6 +2405,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2387,7 +2417,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2488,7 +2518,10 @@
                   <c:v>5769332.1165007073</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6412356.9407751895</c:v>
+                  <c:v>6406772.7851211149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6734665.0460232133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,7 +2564,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2633,6 +2666,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2642,7 +2678,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2743,7 +2779,10 @@
                   <c:v>5663725.5784917651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6377769.0479670847</c:v>
+                  <c:v>6372184.8923130101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6877629.7629337581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2825,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2888,6 +2927,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2939,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2999,6 +3041,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-34587.892808104865</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142964.71691054478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,11 +3065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434847104"/>
-        <c:axId val="434848896"/>
+        <c:axId val="476989696"/>
+        <c:axId val="476991488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434847104"/>
+        <c:axId val="476989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,14 +3112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434848896"/>
+        <c:crossAx val="476991488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434848896"/>
+        <c:axId val="476991488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434847104"/>
+        <c:crossAx val="476989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3286,7 +3331,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3387,7 +3432,10 @@
                   <c:v>1082902.248820764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>643024.82427448209</c:v>
+                  <c:v>637440.66862040793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>327892.26090209873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,8 +3450,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434880512"/>
-        <c:axId val="434878720"/>
+        <c:axId val="477035136"/>
+        <c:axId val="477033600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3428,7 +3476,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3530,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3539,7 +3590,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3641,6 +3692,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,11 +3711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434863104"/>
-        <c:axId val="434877184"/>
+        <c:axId val="477017984"/>
+        <c:axId val="477019520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434863104"/>
+        <c:axId val="477017984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3704,14 +3758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434877184"/>
+        <c:crossAx val="477019520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434877184"/>
+        <c:axId val="477019520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,12 +3816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434863104"/>
+        <c:crossAx val="477017984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434878720"/>
+        <c:axId val="477033600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,12 +3858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434880512"/>
+        <c:crossAx val="477035136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434880512"/>
+        <c:axId val="477035136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434878720"/>
+        <c:crossAx val="477033600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3968,7 +4022,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4070,6 +4124,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,7 +4136,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4181,6 +4238,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8128674.1780120125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8413009.3176757134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4283,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4325,6 +4385,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,7 +4397,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4436,6 +4499,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7407013.3741792245</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7897735.2676850744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,7 +4544,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4580,6 +4646,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4658,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4691,6 +4760,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-721660.80383278802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-515274.04999063909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,11 +4784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445320576"/>
-        <c:axId val="476427392"/>
+        <c:axId val="478370048"/>
+        <c:axId val="478371840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445320576"/>
+        <c:axId val="478370048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,14 +4831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476427392"/>
+        <c:crossAx val="478371840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476427392"/>
+        <c:axId val="478371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445320576"/>
+        <c:crossAx val="478370048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,7 +5050,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5080,6 +5152,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,8 +5169,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484892672"/>
-        <c:axId val="484890880"/>
+        <c:axId val="478407296"/>
+        <c:axId val="478405760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5120,7 +5195,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5222,6 +5297,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5231,7 +5309,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5333,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5349,11 +5430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476470272"/>
-        <c:axId val="484889344"/>
+        <c:axId val="478398336"/>
+        <c:axId val="478399872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476470272"/>
+        <c:axId val="478398336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,14 +5477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484889344"/>
+        <c:crossAx val="478399872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="484889344"/>
+        <c:axId val="478399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5454,12 +5535,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476470272"/>
+        <c:crossAx val="478398336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="484890880"/>
+        <c:axId val="478405760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,12 +5577,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="484892672"/>
+        <c:crossAx val="478407296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="484892672"/>
+        <c:axId val="478407296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484890880"/>
+        <c:crossAx val="478405760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5642,7 +5723,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5744,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5758,8 +5842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564298880"/>
-        <c:axId val="524283264"/>
+        <c:axId val="475280896"/>
+        <c:axId val="473492864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5784,7 +5868,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5886,6 +5970,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5895,7 +5982,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5997,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,11 +6103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524279808"/>
-        <c:axId val="524281728"/>
+        <c:axId val="473489408"/>
+        <c:axId val="473491328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524279808"/>
+        <c:axId val="473489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,14 +6150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524281728"/>
+        <c:crossAx val="473491328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524281728"/>
+        <c:axId val="473491328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6118,12 +6208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524279808"/>
+        <c:crossAx val="473489408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524283264"/>
+        <c:axId val="473492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6160,12 +6250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564298880"/>
+        <c:crossAx val="475280896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564298880"/>
+        <c:axId val="475280896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6174,7 +6264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524283264"/>
+        <c:crossAx val="473492864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6324,7 +6414,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6426,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,7 +6528,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6537,6 +6630,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1165936.9559691674</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1197774.3432835913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6579,7 +6675,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6681,6 +6777,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6690,7 +6789,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6792,6 +6891,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1019703.8642914734</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1079953.9680139774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6834,7 +6936,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6936,6 +7038,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6945,7 +7050,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7047,6 +7152,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-146233.091677694</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-117820.37526961393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,11 +7176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617547648"/>
-        <c:axId val="617566208"/>
+        <c:axId val="503012352"/>
+        <c:axId val="533967616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617547648"/>
+        <c:axId val="503012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7115,14 +7223,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617566208"/>
+        <c:crossAx val="533967616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617566208"/>
+        <c:axId val="533967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,7 +7281,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617547648"/>
+        <c:crossAx val="503012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7343,7 +7451,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7445,6 +7553,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>72518.995795598632</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31837.387314423886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,8 +7570,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617615360"/>
-        <c:axId val="617612416"/>
+        <c:axId val="537790336"/>
+        <c:axId val="537788416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7485,7 +7596,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7587,6 +7698,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7596,7 +7710,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7698,6 +7812,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,11 +7831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617603456"/>
-        <c:axId val="617604992"/>
+        <c:axId val="537682304"/>
+        <c:axId val="537684224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617603456"/>
+        <c:axId val="537682304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7761,14 +7878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617604992"/>
+        <c:crossAx val="537684224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617604992"/>
+        <c:axId val="537684224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,12 +7936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617603456"/>
+        <c:crossAx val="537682304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617612416"/>
+        <c:axId val="537788416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7861,12 +7978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617615360"/>
+        <c:crossAx val="537790336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617615360"/>
+        <c:axId val="537790336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,7 +7992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617612416"/>
+        <c:crossAx val="537788416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8025,7 +8142,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8127,6 +8244,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8136,7 +8256,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8238,6 +8358,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>9706759.6976827625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9976878.0803632792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8280,7 +8403,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8382,6 +8505,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8391,7 +8517,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8493,6 +8619,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8737837.3527231254</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9251424.1613033079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8535,7 +8664,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8637,6 +8766,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8646,7 +8778,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8748,6 +8880,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-968922.34495963715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-725453.91905997135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8769,11 +8904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617644416"/>
-        <c:axId val="617647488"/>
+        <c:axId val="594201600"/>
+        <c:axId val="461870208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617644416"/>
+        <c:axId val="594201600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8816,14 +8951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617647488"/>
+        <c:crossAx val="461870208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617647488"/>
+        <c:axId val="461870208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8874,7 +9009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617644416"/>
+        <c:crossAx val="594201600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9044,7 +9179,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9146,6 +9281,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>665696.80394962698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>270118.38268051669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9160,8 +9298,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617931520"/>
-        <c:axId val="617925632"/>
+        <c:axId val="473461120"/>
+        <c:axId val="473459328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9186,7 +9324,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9288,6 +9426,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9297,7 +9438,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9399,6 +9540,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9415,11 +9559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617794944"/>
-        <c:axId val="617923712"/>
+        <c:axId val="473447808"/>
+        <c:axId val="473457792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617794944"/>
+        <c:axId val="473447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,14 +9606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617923712"/>
+        <c:crossAx val="473457792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617923712"/>
+        <c:axId val="473457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9520,12 +9664,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617794944"/>
+        <c:crossAx val="473447808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617925632"/>
+        <c:axId val="473459328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9562,12 +9706,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617931520"/>
+        <c:crossAx val="473461120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617931520"/>
+        <c:axId val="473461120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9576,7 +9720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617925632"/>
+        <c:crossAx val="473459328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9726,7 +9870,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9828,6 +9972,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9837,7 +9984,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9938,7 +10085,10 @@
                   <c:v>828558.34987809858</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1007628.5541064353</c:v>
+                  <c:v>1006073.4727850476</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1049446.5629929835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9981,7 +10131,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10083,6 +10233,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10092,7 +10245,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10193,7 +10346,10 @@
                   <c:v>804597.58554773952</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>993756.80797894648</c:v>
+                  <c:v>992201.7266575587</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1063221.2221271994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10236,7 +10392,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10338,6 +10494,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10347,7 +10506,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10448,7 +10607,10 @@
                   <c:v>-23960.764330359059</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-13871.74612748879</c:v>
+                  <c:v>-13871.746127488906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13774.659134215908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10470,11 +10632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618023552"/>
-        <c:axId val="618144128"/>
+        <c:axId val="476863872"/>
+        <c:axId val="476865664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618023552"/>
+        <c:axId val="476863872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,14 +10679,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618144128"/>
+        <c:crossAx val="476865664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618144128"/>
+        <c:axId val="476865664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,7 +10737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618023552"/>
+        <c:crossAx val="476863872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10736,7 +10898,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10837,7 +10999,10 @@
                   <c:v>150783.8574307393</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>179070.20422833675</c:v>
+                  <c:v>177515.12290694905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43373.090207935842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10852,8 +11017,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="631084928"/>
-        <c:axId val="618244736"/>
+        <c:axId val="476884992"/>
+        <c:axId val="476879104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10878,7 +11043,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10980,6 +11145,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10989,7 +11157,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11091,6 +11259,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11107,11 +11278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618236928"/>
-        <c:axId val="618243200"/>
+        <c:axId val="476875776"/>
+        <c:axId val="476877568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618236928"/>
+        <c:axId val="476875776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11154,14 +11325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618243200"/>
+        <c:crossAx val="476877568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618243200"/>
+        <c:axId val="476877568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11212,12 +11383,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618236928"/>
+        <c:crossAx val="476875776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="618244736"/>
+        <c:axId val="476879104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11254,12 +11425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631084928"/>
+        <c:crossAx val="476884992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="631084928"/>
+        <c:axId val="476884992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11268,7 +11439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="618244736"/>
+        <c:crossAx val="476879104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11418,7 +11589,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11520,6 +11691,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11529,7 +11703,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11631,6 +11805,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>986628.43480528414</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1020141.474083625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11673,7 +11850,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11775,6 +11952,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11784,7 +11964,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11886,6 +12066,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>875535.21665258589</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>933443.90126205632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11928,7 +12111,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12030,6 +12213,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12039,7 +12225,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12141,6 +12327,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-111093.21815269825</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-86697.572821568698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12162,11 +12351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633018240"/>
-        <c:axId val="633028992"/>
+        <c:axId val="476908160"/>
+        <c:axId val="476909952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633018240"/>
+        <c:axId val="476908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12209,14 +12398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633028992"/>
+        <c:crossAx val="476909952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633028992"/>
+        <c:axId val="476909952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12267,7 +12456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633018240"/>
+        <c:crossAx val="476908160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13119,7 +13308,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14660,6 +14849,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="32">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="31">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="29">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="29">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="30">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="30">
+        <v>1385191.0839015078</v>
+      </c>
+      <c r="H37" s="30">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="I37" s="30">
+        <v>1005663.5411852957</v>
+      </c>
+      <c r="J37" s="30">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="K37" s="30">
+        <v>-85896.696481755236</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14676,7 +14903,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16606,6 +16833,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>31837.387314423886</v>
+      </c>
+      <c r="F37" s="18">
+        <v>47947.874286416081</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1626436.7607197107</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1079953.9680139774</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1197774.3432835913</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1079953.9680139774</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-117820.37526961393</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16622,7 +16899,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18552,6 +18829,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>270118.38268051669</v>
+      </c>
+      <c r="F37" s="18">
+        <v>406804.8086768646</v>
+      </c>
+      <c r="G37" s="18">
+        <v>13932868.24310226</v>
+      </c>
+      <c r="H37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="I37" s="18">
+        <v>9976878.0803632792</v>
+      </c>
+      <c r="J37" s="18">
+        <v>9251424.1613033079</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-725453.91905997135</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="N37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="O37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18568,7 +18895,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20666,10 +20993,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -20678,25 +21005,25 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>179070.20422833675</v>
+        <v>177515.12290694905</v>
       </c>
       <c r="H36" s="18">
-        <v>277198.44669037557</v>
+        <v>274791.20016589947</v>
       </c>
       <c r="I36" s="18">
-        <v>1538323.1663068528</v>
+        <v>1535915.9197823766</v>
       </c>
       <c r="J36" s="18">
-        <v>993756.80797894648</v>
+        <v>992201.7266575587</v>
       </c>
       <c r="K36" s="18">
-        <v>1007628.5541064353</v>
+        <v>1006073.4727850476</v>
       </c>
       <c r="L36" s="18">
-        <v>993756.80797894648</v>
+        <v>992201.7266575587</v>
       </c>
       <c r="M36" s="18">
-        <v>-13871.74612748879</v>
+        <v>-13871.746127488906</v>
       </c>
       <c r="N36" s="17">
         <v>0</v>
@@ -20712,6 +21039,62 @@
       </c>
       <c r="R36" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>43373.090207935842</v>
+      </c>
+      <c r="H37" s="18">
+        <v>65320.921474021532</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1601236.8412563982</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1063221.2221271994</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1049446.5629929835</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1063221.2221271994</v>
+      </c>
+      <c r="M37" s="18">
+        <v>13774.659134215908</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="P37" s="22">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="Q37" s="22">
+        <v>43.48652979146042</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -20730,7 +21113,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22781,6 +23164,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="18">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1405789.0614302361</v>
+      </c>
+      <c r="H37" s="18">
+        <v>933443.90126205632</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1020141.474083625</v>
+      </c>
+      <c r="J37" s="18">
+        <v>933443.90126205632</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-86697.572821568698</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>46.808513876214093</v>
+      </c>
+      <c r="N37" s="21">
+        <v>31.203239445701929</v>
+      </c>
+      <c r="O37" s="21">
+        <v>25.589249339099069</v>
+      </c>
+      <c r="P37" s="21">
+        <v>42.431219658907651</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22797,7 +23233,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24515,10 +24951,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="16">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="17">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="17">
         <v>8545319</v>
@@ -24527,27 +24963,71 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>643024.82427448209</v>
+        <v>637440.66862040793</v>
       </c>
       <c r="H36" s="18">
-        <v>995394.42220634886</v>
+        <v>986750.21877754806</v>
       </c>
       <c r="I36" s="18">
-        <v>9872707.0819226261</v>
+        <v>9864062.878493825</v>
       </c>
       <c r="J36" s="18">
-        <v>6377769.0479670847</v>
+        <v>6372184.8923130101</v>
       </c>
       <c r="K36" s="18">
-        <v>6412356.9407751895</v>
+        <v>6406772.7851211149</v>
       </c>
       <c r="L36" s="18">
-        <v>6377769.0479670847</v>
+        <v>6372184.8923130101</v>
       </c>
       <c r="M36" s="18">
         <v>-34587.892808104865</v>
       </c>
       <c r="N36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="17">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="17">
+        <v>327892.26090209873</v>
+      </c>
+      <c r="H37" s="18">
+        <v>493813.66473183746</v>
+      </c>
+      <c r="I37" s="18">
+        <v>10357876.543225663</v>
+      </c>
+      <c r="J37" s="18">
+        <v>6877629.7629337581</v>
+      </c>
+      <c r="K37" s="18">
+        <v>6734665.0460232133</v>
+      </c>
+      <c r="L37" s="18">
+        <v>6877629.7629337581</v>
+      </c>
+      <c r="M37" s="18">
+        <v>142964.71691054478</v>
+      </c>
+      <c r="N37" s="17">
         <v>0</v>
       </c>
     </row>
@@ -24567,7 +25047,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26108,6 +26588,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="15">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="31">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="16">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="17">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="17">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="18">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="18">
+        <v>11894180.072709618</v>
+      </c>
+      <c r="H37" s="18">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="I37" s="18">
+        <v>8413009.3176757134</v>
+      </c>
+      <c r="J37" s="18">
+        <v>7897735.2676850744</v>
+      </c>
+      <c r="K37" s="18">
+        <v>-515274.04999063909</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -1346,11 +1346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504873728"/>
-        <c:axId val="504889344"/>
+        <c:axId val="507361536"/>
+        <c:axId val="507365248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504873728"/>
+        <c:axId val="507361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,14 +1393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504889344"/>
+        <c:crossAx val="507365248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504889344"/>
+        <c:axId val="507365248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1451,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504873728"/>
+        <c:crossAx val="507361536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,8 +1731,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492980864"/>
-        <c:axId val="492979328"/>
+        <c:axId val="699923840"/>
+        <c:axId val="699922304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1992,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492971904"/>
-        <c:axId val="492973440"/>
+        <c:axId val="699889920"/>
+        <c:axId val="699920384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492971904"/>
+        <c:axId val="699889920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,14 +2039,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492973440"/>
+        <c:crossAx val="699920384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492973440"/>
+        <c:axId val="699920384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,12 +2097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492971904"/>
+        <c:crossAx val="699889920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492979328"/>
+        <c:axId val="699922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,12 +2139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492980864"/>
+        <c:crossAx val="699923840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492980864"/>
+        <c:axId val="699923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492979328"/>
+        <c:crossAx val="699922304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3065,11 +3065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493238144"/>
-        <c:axId val="493239680"/>
+        <c:axId val="500839936"/>
+        <c:axId val="500841472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493238144"/>
+        <c:axId val="500839936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,14 +3112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493239680"/>
+        <c:crossAx val="500841472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493239680"/>
+        <c:axId val="500841472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3170,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493238144"/>
+        <c:crossAx val="500839936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3450,8 +3450,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493263104"/>
-        <c:axId val="493261568"/>
+        <c:axId val="500873088"/>
+        <c:axId val="500871552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3711,11 +3711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493258240"/>
-        <c:axId val="493259776"/>
+        <c:axId val="500868224"/>
+        <c:axId val="500869760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493258240"/>
+        <c:axId val="500868224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,14 +3758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493259776"/>
+        <c:crossAx val="500869760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493259776"/>
+        <c:axId val="500869760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,12 +3816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493258240"/>
+        <c:crossAx val="500868224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493261568"/>
+        <c:axId val="500871552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,12 +3858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493263104"/>
+        <c:crossAx val="500873088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493263104"/>
+        <c:axId val="500873088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493261568"/>
+        <c:crossAx val="500871552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4784,11 +4784,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493286912"/>
-        <c:axId val="493288448"/>
+        <c:axId val="506569856"/>
+        <c:axId val="506571392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493286912"/>
+        <c:axId val="506569856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,14 +4831,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493288448"/>
+        <c:crossAx val="506571392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493288448"/>
+        <c:axId val="506571392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4889,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493286912"/>
+        <c:crossAx val="506569856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5169,8 +5169,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494049152"/>
-        <c:axId val="494047616"/>
+        <c:axId val="506656256"/>
+        <c:axId val="506654720"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5430,11 +5430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494036096"/>
-        <c:axId val="494037632"/>
+        <c:axId val="506651392"/>
+        <c:axId val="506652928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494036096"/>
+        <c:axId val="506651392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,14 +5477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494037632"/>
+        <c:crossAx val="506652928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494037632"/>
+        <c:axId val="506652928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,12 +5535,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494036096"/>
+        <c:crossAx val="506651392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494047616"/>
+        <c:axId val="506654720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,12 +5577,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494049152"/>
+        <c:crossAx val="506656256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494049152"/>
+        <c:axId val="506656256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494047616"/>
+        <c:crossAx val="506654720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5842,8 +5842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="562715648"/>
-        <c:axId val="562713728"/>
+        <c:axId val="530012800"/>
+        <c:axId val="530010880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6103,11 +6103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520523136"/>
-        <c:axId val="520547712"/>
+        <c:axId val="530007168"/>
+        <c:axId val="530008704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520523136"/>
+        <c:axId val="530007168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,14 +6150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520547712"/>
+        <c:crossAx val="530008704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520547712"/>
+        <c:axId val="530008704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6208,12 +6208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520523136"/>
+        <c:crossAx val="530007168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562713728"/>
+        <c:axId val="530010880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6250,12 +6250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562715648"/>
+        <c:crossAx val="530012800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="562715648"/>
+        <c:axId val="530012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +6264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562713728"/>
+        <c:crossAx val="530010880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7176,11 +7176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617167488"/>
-        <c:axId val="617174144"/>
+        <c:axId val="617408000"/>
+        <c:axId val="617414656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617167488"/>
+        <c:axId val="617408000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,14 +7223,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617174144"/>
+        <c:crossAx val="617414656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617174144"/>
+        <c:axId val="617414656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7281,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617167488"/>
+        <c:crossAx val="617408000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7570,8 +7570,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617616896"/>
-        <c:axId val="617373696"/>
+        <c:axId val="617542016"/>
+        <c:axId val="617526784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7831,11 +7831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617369984"/>
-        <c:axId val="617371904"/>
+        <c:axId val="617440768"/>
+        <c:axId val="617442688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617369984"/>
+        <c:axId val="617440768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7878,14 +7878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617371904"/>
+        <c:crossAx val="617442688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617371904"/>
+        <c:axId val="617442688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7936,12 +7936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617369984"/>
+        <c:crossAx val="617440768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617373696"/>
+        <c:axId val="617526784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,12 +7978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617616896"/>
+        <c:crossAx val="617542016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617616896"/>
+        <c:axId val="617542016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7992,7 +7992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617373696"/>
+        <c:crossAx val="617526784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8904,11 +8904,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617657856"/>
-        <c:axId val="617705472"/>
+        <c:axId val="697762560"/>
+        <c:axId val="697764480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617657856"/>
+        <c:axId val="697762560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,14 +8951,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617705472"/>
+        <c:crossAx val="697764480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617705472"/>
+        <c:axId val="697764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9009,7 +9009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617657856"/>
+        <c:crossAx val="697762560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9298,8 +9298,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617953152"/>
-        <c:axId val="617951232"/>
+        <c:axId val="697848960"/>
+        <c:axId val="697814400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9559,11 +9559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617937920"/>
-        <c:axId val="617944192"/>
+        <c:axId val="697805824"/>
+        <c:axId val="697812480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617937920"/>
+        <c:axId val="697805824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,14 +9606,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617944192"/>
+        <c:crossAx val="697812480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617944192"/>
+        <c:axId val="697812480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9664,12 +9664,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617937920"/>
+        <c:crossAx val="697805824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617951232"/>
+        <c:axId val="697814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9706,12 +9706,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617953152"/>
+        <c:crossAx val="697848960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617953152"/>
+        <c:axId val="697848960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9720,7 +9720,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617951232"/>
+        <c:crossAx val="697814400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10632,11 +10632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621247104"/>
-        <c:axId val="451342720"/>
+        <c:axId val="697886592"/>
+        <c:axId val="697946880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="621247104"/>
+        <c:axId val="697886592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10679,14 +10679,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451342720"/>
+        <c:crossAx val="697946880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451342720"/>
+        <c:axId val="697946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10737,7 +10737,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621247104"/>
+        <c:crossAx val="697886592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11017,8 +11017,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490363904"/>
-        <c:axId val="490362368"/>
+        <c:axId val="698166272"/>
+        <c:axId val="698164736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11278,11 +11278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490359040"/>
-        <c:axId val="490360832"/>
+        <c:axId val="698156160"/>
+        <c:axId val="698157696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490359040"/>
+        <c:axId val="698156160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11325,14 +11325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490360832"/>
+        <c:crossAx val="698157696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490360832"/>
+        <c:axId val="698157696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11383,12 +11383,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490359040"/>
+        <c:crossAx val="698156160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490362368"/>
+        <c:axId val="698164736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11425,12 +11425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490363904"/>
+        <c:crossAx val="698166272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490363904"/>
+        <c:axId val="698166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11439,7 +11439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490362368"/>
+        <c:crossAx val="698164736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12351,11 +12351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490379520"/>
-        <c:axId val="490385408"/>
+        <c:axId val="699599872"/>
+        <c:axId val="699603584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490379520"/>
+        <c:axId val="699599872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12398,14 +12398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490385408"/>
+        <c:crossAx val="699603584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490385408"/>
+        <c:axId val="699603584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12456,7 +12456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490379520"/>
+        <c:crossAx val="699599872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -400,6 +400,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -584,7 +586,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -689,6 +691,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +703,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -803,6 +808,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1005505.7452450263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1037341.6312729785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +853,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -950,6 +958,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +970,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1064,6 +1075,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>919604.65511358727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>932051.28760826006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1120,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1211,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,7 +1237,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1325,6 +1342,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-85901.090131439036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105290.34366471844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,11 +1366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507361536"/>
-        <c:axId val="507365248"/>
+        <c:axId val="393179136"/>
+        <c:axId val="393180672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507361536"/>
+        <c:axId val="393179136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,14 +1413,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507365248"/>
+        <c:crossAx val="393180672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507365248"/>
+        <c:axId val="393180672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507361536"/>
+        <c:crossAx val="393179136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1612,7 +1632,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1707,16 +1727,19 @@
                   <c:v>39443.473005789252</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>47228.66583411934</c:v>
+                  <c:v>56674.399000943209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45629.398010733668</c:v>
+                  <c:v>38024.498342278057</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36101.712250310709</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,8 +1754,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="699923840"/>
-        <c:axId val="699922304"/>
+        <c:axId val="436750976"/>
+        <c:axId val="436749440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1757,7 +1780,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1862,6 +1885,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,7 +1897,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1976,6 +2002,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,11 +2021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="699889920"/>
-        <c:axId val="699920384"/>
+        <c:axId val="436742016"/>
+        <c:axId val="436743552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="699889920"/>
+        <c:axId val="436742016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,14 +2068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699920384"/>
+        <c:crossAx val="436743552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="699920384"/>
+        <c:axId val="436743552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,12 +2126,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699889920"/>
+        <c:crossAx val="436742016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699922304"/>
+        <c:axId val="436749440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,12 +2168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699923840"/>
+        <c:crossAx val="436750976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="699923840"/>
+        <c:axId val="436750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,7 +2182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="699922304"/>
+        <c:crossAx val="436749440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2332,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2408,6 +2437,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,7 +2449,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2522,6 +2554,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6734665.0196119556</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7100439.0272066677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,7 +2599,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2669,6 +2704,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,7 +2716,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2783,6 +2821,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6877629.7419754015</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7098393.4932239084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2825,7 +2866,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2930,6 +2971,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,7 +2983,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3044,6 +3088,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>142964.72236344591</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2045.5339827593416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,11 +3112,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500839936"/>
-        <c:axId val="500841472"/>
+        <c:axId val="436811648"/>
+        <c:axId val="436813184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500839936"/>
+        <c:axId val="436811648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3112,14 +3159,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500841472"/>
+        <c:crossAx val="436813184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500841472"/>
+        <c:axId val="436813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500839936"/>
+        <c:crossAx val="436811648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3331,7 +3378,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3436,6 +3483,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>327892.26130662102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>365774.00759471167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,8 +3500,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500873088"/>
-        <c:axId val="500871552"/>
+        <c:axId val="436840704"/>
+        <c:axId val="436839168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3476,7 +3526,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3581,6 +3631,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3643,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3695,6 +3748,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3711,11 +3767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500868224"/>
-        <c:axId val="500869760"/>
+        <c:axId val="436827648"/>
+        <c:axId val="436829184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500868224"/>
+        <c:axId val="436827648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,14 +3814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500869760"/>
+        <c:crossAx val="436829184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500869760"/>
+        <c:axId val="436829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3816,12 +3872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500868224"/>
+        <c:crossAx val="436827648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500871552"/>
+        <c:axId val="436839168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,12 +3914,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500873088"/>
+        <c:crossAx val="436840704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500873088"/>
+        <c:axId val="436840704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500871552"/>
+        <c:crossAx val="436839168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4022,7 +4078,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4127,6 +4183,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4195,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4241,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8410118.6915784068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8666706.9546631575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,7 +4345,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4388,6 +4450,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,7 +4462,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4502,6 +4567,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7894764.1240472868</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7984896.5277196188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4612,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4649,6 +4717,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4658,7 +4729,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4763,6 +4834,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-515354.56753112003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-681810.42694353871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,11 +4858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506569856"/>
-        <c:axId val="506571392"/>
+        <c:axId val="436856320"/>
+        <c:axId val="436857856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506569856"/>
+        <c:axId val="436856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,14 +4905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506571392"/>
+        <c:crossAx val="436857856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506571392"/>
+        <c:axId val="436857856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4963,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506569856"/>
+        <c:crossAx val="436856320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5050,7 +5124,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5155,6 +5229,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5169,8 +5246,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506656256"/>
-        <c:axId val="506654720"/>
+        <c:axId val="439052160"/>
+        <c:axId val="439050624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5195,7 +5272,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5300,6 +5377,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5309,7 +5389,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5414,6 +5494,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5430,11 +5513,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506651392"/>
-        <c:axId val="506652928"/>
+        <c:axId val="439043200"/>
+        <c:axId val="439044736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506651392"/>
+        <c:axId val="439043200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5477,14 +5560,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506652928"/>
+        <c:crossAx val="439044736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506652928"/>
+        <c:axId val="439044736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,12 +5618,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506651392"/>
+        <c:crossAx val="439043200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506654720"/>
+        <c:axId val="439050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5577,12 +5660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506656256"/>
+        <c:crossAx val="439052160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506656256"/>
+        <c:axId val="439052160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506654720"/>
+        <c:crossAx val="439050624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5723,7 +5806,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5828,6 +5911,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5842,8 +5928,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="530012800"/>
-        <c:axId val="530010880"/>
+        <c:axId val="477201152"/>
+        <c:axId val="475831296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5868,7 +5954,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5973,6 +6059,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5982,7 +6071,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6087,6 +6176,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6103,11 +6195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530007168"/>
-        <c:axId val="530008704"/>
+        <c:axId val="475827584"/>
+        <c:axId val="475829376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530007168"/>
+        <c:axId val="475827584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,14 +6242,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530008704"/>
+        <c:crossAx val="475829376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530008704"/>
+        <c:axId val="475829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6208,12 +6300,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530007168"/>
+        <c:crossAx val="475827584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530010880"/>
+        <c:axId val="475831296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6250,12 +6342,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530012800"/>
+        <c:crossAx val="477201152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="530012800"/>
+        <c:axId val="477201152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,7 +6356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530010880"/>
+        <c:crossAx val="475831296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6414,7 +6506,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6519,6 +6611,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,7 +6623,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,16 +6718,19 @@
                   <c:v>1010526.2196699666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1055393.45221238</c:v>
+                  <c:v>1057754.885504086</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1093417.950554658</c:v>
+                  <c:v>1133803.8821886422</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1165621.3750552793</c:v>
+                  <c:v>1168100.5088264374</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1197458.7623893423</c:v>
+                  <c:v>1199937.8961605004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1230181.9878870549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6675,7 +6773,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6780,6 +6878,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6789,7 +6890,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6884,16 +6985,19 @@
                   <c:v>855691.54938569851</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>789119.89056459663</c:v>
+                  <c:v>791481.32385630254</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>935454.99500073388</c:v>
+                  <c:v>976165.04502804822</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1019388.2862596593</c:v>
+                  <c:v>1022702.0102962272</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1079629.5968321024</c:v>
+                  <c:v>1083035.6534611047</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1090444.657572814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,7 +7040,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7041,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7050,7 +7157,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7145,16 +7252,19 @@
                   <c:v>-154834.6702842681</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-266273.56164778338</c:v>
+                  <c:v>-266273.5616477835</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-157962.95555392408</c:v>
+                  <c:v>-157638.83716059395</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-146233.08879562002</c:v>
+                  <c:v>-145398.49853021023</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-117829.1655572399</c:v>
+                  <c:v>-116902.24269939563</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-139737.33031424088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7176,11 +7286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617408000"/>
-        <c:axId val="617414656"/>
+        <c:axId val="508856192"/>
+        <c:axId val="508857728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617408000"/>
+        <c:axId val="508856192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7223,14 +7333,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617414656"/>
+        <c:crossAx val="508857728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617414656"/>
+        <c:axId val="508857728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7391,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617408000"/>
+        <c:crossAx val="508856192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7451,7 +7561,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7546,16 +7656,19 @@
                   <c:v>37471.299355499788</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>44867.232542413374</c:v>
+                  <c:v>47228.66583411934</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38024.498342278057</c:v>
+                  <c:v>76048.996684556114</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72203.424500621419</c:v>
+                  <c:v>34296.626637795169</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>31837.38733406286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30244.09172655462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7570,8 +7683,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617542016"/>
-        <c:axId val="617526784"/>
+        <c:axId val="574334464"/>
+        <c:axId val="537173376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7596,7 +7709,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7701,6 +7814,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7710,7 +7826,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7815,6 +7931,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7831,11 +7950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617440768"/>
-        <c:axId val="617442688"/>
+        <c:axId val="537165184"/>
+        <c:axId val="537171072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617440768"/>
+        <c:axId val="537165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7878,14 +7997,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617442688"/>
+        <c:crossAx val="537171072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617442688"/>
+        <c:axId val="537171072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7936,12 +8055,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617440768"/>
+        <c:crossAx val="537165184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617526784"/>
+        <c:axId val="537173376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,12 +8097,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617542016"/>
+        <c:crossAx val="574334464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617542016"/>
+        <c:axId val="574334464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7992,7 +8111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617526784"/>
+        <c:crossAx val="537173376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8142,7 +8261,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8247,6 +8366,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8256,7 +8378,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8351,16 +8473,19 @@
                   <c:v>8138561.0247232979</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8675021.6658998467</c:v>
+                  <c:v>8703256.4364880864</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9041062.798604127</c:v>
+                  <c:v>9435338.701896647</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9700978.559315132</c:v>
+                  <c:v>9748798.6882343739</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9971096.9423288945</c:v>
+                  <c:v>10018917.071248136</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10262675.92117865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8403,7 +8528,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8508,6 +8633,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8517,7 +8645,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8612,16 +8740,19 @@
                   <c:v>7072800.7878068425</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6688152.5560559547</c:v>
+                  <c:v>6716387.3266441943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7972175.6908059875</c:v>
+                  <c:v>8370326.9559438992</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8732056.2377725523</c:v>
+                  <c:v>8788744.2309180368</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9245481.9634682313</c:v>
+                  <c:v>9303749.493506128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9351344.9630789924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8664,7 +8795,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8769,6 +8900,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,7 +8912,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8876,13 +9010,16 @@
                   <c:v>-1986869.109843892</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1068887.1077981396</c:v>
+                  <c:v>-1065011.7459527478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-968922.32154257968</c:v>
+                  <c:v>-960054.45731633715</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-725614.97886066325</c:v>
+                  <c:v>-715167.57774200849</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-911330.95809965767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8904,11 +9041,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697762560"/>
-        <c:axId val="697764480"/>
+        <c:axId val="787981824"/>
+        <c:axId val="787983744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697762560"/>
+        <c:axId val="787981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,14 +9088,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697764480"/>
+        <c:crossAx val="787983744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697764480"/>
+        <c:axId val="787983744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9009,7 +9146,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697762560"/>
+        <c:crossAx val="787981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9179,7 +9316,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9274,16 +9411,19 @@
                   <c:v>374176.75560012757</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>536460.6411765482</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.1327042802</c:v>
+                  <c:v>732082.2654085604</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>659915.76071100484</c:v>
+                  <c:v>313459.98633772728</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>270118.38301376312</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>243758.84993051292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9298,8 +9438,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="697848960"/>
-        <c:axId val="697814400"/>
+        <c:axId val="432172416"/>
+        <c:axId val="432170880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9324,7 +9464,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9429,6 +9569,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,7 +9581,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9543,6 +9686,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9559,11 +9705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697805824"/>
-        <c:axId val="697812480"/>
+        <c:axId val="432163456"/>
+        <c:axId val="432169344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697805824"/>
+        <c:axId val="432163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9606,14 +9752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697812480"/>
+        <c:crossAx val="432169344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697812480"/>
+        <c:axId val="432169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9664,12 +9810,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697805824"/>
+        <c:crossAx val="432163456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="697814400"/>
+        <c:axId val="432170880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9706,12 +9852,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697848960"/>
+        <c:crossAx val="432172416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="697848960"/>
+        <c:axId val="432172416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9720,7 +9866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="697814400"/>
+        <c:crossAx val="432170880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9870,7 +10016,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9975,6 +10121,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9984,7 +10133,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10079,16 +10228,19 @@
                   <c:v>486069.61866649543</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>677774.48890253564</c:v>
+                  <c:v>687864.21891495888</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>828558.34644705884</c:v>
+                  <c:v>989431.93400400528</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1006073.4694623705</c:v>
+                  <c:v>1073751.6174362784</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1049446.5597238159</c:v>
+                  <c:v>1117124.7076977238</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1165508.7378162649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10131,7 +10283,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10236,6 +10388,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10245,7 +10400,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10340,16 +10495,19 @@
                   <c:v>440577.85841508594</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>574905.15125616861</c:v>
+                  <c:v>584994.88126859185</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>804597.5829268439</c:v>
+                  <c:v>966856.03580785019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>992201.72411216167</c:v>
+                  <c:v>1063299.3302477051</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1063221.2195643878</c:v>
+                  <c:v>1136299.8676388341</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1160725.7695541636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10392,7 +10550,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10497,6 +10655,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10506,7 +10667,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10604,13 +10765,16 @@
                   <c:v>-102869.33764636703</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-23960.763520214939</c:v>
+                  <c:v>-22575.898196155089</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-13871.745350208832</c:v>
+                  <c:v>-10452.287188573275</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>13774.659840571927</c:v>
+                  <c:v>19175.159941110294</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4782.9682621012907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10632,11 +10796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="697886592"/>
-        <c:axId val="697946880"/>
+        <c:axId val="433142400"/>
+        <c:axId val="433144192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="697886592"/>
+        <c:axId val="433142400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10679,14 +10843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697946880"/>
+        <c:crossAx val="433144192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697946880"/>
+        <c:axId val="433144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10737,7 +10901,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697886592"/>
+        <c:crossAx val="433142400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10898,7 +11062,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10993,16 +11157,19 @@
                   <c:v>70666.134562425083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>191704.87023604018</c:v>
+                  <c:v>201794.60024846339</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>150783.85754452317</c:v>
+                  <c:v>301567.71508904634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>177515.12301531172</c:v>
+                  <c:v>84319.683432273057</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43373.090261445432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>48384.030118540977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11017,8 +11184,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="698166272"/>
-        <c:axId val="698164736"/>
+        <c:axId val="433171456"/>
+        <c:axId val="433169920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11043,7 +11210,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11148,6 +11315,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11157,7 +11327,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11262,6 +11432,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11278,11 +11451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="698156160"/>
-        <c:axId val="698157696"/>
+        <c:axId val="433162496"/>
+        <c:axId val="433168384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="698156160"/>
+        <c:axId val="433162496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11325,14 +11498,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698157696"/>
+        <c:crossAx val="433168384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="698157696"/>
+        <c:axId val="433168384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11383,12 +11556,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698156160"/>
+        <c:crossAx val="433162496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="698164736"/>
+        <c:axId val="433169920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11425,12 +11598,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698166272"/>
+        <c:crossAx val="433171456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="698166272"/>
+        <c:axId val="433171456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11439,7 +11612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="698164736"/>
+        <c:crossAx val="433169920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11589,7 +11762,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11694,6 +11867,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11703,7 +11879,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11798,16 +11974,19 @@
                   <c:v>857510.86276580952</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>904739.52859992883</c:v>
+                  <c:v>914185.26176675269</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>950368.92661066249</c:v>
+                  <c:v>952209.76010903076</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>986470.63886097318</c:v>
+                  <c:v>988311.47235934145</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1019983.6781599867</c:v>
+                  <c:v>1021824.511658355</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1053660.3976863073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11850,7 +12029,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11955,6 +12134,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11964,7 +12146,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12059,16 +12241,19 @@
                   <c:v>737546.09345506981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>688722.25176690519</c:v>
+                  <c:v>698167.98493372917</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>828882.18361810432</c:v>
+                  <c:v>832019.49068979442</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>875377.4237496414</c:v>
+                  <c:v>878554.07017397531</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>933281.71168662712</c:v>
+                  <c:v>936546.87121475919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>948636.28833261249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12111,7 +12296,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12216,6 +12401,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12225,7 +12413,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12320,16 +12508,19 @@
                   <c:v>-119964.76931073971</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-216017.27683302364</c:v>
+                  <c:v>-216017.27683302353</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-121486.74299255817</c:v>
+                  <c:v>-120190.26941923634</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-111093.21511133178</c:v>
+                  <c:v>-109757.40218536614</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-86701.966473359615</c:v>
+                  <c:v>-85277.640443595825</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105024.10935369483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12351,11 +12542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="699599872"/>
-        <c:axId val="699603584"/>
+        <c:axId val="433182976"/>
+        <c:axId val="433184768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="699599872"/>
+        <c:axId val="433182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12398,14 +12589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699603584"/>
+        <c:crossAx val="433184768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="699603584"/>
+        <c:axId val="433184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12456,7 +12647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699599872"/>
+        <c:crossAx val="433182976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13308,7 +13499,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13478,6 +13669,16 @@
         <f>-Z3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AD3" s="24">
+        <f>-AC3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -13551,9 +13752,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="27">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="19"/>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27"/>
@@ -13627,9 +13835,16 @@
       <c r="AA5" s="27">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="27">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
@@ -13672,14 +13887,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="27"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="34">
+        <v>850637.82951930468</v>
+      </c>
+      <c r="S6" s="34">
+        <v>731948.73696905444</v>
+      </c>
+      <c r="T6" s="34">
+        <v>-118689.09255025024</v>
+      </c>
+      <c r="U6" s="34">
+        <v>0</v>
+      </c>
+      <c r="V6" s="33">
+        <v>-0.13952952529435639</v>
+      </c>
+      <c r="W6" s="33">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="28">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="27"/>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="27"/>
-      <c r="AD6" s="28"/>
+      <c r="AD6" s="28">
+        <v>731948.73696905444</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13723,6 +13966,9 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
+      <c r="AD7" s="25">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="AG7" s="25"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -14886,6 +15132,47 @@
       <c r="L37" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="32">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="31">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="29">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="29">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="30">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="30">
+        <v>1433925.1104549211</v>
+      </c>
+      <c r="H38" s="30">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="I38" s="30">
+        <v>1037341.6312729785</v>
+      </c>
+      <c r="J38" s="30">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="K38" s="30">
+        <v>-105290.34366471844</v>
+      </c>
+      <c r="L38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14903,7 +15190,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15084,6 +15371,16 @@
         <f>-AA3</f>
         <v>-111243.64621869735</v>
       </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>111243.6393122976</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-111243.6393122976</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -15165,9 +15462,16 @@
         <f>-AA4</f>
         <v>-560921.33809150185</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>560921.33505378838</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-560921.33505378838</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -15252,9 +15556,16 @@
       <c r="AB5" s="7">
         <v>613380.59488827921</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-338361.24530388066</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -15308,14 +15619,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1010526.2196699666</v>
+      </c>
+      <c r="T6" s="4">
+        <v>855691.54938569851</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-154834.6702842681</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.15322182370966725</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-9.0333955811988886E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-7.5853723579241916E-2</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>855691.54938569851</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -15370,6 +15709,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-9.0333955811988886E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -16671,13 +17013,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -16697,40 +17039,40 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>44867.232542413374</v>
+        <v>47228.66583411934</v>
       </c>
       <c r="F34" s="18">
-        <v>79977.243104114154</v>
+        <v>84186.571688541211</v>
       </c>
       <c r="G34" s="18">
-        <v>1406630.847274049</v>
+        <v>1410840.175858476</v>
       </c>
       <c r="H34" s="18">
-        <v>789119.89056459663</v>
+        <v>791481.32385630254</v>
       </c>
       <c r="I34" s="18">
-        <v>1055393.45221238</v>
+        <v>1057754.885504086</v>
       </c>
       <c r="J34" s="18">
-        <v>789119.89056459663</v>
+        <v>791481.32385630254</v>
       </c>
       <c r="K34" s="18">
-        <v>-266273.56164778338</v>
+        <v>-266273.5616477835</v>
       </c>
       <c r="L34" s="17">
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -16747,40 +17089,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>38024.498342278057</v>
+        <v>76048.996684556114</v>
       </c>
       <c r="F35" s="18">
-        <v>59599.526113190608</v>
+        <v>119199.05222638122</v>
       </c>
       <c r="G35" s="18">
-        <v>1466230.3733872396</v>
+        <v>1530039.2280848571</v>
       </c>
       <c r="H35" s="18">
-        <v>935454.99500073388</v>
+        <v>976165.04502804822</v>
       </c>
       <c r="I35" s="18">
-        <v>1093417.950554658</v>
+        <v>1133803.8821886422</v>
       </c>
       <c r="J35" s="18">
-        <v>935454.99500073388</v>
+        <v>976165.04502804822</v>
       </c>
       <c r="K35" s="18">
-        <v>-157962.95555392408</v>
+        <v>-157638.83716059395</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -16797,40 +17139,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>72203.424500621419</v>
+        <v>34296.626637795169</v>
       </c>
       <c r="F36" s="18">
-        <v>111770.00218180833</v>
+        <v>53090.751036358954</v>
       </c>
       <c r="G36" s="18">
-        <v>1578000.3755690479</v>
+        <v>1583129.9791212161</v>
       </c>
       <c r="H36" s="18">
-        <v>1019388.2862596593</v>
+        <v>1022702.0102962272</v>
       </c>
       <c r="I36" s="18">
-        <v>1165621.3750552793</v>
+        <v>1168100.5088264374</v>
       </c>
       <c r="J36" s="18">
-        <v>1019388.2862596593</v>
+        <v>1022702.0102962272</v>
       </c>
       <c r="K36" s="18">
-        <v>-146233.08879562002</v>
+        <v>-145398.49853021023</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -16853,35 +17195,88 @@
         <v>47947.874315992849</v>
       </c>
       <c r="G37" s="18">
-        <v>1625948.2498850408</v>
+        <v>1631077.853437209</v>
       </c>
       <c r="H37" s="18">
-        <v>1079629.5968321024</v>
+        <v>1083035.6534611047</v>
       </c>
       <c r="I37" s="18">
-        <v>1197458.7623893423</v>
+        <v>1199937.8961605004</v>
       </c>
       <c r="J37" s="18">
-        <v>1079629.5968321024</v>
+        <v>1083035.6534611047</v>
       </c>
       <c r="K37" s="18">
-        <v>-117829.1655572399</v>
+        <v>-116902.24269939563</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>30244.09172655462</v>
+      </c>
+      <c r="F38" s="18">
+        <v>46529.373593694356</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1677607.2270309033</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1090444.657572814</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1230181.9878870549</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1090444.657572814</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-139737.33031424088</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16899,7 +17294,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17080,6 +17475,16 @@
         <f>-AA3</f>
         <v>-391166.0852938749</v>
       </c>
+      <c r="AC3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AE3" s="1">
+        <f>-AD3</f>
+        <v>-391166.03767330461</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -17161,9 +17566,16 @@
         <f>-AA4</f>
         <v>-4936141.2228610869</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-4936141.1701060347</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -17248,9 +17660,16 @@
       <c r="AB5" s="7">
         <v>5021488.7754730703</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AC5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AE5" s="7">
+        <f>-AD5</f>
+        <v>-2811253.8169439584</v>
+      </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -17304,14 +17723,42 @@
       <c r="P6" s="1">
         <v>2</v>
       </c>
+      <c r="Q6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="S6" s="4">
+        <v>8138561.0247232979</v>
+      </c>
+      <c r="T6" s="4">
+        <v>7072800.7878068425</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-1065760.2369164554</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.13095192549136045</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-5.3676131859731302E-2</v>
       </c>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="8">
+        <v>7072800.7878068425</v>
+      </c>
       <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -17366,6 +17813,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
+      <c r="AE7" s="2">
+        <v>-7.9697327658813766E-2</v>
+      </c>
       <c r="AH7" s="2"/>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -18667,13 +19117,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="N33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="O33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="P33" s="1">
         <v>0.95</v>
@@ -18693,22 +19143,22 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>536460.6411765482</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="18">
-        <v>956257.84529071697</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="18">
-        <v>11921840.786312018</v>
+        <v>11972170.146590477</v>
       </c>
       <c r="H34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="I34" s="18">
-        <v>8675021.6658998467</v>
+        <v>8703256.4364880864</v>
       </c>
       <c r="J34" s="18">
-        <v>6688152.5560559547</v>
+        <v>6716387.3266441943</v>
       </c>
       <c r="K34" s="18">
         <v>-1986869.109843892</v>
@@ -18717,16 +19167,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="N34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="O34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="P34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -18743,40 +19193,40 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>366041.1327042802</v>
+        <v>732082.2654085604</v>
       </c>
       <c r="F35" s="18">
-        <v>573732.17263077828</v>
+        <v>1147464.3452615566</v>
       </c>
       <c r="G35" s="18">
-        <v>12495572.958942795</v>
+        <v>13119634.491852034</v>
       </c>
       <c r="H35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="I35" s="18">
-        <v>9041062.798604127</v>
+        <v>9435338.701896647</v>
       </c>
       <c r="J35" s="18">
-        <v>7972175.6908059875</v>
+        <v>8370326.9559438992</v>
       </c>
       <c r="K35" s="18">
-        <v>-1068887.1077981396</v>
+        <v>-1065011.7459527478</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="N35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="O35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -18793,40 +19243,40 @@
         <v>26.839674750359887</v>
       </c>
       <c r="E36" s="17">
-        <v>659915.76071100484</v>
+        <v>313459.98633772728</v>
       </c>
       <c r="F36" s="18">
-        <v>1021541.3815149989</v>
+        <v>485232.15621962445</v>
       </c>
       <c r="G36" s="18">
-        <v>13517114.340457793</v>
+        <v>13604866.648071658</v>
       </c>
       <c r="H36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="I36" s="18">
-        <v>9700978.559315132</v>
+        <v>9748798.6882343739</v>
       </c>
       <c r="J36" s="18">
-        <v>8732056.2377725523</v>
+        <v>8788744.2309180368</v>
       </c>
       <c r="K36" s="18">
-        <v>-968922.32154257968</v>
+        <v>-960054.45731633715</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="N36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="O36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -18849,35 +19299,88 @@
         <v>406804.80917874177</v>
       </c>
       <c r="G37" s="18">
-        <v>13923919.149636535</v>
+        <v>14011671.4572504</v>
       </c>
       <c r="H37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="I37" s="18">
-        <v>9971096.9423288945</v>
+        <v>10018917.071248136</v>
       </c>
       <c r="J37" s="18">
-        <v>9245481.9634682313</v>
+        <v>9303749.493506128</v>
       </c>
       <c r="K37" s="18">
-        <v>-725614.97886066325</v>
+        <v>-715167.57774200849</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="N37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="O37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="P37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>243758.84993051292</v>
+      </c>
+      <c r="F38" s="18">
+        <v>375013.62903313013</v>
+      </c>
+      <c r="G38" s="18">
+        <v>14386685.086283529</v>
+      </c>
+      <c r="H38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="I38" s="18">
+        <v>10262675.92117865</v>
+      </c>
+      <c r="J38" s="18">
+        <v>9351344.9630789924</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-911330.95809965767</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18895,7 +19398,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19094,6 +19597,16 @@
         <f>-AC3</f>
         <v>-10976.009614458515</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>10976.008183548318</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-10976.008183548318</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -19181,9 +19694,16 @@
         <f>-AC4</f>
         <v>-211828.47506570001</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>211828.4724995298</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-211828.4724995298</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -19274,9 +19794,16 @@
       <c r="AD5" s="7">
         <v>215120.83805649204</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-263265.13798341731</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -19336,14 +19863,42 @@
       <c r="R6" s="1">
         <v>2</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="U6" s="4">
+        <v>486069.61866649543</v>
+      </c>
+      <c r="V6" s="4">
+        <v>440577.85841508594</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-45491.760251409491</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-9.3591038206036342E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-6.4611465400573387E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-3.2917802017357722E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>440577.85841508594</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -19404,6 +19959,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-6.4611465400573387E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -20861,13 +21419,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="22">
-        <v>6.6024694432251473E-3</v>
+        <v>5.5020578693542902E-3</v>
       </c>
       <c r="P33" s="22">
-        <v>2.6234933656491849E-2</v>
+        <v>2.2862451707354861E-2</v>
       </c>
       <c r="Q33" s="22">
-        <v>25.166709127893537</v>
+        <v>24.065913576470347</v>
       </c>
       <c r="R33" s="1">
         <v>0.95</v>
@@ -20893,22 +21451,22 @@
         <v>4203114.608389196</v>
       </c>
       <c r="G34" s="17">
-        <v>191704.87023604018</v>
+        <v>201794.60024846339</v>
       </c>
       <c r="H34" s="18">
-        <v>341719.91768417961</v>
+        <v>359705.17650966288</v>
       </c>
       <c r="I34" s="18">
-        <v>1024786.3850385128</v>
+        <v>1042771.643863996</v>
       </c>
       <c r="J34" s="18">
-        <v>574905.15125616861</v>
+        <v>584994.88126859185</v>
       </c>
       <c r="K34" s="18">
-        <v>677774.48890253564</v>
+        <v>687864.21891495888</v>
       </c>
       <c r="L34" s="18">
-        <v>574905.15125616861</v>
+        <v>584994.88126859185</v>
       </c>
       <c r="M34" s="18">
         <v>-102869.33764636703</v>
@@ -20917,16 +21475,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="22">
-        <v>5.5020578693542902E-3</v>
+        <v>4.5850482244619087E-3</v>
       </c>
       <c r="P34" s="22">
-        <v>2.2862451707354861E-2</v>
+        <v>3.3052041658950905E-2</v>
       </c>
       <c r="Q34" s="22">
-        <v>24.065913576470347</v>
+        <v>13.872208778425705</v>
       </c>
       <c r="R34" s="1">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -20949,40 +21507,40 @@
         <v>4305005.2464849772</v>
       </c>
       <c r="G35" s="17">
-        <v>150783.85754452317</v>
+        <v>301567.71508904634</v>
       </c>
       <c r="H35" s="18">
-        <v>236338.33046997746</v>
+        <v>472676.66093995492</v>
       </c>
       <c r="I35" s="18">
-        <v>1261124.7155084903</v>
+        <v>1515448.3048039509</v>
       </c>
       <c r="J35" s="18">
-        <v>804597.5829268439</v>
+        <v>966856.03580785019</v>
       </c>
       <c r="K35" s="18">
-        <v>828558.34644705884</v>
+        <v>989431.93400400528</v>
       </c>
       <c r="L35" s="18">
-        <v>804597.5829268439</v>
+        <v>966856.03580785019</v>
       </c>
       <c r="M35" s="18">
-        <v>-23960.763520214939</v>
+        <v>-22575.898196155089</v>
       </c>
       <c r="N35" s="17">
         <v>0</v>
       </c>
       <c r="O35" s="22">
-        <v>4.5850482244619087E-3</v>
+        <v>1.6654210509469802E-2</v>
       </c>
       <c r="P35" s="22">
-        <v>3.3052041658950905E-2</v>
+        <v>4.0376705038210635E-2</v>
       </c>
       <c r="Q35" s="22">
-        <v>13.872208778425705</v>
+        <v>41.247076733252584</v>
       </c>
       <c r="R35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21005,40 +21563,40 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="17">
-        <v>177515.12301531172</v>
+        <v>84319.683432273057</v>
       </c>
       <c r="H36" s="18">
-        <v>274791.20033364353</v>
+        <v>130525.82015848067</v>
       </c>
       <c r="I36" s="18">
-        <v>1535915.9158421338</v>
+        <v>1645974.1249624316</v>
       </c>
       <c r="J36" s="18">
-        <v>992201.72411216167</v>
+        <v>1063299.3302477051</v>
       </c>
       <c r="K36" s="18">
-        <v>1006073.4694623705</v>
+        <v>1073751.6174362784</v>
       </c>
       <c r="L36" s="18">
-        <v>992201.72411216167</v>
+        <v>1063299.3302477051</v>
       </c>
       <c r="M36" s="18">
-        <v>-13871.745350208832</v>
+        <v>-10452.287188573275</v>
       </c>
       <c r="N36" s="17">
         <v>0</v>
       </c>
       <c r="O36" s="22">
-        <v>1.6654210509469802E-2</v>
+        <v>1.5211844793302065E-2</v>
       </c>
       <c r="P36" s="22">
-        <v>4.0376705038210635E-2</v>
+        <v>3.4980590233919424E-2</v>
       </c>
       <c r="Q36" s="22">
-        <v>41.247076733252584</v>
+        <v>43.48652979146042</v>
       </c>
       <c r="R36" s="1">
-        <v>2</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
@@ -21067,35 +21625,94 @@
         <v>65320.921554608271</v>
       </c>
       <c r="I37" s="18">
-        <v>1601236.8373967421</v>
+        <v>1711295.0465170399</v>
       </c>
       <c r="J37" s="18">
-        <v>1063221.2195643878</v>
+        <v>1136299.8676388341</v>
       </c>
       <c r="K37" s="18">
-        <v>1049446.5597238159</v>
+        <v>1117124.7076977238</v>
       </c>
       <c r="L37" s="18">
-        <v>1063221.2195643878</v>
+        <v>1136299.8676388341</v>
       </c>
       <c r="M37" s="18">
-        <v>13774.659840571927</v>
+        <v>19175.159941110294</v>
       </c>
       <c r="N37" s="17">
         <v>0</v>
       </c>
       <c r="O37" s="22">
-        <v>1.5211844793302065E-2</v>
+        <v>1.5676528506264293E-2</v>
       </c>
       <c r="P37" s="22">
-        <v>3.4980590233919424E-2</v>
+        <v>3.2150483040112095E-2</v>
       </c>
       <c r="Q37" s="22">
-        <v>43.48652979146042</v>
+        <v>48.759853737518327</v>
       </c>
       <c r="R37" s="1">
         <v>0.95</v>
       </c>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>48384.030118540977</v>
+      </c>
+      <c r="H38" s="18">
+        <v>74436.972143471838</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1785732.0186605118</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1160725.7695541636</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1165508.7378162649</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1160725.7695541636</v>
+      </c>
+      <c r="M38" s="18">
+        <v>-4782.9682621012907</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P38" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21113,7 +21730,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21313,6 +21930,16 @@
         <f>-AC3</f>
         <v>-71470.226080923632</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -21400,9 +22027,16 @@
         <f>-AC4</f>
         <v>-408826.48157624499</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>408826.47803933907</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-408826.47803933907</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -21490,9 +22124,16 @@
       <c r="AD5" s="7">
         <v>442807.12225575943</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -21549,14 +22190,42 @@
       <c r="Q6" s="1">
         <v>1</v>
       </c>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="U6" s="4">
+        <v>857510.86276580952</v>
+      </c>
+      <c r="V6" s="4">
+        <v>737546.09345506981</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-119964.76931073971</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-0.1398988333789804</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-8.8558045934028273E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-6.8553336011149546E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>737546.09345506981</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -21614,6 +22283,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-8.8558045934028273E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -22990,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="21">
-        <v>10.457536880796289</v>
+        <v>18.749994445931186</v>
       </c>
       <c r="N33" s="21">
-        <v>20.690080044153873</v>
+        <v>20.04338484474631</v>
       </c>
       <c r="O33" s="21">
-        <v>30.288490686760593</v>
+        <v>26.873455406089164</v>
       </c>
       <c r="P33" s="21">
-        <v>1.4932587589404349</v>
+        <v>6.3832437220605982</v>
       </c>
       <c r="Q33" s="1">
         <v>1</v>
@@ -23019,43 +23691,43 @@
         <v>27.336624376243282</v>
       </c>
       <c r="E34" s="17">
-        <v>47228.66583411934</v>
+        <v>56674.399000943209</v>
       </c>
       <c r="F34" s="18">
-        <v>84186.571688541211</v>
+        <v>101023.88602624946</v>
       </c>
       <c r="G34" s="18">
-        <v>1227668.9209370138</v>
+        <v>1244506.2352747221</v>
       </c>
       <c r="H34" s="18">
-        <v>688722.25176690519</v>
+        <v>698167.98493372917</v>
       </c>
       <c r="I34" s="18">
-        <v>904739.52859992883</v>
+        <v>914185.26176675269</v>
       </c>
       <c r="J34" s="18">
-        <v>688722.25176690519</v>
+        <v>698167.98493372917</v>
       </c>
       <c r="K34" s="18">
-        <v>-216017.27683302364</v>
+        <v>-216017.27683302353</v>
       </c>
       <c r="L34" s="17">
         <v>0</v>
       </c>
       <c r="M34" s="21">
-        <v>18.749994445931186</v>
+        <v>0.93022069523420603</v>
       </c>
       <c r="N34" s="21">
-        <v>20.04338484474631</v>
+        <v>13.672330128242274</v>
       </c>
       <c r="O34" s="21">
-        <v>26.873455406089164</v>
+        <v>22.473080313473535</v>
       </c>
       <c r="P34" s="21">
-        <v>6.3832437220605982</v>
+        <v>-3.9291702422202448</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23072,43 +23744,43 @@
         <v>27.106454818762419</v>
       </c>
       <c r="E35" s="17">
-        <v>45629.398010733668</v>
+        <v>38024.498342278057</v>
       </c>
       <c r="F35" s="18">
-        <v>71519.431335828733</v>
+        <v>59599.526113190608</v>
       </c>
       <c r="G35" s="18">
-        <v>1299188.3522728425</v>
+        <v>1304105.7613879128</v>
       </c>
       <c r="H35" s="18">
-        <v>828882.18361810432</v>
+        <v>832019.49068979442</v>
       </c>
       <c r="I35" s="18">
-        <v>950368.92661066249</v>
+        <v>952209.76010903076</v>
       </c>
       <c r="J35" s="18">
-        <v>828882.18361810432</v>
+        <v>832019.49068979442</v>
       </c>
       <c r="K35" s="18">
-        <v>-121486.74299255817</v>
+        <v>-120190.26941923634</v>
       </c>
       <c r="L35" s="17">
         <v>0</v>
       </c>
       <c r="M35" s="21">
-        <v>0.93022069523420603</v>
+        <v>42.857146434852993</v>
       </c>
       <c r="N35" s="21">
-        <v>13.672330128242274</v>
+        <v>23.400602230445845</v>
       </c>
       <c r="O35" s="21">
-        <v>22.473080313473535</v>
+        <v>22.782254285797638</v>
       </c>
       <c r="P35" s="21">
-        <v>-3.9291702422202448</v>
+        <v>24.637298119742262</v>
       </c>
       <c r="Q35" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
@@ -23131,34 +23803,34 @@
         <v>55885.001090904167</v>
       </c>
       <c r="G36" s="18">
-        <v>1355073.3533637468</v>
+        <v>1359990.762478817</v>
       </c>
       <c r="H36" s="18">
-        <v>875377.4237496414</v>
+        <v>878554.07017397531</v>
       </c>
       <c r="I36" s="18">
-        <v>986470.63886097318</v>
+        <v>988311.47235934145</v>
       </c>
       <c r="J36" s="18">
-        <v>875377.4237496414</v>
+        <v>878554.07017397531</v>
       </c>
       <c r="K36" s="18">
-        <v>-111093.21511133178</v>
+        <v>-109757.40218536614</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
       </c>
       <c r="M36" s="21">
-        <v>42.857146434852993</v>
+        <v>46.808513876214093</v>
       </c>
       <c r="N36" s="21">
-        <v>23.400602230445845</v>
+        <v>31.203239445701929</v>
       </c>
       <c r="O36" s="21">
-        <v>22.782254285797638</v>
+        <v>25.589249339099069</v>
       </c>
       <c r="P36" s="21">
-        <v>24.637298119742262</v>
+        <v>42.431219658907651</v>
       </c>
       <c r="Q36" s="1">
         <v>1</v>
@@ -23184,38 +23856,94 @@
         <v>50471.446648413526</v>
       </c>
       <c r="G37" s="18">
-        <v>1405544.8000121603</v>
+        <v>1410462.2091272306</v>
       </c>
       <c r="H37" s="18">
-        <v>933281.71168662712</v>
+        <v>936546.87121475919</v>
       </c>
       <c r="I37" s="18">
-        <v>1019983.6781599867</v>
+        <v>1021824.511658355</v>
       </c>
       <c r="J37" s="18">
-        <v>933281.71168662712</v>
+        <v>936546.87121475919</v>
       </c>
       <c r="K37" s="18">
-        <v>-86701.966473359615</v>
+        <v>-85277.640443595825</v>
       </c>
       <c r="L37" s="17">
         <v>0</v>
       </c>
       <c r="M37" s="21">
-        <v>46.808513876214093</v>
+        <v>54.700845774743321</v>
       </c>
       <c r="N37" s="21">
-        <v>31.203239445701929</v>
+        <v>39.035774888715729</v>
       </c>
       <c r="O37" s="21">
-        <v>25.589249339099069</v>
+        <v>30.071424522304625</v>
       </c>
       <c r="P37" s="21">
-        <v>42.431219658907651</v>
+        <v>56.964475621537929</v>
       </c>
       <c r="Q37" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="18">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1459440.497120593</v>
+      </c>
+      <c r="H38" s="18">
+        <v>948636.28833261249</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1053660.3976863073</v>
+      </c>
+      <c r="J38" s="18">
+        <v>948636.28833261249</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-105024.10935369483</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N38" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O38" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P38" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23233,7 +23961,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23418,6 +24146,16 @@
         <f>-AC3</f>
         <v>-50321.468377949655</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>50321.457799113727</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-50321.457799113727</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -23497,9 +24235,16 @@
         <f>-AC4</f>
         <v>-1176285.4859441661</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1176285.4650423238</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-1176285.4650423238</v>
+      </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
@@ -23579,9 +24324,16 @@
       <c r="AD5" s="7">
         <v>1196905.1748881412</v>
       </c>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-2010570.7877592836</v>
+      </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
@@ -23630,14 +24382,42 @@
         <v>0</v>
       </c>
       <c r="O6" s="7"/>
+      <c r="S6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="U6" s="4">
+        <v>3237177.7106007212</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2964830.4750532256</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-272347.23554749554</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>-8.4131073390146444E-2</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>-6.1439790124808824E-2</v>
+      </c>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
       <c r="AD6" s="8">
         <v>-2.3281693018024185E-2</v>
       </c>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
+      <c r="AG6" s="8">
+        <v>2964830.4750532256</v>
+      </c>
       <c r="AH6" s="19"/>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -23687,6 +24467,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
+      <c r="AG7" s="2">
+        <v>-6.1439790124808824E-2</v>
+      </c>
       <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25030,6 +25813,53 @@
       <c r="N37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="17">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="17">
+        <v>365774.00759471167</v>
+      </c>
+      <c r="H38" s="18">
+        <v>562729.26309418888</v>
+      </c>
+      <c r="I38" s="18">
+        <v>10920605.774756061</v>
+      </c>
+      <c r="J38" s="18">
+        <v>7098393.4932239084</v>
+      </c>
+      <c r="K38" s="18">
+        <v>7100439.0272066677</v>
+      </c>
+      <c r="L38" s="18">
+        <v>7098393.4932239084</v>
+      </c>
+      <c r="M38" s="18">
+        <v>-2045.5339827593416</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25047,7 +25877,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25217,6 +26047,16 @@
         <f>-Z3</f>
         <v>-245217.81577195294</v>
       </c>
+      <c r="AB3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -25290,9 +26130,16 @@
         <f>-Z4</f>
         <v>-3518640.0716485097</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="AB4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="7">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="7"/>
       <c r="AG4" s="7"/>
@@ -25366,9 +26213,16 @@
       <c r="AA5" s="7">
         <v>3580619.3649953026</v>
       </c>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="AB5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AD5" s="7">
+        <f>-AC5</f>
+        <v>-3101231.3499326059</v>
+      </c>
       <c r="AE5" s="19"/>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
@@ -25411,14 +26265,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="7"/>
+      <c r="P6" s="42">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6865089.1267393492</v>
+      </c>
+      <c r="S6" s="4">
+        <v>6043907.692957717</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-821181.43378163222</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-0.11961700986271995</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="8">
         <v>-4.5834423753382425E-2</v>
       </c>
-      <c r="AB6" s="7"/>
+      <c r="AB6" s="42">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
+      <c r="AD6" s="8">
+        <v>6043907.692957717</v>
+      </c>
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -25462,6 +26344,9 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
+      <c r="AD7" s="2">
+        <v>-7.7878942670306261E-2</v>
+      </c>
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -26625,6 +27510,47 @@
       <c r="L37" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="15">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="31">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="16">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="17">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="17">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="18">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="18">
+        <v>12284456.647082906</v>
+      </c>
+      <c r="H38" s="18">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="I38" s="18">
+        <v>8666706.9546631575</v>
+      </c>
+      <c r="J38" s="18">
+        <v>7984896.5277196188</v>
+      </c>
+      <c r="K38" s="18">
+        <v>-681810.42694353871</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -400,8 +400,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -586,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -694,6 +692,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +704,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -811,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1037341.6312729785</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1070260.4159355557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +857,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -961,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +977,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1078,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>932051.28760826006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>944895.12277571461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1120,7 +1130,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1228,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1250,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1345,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105290.34366471844</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125365.29315984109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393179136"/>
-        <c:axId val="393180672"/>
+        <c:axId val="493800832"/>
+        <c:axId val="507020416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393179136"/>
+        <c:axId val="493800832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393180672"/>
+        <c:crossAx val="507020416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393180672"/>
+        <c:axId val="507020416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393179136"/>
+        <c:crossAx val="493800832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,7 +1648,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1740,6 +1756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,8 +1773,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436750976"/>
-        <c:axId val="436749440"/>
+        <c:axId val="433861376"/>
+        <c:axId val="433855488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1780,7 +1799,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1888,6 +1907,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1919,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2005,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,11 +2046,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436742016"/>
-        <c:axId val="436743552"/>
+        <c:axId val="433852416"/>
+        <c:axId val="433853952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436742016"/>
+        <c:axId val="433852416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,14 +2093,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436743552"/>
+        <c:crossAx val="433853952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436743552"/>
+        <c:axId val="433853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,12 +2151,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436742016"/>
+        <c:crossAx val="433852416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436749440"/>
+        <c:axId val="433855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,12 +2193,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436750976"/>
+        <c:crossAx val="433861376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436750976"/>
+        <c:axId val="433861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436749440"/>
+        <c:crossAx val="433855488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2332,7 +2357,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2440,6 +2465,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,7 +2477,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2557,6 +2585,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7100439.0272066677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7595668.795410092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,7 +2630,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2707,6 +2738,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2750,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2824,6 +2858,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7098393.4932239084</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7440734.7962027993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,7 +2903,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2974,6 +3011,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +3023,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3091,6 +3131,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2045.5339827593416</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-154933.99920729268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,11 +3155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436811648"/>
-        <c:axId val="436813184"/>
+        <c:axId val="440279040"/>
+        <c:axId val="440280576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436811648"/>
+        <c:axId val="440279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3159,14 +3202,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436813184"/>
+        <c:crossAx val="440280576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436813184"/>
+        <c:axId val="440280576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3260,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436811648"/>
+        <c:crossAx val="440279040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3378,7 +3421,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3486,6 +3529,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>365774.00759471167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>495229.76820342394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3500,8 +3546,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436840704"/>
-        <c:axId val="436839168"/>
+        <c:axId val="440299904"/>
+        <c:axId val="440298112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3526,7 +3572,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3634,6 +3680,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,7 +3692,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3751,6 +3800,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,11 +3819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436827648"/>
-        <c:axId val="436829184"/>
+        <c:axId val="440290688"/>
+        <c:axId val="440296576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436827648"/>
+        <c:axId val="440290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3814,14 +3866,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436829184"/>
+        <c:crossAx val="440296576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436829184"/>
+        <c:axId val="440296576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,12 +3924,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436827648"/>
+        <c:crossAx val="440290688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="436839168"/>
+        <c:axId val="440298112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3914,12 +3966,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436840704"/>
+        <c:crossAx val="440299904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="436840704"/>
+        <c:axId val="440299904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3928,7 +3980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="436839168"/>
+        <c:crossAx val="440298112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4130,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4186,6 +4238,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,7 +4250,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4303,6 +4358,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8666706.9546631575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8941047.8112862259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,7 +4403,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4453,6 +4511,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,7 +4523,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4570,6 +4631,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7984896.5277196188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8087255.0088565843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,7 +4676,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4720,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,7 +4796,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4837,6 +4904,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-681810.42694353871</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-853792.8024296416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,11 +4928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="436856320"/>
-        <c:axId val="436857856"/>
+        <c:axId val="442376192"/>
+        <c:axId val="442377728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="436856320"/>
+        <c:axId val="442376192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4905,14 +4975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436857856"/>
+        <c:crossAx val="442377728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="436857856"/>
+        <c:axId val="442377728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +5033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436856320"/>
+        <c:crossAx val="442376192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5124,7 +5194,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5232,6 +5302,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5246,8 +5319,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439052160"/>
-        <c:axId val="439050624"/>
+        <c:axId val="442413440"/>
+        <c:axId val="442407552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5272,7 +5345,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5380,6 +5453,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,7 +5465,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5497,6 +5573,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5513,11 +5592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439043200"/>
-        <c:axId val="439044736"/>
+        <c:axId val="442404224"/>
+        <c:axId val="442406016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439043200"/>
+        <c:axId val="442404224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,14 +5639,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439044736"/>
+        <c:crossAx val="442406016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439044736"/>
+        <c:axId val="442406016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5618,12 +5697,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439043200"/>
+        <c:crossAx val="442404224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439050624"/>
+        <c:axId val="442407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5660,12 +5739,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439052160"/>
+        <c:crossAx val="442413440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439052160"/>
+        <c:axId val="442413440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5674,7 +5753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439050624"/>
+        <c:crossAx val="442407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5806,7 +5885,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5914,6 +5993,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5928,8 +6010,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="477201152"/>
-        <c:axId val="475831296"/>
+        <c:axId val="515450752"/>
+        <c:axId val="515449216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5954,7 +6036,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6062,6 +6144,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6071,7 +6156,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6179,6 +6264,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6195,11 +6283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475827584"/>
-        <c:axId val="475829376"/>
+        <c:axId val="515040000"/>
+        <c:axId val="515041920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475827584"/>
+        <c:axId val="515040000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6242,14 +6330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475829376"/>
+        <c:crossAx val="515041920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475829376"/>
+        <c:axId val="515041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,12 +6388,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475827584"/>
+        <c:crossAx val="515040000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475831296"/>
+        <c:axId val="515449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6342,12 +6430,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477201152"/>
+        <c:crossAx val="515450752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="477201152"/>
+        <c:axId val="515450752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6356,7 +6444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475831296"/>
+        <c:crossAx val="515449216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6506,7 +6594,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6614,6 +6702,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6623,7 +6714,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6731,6 +6822,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1230181.9878870549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1261454.8333165031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6773,7 +6867,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6881,6 +6975,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6890,7 +6987,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6998,6 +7095,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1090444.657572814</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1098231.0042236659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7040,7 +7140,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7148,6 +7248,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,7 +7260,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7265,6 +7368,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-139737.33031424088</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-163223.82909283717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7286,11 +7392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508856192"/>
-        <c:axId val="508857728"/>
+        <c:axId val="540556288"/>
+        <c:axId val="566420608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508856192"/>
+        <c:axId val="540556288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,14 +7439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508857728"/>
+        <c:crossAx val="566420608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508857728"/>
+        <c:axId val="566420608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7391,7 +7497,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508856192"/>
+        <c:crossAx val="540556288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7561,7 +7667,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7669,6 +7775,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>30244.09172655462</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31272.845429448254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7683,8 +7792,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="574334464"/>
-        <c:axId val="537173376"/>
+        <c:axId val="90985984"/>
+        <c:axId val="90984448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7709,7 +7818,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7817,6 +7926,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7826,7 +7938,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7934,6 +8046,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7950,11 +8065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537165184"/>
-        <c:axId val="537171072"/>
+        <c:axId val="90981120"/>
+        <c:axId val="90982656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537165184"/>
+        <c:axId val="90981120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,14 +8112,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537171072"/>
+        <c:crossAx val="90982656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537171072"/>
+        <c:axId val="90982656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8055,12 +8170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537165184"/>
+        <c:crossAx val="90981120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537173376"/>
+        <c:axId val="90984448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8097,12 +8212,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574334464"/>
+        <c:crossAx val="90985984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="574334464"/>
+        <c:axId val="90985984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8111,7 +8226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537173376"/>
+        <c:crossAx val="90984448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8261,7 +8376,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8369,6 +8484,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8378,7 +8496,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8486,6 +8604,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>10262675.92117865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10523299.734970566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8528,7 +8649,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8636,6 +8757,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8645,7 +8769,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8753,6 +8877,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9351344.9630789924</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9410555.2062432561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8795,7 +8922,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8903,6 +9030,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8912,7 +9042,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9020,6 +9150,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-911330.95809965767</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1112744.5287273098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9041,11 +9174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="787981824"/>
-        <c:axId val="787983744"/>
+        <c:axId val="91009792"/>
+        <c:axId val="91011328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="787981824"/>
+        <c:axId val="91009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9088,14 +9221,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787983744"/>
+        <c:crossAx val="91011328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="787983744"/>
+        <c:axId val="91011328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9146,7 +9279,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="787981824"/>
+        <c:crossAx val="91009792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9316,7 +9449,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9424,6 +9557,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>243758.84993051292</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>260623.81379191545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,8 +9574,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="432172416"/>
-        <c:axId val="432170880"/>
+        <c:axId val="155264896"/>
+        <c:axId val="155263360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9464,7 +9600,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9572,6 +9708,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9581,7 +9720,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9689,6 +9828,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9705,11 +9847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="432163456"/>
-        <c:axId val="432169344"/>
+        <c:axId val="91022464"/>
+        <c:axId val="91024000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="432163456"/>
+        <c:axId val="91022464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9752,14 +9894,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432169344"/>
+        <c:crossAx val="91024000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="432169344"/>
+        <c:axId val="91024000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9810,12 +9952,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432163456"/>
+        <c:crossAx val="91022464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432170880"/>
+        <c:axId val="155263360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9852,12 +9994,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432172416"/>
+        <c:crossAx val="155264896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="432172416"/>
+        <c:axId val="155264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9866,7 +10008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="432170880"/>
+        <c:crossAx val="155263360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10016,7 +10158,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10124,6 +10266,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10133,7 +10278,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10241,6 +10386,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1165508.7378162649</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1231016.9793064645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10283,7 +10431,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10391,6 +10539,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10400,7 +10551,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10508,6 +10659,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1160725.7695541636</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1201233.7653376264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10550,7 +10704,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10658,6 +10812,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,7 +10824,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10775,6 +10932,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-4782.9682621012907</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-29783.213968838099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10796,11 +10956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433142400"/>
-        <c:axId val="433144192"/>
+        <c:axId val="315085952"/>
+        <c:axId val="315087488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="433142400"/>
+        <c:axId val="315085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10843,14 +11003,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433144192"/>
+        <c:crossAx val="315087488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433144192"/>
+        <c:axId val="315087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10901,7 +11061,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433142400"/>
+        <c:crossAx val="315085952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11062,7 +11222,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11170,6 +11330,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>48384.030118540977</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65508.241490199747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11184,8 +11347,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="433171456"/>
-        <c:axId val="433169920"/>
+        <c:axId val="348857856"/>
+        <c:axId val="348856320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11210,7 +11373,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11318,6 +11481,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11327,7 +11493,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11435,6 +11601,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11451,11 +11620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433162496"/>
-        <c:axId val="433168384"/>
+        <c:axId val="348852992"/>
+        <c:axId val="348854528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="433162496"/>
+        <c:axId val="348852992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11498,14 +11667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433168384"/>
+        <c:crossAx val="348854528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433168384"/>
+        <c:axId val="348854528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11556,12 +11725,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433162496"/>
+        <c:crossAx val="348852992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433169920"/>
+        <c:axId val="348856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11598,12 +11767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433171456"/>
+        <c:crossAx val="348857856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="433171456"/>
+        <c:axId val="348857856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11612,7 +11781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433169920"/>
+        <c:crossAx val="348856320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11762,7 +11931,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11870,6 +12039,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11879,7 +12051,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11987,6 +12159,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1053660.3976863073</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1086579.1823488844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12029,7 +12204,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12137,6 +12312,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12146,7 +12324,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12254,6 +12432,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>948636.28833261249</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>961122.90812324767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12296,7 +12477,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12404,6 +12585,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12413,7 +12597,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12521,6 +12705,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105024.10935369483</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125456.27422563673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12542,11 +12729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433182976"/>
-        <c:axId val="433184768"/>
+        <c:axId val="348889856"/>
+        <c:axId val="348891392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="433182976"/>
+        <c:axId val="348889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12589,14 +12776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433184768"/>
+        <c:crossAx val="348891392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433184768"/>
+        <c:axId val="348891392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12647,7 +12834,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433182976"/>
+        <c:crossAx val="348889856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15171,8 +15358,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="32">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="31">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="29">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="29">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="30">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="30">
+        <v>1485684.2076602171</v>
+      </c>
+      <c r="H39" s="30">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="I39" s="30">
+        <v>1070260.4159355557</v>
+      </c>
+      <c r="J39" s="30">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="K39" s="30">
+        <v>-125365.29315984109</v>
+      </c>
+      <c r="L39" s="29">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17275,8 +17497,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>31272.845429448254</v>
+      </c>
+      <c r="F39" s="18">
+        <v>49171.142345031069</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1726778.3693759344</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1098231.0042236659</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1261454.8333165031</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1098231.0042236659</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-163223.82909283717</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19379,8 +19648,55 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>260623.81379191545</v>
+      </c>
+      <c r="F39" s="18">
+        <v>409785.88518202654</v>
+      </c>
+      <c r="G39" s="18">
+        <v>14796470.971465556</v>
+      </c>
+      <c r="H39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="I39" s="18">
+        <v>10523299.734970566</v>
+      </c>
+      <c r="J39" s="18">
+        <v>9410555.2062432561</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-1112744.5287273098</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="N39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21711,8 +22027,61 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>65508.241490199747</v>
+      </c>
+      <c r="H39" s="18">
+        <v>103000.38333109595</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1888732.4019916079</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1201233.7653376264</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1231016.9793064645</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1201233.7653376264</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-29783.213968838099</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="P39" s="22">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="Q39" s="22">
+        <v>44.853539267539169</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -23942,8 +24311,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="18">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1511199.5943258889</v>
+      </c>
+      <c r="H39" s="18">
+        <v>961122.90812324767</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1086579.1823488844</v>
+      </c>
+      <c r="J39" s="18">
+        <v>961122.90812324767</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-125456.27422563673</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="N39" s="21">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="O39" s="21">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="P39" s="21">
+        <v>67.293735824080812</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -25858,8 +26277,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="17">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="17">
+        <v>495229.76820342394</v>
+      </c>
+      <c r="H39" s="18">
+        <v>778663.18499106029</v>
+      </c>
+      <c r="I39" s="18">
+        <v>11699268.959747121</v>
+      </c>
+      <c r="J39" s="18">
+        <v>7440734.7962027993</v>
+      </c>
+      <c r="K39" s="18">
+        <v>7595668.795410092</v>
+      </c>
+      <c r="L39" s="18">
+        <v>7440734.7962027993</v>
+      </c>
+      <c r="M39" s="18">
+        <v>-154933.99920729268</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -27549,8 +28009,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="50"/>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="15">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="31">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="16">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="17">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="17">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F39" s="18">
+        <v>431353.5633495017</v>
+      </c>
+      <c r="G39" s="18">
+        <v>12715810.210432408</v>
+      </c>
+      <c r="H39" s="18">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="I39" s="18">
+        <v>8941047.8112862259</v>
+      </c>
+      <c r="J39" s="18">
+        <v>8087255.0088565843</v>
+      </c>
+      <c r="K39" s="18">
+        <v>-853792.8024296416</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -527,7 +527,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1382,11 +1381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493800832"/>
-        <c:axId val="507020416"/>
+        <c:axId val="147350656"/>
+        <c:axId val="149678336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493800832"/>
+        <c:axId val="147350656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507020416"/>
+        <c:crossAx val="149678336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507020416"/>
+        <c:axId val="149678336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493800832"/>
+        <c:crossAx val="147350656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1501,7 +1500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1613,7 +1611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1773,8 +1770,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="433861376"/>
-        <c:axId val="433855488"/>
+        <c:axId val="149047936"/>
+        <c:axId val="149046400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2046,11 +2043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="433852416"/>
-        <c:axId val="433853952"/>
+        <c:axId val="149022592"/>
+        <c:axId val="149024128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="433852416"/>
+        <c:axId val="149022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,14 +2090,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433853952"/>
+        <c:crossAx val="149024128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="433853952"/>
+        <c:axId val="149024128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,12 +2148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433852416"/>
+        <c:crossAx val="149022592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="433855488"/>
+        <c:axId val="149046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,12 +2190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433861376"/>
+        <c:crossAx val="149047936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="433861376"/>
+        <c:axId val="149047936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433855488"/>
+        <c:crossAx val="149046400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2297,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3155,11 +3151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440279040"/>
-        <c:axId val="440280576"/>
+        <c:axId val="149116800"/>
+        <c:axId val="149118336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440279040"/>
+        <c:axId val="149116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,14 +3198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440280576"/>
+        <c:crossAx val="149118336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440280576"/>
+        <c:axId val="149118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440279040"/>
+        <c:crossAx val="149116800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3274,7 +3270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3386,7 +3381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3546,8 +3540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440299904"/>
-        <c:axId val="440298112"/>
+        <c:axId val="149158144"/>
+        <c:axId val="149156608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3819,11 +3813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440290688"/>
-        <c:axId val="440296576"/>
+        <c:axId val="149132800"/>
+        <c:axId val="149134336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440290688"/>
+        <c:axId val="149132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3866,14 +3860,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440296576"/>
+        <c:crossAx val="149134336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440296576"/>
+        <c:axId val="149134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3924,12 +3918,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440290688"/>
+        <c:crossAx val="149132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440298112"/>
+        <c:axId val="149156608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,12 +3960,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440299904"/>
+        <c:crossAx val="149158144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="440299904"/>
+        <c:axId val="149158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +3974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440298112"/>
+        <c:crossAx val="149156608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4928,11 +4922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442376192"/>
-        <c:axId val="442377728"/>
+        <c:axId val="149198336"/>
+        <c:axId val="149199872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442376192"/>
+        <c:axId val="149198336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4975,14 +4969,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442377728"/>
+        <c:crossAx val="149199872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442377728"/>
+        <c:axId val="149199872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,7 +5027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442376192"/>
+        <c:crossAx val="149198336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5159,7 +5153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5319,8 +5312,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442413440"/>
-        <c:axId val="442407552"/>
+        <c:axId val="149301120"/>
+        <c:axId val="149299584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5592,11 +5585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442404224"/>
-        <c:axId val="442406016"/>
+        <c:axId val="149292160"/>
+        <c:axId val="149293696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442404224"/>
+        <c:axId val="149292160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,14 +5632,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442406016"/>
+        <c:crossAx val="149293696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442406016"/>
+        <c:axId val="149293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5697,12 +5690,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442404224"/>
+        <c:crossAx val="149292160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442407552"/>
+        <c:axId val="149299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,12 +5732,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442413440"/>
+        <c:crossAx val="149301120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442413440"/>
+        <c:axId val="149301120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5753,7 +5746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442407552"/>
+        <c:crossAx val="149299584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5850,7 +5843,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6010,8 +6002,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="515450752"/>
-        <c:axId val="515449216"/>
+        <c:axId val="391562752"/>
+        <c:axId val="359085184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6283,11 +6275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515040000"/>
-        <c:axId val="515041920"/>
+        <c:axId val="273099776"/>
+        <c:axId val="359040128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="515040000"/>
+        <c:axId val="273099776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6330,14 +6322,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515041920"/>
+        <c:crossAx val="359040128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="515041920"/>
+        <c:axId val="359040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6388,12 +6380,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515040000"/>
+        <c:crossAx val="273099776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="515449216"/>
+        <c:axId val="359085184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6430,12 +6422,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515450752"/>
+        <c:crossAx val="391562752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="515450752"/>
+        <c:axId val="391562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6444,7 +6436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="515449216"/>
+        <c:crossAx val="359085184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7392,11 +7384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540556288"/>
-        <c:axId val="566420608"/>
+        <c:axId val="147307136"/>
+        <c:axId val="147382656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540556288"/>
+        <c:axId val="147307136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,14 +7431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566420608"/>
+        <c:crossAx val="147382656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="566420608"/>
+        <c:axId val="147382656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7497,7 +7489,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540556288"/>
+        <c:crossAx val="147307136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7623,7 +7615,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7792,8 +7783,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="90985984"/>
-        <c:axId val="90984448"/>
+        <c:axId val="147512704"/>
+        <c:axId val="147511168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8065,11 +8056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90981120"/>
-        <c:axId val="90982656"/>
+        <c:axId val="147507840"/>
+        <c:axId val="147509632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="90981120"/>
+        <c:axId val="147507840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8112,14 +8103,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90982656"/>
+        <c:crossAx val="147509632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="90982656"/>
+        <c:axId val="147509632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8170,12 +8161,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90981120"/>
+        <c:crossAx val="147507840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90984448"/>
+        <c:axId val="147511168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8212,12 +8203,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90985984"/>
+        <c:crossAx val="147512704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="90985984"/>
+        <c:axId val="147512704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8226,7 +8217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90984448"/>
+        <c:crossAx val="147511168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9174,11 +9165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91009792"/>
-        <c:axId val="91011328"/>
+        <c:axId val="147528320"/>
+        <c:axId val="147534208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91009792"/>
+        <c:axId val="147528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9221,14 +9212,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91011328"/>
+        <c:crossAx val="147534208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91011328"/>
+        <c:axId val="147534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9279,7 +9270,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91009792"/>
+        <c:crossAx val="147528320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9405,7 +9396,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9574,8 +9564,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="155264896"/>
-        <c:axId val="155263360"/>
+        <c:axId val="147561856"/>
+        <c:axId val="147560320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9847,11 +9837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91022464"/>
-        <c:axId val="91024000"/>
+        <c:axId val="147548800"/>
+        <c:axId val="147558784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91022464"/>
+        <c:axId val="147548800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9894,14 +9884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91024000"/>
+        <c:crossAx val="147558784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91024000"/>
+        <c:axId val="147558784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9952,12 +9942,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91022464"/>
+        <c:crossAx val="147548800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155263360"/>
+        <c:axId val="147560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9994,12 +9984,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="155264896"/>
+        <c:crossAx val="147561856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="155264896"/>
+        <c:axId val="147561856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10008,7 +9998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155263360"/>
+        <c:crossAx val="147560320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10956,11 +10946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315085952"/>
-        <c:axId val="315087488"/>
+        <c:axId val="148122240"/>
+        <c:axId val="148124032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="315085952"/>
+        <c:axId val="148122240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11003,14 +10993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315087488"/>
+        <c:crossAx val="148124032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="315087488"/>
+        <c:axId val="148124032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11061,7 +11051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315085952"/>
+        <c:crossAx val="148122240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11187,7 +11177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11347,8 +11336,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="348857856"/>
-        <c:axId val="348856320"/>
+        <c:axId val="148143104"/>
+        <c:axId val="148141568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11620,11 +11609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348852992"/>
-        <c:axId val="348854528"/>
+        <c:axId val="148134144"/>
+        <c:axId val="148140032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="348852992"/>
+        <c:axId val="148134144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11667,14 +11656,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348854528"/>
+        <c:crossAx val="148140032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="348854528"/>
+        <c:axId val="148140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11725,12 +11714,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348852992"/>
+        <c:crossAx val="148134144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="348856320"/>
+        <c:axId val="148141568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11767,12 +11756,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348857856"/>
+        <c:crossAx val="148143104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="348857856"/>
+        <c:axId val="148143104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11781,7 +11770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="348856320"/>
+        <c:crossAx val="148141568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12729,11 +12718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348889856"/>
-        <c:axId val="348891392"/>
+        <c:axId val="148973824"/>
+        <c:axId val="149000192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="348889856"/>
+        <c:axId val="148973824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12776,14 +12765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348891392"/>
+        <c:crossAx val="149000192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="348891392"/>
+        <c:axId val="149000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12834,7 +12823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348889856"/>
+        <c:crossAx val="148973824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17535,13 +17524,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
         <v>0.95</v>
@@ -19686,13 +19675,13 @@
         <v>0</v>
       </c>
       <c r="M39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="N39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="O39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="P39" s="1">
         <v>0.95</v>
@@ -22071,13 +22060,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="22">
-        <v>1.3063773755220243E-2</v>
+        <v>1.0886478129350202E-2</v>
       </c>
       <c r="P39" s="22">
-        <v>2.9125402295008165E-2</v>
+        <v>2.6604501674088222E-2</v>
       </c>
       <c r="Q39" s="22">
-        <v>44.853539267539169</v>
+        <v>40.919684430523347</v>
       </c>
       <c r="R39" s="1">
         <v>0.95</v>
@@ -22101,7 +22090,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AJ39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -24349,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="M39" s="21">
-        <v>59.999981177480358</v>
+        <v>62.893067379123451</v>
       </c>
       <c r="N39" s="21">
-        <v>46.023843651637272</v>
+        <v>51.646918227465996</v>
       </c>
       <c r="O39" s="21">
-        <v>35.388897565415505</v>
+        <v>40.808237786098999</v>
       </c>
       <c r="P39" s="21">
-        <v>67.293735824080812</v>
+        <v>73.324279110199996</v>
       </c>
       <c r="Q39" s="1">
         <v>1</v>
@@ -26339,7 +26328,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -527,6 +527,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -583,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -694,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +707,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -814,6 +818,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1070260.4159355557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1102813.3837142217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +863,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -967,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +986,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1087,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>944895.12277571461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>972991.0953141842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,7 +1142,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1240,6 +1253,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1265,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1360,6 +1376,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125365.29315984109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129822.28840003745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,11 +1400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147350656"/>
-        <c:axId val="149678336"/>
+        <c:axId val="442635392"/>
+        <c:axId val="442675200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147350656"/>
+        <c:axId val="442635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,14 +1447,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149678336"/>
+        <c:crossAx val="442675200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149678336"/>
+        <c:axId val="442675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147350656"/>
+        <c:crossAx val="442635392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,6 +1519,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1611,6 +1631,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1645,7 +1666,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1756,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,8 +1794,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149047936"/>
-        <c:axId val="149046400"/>
+        <c:axId val="454832896"/>
+        <c:axId val="454831104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1796,7 +1820,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1907,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,7 +1943,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2027,6 +2054,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,11 +2073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149022592"/>
-        <c:axId val="149024128"/>
+        <c:axId val="454828032"/>
+        <c:axId val="454829568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149022592"/>
+        <c:axId val="454828032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2090,14 +2120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149024128"/>
+        <c:crossAx val="454829568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149024128"/>
+        <c:axId val="454829568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,12 +2178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149022592"/>
+        <c:crossAx val="454828032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149046400"/>
+        <c:axId val="454831104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149047936"/>
+        <c:crossAx val="454832896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149047936"/>
+        <c:axId val="454832896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149046400"/>
+        <c:crossAx val="454831104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,6 +2327,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,7 +2384,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2495,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2507,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2584,6 +2618,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7595668.795410092</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8103103.269966363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +2663,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2737,6 +2774,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2746,7 +2786,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2857,6 +2897,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7440734.7962027993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7913071.9157501683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2899,7 +2942,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3010,6 +3053,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3065,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3130,6 +3176,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-154933.99920729268</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-190031.35421619471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +3200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149116800"/>
-        <c:axId val="149118336"/>
+        <c:axId val="454864896"/>
+        <c:axId val="454866432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149116800"/>
+        <c:axId val="454864896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,14 +3247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149118336"/>
+        <c:crossAx val="454866432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149118336"/>
+        <c:axId val="454866432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149116800"/>
+        <c:crossAx val="454864896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,6 +3319,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3381,6 +3431,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3415,7 +3466,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3526,6 +3577,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>495229.76820342394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>507434.47455627128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,8 +3594,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149158144"/>
-        <c:axId val="149156608"/>
+        <c:axId val="487321984"/>
+        <c:axId val="485243520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3566,7 +3620,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3677,6 +3731,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,7 +3743,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3797,6 +3854,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,11 +3873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149132800"/>
-        <c:axId val="149134336"/>
+        <c:axId val="454880640"/>
+        <c:axId val="485241984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149132800"/>
+        <c:axId val="454880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3860,14 +3920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149134336"/>
+        <c:crossAx val="485241984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149134336"/>
+        <c:axId val="485241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3918,12 +3978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149132800"/>
+        <c:crossAx val="454880640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149156608"/>
+        <c:axId val="485243520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,12 +4020,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149158144"/>
+        <c:crossAx val="487321984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149158144"/>
+        <c:axId val="487321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,7 +4034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149156608"/>
+        <c:crossAx val="485243520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4124,7 +4184,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4235,6 +4295,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4307,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4355,6 +4418,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8941047.8112862259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9209325.2065264452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,7 +4463,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4508,6 +4574,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4517,7 +4586,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4628,6 +4697,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8087255.0088565843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8317385.4645985421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,7 +4742,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4781,6 +4853,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,7 +4865,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4901,6 +4976,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-853792.8024296416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-891939.74192790315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,11 +5000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149198336"/>
-        <c:axId val="149199872"/>
+        <c:axId val="491371904"/>
+        <c:axId val="491373696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149198336"/>
+        <c:axId val="491371904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4969,14 +5047,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149199872"/>
+        <c:crossAx val="491373696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149199872"/>
+        <c:axId val="491373696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,7 +5105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149198336"/>
+        <c:crossAx val="491371904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5153,6 +5231,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5187,7 +5266,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5298,6 +5377,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,8 +5394,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149301120"/>
-        <c:axId val="149299584"/>
+        <c:axId val="491409408"/>
+        <c:axId val="491407616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5338,7 +5420,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5449,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,7 +5543,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5569,6 +5654,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5585,11 +5673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149292160"/>
-        <c:axId val="149293696"/>
+        <c:axId val="491404288"/>
+        <c:axId val="491406080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="149292160"/>
+        <c:axId val="491404288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5632,14 +5720,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149293696"/>
+        <c:crossAx val="491406080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149293696"/>
+        <c:axId val="491406080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,12 +5778,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149292160"/>
+        <c:crossAx val="491404288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149299584"/>
+        <c:axId val="491407616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5732,12 +5820,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149301120"/>
+        <c:crossAx val="491409408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="149301120"/>
+        <c:axId val="491409408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,7 +5834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149299584"/>
+        <c:crossAx val="491407616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5843,6 +5931,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5877,7 +5966,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5988,6 +6077,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6002,8 +6094,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391562752"/>
-        <c:axId val="359085184"/>
+        <c:axId val="495680896"/>
+        <c:axId val="495679360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6028,7 +6120,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6139,6 +6231,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6148,7 +6243,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6259,6 +6354,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6275,11 +6373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="273099776"/>
-        <c:axId val="359040128"/>
+        <c:axId val="491428096"/>
+        <c:axId val="495677440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="273099776"/>
+        <c:axId val="491428096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6322,14 +6420,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359040128"/>
+        <c:crossAx val="495677440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="359040128"/>
+        <c:axId val="495677440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6380,12 +6478,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273099776"/>
+        <c:crossAx val="491428096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359085184"/>
+        <c:axId val="495679360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6422,12 +6520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391562752"/>
+        <c:crossAx val="495680896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="391562752"/>
+        <c:axId val="495680896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,7 +6534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359085184"/>
+        <c:crossAx val="495679360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6586,7 +6684,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6697,6 +6795,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6706,7 +6807,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6817,6 +6918,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1261454.8333165031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1292380.1527062359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6963,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6970,6 +7074,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +7086,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7090,6 +7197,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1098231.0042236659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1123976.0552000301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7132,7 +7242,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7243,6 +7353,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7252,7 +7365,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7363,6 +7476,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-163223.82909283717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-168404.09750620578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7384,11 +7500,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147307136"/>
-        <c:axId val="147382656"/>
+        <c:axId val="557165184"/>
+        <c:axId val="561357568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147307136"/>
+        <c:axId val="557165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7431,14 +7547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147382656"/>
+        <c:crossAx val="561357568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147382656"/>
+        <c:axId val="561357568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7489,7 +7605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147307136"/>
+        <c:crossAx val="557165184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7615,6 +7731,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7658,7 +7775,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7769,6 +7886,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>31272.845429448254</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30925.319389732704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7783,8 +7903,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147512704"/>
-        <c:axId val="147511168"/>
+        <c:axId val="422155776"/>
+        <c:axId val="422154240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7809,7 +7929,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7920,6 +8040,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7929,7 +8052,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8040,6 +8163,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8056,11 +8182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147507840"/>
-        <c:axId val="147509632"/>
+        <c:axId val="422146816"/>
+        <c:axId val="422148352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147507840"/>
+        <c:axId val="422146816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8103,14 +8229,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147509632"/>
+        <c:crossAx val="422148352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147509632"/>
+        <c:axId val="422148352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8161,12 +8287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147507840"/>
+        <c:crossAx val="422146816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147511168"/>
+        <c:axId val="422154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8203,12 +8329,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147512704"/>
+        <c:crossAx val="422155776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147512704"/>
+        <c:axId val="422155776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8217,7 +8343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147511168"/>
+        <c:crossAx val="422154240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8367,7 +8493,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8478,6 +8604,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8487,7 +8616,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8598,6 +8727,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10523299.734970566</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10778163.260448774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8640,7 +8772,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8751,6 +8883,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8760,7 +8895,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8871,6 +9006,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9410555.2062432561</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9621029.8903031498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,7 +9051,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9024,6 +9162,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9033,7 +9174,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9144,6 +9285,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-1112744.5287273098</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1157133.3701456245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9165,11 +9309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147528320"/>
-        <c:axId val="147534208"/>
+        <c:axId val="450568960"/>
+        <c:axId val="450570496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147528320"/>
+        <c:axId val="450568960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,14 +9356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147534208"/>
+        <c:crossAx val="450570496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147534208"/>
+        <c:axId val="450570496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9270,7 +9414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147528320"/>
+        <c:crossAx val="450568960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9396,6 +9540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9439,7 +9584,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9550,6 +9695,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>260623.81379191545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>254863.52547820861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9564,8 +9712,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147561856"/>
-        <c:axId val="147560320"/>
+        <c:axId val="450590592"/>
+        <c:axId val="450589056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9590,7 +9738,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9701,6 +9849,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,7 +9861,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9821,6 +9972,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9837,11 +9991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147548800"/>
-        <c:axId val="147558784"/>
+        <c:axId val="450585728"/>
+        <c:axId val="450587264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="147548800"/>
+        <c:axId val="450585728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9884,14 +10038,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147558784"/>
+        <c:crossAx val="450587264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="147558784"/>
+        <c:axId val="450587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9942,12 +10096,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147548800"/>
+        <c:crossAx val="450585728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147560320"/>
+        <c:axId val="450589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9984,12 +10138,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147561856"/>
+        <c:crossAx val="450590592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="147561856"/>
+        <c:axId val="450590592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9998,7 +10152,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147560320"/>
+        <c:crossAx val="450589056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10148,7 +10302,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10259,6 +10413,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10268,7 +10425,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10379,6 +10536,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1231016.9793064645</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1298139.6408142245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10421,7 +10581,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10532,6 +10692,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10541,7 +10704,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10652,6 +10815,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1201233.7653376264</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1262690.3025894526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10694,7 +10860,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10805,6 +10971,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10814,7 +10983,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10925,6 +11094,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-29783.213968838099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-35449.338224771898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10946,11 +11118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148122240"/>
-        <c:axId val="148124032"/>
+        <c:axId val="450609920"/>
+        <c:axId val="450611456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148122240"/>
+        <c:axId val="450609920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10993,14 +11165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148124032"/>
+        <c:crossAx val="450611456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148124032"/>
+        <c:axId val="450611456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11051,7 +11223,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148122240"/>
+        <c:crossAx val="450609920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11177,6 +11349,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11211,7 +11384,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11322,6 +11495,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65508.241490199747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67122.661507759942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11336,8 +11512,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148143104"/>
-        <c:axId val="148141568"/>
+        <c:axId val="450995328"/>
+        <c:axId val="450624896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11362,7 +11538,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11473,6 +11649,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11482,7 +11661,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11593,6 +11772,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11609,11 +11791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148134144"/>
-        <c:axId val="148140032"/>
+        <c:axId val="450621824"/>
+        <c:axId val="450623360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148134144"/>
+        <c:axId val="450621824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11656,14 +11838,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148140032"/>
+        <c:crossAx val="450623360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148140032"/>
+        <c:axId val="450623360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11714,12 +11896,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148134144"/>
+        <c:crossAx val="450621824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148141568"/>
+        <c:axId val="450624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11756,12 +11938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148143104"/>
+        <c:crossAx val="450995328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="148143104"/>
+        <c:axId val="450995328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11770,7 +11952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148141568"/>
+        <c:crossAx val="450624896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11920,7 +12102,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12031,6 +12213,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12040,7 +12225,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12151,6 +12336,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1086579.1823488844</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1119132.1501275504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12193,7 +12381,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12304,6 +12492,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12313,7 +12504,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12424,6 +12615,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>961122.90812324767</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>989142.33548722172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12466,7 +12660,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12577,6 +12771,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12586,7 +12783,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12697,6 +12894,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125456.27422563673</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129989.81464032864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12718,11 +12918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148973824"/>
-        <c:axId val="149000192"/>
+        <c:axId val="451801472"/>
+        <c:axId val="451803008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="148973824"/>
+        <c:axId val="451801472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12765,14 +12965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149000192"/>
+        <c:crossAx val="451803008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="149000192"/>
+        <c:axId val="451803008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12823,7 +13023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148973824"/>
+        <c:crossAx val="451801472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13675,7 +13875,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15385,6 +15585,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="32">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="31">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="29">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="29">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="30">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="30">
+        <v>1537110.6957248552</v>
+      </c>
+      <c r="H40" s="30">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="I40" s="30">
+        <v>1102813.3837142217</v>
+      </c>
+      <c r="J40" s="30">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="K40" s="30">
+        <v>-129822.28840003745</v>
+      </c>
+      <c r="L40" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15401,7 +15639,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17536,6 +17774,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>30925.319389732704</v>
+      </c>
+      <c r="F40" s="18">
+        <v>48855.163661406245</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1775633.5330373405</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1123976.0552000301</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1292380.1527062359</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1123976.0552000301</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-168404.09750620578</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17552,7 +17840,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19687,6 +19975,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>254863.52547820861</v>
+      </c>
+      <c r="F40" s="18">
+        <v>402627.99202309171</v>
+      </c>
+      <c r="G40" s="18">
+        <v>15199098.963488648</v>
+      </c>
+      <c r="H40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="I40" s="18">
+        <v>10778163.260448774</v>
+      </c>
+      <c r="J40" s="18">
+        <v>9621029.8903031498</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-1157133.3701456245</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19703,7 +20041,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22072,6 +22410,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="40" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>67122.661507759942</v>
+      </c>
+      <c r="H40" s="18">
+        <v>106038.95701201775</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1994771.3590036256</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1262690.3025894526</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1298139.6408142245</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1262690.3025894526</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-35449.338224771898</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="P40" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="Q40" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -22088,9 +22482,9 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -24353,6 +24747,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="18">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1562626.082390527</v>
+      </c>
+      <c r="H40" s="18">
+        <v>989142.33548722172</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1119132.1501275504</v>
+      </c>
+      <c r="J40" s="18">
+        <v>989142.33548722172</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-129989.81464032864</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="N40" s="21">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="O40" s="21">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="P40" s="21">
+        <v>77.251414536892625</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -24369,7 +24816,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26310,6 +26757,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="17">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="17">
+        <v>507434.47455627128</v>
+      </c>
+      <c r="H40" s="18">
+        <v>801634.22047362686</v>
+      </c>
+      <c r="I40" s="18">
+        <v>12500903.180220747</v>
+      </c>
+      <c r="J40" s="18">
+        <v>7913071.9157501683</v>
+      </c>
+      <c r="K40" s="18">
+        <v>8103103.269966363</v>
+      </c>
+      <c r="L40" s="18">
+        <v>7913071.9157501683</v>
+      </c>
+      <c r="M40" s="18">
+        <v>-190031.35421619471</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -26326,9 +26817,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -28036,6 +28527,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="15">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="31">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="16">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="17">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="17">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="18">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="18">
+        <v>13139629.149404084</v>
+      </c>
+      <c r="H40" s="18">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="I40" s="18">
+        <v>9209325.2065264452</v>
+      </c>
+      <c r="J40" s="18">
+        <v>8317385.4645985421</v>
+      </c>
+      <c r="K40" s="18">
+        <v>-891939.74192790315</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="530" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="model2(1)" sheetId="14" r:id="rId1"/>
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -698,6 +698,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +710,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -821,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1102813.3837142217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1123194.2613669224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +869,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -977,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +995,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1100,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>972991.0953141842</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>958018.42403340735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1154,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1256,6 +1268,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,7 +1280,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1379,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129822.28840003745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165175.83733351505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442635392"/>
-        <c:axId val="442675200"/>
+        <c:axId val="497785088"/>
+        <c:axId val="500838400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442635392"/>
+        <c:axId val="497785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442675200"/>
+        <c:crossAx val="500838400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442675200"/>
+        <c:axId val="500838400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442635392"/>
+        <c:crossAx val="497785088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,7 +1684,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1780,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,8 +1815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="454832896"/>
-        <c:axId val="454831104"/>
+        <c:axId val="448243200"/>
+        <c:axId val="448241664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1820,7 +1841,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1934,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,7 +1967,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2057,6 +2081,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,11 +2100,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454828032"/>
-        <c:axId val="454829568"/>
+        <c:axId val="448238336"/>
+        <c:axId val="448239872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454828032"/>
+        <c:axId val="448238336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,14 +2147,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454829568"/>
+        <c:crossAx val="448239872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454829568"/>
+        <c:axId val="448239872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,12 +2205,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454828032"/>
+        <c:crossAx val="448238336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454831104"/>
+        <c:axId val="448241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2220,12 +2247,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454832896"/>
+        <c:crossAx val="448243200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="454832896"/>
+        <c:axId val="448243200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="454831104"/>
+        <c:crossAx val="448241664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2384,7 +2411,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2498,6 +2525,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2507,7 +2537,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2621,6 +2651,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8103103.269966363</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8256379.9279247131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2663,7 +2696,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2777,6 +2810,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,7 +2822,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2900,6 +2936,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7913071.9157501683</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7778827.7767198598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,7 +2981,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3056,6 +3095,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,7 +3107,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3179,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-190031.35421619471</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-477552.15120485332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,11 +3245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454864896"/>
-        <c:axId val="454866432"/>
+        <c:axId val="451150592"/>
+        <c:axId val="451152128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454864896"/>
+        <c:axId val="451150592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,14 +3292,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454866432"/>
+        <c:crossAx val="451152128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454866432"/>
+        <c:axId val="451152128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3350,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454864896"/>
+        <c:crossAx val="451150592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3466,7 +3511,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3580,6 +3625,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>507434.47455627128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>153276.65795835006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3594,8 +3642,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487321984"/>
-        <c:axId val="485243520"/>
+        <c:axId val="451171456"/>
+        <c:axId val="451169664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3620,7 +3668,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3734,6 +3782,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3743,7 +3794,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3857,6 +3908,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3873,11 +3927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454880640"/>
-        <c:axId val="485241984"/>
+        <c:axId val="451166592"/>
+        <c:axId val="451168128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454880640"/>
+        <c:axId val="451166592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,14 +3974,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485241984"/>
+        <c:crossAx val="451168128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485241984"/>
+        <c:axId val="451168128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,12 +4032,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454880640"/>
+        <c:crossAx val="451166592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="485243520"/>
+        <c:axId val="451169664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4020,12 +4074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487321984"/>
+        <c:crossAx val="451171456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487321984"/>
+        <c:axId val="451171456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,7 +4088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485243520"/>
+        <c:crossAx val="451169664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4184,7 +4238,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4298,6 +4352,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,7 +4364,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4421,6 +4478,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9209325.2065264452</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9314484.7442212198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4463,7 +4523,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4577,6 +4637,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,7 +4649,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4700,6 +4763,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8317385.4645985421</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8120333.5067951689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,7 +4808,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4856,6 +4922,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,7 +4934,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4979,6 +5048,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-891939.74192790315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1194151.2374260509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,11 +5072,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491371904"/>
-        <c:axId val="491373696"/>
+        <c:axId val="451899776"/>
+        <c:axId val="451901312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491371904"/>
+        <c:axId val="451899776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5047,14 +5119,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491373696"/>
+        <c:crossAx val="451901312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491373696"/>
+        <c:axId val="451901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5105,7 +5177,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491371904"/>
+        <c:crossAx val="451899776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5266,7 +5338,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5380,6 +5452,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,8 +5469,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491409408"/>
-        <c:axId val="491407616"/>
+        <c:axId val="451932928"/>
+        <c:axId val="451931136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5420,7 +5495,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5534,6 +5609,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,7 +5621,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5657,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5673,11 +5754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491404288"/>
-        <c:axId val="491406080"/>
+        <c:axId val="451928064"/>
+        <c:axId val="451929600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491404288"/>
+        <c:axId val="451928064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,14 +5801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491406080"/>
+        <c:crossAx val="451929600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491406080"/>
+        <c:axId val="451929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5778,12 +5859,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491404288"/>
+        <c:crossAx val="451928064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491407616"/>
+        <c:axId val="451931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,12 +5901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491409408"/>
+        <c:crossAx val="451932928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491409408"/>
+        <c:axId val="451932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491407616"/>
+        <c:crossAx val="451931136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +6047,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6080,6 +6161,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,8 +6178,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="495680896"/>
-        <c:axId val="495679360"/>
+        <c:axId val="554355328"/>
+        <c:axId val="554353792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6120,7 +6204,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6234,6 +6318,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,7 +6330,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6357,6 +6444,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6373,11 +6463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491428096"/>
-        <c:axId val="495677440"/>
+        <c:axId val="554132224"/>
+        <c:axId val="554134528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491428096"/>
+        <c:axId val="554132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6420,14 +6510,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495677440"/>
+        <c:crossAx val="554134528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495677440"/>
+        <c:axId val="554134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6478,12 +6568,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491428096"/>
+        <c:crossAx val="554132224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="495679360"/>
+        <c:axId val="554353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,12 +6610,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495680896"/>
+        <c:crossAx val="554355328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="495680896"/>
+        <c:axId val="554355328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6534,7 +6624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495679360"/>
+        <c:crossAx val="554353792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6684,7 +6774,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6798,6 +6888,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6807,7 +6900,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6921,6 +7014,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1292380.1527062359</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1311741.9864763017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6963,7 +7059,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7077,6 +7173,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7086,7 +7185,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7200,6 +7299,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1123976.0552000301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1102498.3143234849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7242,7 +7344,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7356,6 +7458,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7365,7 +7470,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7479,6 +7584,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-168404.09750620578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-209243.67215281678</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7500,11 +7608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557165184"/>
-        <c:axId val="561357568"/>
+        <c:axId val="581102208"/>
+        <c:axId val="581161728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557165184"/>
+        <c:axId val="581102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7547,14 +7655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561357568"/>
+        <c:crossAx val="581161728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561357568"/>
+        <c:axId val="581161728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7605,7 +7713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557165184"/>
+        <c:crossAx val="581102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7775,7 +7883,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7889,6 +7997,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>30925.319389732704</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19361.833770065768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7903,8 +8014,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422155776"/>
-        <c:axId val="422154240"/>
+        <c:axId val="160856320"/>
+        <c:axId val="160854784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7929,7 +8040,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8043,6 +8154,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8052,7 +8166,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8166,6 +8280,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8182,11 +8299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="422146816"/>
-        <c:axId val="422148352"/>
+        <c:axId val="160843264"/>
+        <c:axId val="160844800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="422146816"/>
+        <c:axId val="160843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8229,14 +8346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422148352"/>
+        <c:crossAx val="160844800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="422148352"/>
+        <c:axId val="160844800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8287,12 +8404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422146816"/>
+        <c:crossAx val="160843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422154240"/>
+        <c:axId val="160854784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,12 +8446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422155776"/>
+        <c:crossAx val="160856320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="422155776"/>
+        <c:axId val="160856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8343,7 +8460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422154240"/>
+        <c:crossAx val="160854784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8493,7 +8610,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8607,6 +8724,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8616,7 +8736,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8730,6 +8850,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>10778163.260448774</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10878064.821258809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8772,7 +8895,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8886,6 +9009,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,7 +9021,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9009,6 +9135,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9621029.8903031498</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9371352.1459629666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,7 +9180,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9165,6 +9294,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9174,7 +9306,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9288,6 +9420,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1157133.3701456245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1506712.6752958428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9309,11 +9444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450568960"/>
-        <c:axId val="450570496"/>
+        <c:axId val="322409984"/>
+        <c:axId val="322411520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450568960"/>
+        <c:axId val="322409984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9356,14 +9491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450570496"/>
+        <c:crossAx val="322411520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450570496"/>
+        <c:axId val="322411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9414,7 +9549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450568960"/>
+        <c:crossAx val="322409984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9584,7 +9719,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9698,6 +9833,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>254863.52547820861</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99901.560810035735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9712,8 +9850,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="450590592"/>
-        <c:axId val="450589056"/>
+        <c:axId val="322435328"/>
+        <c:axId val="322433792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9738,7 +9876,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9852,6 +9990,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9861,7 +10002,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9975,6 +10116,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9991,11 +10135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450585728"/>
-        <c:axId val="450587264"/>
+        <c:axId val="322430464"/>
+        <c:axId val="322432000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450585728"/>
+        <c:axId val="322430464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10038,14 +10182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450587264"/>
+        <c:crossAx val="322432000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450587264"/>
+        <c:axId val="322432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10096,12 +10240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450585728"/>
+        <c:crossAx val="322430464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="450589056"/>
+        <c:axId val="322433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10138,12 +10282,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450590592"/>
+        <c:crossAx val="322435328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="450590592"/>
+        <c:axId val="322435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10152,7 +10296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450589056"/>
+        <c:crossAx val="322433792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10302,7 +10446,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10416,6 +10560,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,7 +10572,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10539,6 +10686,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1298139.6408142245</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1318414.8443036517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10581,7 +10731,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10695,6 +10845,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10704,7 +10857,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10818,6 +10971,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1262690.3025894526</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1237085.7610170722</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10860,7 +11016,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10974,6 +11130,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10983,7 +11142,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11097,6 +11256,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-35449.338224771898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-81329.083286579465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11118,11 +11280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450609920"/>
-        <c:axId val="450611456"/>
+        <c:axId val="346699264"/>
+        <c:axId val="346700800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450609920"/>
+        <c:axId val="346699264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11165,14 +11327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450611456"/>
+        <c:crossAx val="346700800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450611456"/>
+        <c:axId val="346700800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11223,7 +11385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450609920"/>
+        <c:crossAx val="346699264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11384,7 +11546,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11498,6 +11660,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>67122.661507759942</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20275.20348942732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11512,8 +11677,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="450995328"/>
-        <c:axId val="450624896"/>
+        <c:axId val="346720128"/>
+        <c:axId val="346718592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11538,7 +11703,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11652,6 +11817,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11661,7 +11829,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11775,6 +11943,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11791,11 +11962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450621824"/>
-        <c:axId val="450623360"/>
+        <c:axId val="346715264"/>
+        <c:axId val="346716800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450621824"/>
+        <c:axId val="346715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11838,14 +12009,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450623360"/>
+        <c:crossAx val="346716800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450623360"/>
+        <c:axId val="346716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11896,12 +12067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450621824"/>
+        <c:crossAx val="346715264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="450624896"/>
+        <c:axId val="346718592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11938,12 +12109,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450995328"/>
+        <c:crossAx val="346720128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="450995328"/>
+        <c:axId val="346720128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11952,7 +12123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450624896"/>
+        <c:crossAx val="346718592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12102,7 +12273,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12216,6 +12387,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12225,7 +12399,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12339,6 +12513,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1119132.1501275504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1139513.0277802511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12381,7 +12558,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12495,6 +12672,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12504,7 +12684,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12618,6 +12798,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>989142.33548722172</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>973582.81026446761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12660,7 +12843,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12774,6 +12957,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12783,7 +12969,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12897,6 +13083,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129989.81464032864</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165930.2175157835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12918,11 +13107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451801472"/>
-        <c:axId val="451803008"/>
+        <c:axId val="448222336"/>
+        <c:axId val="448223872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451801472"/>
+        <c:axId val="448222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12965,14 +13154,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451803008"/>
+        <c:crossAx val="448223872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451803008"/>
+        <c:axId val="448223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13023,7 +13212,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451801472"/>
+        <c:crossAx val="448222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13875,7 +14064,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15623,6 +15812,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="32">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="31">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="29">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="29">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="30">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="30">
+        <v>1570521.9697818202</v>
+      </c>
+      <c r="H41" s="30">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="I41" s="30">
+        <v>1123194.2613669224</v>
+      </c>
+      <c r="J41" s="30">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="K41" s="30">
+        <v>-165175.83733351505</v>
+      </c>
+      <c r="L41" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15639,7 +15866,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17824,6 +18051,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>19361.833770065768</v>
+      </c>
+      <c r="F41" s="18">
+        <v>31740.710354116829</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1807374.2433914572</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1102498.3143234849</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1311741.9864763017</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1102498.3143234849</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-209243.67215281678</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17840,7 +18117,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20025,6 +20302,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>99901.560810035735</v>
+      </c>
+      <c r="F41" s="18">
+        <v>163773.0466676123</v>
+      </c>
+      <c r="G41" s="18">
+        <v>15362872.010156261</v>
+      </c>
+      <c r="H41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="I41" s="18">
+        <v>10878064.821258809</v>
+      </c>
+      <c r="J41" s="18">
+        <v>9371352.1459629666</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1506712.6752958428</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="O41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20041,7 +20368,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22466,6 +22793,62 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="41" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>20275.20348942732</v>
+      </c>
+      <c r="H41" s="18">
+        <v>33238.03772779242</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2028009.3967314181</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1237085.7610170722</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1318414.8443036517</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1237085.7610170722</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-81329.083286579465</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="P41" s="22">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>40.017205060415456</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -22482,7 +22865,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24800,6 +25183,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="18">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1596037.356447492</v>
+      </c>
+      <c r="H41" s="18">
+        <v>973582.81026446761</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1139513.0277802511</v>
+      </c>
+      <c r="J41" s="18">
+        <v>973582.81026446761</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-165930.2175157835</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="21">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="N41" s="21">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="O41" s="21">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="P41" s="21">
+        <v>77.251414536892625</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -24816,7 +25252,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26801,6 +27237,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="17">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="17">
+        <v>153276.65795835006</v>
+      </c>
+      <c r="H41" s="18">
+        <v>251273.20387517713</v>
+      </c>
+      <c r="I41" s="18">
+        <v>12752176.384095924</v>
+      </c>
+      <c r="J41" s="18">
+        <v>7778827.7767198598</v>
+      </c>
+      <c r="K41" s="18">
+        <v>8256379.9279247131</v>
+      </c>
+      <c r="L41" s="18">
+        <v>7778827.7767198598</v>
+      </c>
+      <c r="M41" s="18">
+        <v>-477552.15120485332</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -26817,7 +27297,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28565,6 +29045,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="15">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="31">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="16">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="17">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="17">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="18">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="18">
+        <v>13312021.830106834</v>
+      </c>
+      <c r="H41" s="18">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="I41" s="18">
+        <v>9314484.7442212198</v>
+      </c>
+      <c r="J41" s="18">
+        <v>8120333.5067951689</v>
+      </c>
+      <c r="K41" s="18">
+        <v>-1194151.2374260509</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -701,6 +701,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +713,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +830,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1123194.2613669224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1124647.3973650639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +875,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -986,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +1004,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>958018.42403340735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1206043.51752501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1166,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1271,6 +1283,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1295,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1397,6 +1412,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165175.83733351505</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81396.120159946149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497785088"/>
-        <c:axId val="500838400"/>
+        <c:axId val="442443264"/>
+        <c:axId val="442444800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497785088"/>
+        <c:axId val="442443264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,14 +1483,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500838400"/>
+        <c:crossAx val="442444800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500838400"/>
+        <c:axId val="442444800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497785088"/>
+        <c:crossAx val="442443264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1684,7 +1702,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1801,6 +1819,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,8 +1836,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448243200"/>
-        <c:axId val="448241664"/>
+        <c:axId val="442431744"/>
+        <c:axId val="442430208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1841,7 +1862,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1958,6 +1979,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,7 +1991,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2084,6 +2108,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2100,11 +2127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448238336"/>
-        <c:axId val="448239872"/>
+        <c:axId val="442426880"/>
+        <c:axId val="442428416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448238336"/>
+        <c:axId val="442426880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,14 +2174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448239872"/>
+        <c:crossAx val="442428416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448239872"/>
+        <c:axId val="442428416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2205,12 +2232,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448238336"/>
+        <c:crossAx val="442426880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448241664"/>
+        <c:axId val="442430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2274,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448243200"/>
+        <c:crossAx val="442431744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448243200"/>
+        <c:axId val="442431744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448241664"/>
+        <c:crossAx val="442430208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2438,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2528,6 +2555,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,7 +2567,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2654,6 +2684,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8256379.9279247131</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8257762.5822041975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2696,7 +2729,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2813,6 +2846,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,7 +2858,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2939,6 +2975,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7778827.7767198598</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9782302.1901902314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2981,7 +3020,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3098,6 +3137,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3149,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3224,6 +3266,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-477552.15120485332</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1524539.6079860339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3245,11 +3290,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451150592"/>
-        <c:axId val="451152128"/>
+        <c:axId val="442459648"/>
+        <c:axId val="442461184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451150592"/>
+        <c:axId val="442459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,14 +3337,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451152128"/>
+        <c:crossAx val="442461184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451152128"/>
+        <c:axId val="442461184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3350,7 +3395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451150592"/>
+        <c:crossAx val="442459648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3511,7 +3556,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3628,6 +3673,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>153276.65795835006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1382.6542794842405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3642,8 +3690,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451171456"/>
-        <c:axId val="451169664"/>
+        <c:axId val="442484608"/>
+        <c:axId val="442483072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3668,7 +3716,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3785,6 +3833,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3794,7 +3845,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3911,6 +3962,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3927,11 +3981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451166592"/>
-        <c:axId val="451168128"/>
+        <c:axId val="442479744"/>
+        <c:axId val="442481280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451166592"/>
+        <c:axId val="442479744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3974,14 +4028,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451168128"/>
+        <c:crossAx val="442481280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451168128"/>
+        <c:axId val="442481280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4032,12 +4086,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451166592"/>
+        <c:crossAx val="442479744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451169664"/>
+        <c:axId val="442483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,12 +4128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451171456"/>
+        <c:crossAx val="442484608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451171456"/>
+        <c:axId val="442484608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451169664"/>
+        <c:crossAx val="442483072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4238,7 +4292,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4355,6 +4409,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4364,7 +4421,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4481,6 +4538,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9314484.7442212198</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9315019.3275703583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4523,7 +4583,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4640,6 +4700,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +4712,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4766,6 +4829,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8120333.5067951689</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10210855.587295413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,7 +4874,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4925,6 +4991,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4934,7 +5003,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5051,6 +5120,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1194151.2374260509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>895836.25972505473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,11 +5144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451899776"/>
-        <c:axId val="451901312"/>
+        <c:axId val="443135104"/>
+        <c:axId val="443136640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451899776"/>
+        <c:axId val="443135104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,14 +5191,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451901312"/>
+        <c:crossAx val="443136640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451901312"/>
+        <c:axId val="443136640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5177,7 +5249,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451899776"/>
+        <c:crossAx val="443135104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5338,7 +5410,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5455,6 +5527,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,8 +5544,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451932928"/>
-        <c:axId val="451931136"/>
+        <c:axId val="443262464"/>
+        <c:axId val="443260928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5495,7 +5570,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5612,6 +5687,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,7 +5699,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5738,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,11 +5835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451928064"/>
-        <c:axId val="451929600"/>
+        <c:axId val="443253504"/>
+        <c:axId val="443255040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451928064"/>
+        <c:axId val="443253504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,14 +5882,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451929600"/>
+        <c:crossAx val="443255040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451929600"/>
+        <c:axId val="443255040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,12 +5940,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451928064"/>
+        <c:crossAx val="443253504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451931136"/>
+        <c:axId val="443260928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5901,12 +5982,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451932928"/>
+        <c:crossAx val="443262464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451932928"/>
+        <c:axId val="443262464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +5996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451931136"/>
+        <c:crossAx val="443260928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6047,7 +6128,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6164,6 +6245,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6178,8 +6262,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="554355328"/>
-        <c:axId val="554353792"/>
+        <c:axId val="530287232"/>
+        <c:axId val="530284928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6204,7 +6288,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6321,6 +6405,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6330,7 +6417,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6447,6 +6534,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6463,11 +6553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554132224"/>
-        <c:axId val="554134528"/>
+        <c:axId val="530240640"/>
+        <c:axId val="530242176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554132224"/>
+        <c:axId val="530240640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,14 +6600,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554134528"/>
+        <c:crossAx val="530242176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554134528"/>
+        <c:axId val="530242176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6568,12 +6658,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554132224"/>
+        <c:crossAx val="530240640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554353792"/>
+        <c:axId val="530284928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6610,12 +6700,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554355328"/>
+        <c:crossAx val="530287232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="554355328"/>
+        <c:axId val="530287232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6624,7 +6714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="554353792"/>
+        <c:crossAx val="530284928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6774,7 +6864,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6891,6 +6981,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6900,7 +6993,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7017,6 +7110,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1311741.9864763017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1313122.4656745361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7059,7 +7155,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7176,6 +7272,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,7 +7284,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7302,6 +7401,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1102498.3143234849</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1387636.5592142332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7344,7 +7446,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7461,6 +7563,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7470,7 +7575,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7587,6 +7692,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-209243.67215281678</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>74514.093539697118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,11 +7716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581102208"/>
-        <c:axId val="581161728"/>
+        <c:axId val="615200256"/>
+        <c:axId val="615202176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581102208"/>
+        <c:axId val="615200256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,14 +7763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581161728"/>
+        <c:crossAx val="615202176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581161728"/>
+        <c:axId val="615202176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,7 +7821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581102208"/>
+        <c:crossAx val="615200256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7883,7 +7991,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8000,6 +8108,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>19361.833770065768</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1380.4791982343968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8014,8 +8125,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="160856320"/>
-        <c:axId val="160854784"/>
+        <c:axId val="434072576"/>
+        <c:axId val="434071040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8040,7 +8151,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8157,6 +8268,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8166,7 +8280,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8283,6 +8397,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8299,11 +8416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160843264"/>
-        <c:axId val="160844800"/>
+        <c:axId val="434059520"/>
+        <c:axId val="434069504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160843264"/>
+        <c:axId val="434059520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8346,14 +8463,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160844800"/>
+        <c:crossAx val="434069504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160844800"/>
+        <c:axId val="434069504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8404,12 +8521,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160843264"/>
+        <c:crossAx val="434059520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160854784"/>
+        <c:axId val="434071040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8446,12 +8563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160856320"/>
+        <c:crossAx val="434072576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="160856320"/>
+        <c:axId val="434072576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8460,7 +8577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160854784"/>
+        <c:crossAx val="434071040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8610,7 +8727,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8727,6 +8844,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8736,7 +8856,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8853,6 +8973,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10878064.821258809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10878572.67544049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,7 +9018,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9012,6 +9135,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9021,7 +9147,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9138,6 +9264,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9371352.1459629666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11783830.98632065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9180,7 +9309,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9297,6 +9426,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9306,7 +9438,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9423,6 +9555,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1506712.6752958428</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>905258.31088015996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9444,11 +9579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322409984"/>
-        <c:axId val="322411520"/>
+        <c:axId val="434711168"/>
+        <c:axId val="434717056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322409984"/>
+        <c:axId val="434711168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,14 +9626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322411520"/>
+        <c:crossAx val="434717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322411520"/>
+        <c:axId val="434717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,7 +9684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322409984"/>
+        <c:crossAx val="434711168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9719,7 +9854,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9836,6 +9971,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>99901.560810035735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>507.85418168098141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9850,8 +9988,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="322435328"/>
-        <c:axId val="322433792"/>
+        <c:axId val="434765184"/>
+        <c:axId val="434763648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9876,7 +10014,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9993,6 +10131,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10002,7 +10143,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10119,6 +10260,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10135,11 +10279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="322430464"/>
-        <c:axId val="322432000"/>
+        <c:axId val="434752128"/>
+        <c:axId val="434762112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="322430464"/>
+        <c:axId val="434752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,14 +10326,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322432000"/>
+        <c:crossAx val="434762112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="322432000"/>
+        <c:axId val="434762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10240,12 +10384,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322430464"/>
+        <c:crossAx val="434752128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322433792"/>
+        <c:axId val="434763648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10282,12 +10426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322435328"/>
+        <c:crossAx val="434765184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="322435328"/>
+        <c:axId val="434765184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10296,7 +10440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322433792"/>
+        <c:crossAx val="434763648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10446,7 +10590,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10563,6 +10707,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10572,7 +10719,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10689,6 +10836,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1318414.8443036517</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1318597.7397115075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10731,7 +10881,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10848,6 +10998,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10857,7 +11010,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10974,6 +11127,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1237085.7610170722</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1555666.1423490932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11016,7 +11172,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11133,6 +11289,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11142,7 +11301,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11259,6 +11418,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-81329.083286579465</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>237068.40263758576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11280,11 +11442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346699264"/>
-        <c:axId val="346700800"/>
+        <c:axId val="442256000"/>
+        <c:axId val="442265984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="346699264"/>
+        <c:axId val="442256000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11327,14 +11489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346700800"/>
+        <c:crossAx val="442265984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="346700800"/>
+        <c:axId val="442265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11385,7 +11547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346699264"/>
+        <c:crossAx val="442256000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11546,7 +11708,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11663,6 +11825,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20275.20348942732</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>182.89540785582676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11677,8 +11842,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346720128"/>
-        <c:axId val="346718592"/>
+        <c:axId val="442284672"/>
+        <c:axId val="442283136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11703,7 +11868,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11820,6 +11985,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11829,7 +11997,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11946,6 +12114,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11962,11 +12133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="346715264"/>
-        <c:axId val="346716800"/>
+        <c:axId val="442279808"/>
+        <c:axId val="442281344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="346715264"/>
+        <c:axId val="442279808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12009,14 +12180,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346716800"/>
+        <c:crossAx val="442281344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="346716800"/>
+        <c:axId val="442281344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12067,12 +12238,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346715264"/>
+        <c:crossAx val="442279808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="346718592"/>
+        <c:axId val="442283136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12109,12 +12280,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346720128"/>
+        <c:crossAx val="442284672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="346720128"/>
+        <c:axId val="442284672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12123,7 +12294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346718592"/>
+        <c:crossAx val="442283136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12273,7 +12444,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12390,6 +12561,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12399,7 +12573,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12516,6 +12690,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1139513.0277802511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1140966.1637783926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12558,7 +12735,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12675,6 +12852,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12684,7 +12864,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12801,6 +12981,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>973582.81026446761</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1225613.8195964145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12843,7 +13026,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12960,6 +13143,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12969,7 +13155,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13086,6 +13272,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165930.2175157835</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84647.655818021856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13107,11 +13296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448222336"/>
-        <c:axId val="448223872"/>
+        <c:axId val="442410880"/>
+        <c:axId val="442412416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448222336"/>
+        <c:axId val="442410880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13154,14 +13343,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448223872"/>
+        <c:crossAx val="442412416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448223872"/>
+        <c:axId val="442412416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13212,7 +13401,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448222336"/>
+        <c:crossAx val="442410880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14064,7 +14253,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15850,6 +16039,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="32">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="31">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="29">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="29">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="30">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="30">
+        <v>1572416.5407871683</v>
+      </c>
+      <c r="H42" s="30">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="I42" s="30">
+        <v>1124647.3973650639</v>
+      </c>
+      <c r="J42" s="30">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="K42" s="30">
+        <v>81396.120159946149</v>
+      </c>
+      <c r="L42" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15866,7 +16093,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18089,15 +18316,65 @@
         <v>0</v>
       </c>
       <c r="M41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="N41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="O41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1380.4791982343968</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1799.8424550806969</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1809174.085846538</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1387636.5592142332</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1313122.4656745361</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1387636.5592142332</v>
+      </c>
+      <c r="K42" s="18">
+        <v>74514.093539697118</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -18117,7 +18394,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20340,15 +20617,65 @@
         <v>0</v>
       </c>
       <c r="M41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="N41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="O41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="P41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>507.85418168098141</v>
+      </c>
+      <c r="F42" s="18">
+        <v>662.13059809141339</v>
+      </c>
+      <c r="G42" s="18">
+        <v>15363534.140754351</v>
+      </c>
+      <c r="H42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="I42" s="18">
+        <v>10878572.67544049</v>
+      </c>
+      <c r="J42" s="18">
+        <v>11783830.98632065</v>
+      </c>
+      <c r="K42" s="18">
+        <v>905258.31088015996</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -20368,7 +20695,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22837,15 +23164,71 @@
         <v>0</v>
       </c>
       <c r="O41" s="22">
-        <v>9.0720651077918352E-3</v>
+        <v>7.5600542564931957E-3</v>
       </c>
       <c r="P41" s="22">
-        <v>2.2670411624438547E-2</v>
+        <v>2.2725343338256893E-2</v>
       </c>
       <c r="Q41" s="22">
-        <v>40.017205060415456</v>
+        <v>33.267062873220716</v>
       </c>
       <c r="R41" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>182.89540785582676</v>
+      </c>
+      <c r="H42" s="18">
+        <v>238.45554523330341</v>
+      </c>
+      <c r="I42" s="18">
+        <v>2028247.8522766514</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1555666.1423490932</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1318597.7397115075</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1555666.1423490932</v>
+      </c>
+      <c r="M42" s="18">
+        <v>237068.40263758576</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="P42" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="Q42" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="R42" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -22865,7 +23248,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25221,18 +25604,71 @@
         <v>0</v>
       </c>
       <c r="M41" s="21">
-        <v>65.986389868671111</v>
+        <v>50.340131641102225</v>
       </c>
       <c r="N41" s="21">
-        <v>56.426742107867703</v>
+        <v>54.39787195227921</v>
       </c>
       <c r="O41" s="21">
-        <v>46.014405893355239</v>
+        <v>48.808894579663225</v>
       </c>
       <c r="P41" s="21">
-        <v>77.251414536892625</v>
+        <v>65.575826697511175</v>
       </c>
       <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1597931.9274528401</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1225613.8195964145</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1140966.1637783926</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1225613.8195964145</v>
+      </c>
+      <c r="K42" s="18">
+        <v>84647.655818021856</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>100</v>
+      </c>
+      <c r="N42" s="21">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="O42" s="21">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="P42" s="21">
+        <v>97.318163597327825</v>
+      </c>
+      <c r="Q42" s="1">
         <v>1</v>
       </c>
     </row>
@@ -25252,7 +25688,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27281,6 +27717,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="17">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1382.6542794842405</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1802.6782845388486</v>
+      </c>
+      <c r="I42" s="18">
+        <v>12753979.062380463</v>
+      </c>
+      <c r="J42" s="18">
+        <v>9782302.1901902314</v>
+      </c>
+      <c r="K42" s="18">
+        <v>8257762.5822041975</v>
+      </c>
+      <c r="L42" s="18">
+        <v>9782302.1901902314</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1524539.6079860339</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -27297,7 +27777,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29083,6 +29563,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="15">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="31">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="16">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="17">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="18">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="18">
+        <v>13312718.809683772</v>
+      </c>
+      <c r="H42" s="18">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="I42" s="18">
+        <v>9315019.3275703583</v>
+      </c>
+      <c r="J42" s="18">
+        <v>10210855.587295413</v>
+      </c>
+      <c r="K42" s="18">
+        <v>895836.25972505473</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -704,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +716,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -833,6 +836,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1124647.3973650639</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1127257.6528514628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,7 +881,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -995,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1013,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1206043.51752501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1224377.923423548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1178,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1286,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1310,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1415,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81396.120159946149</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97120.270572085166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,11 +1454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442443264"/>
-        <c:axId val="442444800"/>
+        <c:axId val="482670848"/>
+        <c:axId val="485752832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442443264"/>
+        <c:axId val="482670848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,14 +1501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442444800"/>
+        <c:crossAx val="485752832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442444800"/>
+        <c:axId val="485752832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442443264"/>
+        <c:crossAx val="482670848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1702,7 +1720,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1822,6 +1840,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,8 +1857,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442431744"/>
-        <c:axId val="442430208"/>
+        <c:axId val="471052672"/>
+        <c:axId val="449903232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1862,7 +1883,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1982,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2015,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2111,6 +2135,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,11 +2154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442426880"/>
-        <c:axId val="442428416"/>
+        <c:axId val="449899904"/>
+        <c:axId val="449901696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442426880"/>
+        <c:axId val="449899904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,14 +2201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442428416"/>
+        <c:crossAx val="449901696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442428416"/>
+        <c:axId val="449901696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,12 +2259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442426880"/>
+        <c:crossAx val="449899904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442430208"/>
+        <c:axId val="449903232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,12 +2301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442431744"/>
+        <c:crossAx val="471052672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442431744"/>
+        <c:axId val="471052672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442430208"/>
+        <c:crossAx val="449903232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2438,7 +2465,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2558,6 +2585,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2567,7 +2597,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2683,10 +2713,13 @@
                   <c:v>8103103.269966363</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8256379.9279247131</c:v>
+                  <c:v>8256379.9279411966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8257762.5822041975</c:v>
+                  <c:v>8257762.5822227197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8257762.5822227197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,7 +2762,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2849,6 +2882,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2894,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2974,10 +3010,13 @@
                   <c:v>7913071.9157501683</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7778827.7767198598</c:v>
+                  <c:v>7778827.7767363442</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9782302.1901902314</c:v>
+                  <c:v>9782302.1902129967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9909841.8592056762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,7 +3059,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3140,6 +3179,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3191,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3265,10 +3307,13 @@
                   <c:v>-190031.35421619471</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-477552.15120485332</c:v>
+                  <c:v>-477552.15120485239</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1524539.6079860339</c:v>
+                  <c:v>1524539.607990277</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1652079.2769829566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3290,11 +3335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442459648"/>
-        <c:axId val="442461184"/>
+        <c:axId val="473618304"/>
+        <c:axId val="473619840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442459648"/>
+        <c:axId val="473618304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,14 +3382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442461184"/>
+        <c:crossAx val="473619840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442461184"/>
+        <c:axId val="473619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3395,7 +3440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442459648"/>
+        <c:crossAx val="473618304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3556,7 +3601,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3672,10 +3717,13 @@
                   <c:v>507434.47455627128</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>153276.65795835006</c:v>
+                  <c:v>153276.65797483371</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1382.6542794842405</c:v>
+                  <c:v>1382.6542815230166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3690,8 +3738,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442484608"/>
-        <c:axId val="442483072"/>
+        <c:axId val="482622848"/>
+        <c:axId val="482621312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3716,7 +3764,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3836,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3845,7 +3896,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3965,6 +4016,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3981,11 +4035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442479744"/>
-        <c:axId val="442481280"/>
+        <c:axId val="482617984"/>
+        <c:axId val="482619776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442479744"/>
+        <c:axId val="482617984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,14 +4082,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442481280"/>
+        <c:crossAx val="482619776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442481280"/>
+        <c:axId val="482619776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,12 +4140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442479744"/>
+        <c:crossAx val="482617984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442483072"/>
+        <c:axId val="482621312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4128,12 +4182,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442484608"/>
+        <c:crossAx val="482622848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442484608"/>
+        <c:axId val="482622848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442483072"/>
+        <c:crossAx val="482621312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4292,7 +4346,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4412,6 +4466,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,7 +4478,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4541,6 +4598,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9315019.3275703583</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9316744.2474954911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4583,7 +4643,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4703,6 +4763,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,7 +4775,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4832,6 +4895,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10210855.587295413</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10345707.568357404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4874,7 +4940,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4994,6 +5060,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,7 +5072,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5123,6 +5192,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>895836.25972505473</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1028963.3208619133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5144,11 +5216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443135104"/>
-        <c:axId val="443136640"/>
+        <c:axId val="482661888"/>
+        <c:axId val="482663424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443135104"/>
+        <c:axId val="482661888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,14 +5263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443136640"/>
+        <c:crossAx val="482663424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443136640"/>
+        <c:axId val="482663424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5249,7 +5321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443135104"/>
+        <c:crossAx val="482661888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5410,7 +5482,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5530,6 +5602,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5544,8 +5619,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="443262464"/>
-        <c:axId val="443260928"/>
+        <c:axId val="482692096"/>
+        <c:axId val="482690560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5570,7 +5645,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5690,6 +5765,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5699,7 +5777,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5819,6 +5897,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5835,11 +5916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443253504"/>
-        <c:axId val="443255040"/>
+        <c:axId val="482687232"/>
+        <c:axId val="482689024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443253504"/>
+        <c:axId val="482687232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5882,14 +5963,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443255040"/>
+        <c:crossAx val="482689024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443255040"/>
+        <c:axId val="482689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,12 +6021,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443253504"/>
+        <c:crossAx val="482687232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443260928"/>
+        <c:axId val="482690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,12 +6063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443262464"/>
+        <c:crossAx val="482692096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="443262464"/>
+        <c:axId val="482692096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5996,7 +6077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443260928"/>
+        <c:crossAx val="482690560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6128,7 +6209,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6248,6 +6329,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6262,8 +6346,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="530287232"/>
-        <c:axId val="530284928"/>
+        <c:axId val="541444736"/>
+        <c:axId val="541442816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6288,7 +6372,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6408,6 +6492,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,7 +6504,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6537,6 +6624,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,11 +6643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530240640"/>
-        <c:axId val="530242176"/>
+        <c:axId val="536933504"/>
+        <c:axId val="536935040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530240640"/>
+        <c:axId val="536933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6600,14 +6690,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530242176"/>
+        <c:crossAx val="536935040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530242176"/>
+        <c:axId val="536935040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,12 +6748,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530240640"/>
+        <c:crossAx val="536933504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530284928"/>
+        <c:axId val="541442816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6700,12 +6790,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530287232"/>
+        <c:crossAx val="541444736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="530287232"/>
+        <c:axId val="541444736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6714,7 +6804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530284928"/>
+        <c:crossAx val="541442816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6864,7 +6954,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6984,6 +7074,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6993,7 +7086,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7113,6 +7206,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1313122.4656745361</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1313644.516771816</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7155,7 +7251,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7275,6 +7371,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7284,7 +7383,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7404,6 +7503,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1387636.5592142332</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1406250.3339163498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7446,7 +7548,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7566,6 +7668,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7575,7 +7680,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7695,6 +7800,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>74514.093539697118</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92605.817144533852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7716,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615200256"/>
-        <c:axId val="615202176"/>
+        <c:axId val="437809536"/>
+        <c:axId val="437811072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615200256"/>
+        <c:axId val="437809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7763,14 +7871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615202176"/>
+        <c:crossAx val="437811072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615202176"/>
+        <c:axId val="437811072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7821,7 +7929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615200256"/>
+        <c:crossAx val="437809536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7991,7 +8099,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8111,6 +8219,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1380.4791982343968</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>522.05109727978686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8125,8 +8236,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434072576"/>
-        <c:axId val="434071040"/>
+        <c:axId val="441137408"/>
+        <c:axId val="441135872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8151,7 +8262,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8271,6 +8382,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8280,7 +8394,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8400,6 +8514,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8416,11 +8533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434059520"/>
-        <c:axId val="434069504"/>
+        <c:axId val="441128448"/>
+        <c:axId val="441129984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434059520"/>
+        <c:axId val="441128448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8463,14 +8580,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434069504"/>
+        <c:crossAx val="441129984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434069504"/>
+        <c:axId val="441129984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8521,12 +8638,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434059520"/>
+        <c:crossAx val="441128448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434071040"/>
+        <c:axId val="441135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8563,12 +8680,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434072576"/>
+        <c:crossAx val="441137408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434072576"/>
+        <c:axId val="441137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8577,7 +8694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434071040"/>
+        <c:crossAx val="441135872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8727,7 +8844,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8847,6 +8964,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8856,7 +8976,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8976,6 +9096,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10878572.67544049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10878917.659425518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9018,7 +9141,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9138,6 +9261,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9147,7 +9273,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9267,6 +9393,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11783830.98632065</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11937811.165195141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9309,7 +9438,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9429,6 +9558,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,7 +9570,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9558,6 +9690,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>905258.31088015996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1058893.5057696234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9579,11 +9714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434711168"/>
-        <c:axId val="434717056"/>
+        <c:axId val="441160064"/>
+        <c:axId val="441161600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434711168"/>
+        <c:axId val="441160064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9626,14 +9761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434717056"/>
+        <c:crossAx val="441161600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434717056"/>
+        <c:axId val="441161600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9684,7 +9819,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434711168"/>
+        <c:crossAx val="441160064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9854,7 +9989,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9974,6 +10109,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>507.85418168098141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>344.98398502661962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,8 +10126,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434765184"/>
-        <c:axId val="434763648"/>
+        <c:axId val="441178368"/>
+        <c:axId val="441176832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10014,7 +10152,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10134,6 +10272,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10143,7 +10284,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10263,6 +10404,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10279,11 +10423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434752128"/>
-        <c:axId val="434762112"/>
+        <c:axId val="441173504"/>
+        <c:axId val="441175040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434752128"/>
+        <c:axId val="441173504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10326,14 +10470,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434762112"/>
+        <c:crossAx val="441175040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434762112"/>
+        <c:axId val="441175040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,12 +10528,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434752128"/>
+        <c:crossAx val="441173504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434763648"/>
+        <c:axId val="441176832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10426,12 +10570,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434765184"/>
+        <c:crossAx val="441178368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434765184"/>
+        <c:axId val="441178368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10440,7 +10584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434763648"/>
+        <c:crossAx val="441176832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10590,7 +10734,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10710,6 +10854,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10719,7 +10866,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10835,10 +10982,13 @@
                   <c:v>1298139.6408142245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1318414.8443036517</c:v>
+                  <c:v>1318414.8443058322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1318597.7397115075</c:v>
+                  <c:v>1318597.7397139578</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1318597.7397139578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10881,7 +11031,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11001,6 +11151,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11010,7 +11163,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11126,10 +11279,13 @@
                   <c:v>1262690.3025894526</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1237085.7610170722</c:v>
+                  <c:v>1237085.7610192525</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1555666.1423490932</c:v>
+                  <c:v>1555666.1423521044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1575948.6015320313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11172,7 +11328,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11292,6 +11448,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11301,7 +11460,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11417,10 +11576,13 @@
                   <c:v>-35449.338224771898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-81329.083286579465</c:v>
+                  <c:v>-81329.083286579698</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>237068.40263758576</c:v>
+                  <c:v>237068.40263814665</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>257350.86181807355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11442,11 +11604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442256000"/>
-        <c:axId val="442265984"/>
+        <c:axId val="449839104"/>
+        <c:axId val="449840640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442256000"/>
+        <c:axId val="449839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11489,14 +11651,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442265984"/>
+        <c:crossAx val="449840640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442265984"/>
+        <c:axId val="449840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11547,7 +11709,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442256000"/>
+        <c:crossAx val="449839104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11708,7 +11870,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11824,10 +11986,13 @@
                   <c:v>67122.661507759942</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20275.20348942732</c:v>
+                  <c:v>20275.203491607746</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>182.89540785582676</c:v>
+                  <c:v>182.89540812551292</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11842,8 +12007,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442284672"/>
-        <c:axId val="442283136"/>
+        <c:axId val="449857024"/>
+        <c:axId val="449855488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11868,7 +12033,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11988,6 +12153,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11997,7 +12165,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12117,6 +12285,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12133,11 +12304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442279808"/>
-        <c:axId val="442281344"/>
+        <c:axId val="449852160"/>
+        <c:axId val="449853696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442279808"/>
+        <c:axId val="449852160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12180,14 +12351,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442281344"/>
+        <c:crossAx val="449853696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442281344"/>
+        <c:axId val="449853696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12238,12 +12409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442279808"/>
+        <c:crossAx val="449852160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442283136"/>
+        <c:axId val="449855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12280,12 +12451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442284672"/>
+        <c:crossAx val="449857024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442284672"/>
+        <c:axId val="449857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12294,7 +12465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442283136"/>
+        <c:crossAx val="449855488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12444,7 +12615,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12564,6 +12735,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12573,7 +12747,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12693,6 +12867,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1140966.1637783926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1143576.4192647915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12735,7 +12912,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12855,6 +13032,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12864,7 +13044,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12984,6 +13164,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1225613.8195964145</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1244203.3791182756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13026,7 +13209,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13146,6 +13329,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13155,7 +13341,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13275,6 +13461,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>84647.655818021856</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100626.95985348406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13296,11 +13485,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442410880"/>
-        <c:axId val="442412416"/>
+        <c:axId val="449887232"/>
+        <c:axId val="449889024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442410880"/>
+        <c:axId val="449887232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13343,14 +13532,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442412416"/>
+        <c:crossAx val="449889024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442412416"/>
+        <c:axId val="449889024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13401,7 +13590,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442410880"/>
+        <c:crossAx val="449887232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14253,7 +14442,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16077,6 +16266,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="32">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="31">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="29">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="29">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="30">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="30">
+        <v>1575775.9429142717</v>
+      </c>
+      <c r="H43" s="30">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="I43" s="30">
+        <v>1127257.6528514628</v>
+      </c>
+      <c r="J43" s="30">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="K43" s="30">
+        <v>97120.270572085166</v>
+      </c>
+      <c r="L43" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16093,7 +16320,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18378,6 +18605,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>522.05109727978686</v>
+      </c>
+      <c r="F43" s="18">
+        <v>671.88042542066694</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1809845.9662719585</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1406250.3339163498</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1313644.516771816</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1406250.3339163498</v>
+      </c>
+      <c r="K43" s="18">
+        <v>92605.817144533852</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -18394,7 +18671,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20679,6 +20956,56 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>344.98398502661962</v>
+      </c>
+      <c r="F43" s="18">
+        <v>443.99482700211297</v>
+      </c>
+      <c r="G43" s="18">
+        <v>15363978.135581354</v>
+      </c>
+      <c r="H43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="I43" s="18">
+        <v>10878917.659425518</v>
+      </c>
+      <c r="J43" s="18">
+        <v>11937811.165195141</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1058893.5057696234</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="O43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -20695,7 +21022,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23131,7 +23458,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -23140,25 +23467,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>20275.20348942732</v>
+        <v>20275.203491607746</v>
       </c>
       <c r="H41" s="18">
-        <v>33238.03772779242</v>
+        <v>33238.037731366887</v>
       </c>
       <c r="I41" s="18">
-        <v>2028009.3967314181</v>
+        <v>2028009.3967349925</v>
       </c>
       <c r="J41" s="18">
-        <v>1237085.7610170722</v>
+        <v>1237085.7610192525</v>
       </c>
       <c r="K41" s="18">
-        <v>1318414.8443036517</v>
+        <v>1318414.8443058322</v>
       </c>
       <c r="L41" s="18">
-        <v>1237085.7610170722</v>
+        <v>1237085.7610192525</v>
       </c>
       <c r="M41" s="18">
-        <v>-81329.083286579465</v>
+        <v>-81329.083286579698</v>
       </c>
       <c r="N41" s="17">
         <v>0</v>
@@ -23187,7 +23514,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -23196,25 +23523,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>182.89540785582676</v>
+        <v>182.89540812551292</v>
       </c>
       <c r="H42" s="18">
-        <v>238.45554523330341</v>
+        <v>238.45554558491509</v>
       </c>
       <c r="I42" s="18">
-        <v>2028247.8522766514</v>
+        <v>2028247.8522805774</v>
       </c>
       <c r="J42" s="18">
-        <v>1555666.1423490932</v>
+        <v>1555666.1423521044</v>
       </c>
       <c r="K42" s="18">
-        <v>1318597.7397115075</v>
+        <v>1318597.7397139578</v>
       </c>
       <c r="L42" s="18">
-        <v>1555666.1423490932</v>
+        <v>1555666.1423521044</v>
       </c>
       <c r="M42" s="18">
-        <v>237068.40263758576</v>
+        <v>237068.40263814665</v>
       </c>
       <c r="N42" s="17">
         <v>0</v>
@@ -23230,6 +23557,62 @@
       </c>
       <c r="R42" s="1">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>2028247.8522805774</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1575948.6015320313</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1318597.7397139578</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1575948.6015320313</v>
+      </c>
+      <c r="M43" s="18">
+        <v>257350.86181807355</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="P43" s="22">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="Q43" s="22">
+        <v>71.981168427775472</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -23248,7 +23631,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25672,6 +26055,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="18">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1601291.3295799436</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1244203.3791182756</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1143576.4192647915</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1244203.3791182756</v>
+      </c>
+      <c r="K43" s="18">
+        <v>100626.95985348406</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="21">
+        <v>100</v>
+      </c>
+      <c r="N43" s="21">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="O43" s="21">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="P43" s="21">
+        <v>97.318163597327825</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -25688,7 +26124,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27684,7 +28120,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
         <v>6956200</v>
@@ -27693,25 +28129,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="17">
-        <v>153276.65795835006</v>
+        <v>153276.65797483371</v>
       </c>
       <c r="H41" s="18">
-        <v>251273.20387517713</v>
+        <v>251273.20390219952</v>
       </c>
       <c r="I41" s="18">
-        <v>12752176.384095924</v>
+        <v>12752176.384122947</v>
       </c>
       <c r="J41" s="18">
-        <v>7778827.7767198598</v>
+        <v>7778827.7767363442</v>
       </c>
       <c r="K41" s="18">
-        <v>8256379.9279247131</v>
+        <v>8256379.9279411966</v>
       </c>
       <c r="L41" s="18">
-        <v>7778827.7767198598</v>
+        <v>7778827.7767363442</v>
       </c>
       <c r="M41" s="18">
-        <v>-477552.15120485332</v>
+        <v>-477552.15120485239</v>
       </c>
       <c r="N41" s="17">
         <v>0</v>
@@ -27728,7 +28164,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
         <v>12479809</v>
@@ -27737,27 +28173,71 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="17">
-        <v>1382.6542794842405</v>
+        <v>1382.6542815230166</v>
       </c>
       <c r="H42" s="18">
-        <v>1802.6782845388486</v>
+        <v>1802.678287196966</v>
       </c>
       <c r="I42" s="18">
-        <v>12753979.062380463</v>
+        <v>12753979.062410144</v>
       </c>
       <c r="J42" s="18">
-        <v>9782302.1901902314</v>
+        <v>9782302.1902129967</v>
       </c>
       <c r="K42" s="18">
-        <v>8257762.5822041975</v>
+        <v>8257762.5822227197</v>
       </c>
       <c r="L42" s="18">
-        <v>9782302.1901902314</v>
+        <v>9782302.1902129967</v>
       </c>
       <c r="M42" s="18">
-        <v>1524539.6079860339</v>
+        <v>1524539.607990277</v>
       </c>
       <c r="N42" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0</v>
+      </c>
+      <c r="F43" s="17">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>12753979.062410144</v>
+      </c>
+      <c r="J43" s="18">
+        <v>9909841.8592056762</v>
+      </c>
+      <c r="K43" s="18">
+        <v>8257762.5822227197</v>
+      </c>
+      <c r="L43" s="18">
+        <v>9909841.8592056762</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1652079.2769829566</v>
+      </c>
+      <c r="N43" s="17">
         <v>0</v>
       </c>
     </row>
@@ -27777,7 +28257,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29601,6 +30081,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="15">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="31">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="16">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="17">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="18">
+        <v>13314938.783818783</v>
+      </c>
+      <c r="H43" s="18">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="I43" s="18">
+        <v>9316744.2474954911</v>
+      </c>
+      <c r="J43" s="18">
+        <v>10345707.568357404</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1028963.3208619133</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -707,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +719,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -839,6 +842,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1127257.6528514628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1130707.2667107254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,7 +887,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1004,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1022,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1136,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1224377.923423548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1234130.6538280728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,7 +1190,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1301,6 +1313,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1325,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1433,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>97120.270572085166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103423.38711734745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,11 +1472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482670848"/>
-        <c:axId val="485752832"/>
+        <c:axId val="480033408"/>
+        <c:axId val="504742656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482670848"/>
+        <c:axId val="480033408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,14 +1519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485752832"/>
+        <c:crossAx val="504742656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485752832"/>
+        <c:axId val="504742656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482670848"/>
+        <c:crossAx val="480033408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1720,7 +1738,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1843,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,8 +1878,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471052672"/>
-        <c:axId val="449903232"/>
+        <c:axId val="479367936"/>
+        <c:axId val="479366144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1883,7 +1904,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2006,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2039,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2138,6 +2162,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,11 +2181,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449899904"/>
-        <c:axId val="449901696"/>
+        <c:axId val="479363072"/>
+        <c:axId val="479364608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449899904"/>
+        <c:axId val="479363072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,14 +2228,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449901696"/>
+        <c:crossAx val="479364608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449901696"/>
+        <c:axId val="479364608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,12 +2286,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449899904"/>
+        <c:crossAx val="479363072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449903232"/>
+        <c:axId val="479366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2301,12 +2328,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471052672"/>
+        <c:crossAx val="479367936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471052672"/>
+        <c:axId val="479367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449903232"/>
+        <c:crossAx val="479366144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2465,7 +2492,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2588,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,7 +2627,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2719,7 +2749,10 @@
                   <c:v>8257762.5822227197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8257762.5822227197</c:v>
+                  <c:v>8258332.3049658481</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8259407.9355940465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,7 +2795,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2885,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2894,7 +2930,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3016,7 +3052,10 @@
                   <c:v>9782302.1902129967</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9909841.8592056762</c:v>
+                  <c:v>9910411.5819488037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9962506.1651548725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3098,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3182,6 +3221,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,7 +3233,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3313,7 +3355,10 @@
                   <c:v>1524539.607990277</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1652079.2769829566</c:v>
+                  <c:v>1652079.2769829556</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1703098.229560826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3335,11 +3380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473618304"/>
-        <c:axId val="473619840"/>
+        <c:axId val="479963392"/>
+        <c:axId val="479965184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473618304"/>
+        <c:axId val="479963392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,14 +3427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473619840"/>
+        <c:crossAx val="479965184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473619840"/>
+        <c:axId val="479965184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473618304"/>
+        <c:crossAx val="479963392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3601,7 +3646,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3723,7 +3768,10 @@
                   <c:v>1382.6542815230166</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>569.72274312846628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075.6306281980965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3738,8 +3786,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482622848"/>
-        <c:axId val="482621312"/>
+        <c:axId val="479985664"/>
+        <c:axId val="479983872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3764,7 +3812,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3887,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,7 +3947,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4019,6 +4070,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,11 +4089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482617984"/>
-        <c:axId val="482619776"/>
+        <c:axId val="479980544"/>
+        <c:axId val="479982336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482617984"/>
+        <c:axId val="479980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,14 +4136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482619776"/>
+        <c:crossAx val="479982336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482619776"/>
+        <c:axId val="479982336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4140,12 +4194,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482617984"/>
+        <c:crossAx val="479980544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482621312"/>
+        <c:axId val="479983872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,12 +4236,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482622848"/>
+        <c:crossAx val="479985664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482622848"/>
+        <c:axId val="479985664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482621312"/>
+        <c:crossAx val="479983872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4400,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4469,6 +4523,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4478,7 +4535,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4601,6 +4658,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9316744.2474954911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9319756.864148153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4643,7 +4703,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4766,6 +4826,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4775,7 +4838,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4898,6 +4961,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10345707.568357404</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10401980.048079319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4940,7 +5006,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5063,6 +5129,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,7 +5141,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5195,6 +5264,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1028963.3208619133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1082223.1839311663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5216,11 +5288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482661888"/>
-        <c:axId val="482663424"/>
+        <c:axId val="480007680"/>
+        <c:axId val="480009216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482661888"/>
+        <c:axId val="480007680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5263,14 +5335,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482663424"/>
+        <c:crossAx val="480009216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482663424"/>
+        <c:axId val="480009216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,7 +5393,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482661888"/>
+        <c:crossAx val="480007680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5482,7 +5554,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5605,6 +5677,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5619,8 +5694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482692096"/>
-        <c:axId val="482690560"/>
+        <c:axId val="480050176"/>
+        <c:axId val="480048640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5645,7 +5720,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5768,6 +5843,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5777,7 +5855,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5900,6 +5978,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5916,11 +5997,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482687232"/>
-        <c:axId val="482689024"/>
+        <c:axId val="480041216"/>
+        <c:axId val="480047104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482687232"/>
+        <c:axId val="480041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5963,14 +6044,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482689024"/>
+        <c:crossAx val="480047104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482689024"/>
+        <c:axId val="480047104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6021,12 +6102,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482687232"/>
+        <c:crossAx val="480041216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482690560"/>
+        <c:axId val="480048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6063,12 +6144,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482692096"/>
+        <c:crossAx val="480050176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482692096"/>
+        <c:axId val="480050176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6077,7 +6158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482690560"/>
+        <c:crossAx val="480048640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6209,7 +6290,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6332,6 +6413,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,8 +6430,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541444736"/>
-        <c:axId val="541442816"/>
+        <c:axId val="607702016"/>
+        <c:axId val="607700480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6372,7 +6456,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6495,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6504,7 +6591,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6627,6 +6714,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6643,11 +6733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536933504"/>
-        <c:axId val="536935040"/>
+        <c:axId val="603575808"/>
+        <c:axId val="603577728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536933504"/>
+        <c:axId val="603575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6690,14 +6780,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536935040"/>
+        <c:crossAx val="603577728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536935040"/>
+        <c:axId val="603577728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6748,12 +6838,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536933504"/>
+        <c:crossAx val="603575808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="541442816"/>
+        <c:axId val="607700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6790,12 +6880,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541444736"/>
+        <c:crossAx val="607702016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="541444736"/>
+        <c:axId val="607702016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6804,7 +6894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541442816"/>
+        <c:crossAx val="607700480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6954,7 +7044,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7077,6 +7167,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7086,7 +7179,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7209,6 +7302,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1313644.516771816</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1314334.4395436684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7251,7 +7347,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7374,6 +7470,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7383,7 +7482,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7506,6 +7605,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1406250.3339163498</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1414179.6552243209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,7 +7650,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7671,6 +7773,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7680,7 +7785,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7803,6 +7908,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>92605.817144533852</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99845.215680652531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7824,11 +7932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="437809536"/>
-        <c:axId val="437811072"/>
+        <c:axId val="471687936"/>
+        <c:axId val="471689472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="437809536"/>
+        <c:axId val="471687936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,14 +7979,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437811072"/>
+        <c:crossAx val="471689472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="437811072"/>
+        <c:axId val="471689472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +8037,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437809536"/>
+        <c:crossAx val="471687936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8099,7 +8207,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8222,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>522.05109727978686</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>689.92277185253113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8236,8 +8347,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441137408"/>
-        <c:axId val="441135872"/>
+        <c:axId val="471710336"/>
+        <c:axId val="471708800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8262,7 +8373,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8385,6 +8496,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8394,7 +8508,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8517,6 +8631,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8533,11 +8650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441128448"/>
-        <c:axId val="441129984"/>
+        <c:axId val="471705472"/>
+        <c:axId val="471707008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441128448"/>
+        <c:axId val="471705472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8580,14 +8697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441129984"/>
+        <c:crossAx val="471707008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441129984"/>
+        <c:axId val="471707008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8638,12 +8755,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441128448"/>
+        <c:crossAx val="471705472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441135872"/>
+        <c:axId val="471708800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8680,12 +8797,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441137408"/>
+        <c:crossAx val="471710336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441137408"/>
+        <c:axId val="471710336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8694,7 +8811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441135872"/>
+        <c:crossAx val="471708800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8844,7 +8961,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8967,6 +9084,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8976,7 +9096,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9099,6 +9219,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10878917.659425518</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10879520.18275605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9141,7 +9264,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9264,6 +9387,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9273,7 +9399,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9396,6 +9522,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11937811.165195141</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11999869.725611966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9438,7 +9567,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9561,6 +9690,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9570,7 +9702,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9693,6 +9825,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1058893.5057696234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1120349.5428559165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9714,11 +9849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441160064"/>
-        <c:axId val="441161600"/>
+        <c:axId val="474690304"/>
+        <c:axId val="474691840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441160064"/>
+        <c:axId val="474690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,14 +9896,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441161600"/>
+        <c:crossAx val="474691840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441161600"/>
+        <c:axId val="474691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9819,7 +9954,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441160064"/>
+        <c:crossAx val="474690304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9989,7 +10124,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10112,6 +10247,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>344.98398502661962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>602.52333053250584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10126,8 +10264,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="441178368"/>
-        <c:axId val="441176832"/>
+        <c:axId val="474716800"/>
+        <c:axId val="474715264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10152,7 +10290,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10275,6 +10413,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10284,7 +10425,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10407,6 +10548,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10423,11 +10567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="441173504"/>
-        <c:axId val="441175040"/>
+        <c:axId val="474711936"/>
+        <c:axId val="474713472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="441173504"/>
+        <c:axId val="474711936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10470,14 +10614,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441175040"/>
+        <c:crossAx val="474713472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441175040"/>
+        <c:axId val="474713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10528,12 +10672,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441173504"/>
+        <c:crossAx val="474711936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="441176832"/>
+        <c:axId val="474715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10570,12 +10714,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441178368"/>
+        <c:crossAx val="474716800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="441178368"/>
+        <c:axId val="474716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10584,7 +10728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="441176832"/>
+        <c:crossAx val="474715264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10734,7 +10878,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10857,6 +11001,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10866,7 +11013,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10988,7 +11135,10 @@
                   <c:v>1318597.7397139578</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1318597.7397139578</c:v>
+                  <c:v>1318613.6054106019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1318643.5596812607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11031,7 +11181,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11154,6 +11304,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11163,7 +11316,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11285,7 +11438,10 @@
                   <c:v>1555666.1423521044</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1575948.6015320313</c:v>
+                  <c:v>1575964.4672286755</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1584107.5110267559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11328,7 +11484,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11451,6 +11607,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11460,7 +11619,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11583,6 +11742,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>257350.86181807355</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>265463.95134549518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11604,11 +11766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449839104"/>
-        <c:axId val="449840640"/>
+        <c:axId val="479232000"/>
+        <c:axId val="479233536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449839104"/>
+        <c:axId val="479232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11651,14 +11813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449840640"/>
+        <c:crossAx val="479233536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449840640"/>
+        <c:axId val="479233536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11709,7 +11871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449839104"/>
+        <c:crossAx val="479232000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11870,7 +12032,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11992,7 +12154,10 @@
                   <c:v>182.89540812551292</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>15.86569664408387</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.954270658681178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12007,8 +12172,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449857024"/>
-        <c:axId val="449855488"/>
+        <c:axId val="158094848"/>
+        <c:axId val="158093312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12033,7 +12198,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12156,6 +12321,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12165,7 +12333,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12288,6 +12456,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12304,11 +12475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449852160"/>
-        <c:axId val="449853696"/>
+        <c:axId val="158089984"/>
+        <c:axId val="158091520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449852160"/>
+        <c:axId val="158089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12351,14 +12522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449853696"/>
+        <c:crossAx val="158091520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449853696"/>
+        <c:axId val="158091520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12409,12 +12580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449852160"/>
+        <c:crossAx val="158089984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449855488"/>
+        <c:axId val="158093312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12451,12 +12622,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449857024"/>
+        <c:crossAx val="158094848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="449857024"/>
+        <c:axId val="158094848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12465,7 +12636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449855488"/>
+        <c:crossAx val="158093312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12615,7 +12786,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12738,6 +12909,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12747,7 +12921,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12870,6 +13044,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1143576.4192647915</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1147026.0331240541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12912,7 +13089,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13035,6 +13212,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13044,7 +13224,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13167,6 +13347,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1244203.3791182756</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1254058.1712762965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13209,7 +13392,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13332,6 +13515,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13341,7 +13527,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13464,6 +13650,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>100626.95985348406</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>107032.13815224241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13485,11 +13674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449887232"/>
-        <c:axId val="449889024"/>
+        <c:axId val="479337472"/>
+        <c:axId val="479339264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449887232"/>
+        <c:axId val="479337472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13532,14 +13721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449889024"/>
+        <c:crossAx val="479339264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449889024"/>
+        <c:axId val="479339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13590,7 +13779,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449887232"/>
+        <c:crossAx val="479337472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14442,7 +14631,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16304,6 +16493,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="32">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="31">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="29">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="29">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="30">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="30">
+        <v>1580192.8619657813</v>
+      </c>
+      <c r="H44" s="30">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="I44" s="30">
+        <v>1130707.2667107254</v>
+      </c>
+      <c r="J44" s="30">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="K44" s="30">
+        <v>103423.38711734745</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16320,7 +16547,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18643,15 +18870,65 @@
         <v>0</v>
       </c>
       <c r="M43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="N43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="O43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>689.92277185253113</v>
+      </c>
+      <c r="F44" s="18">
+        <v>883.38381030189828</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1810729.3500822606</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1414179.6552243209</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1314334.4395436684</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1414179.6552243209</v>
+      </c>
+      <c r="K44" s="18">
+        <v>99845.215680652531</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -18671,7 +18948,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20994,15 +21271,65 @@
         <v>0</v>
       </c>
       <c r="M43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="N43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="O43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="P43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>602.52333053250584</v>
+      </c>
+      <c r="F44" s="18">
+        <v>771.47671773814693</v>
+      </c>
+      <c r="G44" s="18">
+        <v>15364749.612299092</v>
+      </c>
+      <c r="H44" s="18">
+        <v>11999869.725611966</v>
+      </c>
+      <c r="I44" s="18">
+        <v>10879520.18275605</v>
+      </c>
+      <c r="J44" s="18">
+        <v>11999869.725611966</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1120349.5428559165</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="O44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="P44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -21022,7 +21349,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23573,28 +23900,28 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>15.86569664408387</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>20.419171736956056</v>
       </c>
       <c r="I43" s="18">
-        <v>2028247.8522805774</v>
+        <v>2028268.2714523145</v>
       </c>
       <c r="J43" s="18">
-        <v>1575948.6015320313</v>
+        <v>1575964.4672286755</v>
       </c>
       <c r="K43" s="18">
-        <v>1318597.7397139578</v>
+        <v>1318613.6054106019</v>
       </c>
       <c r="L43" s="18">
-        <v>1575948.6015320313</v>
+        <v>1575964.4672286755</v>
       </c>
       <c r="M43" s="18">
         <v>257350.86181807355</v>
@@ -23603,15 +23930,71 @@
         <v>0</v>
       </c>
       <c r="O43" s="22">
-        <v>3.2466712754612458E-2</v>
+        <v>2.8722259039386522E-2</v>
       </c>
       <c r="P43" s="22">
-        <v>4.5104453656082198E-2</v>
+        <v>3.9253709790611303E-2</v>
       </c>
       <c r="Q43" s="22">
-        <v>71.981168427775472</v>
+        <v>73.17081415386707</v>
       </c>
       <c r="R43" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>29.954270658681178</v>
+      </c>
+      <c r="H44" s="18">
+        <v>38.353738749959852</v>
+      </c>
+      <c r="I44" s="18">
+        <v>2028306.6251910643</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1584107.5110267559</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1318643.5596812607</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1584107.5110267559</v>
+      </c>
+      <c r="M44" s="18">
+        <v>265463.95134549518</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="22">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="P44" s="22">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="Q44" s="22">
+        <v>73.706679406225973</v>
+      </c>
+      <c r="R44" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -23631,7 +24014,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26093,18 +26476,71 @@
         <v>0</v>
       </c>
       <c r="M43" s="21">
-        <v>100</v>
+        <v>71.301774260986164</v>
       </c>
       <c r="N43" s="21">
-        <v>69.598581301519474</v>
+        <v>70.166312288008371</v>
       </c>
       <c r="O43" s="21">
-        <v>55.738790153615305</v>
+        <v>60.547964198412991</v>
       </c>
       <c r="P43" s="21">
-        <v>97.318163597327825</v>
+        <v>89.403008467199115</v>
       </c>
       <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="18">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1605708.2486314531</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1254058.1712762965</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1147026.0331240541</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1254058.1712762965</v>
+      </c>
+      <c r="K44" s="18">
+        <v>107032.13815224241</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+      <c r="M44" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N44" s="21">
+        <v>69.421221080104587</v>
+      </c>
+      <c r="O44" s="21">
+        <v>63.505716492310192</v>
+      </c>
+      <c r="P44" s="21">
+        <v>81.252230255693362</v>
+      </c>
+      <c r="Q44" s="1">
         <v>1</v>
       </c>
     </row>
@@ -26124,7 +26560,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28211,33 +28647,77 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="17">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="17">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="17">
-        <v>0</v>
+        <v>569.72274312846628</v>
       </c>
       <c r="H43" s="18">
-        <v>0</v>
+        <v>733.23389419069474</v>
       </c>
       <c r="I43" s="18">
-        <v>12753979.062410144</v>
+        <v>12754712.296304334</v>
       </c>
       <c r="J43" s="18">
-        <v>9909841.8592056762</v>
+        <v>9910411.5819488037</v>
       </c>
       <c r="K43" s="18">
-        <v>8257762.5822227197</v>
+        <v>8258332.3049658481</v>
       </c>
       <c r="L43" s="18">
-        <v>9909841.8592056762</v>
+        <v>9910411.5819488037</v>
       </c>
       <c r="M43" s="18">
-        <v>1652079.2769829566</v>
+        <v>1652079.2769829556</v>
       </c>
       <c r="N43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="17">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="17">
+        <v>1075.6306281980965</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1377.2478914758306</v>
+      </c>
+      <c r="I44" s="18">
+        <v>12756089.54419581</v>
+      </c>
+      <c r="J44" s="18">
+        <v>9962506.1651548725</v>
+      </c>
+      <c r="K44" s="18">
+        <v>8259407.9355940465</v>
+      </c>
+      <c r="L44" s="18">
+        <v>9962506.1651548725</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1703098.229560826</v>
+      </c>
+      <c r="N44" s="17">
         <v>0</v>
       </c>
     </row>
@@ -28257,7 +28737,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30119,6 +30599,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="17">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="18">
+        <v>13318796.167407474</v>
+      </c>
+      <c r="H44" s="18">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="I44" s="18">
+        <v>9319756.864148153</v>
+      </c>
+      <c r="J44" s="18">
+        <v>10401980.048079319</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1082223.1839311663</v>
+      </c>
+      <c r="L44" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -400,6 +400,8 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -584,7 +586,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -710,6 +712,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +724,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -835,16 +840,19 @@
                   <c:v>1102813.3837142217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1123194.2613669224</c:v>
+                  <c:v>1123194.2613680183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1124647.3973650639</c:v>
+                  <c:v>1124647.3973672311</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1127257.6528514628</c:v>
+                  <c:v>1127257.65285363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1130707.2667107254</c:v>
+                  <c:v>1130707.2667128926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1133785.7241379421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +895,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1013,6 +1021,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1033,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1138,16 +1149,19 @@
                   <c:v>972991.0953141842</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>958018.42403340735</c:v>
+                  <c:v>958018.42403450317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1206043.51752501</c:v>
+                  <c:v>1206043.5175274594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1224377.923423548</c:v>
+                  <c:v>1224377.9234260293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1234130.6538280728</c:v>
+                  <c:v>1234130.6538305667</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1249850.5855833527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1204,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1316,6 +1330,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,7 +1342,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1441,16 +1458,19 @@
                   <c:v>-129822.28840003745</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-165175.83733351505</c:v>
+                  <c:v>-165175.83733351517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81396.120159946149</c:v>
+                  <c:v>81396.12016022834</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97120.270572085166</c:v>
+                  <c:v>97120.270572399255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>103423.38711734745</c:v>
+                  <c:v>103423.38711767411</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116064.86144541064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,11 +1492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480033408"/>
-        <c:axId val="504742656"/>
+        <c:axId val="118347264"/>
+        <c:axId val="118348800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480033408"/>
+        <c:axId val="118347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,14 +1539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504742656"/>
+        <c:crossAx val="118348800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504742656"/>
+        <c:axId val="118348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480033408"/>
+        <c:crossAx val="118347264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1738,7 +1758,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1854,16 +1874,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,8 +1901,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479367936"/>
-        <c:axId val="479366144"/>
+        <c:axId val="438793344"/>
+        <c:axId val="438791552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1904,7 +1927,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2030,6 +2053,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,7 +2065,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2165,6 +2191,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,11 +2210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479363072"/>
-        <c:axId val="479364608"/>
+        <c:axId val="438788480"/>
+        <c:axId val="438790016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479363072"/>
+        <c:axId val="438788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,14 +2257,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479364608"/>
+        <c:crossAx val="438790016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479364608"/>
+        <c:axId val="438790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,12 +2315,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479363072"/>
+        <c:crossAx val="438788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479366144"/>
+        <c:axId val="438791552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,12 +2357,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479367936"/>
+        <c:crossAx val="438793344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="479367936"/>
+        <c:axId val="438793344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479366144"/>
+        <c:crossAx val="438791552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2492,7 +2521,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2618,6 +2647,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,7 +2659,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2753,6 +2785,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8259407.9355940465</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8260653.9744826676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2795,7 +2830,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2921,6 +2956,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2968,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3056,6 +3094,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9962506.1651548725</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10065800.366882509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,7 +3139,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3224,6 +3265,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3277,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3359,6 +3403,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1703098.229560826</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1805146.392399841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3380,11 +3427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479963392"/>
-        <c:axId val="479965184"/>
+        <c:axId val="439027968"/>
+        <c:axId val="439037952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479963392"/>
+        <c:axId val="439027968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,14 +3474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479965184"/>
+        <c:crossAx val="439037952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479965184"/>
+        <c:axId val="439037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3485,7 +3532,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479963392"/>
+        <c:crossAx val="439027968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3646,7 +3693,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3772,6 +3819,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1075.6306281980965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1246.0388886215089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,8 +3836,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479985664"/>
-        <c:axId val="479983872"/>
+        <c:axId val="439070720"/>
+        <c:axId val="439068928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3812,7 +3862,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3938,6 +3988,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +4000,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4073,6 +4126,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,11 +4145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479980544"/>
-        <c:axId val="479982336"/>
+        <c:axId val="439057408"/>
+        <c:axId val="439067392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479980544"/>
+        <c:axId val="439057408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4136,14 +4192,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479982336"/>
+        <c:crossAx val="439067392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479982336"/>
+        <c:axId val="439067392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4194,12 +4250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479980544"/>
+        <c:crossAx val="439057408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="479983872"/>
+        <c:axId val="439068928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,12 +4292,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479985664"/>
+        <c:crossAx val="439070720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="479985664"/>
+        <c:axId val="439070720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479983872"/>
+        <c:crossAx val="439068928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4400,7 +4456,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4526,6 +4582,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4535,7 +4594,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4651,16 +4710,19 @@
                   <c:v>9209325.2065264452</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9314484.7442212198</c:v>
+                  <c:v>9314484.7442325279</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9315019.3275703583</c:v>
+                  <c:v>9315019.3275824543</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9316744.2474954911</c:v>
+                  <c:v>9316744.2475075871</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9319756.864148153</c:v>
+                  <c:v>9319756.864160249</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9322156.0793799553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4765,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4829,6 +4891,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,7 +4903,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4954,16 +5019,19 @@
                   <c:v>8317385.4645985421</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8120333.5067951689</c:v>
+                  <c:v>8120333.506806477</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10210855.587295413</c:v>
+                  <c:v>10210855.58731042</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10345707.568357404</c:v>
+                  <c:v>10345707.568372607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10401980.048079319</c:v>
+                  <c:v>10401980.048094602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10510929.054722106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,7 +5074,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5132,6 +5200,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5141,7 +5212,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5260,13 +5331,16 @@
                   <c:v>-1194151.2374260509</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>895836.25972505473</c:v>
+                  <c:v>895836.25972796604</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1028963.3208619133</c:v>
+                  <c:v>1028963.3208650202</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1082223.1839311663</c:v>
+                  <c:v>1082223.1839343533</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1188772.9753421508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5288,11 +5362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480007680"/>
-        <c:axId val="480009216"/>
+        <c:axId val="439154560"/>
+        <c:axId val="439156096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480007680"/>
+        <c:axId val="439154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5335,14 +5409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480009216"/>
+        <c:crossAx val="439156096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480009216"/>
+        <c:axId val="439156096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5393,7 +5467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480007680"/>
+        <c:crossAx val="439154560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5554,7 +5628,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5670,16 +5744,19 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1724.9199251330979</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5694,8 +5771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="480050176"/>
-        <c:axId val="480048640"/>
+        <c:axId val="442088832"/>
+        <c:axId val="442087296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5720,7 +5797,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5846,6 +5923,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5855,7 +5935,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5981,6 +6061,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,11 +6080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="480041216"/>
-        <c:axId val="480047104"/>
+        <c:axId val="442067584"/>
+        <c:axId val="442085760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="480041216"/>
+        <c:axId val="442067584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6044,14 +6127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480047104"/>
+        <c:crossAx val="442085760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="480047104"/>
+        <c:axId val="442085760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6102,12 +6185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480041216"/>
+        <c:crossAx val="442067584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="480048640"/>
+        <c:axId val="442087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,12 +6227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480050176"/>
+        <c:crossAx val="442088832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="480050176"/>
+        <c:axId val="442088832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="480048640"/>
+        <c:crossAx val="442087296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6290,7 +6373,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6406,16 +6489,19 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6430,8 +6516,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="607702016"/>
-        <c:axId val="607700480"/>
+        <c:axId val="118373376"/>
+        <c:axId val="118371840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6456,7 +6542,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6582,6 +6668,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6680,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6717,6 +6806,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6733,11 +6825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603575808"/>
-        <c:axId val="603577728"/>
+        <c:axId val="118364416"/>
+        <c:axId val="118370304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603575808"/>
+        <c:axId val="118364416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,14 +6872,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603577728"/>
+        <c:crossAx val="118370304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603577728"/>
+        <c:axId val="118370304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6838,12 +6930,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603575808"/>
+        <c:crossAx val="118364416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="607700480"/>
+        <c:axId val="118371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,12 +6972,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607702016"/>
+        <c:crossAx val="118373376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="607702016"/>
+        <c:axId val="118373376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,7 +6986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="607700480"/>
+        <c:crossAx val="118371840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7044,7 +7136,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7170,6 +7262,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7179,7 +7274,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7295,16 +7390,19 @@
                   <c:v>1292380.1527062359</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1311741.9864763017</c:v>
+                  <c:v>1311741.9864773427</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1313122.4656745361</c:v>
+                  <c:v>1313122.4656765948</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1313644.516771816</c:v>
+                  <c:v>1313644.5167738746</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1314334.4395436684</c:v>
+                  <c:v>1314334.4395457271</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1314950.131030737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7347,7 +7445,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7473,6 +7571,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,7 +7583,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7598,16 +7699,19 @@
                   <c:v>1123976.0552000301</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1102498.3143234849</c:v>
+                  <c:v>1102498.3143245261</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1387636.5592142332</c:v>
+                  <c:v>1387636.5592165601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1406250.3339163498</c:v>
+                  <c:v>1406250.333918707</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1414179.6552243209</c:v>
+                  <c:v>1414179.6552266902</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1429281.102940886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7650,7 +7754,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7776,6 +7880,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,7 +7892,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7901,16 +8008,19 @@
                   <c:v>-168404.09750620578</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-209243.67215281678</c:v>
+                  <c:v>-209243.67215281655</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>74514.093539697118</c:v>
+                  <c:v>74514.093539965339</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>92605.817144533852</c:v>
+                  <c:v>92605.817144832341</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99845.215680652531</c:v>
+                  <c:v>99845.215680963127</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>114330.97191014909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7932,11 +8042,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471687936"/>
-        <c:axId val="471689472"/>
+        <c:axId val="118399744"/>
+        <c:axId val="118401280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471687936"/>
+        <c:axId val="118399744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7979,14 +8089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471689472"/>
+        <c:crossAx val="118401280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471689472"/>
+        <c:axId val="118401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8037,7 +8147,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471687936"/>
+        <c:crossAx val="118399744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8207,7 +8317,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8323,16 +8433,19 @@
                   <c:v>30925.319389732704</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19361.833770065768</c:v>
+                  <c:v>19361.833771106867</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1380.4791982343968</c:v>
+                  <c:v>1380.4791992521812</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>522.05109727978686</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>689.92277185253113</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>615.69148500989468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8347,8 +8460,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="471710336"/>
-        <c:axId val="471708800"/>
+        <c:axId val="366905984"/>
+        <c:axId val="366904448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8373,7 +8486,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8499,6 +8612,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8508,7 +8624,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8634,6 +8750,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8650,11 +8769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471705472"/>
-        <c:axId val="471707008"/>
+        <c:axId val="118417280"/>
+        <c:axId val="118418816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471705472"/>
+        <c:axId val="118417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,14 +8816,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471707008"/>
+        <c:crossAx val="118418816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471707008"/>
+        <c:axId val="118418816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8755,12 +8874,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471705472"/>
+        <c:crossAx val="118417280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471708800"/>
+        <c:axId val="366904448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8797,12 +8916,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471710336"/>
+        <c:crossAx val="366905984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="471710336"/>
+        <c:axId val="366905984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8811,7 +8930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471708800"/>
+        <c:crossAx val="366904448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8961,7 +9080,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9087,6 +9206,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9096,7 +9218,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9212,16 +9334,19 @@
                   <c:v>10778163.260448774</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10878064.821258809</c:v>
+                  <c:v>10878064.821269553</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10878572.67544049</c:v>
+                  <c:v>10878572.675451983</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10878917.659425518</c:v>
+                  <c:v>10878917.65943701</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10879520.18275605</c:v>
+                  <c:v>10879520.182767542</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10880000.025811484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9264,7 +9389,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9390,6 +9515,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9399,7 +9527,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9515,16 +9643,19 @@
                   <c:v>9621029.8903031498</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9371352.1459629666</c:v>
+                  <c:v>9371352.1459737085</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11783830.98632065</c:v>
+                  <c:v>11783830.986334907</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11937811.165195141</c:v>
+                  <c:v>11937811.165209584</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11999869.725611966</c:v>
+                  <c:v>11999869.725626484</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12123266.898858964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9567,7 +9698,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9693,6 +9824,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9702,7 +9836,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9818,16 +9952,19 @@
                   <c:v>-1157133.3701456245</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1506712.6752958428</c:v>
+                  <c:v>-1506712.6752958447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>905258.31088015996</c:v>
+                  <c:v>905258.31088292412</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1058893.5057696234</c:v>
+                  <c:v>1058893.5057725739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1120349.5428559165</c:v>
+                  <c:v>1120349.5428589415</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1243266.8730474804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9849,11 +9986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474690304"/>
-        <c:axId val="474691840"/>
+        <c:axId val="366997888"/>
+        <c:axId val="366999424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474690304"/>
+        <c:axId val="366997888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9896,14 +10033,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474691840"/>
+        <c:crossAx val="366999424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474691840"/>
+        <c:axId val="366999424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9954,7 +10091,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474690304"/>
+        <c:crossAx val="366997888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10124,7 +10261,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10240,16 +10377,19 @@
                   <c:v>254863.52547820861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>99901.560810035735</c:v>
+                  <c:v>99901.560820779327</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>507.85418168098141</c:v>
+                  <c:v>507.85418242983161</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>344.98398502661962</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>602.52333053250584</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>479.84304394137899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10264,8 +10404,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474716800"/>
-        <c:axId val="474715264"/>
+        <c:axId val="370166400"/>
+        <c:axId val="370164864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10290,7 +10430,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10416,6 +10556,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,7 +10568,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10551,6 +10694,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10567,11 +10713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474711936"/>
-        <c:axId val="474713472"/>
+        <c:axId val="370157440"/>
+        <c:axId val="370158976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474711936"/>
+        <c:axId val="370157440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10614,14 +10760,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474713472"/>
+        <c:crossAx val="370158976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474713472"/>
+        <c:axId val="370158976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10672,12 +10818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474711936"/>
+        <c:crossAx val="370157440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474715264"/>
+        <c:axId val="370164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10714,12 +10860,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474716800"/>
+        <c:crossAx val="370166400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474716800"/>
+        <c:axId val="370166400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10728,7 +10874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474715264"/>
+        <c:crossAx val="370164864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10878,7 +11024,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11004,6 +11150,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11013,7 +11162,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11139,6 +11288,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1318643.5596812607</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1318678.2594984123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11181,7 +11333,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11307,6 +11459,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11316,7 +11471,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11442,6 +11597,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1584107.5110267559</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1600368.575832787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11484,7 +11642,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11610,6 +11768,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11619,7 +11780,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11745,6 +11906,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>265463.95134549518</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>281690.31633437471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11766,11 +11930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479232000"/>
-        <c:axId val="479233536"/>
+        <c:axId val="370200960"/>
+        <c:axId val="370202496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479232000"/>
+        <c:axId val="370200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11813,14 +11977,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479233536"/>
+        <c:crossAx val="370202496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479233536"/>
+        <c:axId val="370202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11871,7 +12035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479232000"/>
+        <c:crossAx val="370200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12032,7 +12196,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12158,6 +12322,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>29.954270658681178</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.699817151485057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12172,8 +12339,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158094848"/>
-        <c:axId val="158093312"/>
+        <c:axId val="389961600"/>
+        <c:axId val="389960064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12198,7 +12365,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12324,6 +12491,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12333,7 +12503,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12459,6 +12629,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12475,11 +12648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158089984"/>
-        <c:axId val="158091520"/>
+        <c:axId val="389948544"/>
+        <c:axId val="389950080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158089984"/>
+        <c:axId val="389948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12522,14 +12695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158091520"/>
+        <c:crossAx val="389950080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="158091520"/>
+        <c:axId val="389950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12580,12 +12753,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158089984"/>
+        <c:crossAx val="389948544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158093312"/>
+        <c:axId val="389960064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12622,12 +12795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158094848"/>
+        <c:crossAx val="389961600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="158094848"/>
+        <c:axId val="389961600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12636,7 +12809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158093312"/>
+        <c:crossAx val="389960064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12786,7 +12959,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12912,6 +13085,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12921,7 +13097,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13037,16 +13213,19 @@
                   <c:v>1119132.1501275504</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1139513.0277802511</c:v>
+                  <c:v>1139513.027781347</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1140966.1637783926</c:v>
+                  <c:v>1140966.1637805598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143576.4192647915</c:v>
+                  <c:v>1143576.4192669587</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1147026.0331240541</c:v>
+                  <c:v>1147026.0331262213</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1150104.4905512708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13089,7 +13268,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13215,6 +13394,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13224,7 +13406,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13340,16 +13522,19 @@
                   <c:v>989142.33548722172</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>973582.81026446761</c:v>
+                  <c:v>973582.81026556354</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1225613.8195964145</c:v>
+                  <c:v>1225613.8195988638</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1244203.3791182756</c:v>
+                  <c:v>1244203.3791207566</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1254058.1712762965</c:v>
+                  <c:v>1254058.1712787906</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1269982.2250177334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13392,7 +13577,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13518,6 +13703,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13527,7 +13715,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13646,13 +13834,16 @@
                   <c:v>-165930.2175157835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>84647.655818021856</c:v>
+                  <c:v>84647.655818304047</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100626.95985348406</c:v>
+                  <c:v>100626.95985379792</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>107032.13815224241</c:v>
+                  <c:v>107032.1381525693</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119877.73446646263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13674,11 +13865,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479337472"/>
-        <c:axId val="479339264"/>
+        <c:axId val="421481856"/>
+        <c:axId val="438617216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479337472"/>
+        <c:axId val="421481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13721,14 +13912,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479339264"/>
+        <c:crossAx val="438617216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479339264"/>
+        <c:axId val="438617216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13779,7 +13970,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479337472"/>
+        <c:crossAx val="421481856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14631,7 +14822,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14811,6 +15002,16 @@
         <f>-AC3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="24">
+        <f>-AF3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32">
@@ -14894,9 +15095,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="27">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="27">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32">
@@ -14977,9 +15185,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="27">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="27">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32">
@@ -15055,7 +15270,16 @@
       <c r="AD6" s="28">
         <v>731948.73696905444</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="24">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="24">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32">
@@ -15095,13 +15319,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="27"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>283147.89461863739</v>
+      </c>
+      <c r="R7" s="34">
+        <v>1133785.7241379421</v>
+      </c>
+      <c r="S7" s="34">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="T7" s="34">
+        <v>116064.86144541064</v>
+      </c>
+      <c r="U7" s="34">
+        <v>0</v>
+      </c>
+      <c r="V7" s="33">
+        <v>0.10236930927460647</v>
+      </c>
+      <c r="W7" s="33">
+        <v>4.4302839298554275E-2</v>
+      </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
       <c r="AD7" s="25">
         <v>-8.8470898848600599E-2</v>
       </c>
-      <c r="AG7" s="25"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>1249850.5855808333</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32">
@@ -15141,6 +15394,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="27"/>
+      <c r="AG8" s="25">
+        <v>4.4302839298554275E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32">
@@ -16390,28 +16646,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="29">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="29">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="30">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="30">
-        <v>1570521.9697818202</v>
+        <v>1570521.9697836167</v>
       </c>
       <c r="H41" s="30">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="I41" s="30">
-        <v>1123194.2613669224</v>
+        <v>1123194.2613680183</v>
       </c>
       <c r="J41" s="30">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="K41" s="30">
-        <v>-165175.83733351505</v>
+        <v>-165175.83733351517</v>
       </c>
       <c r="L41" s="29">
         <v>0</v>
@@ -16428,28 +16684,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="29">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="29">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="30">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="30">
-        <v>1572416.5407871683</v>
+        <v>1572416.5407903616</v>
       </c>
       <c r="H42" s="30">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="I42" s="30">
-        <v>1124647.3973650639</v>
+        <v>1124647.3973672311</v>
       </c>
       <c r="J42" s="30">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="K42" s="30">
-        <v>81396.120159946149</v>
+        <v>81396.12016022834</v>
       </c>
       <c r="L42" s="29">
         <v>0</v>
@@ -16475,19 +16731,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="30">
-        <v>1575775.9429142717</v>
+        <v>1575775.942917465</v>
       </c>
       <c r="H43" s="30">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="I43" s="30">
-        <v>1127257.6528514628</v>
+        <v>1127257.65285363</v>
       </c>
       <c r="J43" s="30">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="K43" s="30">
-        <v>97120.270572085166</v>
+        <v>97120.270572399255</v>
       </c>
       <c r="L43" s="29">
         <v>0</v>
@@ -16513,23 +16769,64 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="30">
-        <v>1580192.8619657813</v>
+        <v>1580192.8619689746</v>
       </c>
       <c r="H44" s="30">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="I44" s="30">
-        <v>1130707.2667107254</v>
+        <v>1130707.2667128926</v>
       </c>
       <c r="J44" s="30">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="K44" s="30">
-        <v>103423.38711734745</v>
+        <v>103423.38711767411</v>
       </c>
       <c r="L44" s="29">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="32">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="31">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="29">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="29">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="30">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="30">
+        <v>1584094.5825312752</v>
+      </c>
+      <c r="H45" s="30">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="I45" s="30">
+        <v>1133785.7241379421</v>
+      </c>
+      <c r="J45" s="30">
+        <v>1249850.5855833527</v>
+      </c>
+      <c r="K45" s="30">
+        <v>116064.86144541064</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -16547,7 +16844,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16738,6 +17035,16 @@
         <f>-AD3</f>
         <v>-111243.6393122976</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>111243.6393122976</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-111243.6393122976</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -16829,9 +17136,16 @@
         <f>-AD4</f>
         <v>-560921.33505378838</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>560921.33505378838</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-560921.33505378838</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -16923,9 +17237,16 @@
         <f>-AD5</f>
         <v>-338361.24530388066</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>338361.24530388066</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-338361.24530388066</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -17012,7 +17333,16 @@
       <c r="AE6" s="8">
         <v>855691.54938569851</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>304423.91135871166</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-304423.91135871166</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -17062,6 +17392,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>304423.91136077035</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1314950.131030737</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="U7" s="4">
+        <v>114330.97191014909</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>8.6947002180629923E-2</v>
+      </c>
+      <c r="X7" s="9">
+        <v>3.5661040175850145E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -17069,7 +17423,12 @@
       <c r="AE7" s="2">
         <v>-9.0333955811988886E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1429281.1029384923</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -17120,6 +17479,9 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
+      <c r="AH8" s="2">
+        <v>3.5661040175850145E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -18743,28 +19105,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>19361.833770065768</v>
+        <v>19361.833771106867</v>
       </c>
       <c r="F41" s="18">
-        <v>31740.710354116829</v>
+        <v>31740.710355823547</v>
       </c>
       <c r="G41" s="18">
-        <v>1807374.2433914572</v>
+        <v>1807374.2433931641</v>
       </c>
       <c r="H41" s="18">
-        <v>1102498.3143234849</v>
+        <v>1102498.3143245261</v>
       </c>
       <c r="I41" s="18">
-        <v>1311741.9864763017</v>
+        <v>1311741.9864773427</v>
       </c>
       <c r="J41" s="18">
-        <v>1102498.3143234849</v>
+        <v>1102498.3143245261</v>
       </c>
       <c r="K41" s="18">
-        <v>-209243.67215281678</v>
+        <v>-209243.67215281655</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -18793,28 +19155,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>1380.4791982343968</v>
+        <v>1380.4791992521812</v>
       </c>
       <c r="F42" s="18">
-        <v>1799.8424550806969</v>
+        <v>1799.8424564076647</v>
       </c>
       <c r="G42" s="18">
-        <v>1809174.085846538</v>
+        <v>1809174.0858495717</v>
       </c>
       <c r="H42" s="18">
-        <v>1387636.5592142332</v>
+        <v>1387636.5592165601</v>
       </c>
       <c r="I42" s="18">
-        <v>1313122.4656745361</v>
+        <v>1313122.4656765948</v>
       </c>
       <c r="J42" s="18">
-        <v>1387636.5592142332</v>
+        <v>1387636.5592165601</v>
       </c>
       <c r="K42" s="18">
-        <v>74514.093539697118</v>
+        <v>74514.093539965339</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -18852,19 +19214,19 @@
         <v>671.88042542066694</v>
       </c>
       <c r="G43" s="18">
-        <v>1809845.9662719585</v>
+        <v>1809845.9662749923</v>
       </c>
       <c r="H43" s="18">
-        <v>1406250.3339163498</v>
+        <v>1406250.333918707</v>
       </c>
       <c r="I43" s="18">
-        <v>1313644.516771816</v>
+        <v>1313644.5167738746</v>
       </c>
       <c r="J43" s="18">
-        <v>1406250.3339163498</v>
+        <v>1406250.333918707</v>
       </c>
       <c r="K43" s="18">
-        <v>92605.817144533852</v>
+        <v>92605.817144832341</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -18902,19 +19264,19 @@
         <v>883.38381030189828</v>
       </c>
       <c r="G44" s="18">
-        <v>1810729.3500822606</v>
+        <v>1810729.3500852943</v>
       </c>
       <c r="H44" s="18">
-        <v>1414179.6552243209</v>
+        <v>1414179.6552266902</v>
       </c>
       <c r="I44" s="18">
-        <v>1314334.4395436684</v>
+        <v>1314334.4395457271</v>
       </c>
       <c r="J44" s="18">
-        <v>1414179.6552243209</v>
+        <v>1414179.6552266902</v>
       </c>
       <c r="K44" s="18">
-        <v>99845.215680652531</v>
+        <v>99845.215680963127</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -18931,6 +19293,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>615.69148500989468</v>
+      </c>
+      <c r="F45" s="18">
+        <v>780.34411246012587</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1811509.6941977544</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1314950.131030737</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1429281.102940886</v>
+      </c>
+      <c r="K45" s="18">
+        <v>114330.97191014909</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18948,7 +19363,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19139,6 +19554,16 @@
         <f>-AD3</f>
         <v>-391166.03767330461</v>
       </c>
+      <c r="AF3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>391166.03767330461</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>-AG3</f>
+        <v>-391166.03767330461</v>
+      </c>
     </row>
     <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -19230,9 +19655,16 @@
         <f>-AD4</f>
         <v>-4936141.1701060347</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
+      <c r="AF4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>4936141.1701060347</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>-AG4</f>
+        <v>-4936141.1701060347</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -19324,9 +19756,16 @@
         <f>-AD5</f>
         <v>-2811253.8169439584</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>2811253.8169439584</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>-AG5</f>
+        <v>-2811253.8169439584</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -19413,7 +19852,16 @@
       <c r="AE6" s="8">
         <v>7072800.7878068425</v>
       </c>
-      <c r="AF6" s="19"/>
+      <c r="AF6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>2741439.0010766936</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>-AG6</f>
+        <v>-2741439.0010766936</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -19463,6 +19911,30 @@
       </c>
       <c r="P7" s="1">
         <v>2</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2741439.0010881862</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="T7" s="4">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.11427085203106435</v>
+      </c>
+      <c r="X7" s="9">
+        <v>4.8343179700312433E-2</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -19470,7 +19942,12 @@
       <c r="AE7" s="2">
         <v>-7.9697327658813766E-2</v>
       </c>
-      <c r="AH7" s="2"/>
+      <c r="AF7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>12123266.898844298</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -19521,6 +19998,9 @@
       <c r="P8" s="1">
         <v>1</v>
       </c>
+      <c r="AH8" s="2">
+        <v>4.8343179700312433E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -21144,28 +21624,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>99901.560810035735</v>
+        <v>99901.560820779327</v>
       </c>
       <c r="F41" s="18">
-        <v>163773.0466676123</v>
+        <v>163773.04668522475</v>
       </c>
       <c r="G41" s="18">
-        <v>15362872.010156261</v>
+        <v>15362872.010173872</v>
       </c>
       <c r="H41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="I41" s="18">
-        <v>10878064.821258809</v>
+        <v>10878064.821269553</v>
       </c>
       <c r="J41" s="18">
-        <v>9371352.1459629666</v>
+        <v>9371352.1459737085</v>
       </c>
       <c r="K41" s="18">
-        <v>-1506712.6752958428</v>
+        <v>-1506712.6752958447</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -21194,28 +21674,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>507.85418168098141</v>
+        <v>507.85418242983161</v>
       </c>
       <c r="F42" s="18">
-        <v>662.13059809141339</v>
+        <v>662.13059906774993</v>
       </c>
       <c r="G42" s="18">
-        <v>15363534.140754351</v>
+        <v>15363534.140772941</v>
       </c>
       <c r="H42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="I42" s="18">
-        <v>10878572.67544049</v>
+        <v>10878572.675451983</v>
       </c>
       <c r="J42" s="18">
-        <v>11783830.98632065</v>
+        <v>11783830.986334907</v>
       </c>
       <c r="K42" s="18">
-        <v>905258.31088015996</v>
+        <v>905258.31088292412</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -21253,19 +21733,19 @@
         <v>443.99482700211297</v>
       </c>
       <c r="G43" s="18">
-        <v>15363978.135581354</v>
+        <v>15363978.135599943</v>
       </c>
       <c r="H43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="I43" s="18">
-        <v>10878917.659425518</v>
+        <v>10878917.65943701</v>
       </c>
       <c r="J43" s="18">
-        <v>11937811.165195141</v>
+        <v>11937811.165209584</v>
       </c>
       <c r="K43" s="18">
-        <v>1058893.5057696234</v>
+        <v>1058893.5057725739</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -21303,19 +21783,19 @@
         <v>771.47671773814693</v>
       </c>
       <c r="G44" s="18">
-        <v>15364749.612299092</v>
+        <v>15364749.612317681</v>
       </c>
       <c r="H44" s="18">
-        <v>11999869.725611966</v>
+        <v>11999869.725626484</v>
       </c>
       <c r="I44" s="18">
-        <v>10879520.18275605</v>
+        <v>10879520.182767542</v>
       </c>
       <c r="J44" s="18">
-        <v>11999869.725611966</v>
+        <v>11999869.725626484</v>
       </c>
       <c r="K44" s="18">
-        <v>1120349.5428559165</v>
+        <v>1120349.5428589415</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -21332,6 +21812,59 @@
       <c r="P44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>479.84304394137899</v>
+      </c>
+      <c r="F45" s="18">
+        <v>608.16610812570025</v>
+      </c>
+      <c r="G45" s="18">
+        <v>15365357.778425807</v>
+      </c>
+      <c r="H45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="I45" s="18">
+        <v>10880000.025811484</v>
+      </c>
+      <c r="J45" s="18">
+        <v>12123266.898858964</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1243266.8730474804</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="N45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="O45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -21349,7 +21882,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21558,6 +22091,16 @@
         <f>-AF3</f>
         <v>-10976.008183548318</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>10976.008183548318</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-10976.008183548318</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -21655,9 +22198,16 @@
         <f>-AF4</f>
         <v>-211828.4724995298</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>211828.4724995298</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-211828.4724995298</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -21755,9 +22305,16 @@
         <f>-AF5</f>
         <v>-263265.13798341731</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>263265.13798341731</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-263265.13798341731</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -21850,7 +22407,16 @@
       <c r="AG6" s="8">
         <v>440577.85841508594</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>832608.64083191683</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-832608.64083191683</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -21906,6 +22472,30 @@
       </c>
       <c r="R7" s="1">
         <v>2</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>832608.64083191683</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1318678.2594984123</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="W7" s="4">
+        <v>281690.31633437471</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.21361565211632572</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.1299195578465453</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -21913,7 +22503,12 @@
       <c r="AG7" s="2">
         <v>-6.4611465400573387E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1600368.575832787</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -21970,6 +22565,9 @@
       <c r="R8" s="1">
         <v>1</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>0.1299195578465453</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -23997,6 +24595,65 @@
       <c r="R44" s="1">
         <v>0.2</v>
       </c>
+    </row>
+    <row r="45" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>34.699817151485057</v>
+      </c>
+      <c r="H45" s="18">
+        <v>43.979490827567801</v>
+      </c>
+      <c r="I45" s="18">
+        <v>2028350.6046818919</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1318678.2594984123</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1600368.575832787</v>
+      </c>
+      <c r="M45" s="18">
+        <v>281690.31633437471</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="22">
+        <v>2.1834896004520363E-2</v>
+      </c>
+      <c r="P45" s="22">
+        <v>2.914840347064868E-2</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>74.909406364253414</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -24014,7 +24671,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24224,6 +24881,16 @@
         <f>-AF3</f>
         <v>-71470.218956071636</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-71470.218956071636</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -24321,9 +24988,16 @@
         <f>-AF4</f>
         <v>-408826.47803933907</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>408826.47803933907</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-408826.47803933907</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -24418,9 +25092,16 @@
         <f>-AF5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -24510,7 +25191,16 @@
       <c r="AG6" s="8">
         <v>737546.09345506981</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>292593.62778329407</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-292593.62778329407</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -24563,6 +25253,30 @@
       </c>
       <c r="Q7" s="1">
         <v>1</v>
+      </c>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>292593.62778546126</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1150104.4905512708</v>
+      </c>
+      <c r="V7" s="4">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="W7" s="4">
+        <v>119877.73446646263</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.10423203756817136</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>4.5191517497272793E-2</v>
       </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
@@ -24570,7 +25284,12 @@
       <c r="AG7" s="2">
         <v>-8.8558045934028273E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>1269982.2250152139</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -24624,6 +25343,9 @@
       <c r="Q8" s="1">
         <v>1</v>
       </c>
+      <c r="AJ8" s="2">
+        <v>4.5191517497272793E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -26343,25 +27065,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="18">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="18">
-        <v>1596037.356447492</v>
+        <v>1596037.3564492885</v>
       </c>
       <c r="H41" s="18">
-        <v>973582.81026446761</v>
+        <v>973582.81026556354</v>
       </c>
       <c r="I41" s="18">
-        <v>1139513.0277802511</v>
+        <v>1139513.027781347</v>
       </c>
       <c r="J41" s="18">
-        <v>973582.81026446761</v>
+        <v>973582.81026556354</v>
       </c>
       <c r="K41" s="18">
         <v>-165930.2175157835</v>
@@ -26396,28 +27118,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="18">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="18">
-        <v>1597931.9274528401</v>
+        <v>1597931.9274560334</v>
       </c>
       <c r="H42" s="18">
-        <v>1225613.8195964145</v>
+        <v>1225613.8195988638</v>
       </c>
       <c r="I42" s="18">
-        <v>1140966.1637783926</v>
+        <v>1140966.1637805598</v>
       </c>
       <c r="J42" s="18">
-        <v>1225613.8195964145</v>
+        <v>1225613.8195988638</v>
       </c>
       <c r="K42" s="18">
-        <v>84647.655818021856</v>
+        <v>84647.655818304047</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -26458,19 +27180,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="18">
-        <v>1601291.3295799436</v>
+        <v>1601291.3295831368</v>
       </c>
       <c r="H43" s="18">
-        <v>1244203.3791182756</v>
+        <v>1244203.3791207566</v>
       </c>
       <c r="I43" s="18">
-        <v>1143576.4192647915</v>
+        <v>1143576.4192669587</v>
       </c>
       <c r="J43" s="18">
-        <v>1244203.3791182756</v>
+        <v>1244203.3791207566</v>
       </c>
       <c r="K43" s="18">
-        <v>100626.95985348406</v>
+        <v>100626.95985379792</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -26511,19 +27233,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="18">
-        <v>1605708.2486314531</v>
+        <v>1605708.2486346464</v>
       </c>
       <c r="H44" s="18">
-        <v>1254058.1712762965</v>
+        <v>1254058.1712787906</v>
       </c>
       <c r="I44" s="18">
-        <v>1147026.0331240541</v>
+        <v>1147026.0331262213</v>
       </c>
       <c r="J44" s="18">
-        <v>1254058.1712762965</v>
+        <v>1254058.1712787906</v>
       </c>
       <c r="K44" s="18">
-        <v>107032.13815224241</v>
+        <v>107032.1381525693</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
@@ -26543,6 +27265,62 @@
       <c r="Q44" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1609609.9691969471</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1150104.4905512708</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1269982.2250177334</v>
+      </c>
+      <c r="K45" s="18">
+        <v>119877.73446646263</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="21">
+        <v>70.689644187016341</v>
+      </c>
+      <c r="N45" s="21">
+        <v>69.8440287824085</v>
+      </c>
+      <c r="O45" s="21">
+        <v>65.6184872556763</v>
+      </c>
+      <c r="P45" s="21">
+        <v>78.295111835872916</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -26560,7 +27338,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ44"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -26755,6 +27533,16 @@
         <f>-AF3</f>
         <v>-50321.457799113727</v>
       </c>
+      <c r="AH3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>50321.457799113727</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>-AI3</f>
+        <v>-50321.457799113727</v>
+      </c>
     </row>
     <row r="4" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -26844,9 +27632,16 @@
         <f>-AF4</f>
         <v>-1176285.4650423238</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="AH4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1176285.4650423238</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f>-AI4</f>
+        <v>-1176285.4650423238</v>
+      </c>
     </row>
     <row r="5" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -26933,9 +27728,16 @@
         <f>-AF5</f>
         <v>-2010570.7877592836</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AH5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>2010570.7877592836</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>-AI5</f>
+        <v>-2010570.7877592836</v>
+      </c>
     </row>
     <row r="6" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -27017,7 +27819,16 @@
       <c r="AG6" s="8">
         <v>2964830.4750532256</v>
       </c>
-      <c r="AH6" s="19"/>
+      <c r="AH6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5023476.263881946</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>-AI6</f>
+        <v>-5023476.263881946</v>
+      </c>
     </row>
     <row r="7" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -27063,13 +27874,42 @@
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
+      <c r="S7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="T7" s="10">
+        <v>5023476.263881946</v>
+      </c>
+      <c r="U7" s="4">
+        <v>8260653.9744826676</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1805146.392399841</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.21852342417149731</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0.13296659389418197</v>
+      </c>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AG7" s="2">
         <v>-6.1439790124808824E-2</v>
       </c>
-      <c r="AJ7" s="2"/>
+      <c r="AH7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>10065800.366882509</v>
+      </c>
     </row>
     <row r="8" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -27115,6 +27955,9 @@
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
+      <c r="AJ8" s="2">
+        <v>0.13296659389418197</v>
+      </c>
     </row>
     <row r="9" spans="1:36" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -28720,6 +29563,53 @@
       <c r="N44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="17">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1246.0388886215089</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1579.263534262662</v>
+      </c>
+      <c r="I45" s="18">
+        <v>12757668.807730073</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="K45" s="18">
+        <v>8260653.9744826676</v>
+      </c>
+      <c r="L45" s="18">
+        <v>10065800.366882509</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1805146.392399841</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -28737,7 +29627,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28917,6 +29807,16 @@
         <f>-AC3</f>
         <v>-245217.76659387304</v>
       </c>
+      <c r="AE3" s="42">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>245217.76659387304</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-245217.76659387304</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
@@ -29000,9 +29900,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
+      <c r="AE4" s="42">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="7">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
@@ -29083,9 +29990,16 @@
         <f>-AC5</f>
         <v>-3101231.3499326059</v>
       </c>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="AE5" s="42">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>3101231.3499326059</v>
+      </c>
+      <c r="AG5" s="7">
+        <f>-AF5</f>
+        <v>-3101231.3499326059</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
@@ -29161,7 +30075,16 @@
       <c r="AD6" s="8">
         <v>6043907.692957717</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-2457066.9526285101</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
@@ -29201,13 +30124,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="7"/>
+      <c r="P7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2457066.9526406061</v>
+      </c>
+      <c r="R7" s="4">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.1275212477906956</v>
+      </c>
+      <c r="W7" s="9">
+        <v>5.6434982564923741E-2</v>
+      </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AD7" s="2">
         <v>-7.7878942670306261E-2</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AE7" s="42">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>10510929.054706667</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
@@ -29247,6 +30199,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="7"/>
+      <c r="AG8" s="2">
+        <v>5.6434982564923741E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
@@ -30496,25 +31451,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="17">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="17">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="18">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="18">
-        <v>13312021.830106834</v>
+        <v>13312021.830125373</v>
       </c>
       <c r="H41" s="18">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="I41" s="18">
-        <v>9314484.7442212198</v>
+        <v>9314484.7442325279</v>
       </c>
       <c r="J41" s="18">
-        <v>8120333.5067951689</v>
+        <v>8120333.506806477</v>
       </c>
       <c r="K41" s="18">
         <v>-1194151.2374260509</v>
@@ -30534,28 +31489,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="17">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="17">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="18">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="18">
-        <v>13312718.809683772</v>
+        <v>13312718.809703339</v>
       </c>
       <c r="H42" s="18">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="I42" s="18">
-        <v>9315019.3275703583</v>
+        <v>9315019.3275824543</v>
       </c>
       <c r="J42" s="18">
-        <v>10210855.587295413</v>
+        <v>10210855.58731042</v>
       </c>
       <c r="K42" s="18">
-        <v>895836.25972505473</v>
+        <v>895836.25972796604</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -30581,19 +31536,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="18">
-        <v>13314938.783818783</v>
+        <v>13314938.78383835</v>
       </c>
       <c r="H43" s="18">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="I43" s="18">
-        <v>9316744.2474954911</v>
+        <v>9316744.2475075871</v>
       </c>
       <c r="J43" s="18">
-        <v>10345707.568357404</v>
+        <v>10345707.568372607</v>
       </c>
       <c r="K43" s="18">
-        <v>1028963.3208619133</v>
+        <v>1028963.3208650202</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -30619,23 +31574,64 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="18">
-        <v>13318796.167407474</v>
+        <v>13318796.167427041</v>
       </c>
       <c r="H44" s="18">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="I44" s="18">
-        <v>9319756.864148153</v>
+        <v>9319756.864160249</v>
       </c>
       <c r="J44" s="18">
-        <v>10401980.048079319</v>
+        <v>10401980.048094602</v>
       </c>
       <c r="K44" s="18">
-        <v>1082223.1839311663</v>
+        <v>1082223.1839343533</v>
       </c>
       <c r="L44" s="17">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="17">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="17">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="18">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="18">
+        <v>13321836.99796767</v>
+      </c>
+      <c r="H45" s="18">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="I45" s="18">
+        <v>9322156.0793799553</v>
+      </c>
+      <c r="J45" s="18">
+        <v>10510929.054722106</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1188772.9753421508</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -400,8 +400,6 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1492,11 +1490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118347264"/>
-        <c:axId val="118348800"/>
+        <c:axId val="435012736"/>
+        <c:axId val="435014272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118347264"/>
+        <c:axId val="435012736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,14 +1537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118348800"/>
+        <c:crossAx val="435014272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118348800"/>
+        <c:axId val="435014272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118347264"/>
+        <c:crossAx val="435012736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1901,8 +1899,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="438793344"/>
-        <c:axId val="438791552"/>
+        <c:axId val="435004160"/>
+        <c:axId val="435002368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2210,11 +2208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438788480"/>
-        <c:axId val="438790016"/>
+        <c:axId val="434999296"/>
+        <c:axId val="435000832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="438788480"/>
+        <c:axId val="434999296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,14 +2255,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438790016"/>
+        <c:crossAx val="435000832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="438790016"/>
+        <c:axId val="435000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,12 +2313,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438788480"/>
+        <c:crossAx val="434999296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438791552"/>
+        <c:axId val="435002368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,12 +2355,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438793344"/>
+        <c:crossAx val="435004160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="438793344"/>
+        <c:axId val="435004160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="438791552"/>
+        <c:crossAx val="435002368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3427,11 +3425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439027968"/>
-        <c:axId val="439037952"/>
+        <c:axId val="435034368"/>
+        <c:axId val="435036160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439027968"/>
+        <c:axId val="435034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,14 +3472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439037952"/>
+        <c:crossAx val="435036160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439037952"/>
+        <c:axId val="435036160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +3530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439027968"/>
+        <c:crossAx val="435034368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,8 +3834,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439070720"/>
-        <c:axId val="439068928"/>
+        <c:axId val="435064832"/>
+        <c:axId val="435063040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4145,11 +4143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439057408"/>
-        <c:axId val="439067392"/>
+        <c:axId val="435059712"/>
+        <c:axId val="435061504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439057408"/>
+        <c:axId val="435059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,14 +4190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439067392"/>
+        <c:crossAx val="435061504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439067392"/>
+        <c:axId val="435061504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,12 +4248,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439057408"/>
+        <c:crossAx val="435059712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439068928"/>
+        <c:axId val="435063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,12 +4290,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439070720"/>
+        <c:crossAx val="435064832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439070720"/>
+        <c:axId val="435064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4306,7 +4304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439068928"/>
+        <c:crossAx val="435063040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5362,11 +5360,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439154560"/>
-        <c:axId val="439156096"/>
+        <c:axId val="435144192"/>
+        <c:axId val="435145728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439154560"/>
+        <c:axId val="435144192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,14 +5407,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439156096"/>
+        <c:crossAx val="435145728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439156096"/>
+        <c:axId val="435145728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5467,7 +5465,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439154560"/>
+        <c:crossAx val="435144192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5771,8 +5769,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442088832"/>
-        <c:axId val="442087296"/>
+        <c:axId val="445209600"/>
+        <c:axId val="445208064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6080,11 +6078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442067584"/>
-        <c:axId val="442085760"/>
+        <c:axId val="445204736"/>
+        <c:axId val="445206528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442067584"/>
+        <c:axId val="445204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6127,14 +6125,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442085760"/>
+        <c:crossAx val="445206528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442085760"/>
+        <c:axId val="445206528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6185,12 +6183,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442067584"/>
+        <c:crossAx val="445204736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442087296"/>
+        <c:axId val="445208064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,12 +6225,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442088832"/>
+        <c:crossAx val="445209600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442088832"/>
+        <c:axId val="445209600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6241,7 +6239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442087296"/>
+        <c:crossAx val="445208064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6516,8 +6514,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118373376"/>
-        <c:axId val="118371840"/>
+        <c:axId val="457086080"/>
+        <c:axId val="455310336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6825,11 +6823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118364416"/>
-        <c:axId val="118370304"/>
+        <c:axId val="455307264"/>
+        <c:axId val="455308800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118364416"/>
+        <c:axId val="455307264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6872,14 +6870,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118370304"/>
+        <c:crossAx val="455308800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118370304"/>
+        <c:axId val="455308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,12 +6928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118364416"/>
+        <c:crossAx val="455307264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118371840"/>
+        <c:axId val="455310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6972,12 +6970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118373376"/>
+        <c:crossAx val="457086080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="118373376"/>
+        <c:axId val="457086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,7 +6984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118371840"/>
+        <c:crossAx val="455310336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8042,11 +8040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118399744"/>
-        <c:axId val="118401280"/>
+        <c:axId val="533550976"/>
+        <c:axId val="533552512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118399744"/>
+        <c:axId val="533550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8089,14 +8087,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118401280"/>
+        <c:crossAx val="533552512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118401280"/>
+        <c:axId val="533552512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8147,7 +8145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118399744"/>
+        <c:crossAx val="533550976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8460,8 +8458,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="366905984"/>
-        <c:axId val="366904448"/>
+        <c:axId val="403790464"/>
+        <c:axId val="403788928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8769,11 +8767,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118417280"/>
-        <c:axId val="118418816"/>
+        <c:axId val="403773312"/>
+        <c:axId val="403774848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="118417280"/>
+        <c:axId val="403773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8816,14 +8814,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118418816"/>
+        <c:crossAx val="403774848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="118418816"/>
+        <c:axId val="403774848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8874,12 +8872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118417280"/>
+        <c:crossAx val="403773312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="366904448"/>
+        <c:axId val="403788928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8916,12 +8914,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366905984"/>
+        <c:crossAx val="403790464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="366905984"/>
+        <c:axId val="403790464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8930,7 +8928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="366904448"/>
+        <c:crossAx val="403788928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9986,11 +9984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366997888"/>
-        <c:axId val="366999424"/>
+        <c:axId val="404898176"/>
+        <c:axId val="404899712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366997888"/>
+        <c:axId val="404898176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10033,14 +10031,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366999424"/>
+        <c:crossAx val="404899712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366999424"/>
+        <c:axId val="404899712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10091,7 +10089,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366997888"/>
+        <c:crossAx val="404898176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10404,8 +10402,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="370166400"/>
-        <c:axId val="370164864"/>
+        <c:axId val="404925056"/>
+        <c:axId val="404923520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10713,11 +10711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370157440"/>
-        <c:axId val="370158976"/>
+        <c:axId val="404912000"/>
+        <c:axId val="404913536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370157440"/>
+        <c:axId val="404912000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10760,14 +10758,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370158976"/>
+        <c:crossAx val="404913536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370158976"/>
+        <c:axId val="404913536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10818,12 +10816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370157440"/>
+        <c:crossAx val="404912000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370164864"/>
+        <c:axId val="404923520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10860,12 +10858,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370166400"/>
+        <c:crossAx val="404925056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="370166400"/>
+        <c:axId val="404925056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10874,7 +10872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370164864"/>
+        <c:crossAx val="404923520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11930,11 +11928,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370200960"/>
-        <c:axId val="370202496"/>
+        <c:axId val="434901376"/>
+        <c:axId val="434902912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370200960"/>
+        <c:axId val="434901376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11977,14 +11975,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370202496"/>
+        <c:crossAx val="434902912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370202496"/>
+        <c:axId val="434902912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12035,7 +12033,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370200960"/>
+        <c:crossAx val="434901376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12339,8 +12337,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="389961600"/>
-        <c:axId val="389960064"/>
+        <c:axId val="434918912"/>
+        <c:axId val="434917376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12648,11 +12646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="389948544"/>
-        <c:axId val="389950080"/>
+        <c:axId val="434914048"/>
+        <c:axId val="434915584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="389948544"/>
+        <c:axId val="434914048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12695,14 +12693,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389950080"/>
+        <c:crossAx val="434915584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="389950080"/>
+        <c:axId val="434915584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12753,12 +12751,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389948544"/>
+        <c:crossAx val="434914048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389960064"/>
+        <c:axId val="434917376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12795,12 +12793,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389961600"/>
+        <c:crossAx val="434918912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="389961600"/>
+        <c:axId val="434918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12809,7 +12807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="389960064"/>
+        <c:crossAx val="434917376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13865,11 +13863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421481856"/>
-        <c:axId val="438617216"/>
+        <c:axId val="434973696"/>
+        <c:axId val="434975488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421481856"/>
+        <c:axId val="434973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13912,14 +13910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438617216"/>
+        <c:crossAx val="434975488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="438617216"/>
+        <c:axId val="434975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13970,7 +13968,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421481856"/>
+        <c:crossAx val="434973696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14822,7 +14820,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16825,9 +16823,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16844,7 +16839,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19344,9 +19339,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19363,7 +19355,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21863,9 +21855,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21882,7 +21871,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24652,9 +24641,6 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -24671,7 +24657,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27319,9 +27305,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -27338,7 +27321,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29608,9 +29591,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -29627,7 +29607,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31630,9 +31610,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="50"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -713,6 +713,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +725,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -851,6 +854,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1133785.7241379421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,7 +899,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1022,6 +1028,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1040,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1160,6 +1169,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1249850.5855833527</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1241682.0665966475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1214,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1331,6 +1343,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1355,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1469,6 +1484,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>116064.86144541064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103392.17352248007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,11 +1508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435012736"/>
-        <c:axId val="435014272"/>
+        <c:axId val="525060736"/>
+        <c:axId val="525128064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435012736"/>
+        <c:axId val="525060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,14 +1555,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435014272"/>
+        <c:crossAx val="525128064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435014272"/>
+        <c:axId val="525128064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1613,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435012736"/>
+        <c:crossAx val="525060736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1756,7 +1774,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1885,6 +1903,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,8 +1920,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435004160"/>
-        <c:axId val="435002368"/>
+        <c:axId val="525065216"/>
+        <c:axId val="525063680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1925,7 +1946,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2054,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,7 +2087,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2192,6 +2216,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,11 +2235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434999296"/>
-        <c:axId val="435000832"/>
+        <c:axId val="525056256"/>
+        <c:axId val="525062144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434999296"/>
+        <c:axId val="525056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,14 +2282,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435000832"/>
+        <c:crossAx val="525062144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435000832"/>
+        <c:axId val="525062144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,12 +2340,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434999296"/>
+        <c:crossAx val="525056256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435002368"/>
+        <c:axId val="525063680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,12 +2382,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435004160"/>
+        <c:crossAx val="525065216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435004160"/>
+        <c:axId val="525065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435002368"/>
+        <c:crossAx val="525063680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2519,7 +2546,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2648,6 +2675,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,7 +2687,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2786,6 +2816,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>8260653.9744826676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8261600.0727247298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2861,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2957,6 +2990,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,7 +3002,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3095,6 +3131,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10065800.366882509</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9964685.668245811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3137,7 +3176,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3266,6 +3305,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3275,7 +3317,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3404,6 +3446,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1805146.392399841</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1703085.5955210812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3425,11 +3470,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435034368"/>
-        <c:axId val="435036160"/>
+        <c:axId val="525087488"/>
+        <c:axId val="525089024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435034368"/>
+        <c:axId val="525087488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,14 +3517,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435036160"/>
+        <c:crossAx val="525089024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435036160"/>
+        <c:axId val="525089024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435034368"/>
+        <c:crossAx val="525087488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3691,7 +3736,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3820,6 +3865,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1246.0388886215089</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946.09824206255894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,8 +3882,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435064832"/>
-        <c:axId val="435063040"/>
+        <c:axId val="525109504"/>
+        <c:axId val="525107968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3860,7 +3908,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3989,6 +4037,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +4049,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4127,6 +4178,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4143,11 +4197,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435059712"/>
-        <c:axId val="435061504"/>
+        <c:axId val="525100544"/>
+        <c:axId val="525102080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435059712"/>
+        <c:axId val="525100544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,14 +4244,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435061504"/>
+        <c:crossAx val="525102080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435061504"/>
+        <c:axId val="525102080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4248,12 +4302,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435059712"/>
+        <c:crossAx val="525100544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="435063040"/>
+        <c:axId val="525107968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4290,12 +4344,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435064832"/>
+        <c:crossAx val="525109504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="435064832"/>
+        <c:axId val="525109504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,7 +4358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="435063040"/>
+        <c:crossAx val="525107968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4454,7 +4508,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4583,6 +4637,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4592,7 +4649,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4721,6 +4778,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9322156.0793799553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4823,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4892,6 +4952,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4901,7 +4964,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5030,6 +5093,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10510929.054722106</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10409491.022322454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,7 +5138,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5201,6 +5267,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,7 +5279,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5339,6 +5408,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1188772.9753421508</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1082198.8574219774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,11 +5432,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="435144192"/>
-        <c:axId val="435145728"/>
+        <c:axId val="525193216"/>
+        <c:axId val="525194752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="435144192"/>
+        <c:axId val="525193216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5407,14 +5479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435145728"/>
+        <c:crossAx val="525194752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="435145728"/>
+        <c:axId val="525194752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,7 +5537,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435144192"/>
+        <c:crossAx val="525193216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5626,7 +5698,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5755,6 +5827,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,8 +5844,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445209600"/>
-        <c:axId val="445208064"/>
+        <c:axId val="525350400"/>
+        <c:axId val="525348864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5795,7 +5870,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5924,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5933,7 +6011,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6062,6 +6140,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6078,11 +6159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445204736"/>
-        <c:axId val="445206528"/>
+        <c:axId val="525345536"/>
+        <c:axId val="525347072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445204736"/>
+        <c:axId val="525345536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,14 +6206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445206528"/>
+        <c:crossAx val="525347072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445206528"/>
+        <c:axId val="525347072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6183,12 +6264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445204736"/>
+        <c:crossAx val="525345536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445208064"/>
+        <c:axId val="525348864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6225,12 +6306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445209600"/>
+        <c:crossAx val="525350400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="445209600"/>
+        <c:axId val="525350400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,7 +6320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445208064"/>
+        <c:crossAx val="525348864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6371,7 +6452,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6500,6 +6581,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6514,8 +6598,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="457086080"/>
-        <c:axId val="455310336"/>
+        <c:axId val="428930560"/>
+        <c:axId val="428929024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6540,7 +6624,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6669,6 +6753,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6678,7 +6765,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6807,6 +6894,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,11 +6913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="455307264"/>
-        <c:axId val="455308800"/>
+        <c:axId val="428925696"/>
+        <c:axId val="428927232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="455307264"/>
+        <c:axId val="428925696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6870,14 +6960,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455308800"/>
+        <c:crossAx val="428927232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455308800"/>
+        <c:axId val="428927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,12 +7018,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455307264"/>
+        <c:crossAx val="428925696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455310336"/>
+        <c:axId val="428929024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6970,12 +7060,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457086080"/>
+        <c:crossAx val="428930560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="457086080"/>
+        <c:axId val="428930560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6984,7 +7074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455310336"/>
+        <c:crossAx val="428929024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7134,7 +7224,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7263,6 +7353,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7272,7 +7365,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7401,6 +7494,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1314950.131030737</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1315850.9648179819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7443,7 +7539,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7572,6 +7668,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7581,7 +7680,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7710,6 +7809,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1429281.102940886</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1415689.9377799064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7752,7 +7854,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7881,6 +7983,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,7 +7995,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8019,6 +8124,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>114330.97191014909</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99838.972961924504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8040,11 +8148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533550976"/>
-        <c:axId val="533552512"/>
+        <c:axId val="467930112"/>
+        <c:axId val="467931904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533550976"/>
+        <c:axId val="467930112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8087,14 +8195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533552512"/>
+        <c:crossAx val="467931904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533552512"/>
+        <c:axId val="467931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8145,7 +8253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533550976"/>
+        <c:crossAx val="467930112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8315,7 +8423,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8444,6 +8552,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>615.69148500989468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>900.83378724507645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8458,8 +8569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="403790464"/>
-        <c:axId val="403788928"/>
+        <c:axId val="467949056"/>
+        <c:axId val="467947520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8484,7 +8595,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8613,6 +8724,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8622,7 +8736,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8751,6 +8865,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,11 +8884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403773312"/>
-        <c:axId val="403774848"/>
+        <c:axId val="467944192"/>
+        <c:axId val="467945728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403773312"/>
+        <c:axId val="467944192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8814,14 +8931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403774848"/>
+        <c:crossAx val="467945728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403774848"/>
+        <c:axId val="467945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,12 +8989,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403773312"/>
+        <c:crossAx val="467944192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403788928"/>
+        <c:axId val="467947520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8914,12 +9031,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403790464"/>
+        <c:crossAx val="467949056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="403790464"/>
+        <c:axId val="467949056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8928,7 +9045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403788928"/>
+        <c:crossAx val="467947520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9078,7 +9195,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9207,6 +9324,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9216,7 +9336,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9345,6 +9465,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10880000.025811484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9387,7 +9510,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9516,6 +9639,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9525,7 +9651,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9654,6 +9780,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>12123266.898858964</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12001371.920472054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9696,7 +9825,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9825,6 +9954,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9834,7 +9966,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9963,6 +10095,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1243266.8730474804</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1120344.6775564663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9984,11 +10119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404898176"/>
-        <c:axId val="404899712"/>
+        <c:axId val="523971584"/>
+        <c:axId val="523973376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404898176"/>
+        <c:axId val="523971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10031,14 +10166,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404899712"/>
+        <c:crossAx val="523973376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="404899712"/>
+        <c:axId val="523973376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10089,7 +10224,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404898176"/>
+        <c:crossAx val="523971584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10259,7 +10394,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10388,6 +10523,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>479.84304394137899</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1027.2171041041865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10402,8 +10540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="404925056"/>
-        <c:axId val="404923520"/>
+        <c:axId val="524006528"/>
+        <c:axId val="524004736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10428,7 +10566,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10557,6 +10695,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10566,7 +10707,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10695,6 +10836,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10711,11 +10855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404912000"/>
-        <c:axId val="404913536"/>
+        <c:axId val="524001664"/>
+        <c:axId val="524003200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="404912000"/>
+        <c:axId val="524001664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10758,14 +10902,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404913536"/>
+        <c:crossAx val="524003200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="404913536"/>
+        <c:axId val="524003200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10816,12 +10960,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404912000"/>
+        <c:crossAx val="524001664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404923520"/>
+        <c:axId val="524004736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10858,12 +11002,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404925056"/>
+        <c:crossAx val="524006528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="404925056"/>
+        <c:axId val="524006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10872,7 +11016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404923520"/>
+        <c:crossAx val="524004736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11022,7 +11166,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11151,6 +11295,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11160,7 +11307,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11289,6 +11436,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1318678.2594984123</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1318704.6065380645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11331,7 +11481,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11460,6 +11610,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11469,7 +11622,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11598,6 +11751,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1600368.575832787</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1584168.2060495415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11640,7 +11796,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11769,6 +11925,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11778,7 +11937,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11907,6 +12066,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>281690.31633437471</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>265463.59951147693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11928,11 +12090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434901376"/>
-        <c:axId val="434902912"/>
+        <c:axId val="524097792"/>
+        <c:axId val="524099584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434901376"/>
+        <c:axId val="524097792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11975,14 +12137,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434902912"/>
+        <c:crossAx val="524099584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434902912"/>
+        <c:axId val="524099584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12033,7 +12195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434901376"/>
+        <c:crossAx val="524097792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12194,7 +12356,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12323,6 +12485,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>34.699817151485057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.347039652375056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12337,8 +12502,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434918912"/>
-        <c:axId val="434917376"/>
+        <c:axId val="524111872"/>
+        <c:axId val="524110080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12363,7 +12528,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12492,6 +12657,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12501,7 +12669,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12630,6 +12798,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12646,11 +12817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434914048"/>
-        <c:axId val="434915584"/>
+        <c:axId val="467983360"/>
+        <c:axId val="524108544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434914048"/>
+        <c:axId val="467983360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12693,14 +12864,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434915584"/>
+        <c:crossAx val="524108544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434915584"/>
+        <c:axId val="524108544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12751,12 +12922,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434914048"/>
+        <c:crossAx val="467983360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434917376"/>
+        <c:axId val="524110080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12793,12 +12964,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434918912"/>
+        <c:crossAx val="524111872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="434918912"/>
+        <c:axId val="524111872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12807,7 +12978,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="434917376"/>
+        <c:crossAx val="524110080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12957,7 +13128,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13086,6 +13257,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13095,7 +13269,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13224,6 +13398,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1150104.4905512708</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1154608.6594874961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13266,7 +13443,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13395,6 +13572,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13404,7 +13584,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13533,6 +13713,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1269982.2250177334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1261609.5840448712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13575,7 +13758,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13704,6 +13887,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13713,7 +13899,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13842,6 +14028,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>119877.73446646263</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>107000.92455737502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13863,11 +14052,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434973696"/>
-        <c:axId val="434975488"/>
+        <c:axId val="525035008"/>
+        <c:axId val="525036544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434973696"/>
+        <c:axId val="525035008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13910,14 +14099,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434975488"/>
+        <c:crossAx val="525036544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434975488"/>
+        <c:axId val="525036544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13968,7 +14157,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434973696"/>
+        <c:crossAx val="525035008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14820,7 +15009,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16823,6 +17012,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="32">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="31">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="29">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="29">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="30">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="30">
+        <v>1589861.7641339963</v>
+      </c>
+      <c r="H46" s="30">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="I46" s="30">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J46" s="30">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="K46" s="30">
+        <v>103392.17352248007</v>
+      </c>
+      <c r="L46" s="29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16839,7 +17066,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19339,6 +19566,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>900.83378724507645</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1153.4363205442089</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1812663.1305182986</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1415689.9377799064</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1315850.9648179819</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1415689.9377799064</v>
+      </c>
+      <c r="K46" s="18">
+        <v>99838.972961924504</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19355,7 +19632,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21855,6 +22132,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1027.2171041041865</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1315.2587455466651</v>
+      </c>
+      <c r="G46" s="18">
+        <v>15366673.037171355</v>
+      </c>
+      <c r="H46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="I46" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J46" s="18">
+        <v>12001371.920472054</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1120344.6775564663</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="O46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21871,7 +22198,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -24641,6 +24968,62 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="46" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>26.347039652375056</v>
+      </c>
+      <c r="H46" s="18">
+        <v>33.735005174267741</v>
+      </c>
+      <c r="I46" s="18">
+        <v>2028384.3396870662</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1584168.2060495415</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1318704.6065380645</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1584168.2060495415</v>
+      </c>
+      <c r="M46" s="18">
+        <v>265463.59951147693</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="22">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="P46" s="22">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>71.01149881830726</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -24657,7 +25040,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27305,6 +27688,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="18">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1615377.1507996682</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1261609.5840448712</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1154608.6594874961</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1261609.5840448712</v>
+      </c>
+      <c r="K46" s="18">
+        <v>107000.92455737502</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+      <c r="M46" s="21">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="N46" s="21">
+        <v>69.206365409704674</v>
+      </c>
+      <c r="O46" s="21">
+        <v>66.814446640352415</v>
+      </c>
+      <c r="P46" s="21">
+        <v>73.990202948409177</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -27321,7 +27757,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -29591,6 +30027,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="17">
+        <v>946.09824206255894</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1211.3933676214326</v>
+      </c>
+      <c r="I46" s="18">
+        <v>12758880.201097695</v>
+      </c>
+      <c r="J46" s="18">
+        <v>9964685.668245811</v>
+      </c>
+      <c r="K46" s="18">
+        <v>8261600.0727247298</v>
+      </c>
+      <c r="L46" s="18">
+        <v>9964685.668245811</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1703085.5955210812</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -29607,7 +30087,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31610,6 +32090,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="17">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="18">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="18">
+        <v>13328413.291695403</v>
+      </c>
+      <c r="H46" s="18">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="I46" s="18">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J46" s="18">
+        <v>10409491.022322454</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1082198.8574219774</v>
+      </c>
+      <c r="L46" s="17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -716,6 +716,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,7 +728,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -856,6 +859,9 @@
                   <c:v>1133785.7241379421</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -899,7 +905,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1031,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1049,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1172,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1241682.0665966475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1314815.7138116525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,7 +1226,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1346,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,7 +1370,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1487,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>103392.17352248007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176525.82073748508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,11 +1526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525060736"/>
-        <c:axId val="525128064"/>
+        <c:axId val="492523904"/>
+        <c:axId val="492526592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525060736"/>
+        <c:axId val="492523904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,14 +1573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525128064"/>
+        <c:crossAx val="492526592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525128064"/>
+        <c:axId val="492526592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525060736"/>
+        <c:crossAx val="492523904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,7 +1792,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1906,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,8 +1941,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525065216"/>
-        <c:axId val="525063680"/>
+        <c:axId val="421631104"/>
+        <c:axId val="421629312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1946,7 +1967,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2078,6 +2099,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2111,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2219,6 +2243,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,11 +2262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525056256"/>
-        <c:axId val="525062144"/>
+        <c:axId val="421626240"/>
+        <c:axId val="421627776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525056256"/>
+        <c:axId val="421626240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,14 +2309,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525062144"/>
+        <c:crossAx val="421627776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525062144"/>
+        <c:axId val="421627776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,12 +2367,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525056256"/>
+        <c:crossAx val="421626240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525063680"/>
+        <c:axId val="421629312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2382,12 +2409,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525065216"/>
+        <c:crossAx val="421631104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525065216"/>
+        <c:axId val="421631104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525063680"/>
+        <c:crossAx val="421629312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2546,7 +2573,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2678,6 +2705,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2687,7 +2717,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2818,6 +2848,9 @@
                   <c:v>8260653.9744826676</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>8261600.0727247298</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>8261600.0727247298</c:v>
                 </c:pt>
               </c:numCache>
@@ -2861,7 +2894,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2993,6 +3026,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,7 +3038,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3134,6 +3170,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9964685.668245811</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10551594.206167569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,7 +3215,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3308,6 +3347,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,7 +3359,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3449,6 +3491,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1703085.5955210812</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2289994.1334428396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3470,11 +3515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525087488"/>
-        <c:axId val="525089024"/>
+        <c:axId val="421685888"/>
+        <c:axId val="421691776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525087488"/>
+        <c:axId val="421685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,14 +3562,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525089024"/>
+        <c:crossAx val="421691776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525089024"/>
+        <c:axId val="421691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,7 +3620,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525087488"/>
+        <c:crossAx val="421685888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3736,7 +3781,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3868,6 +3913,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>946.09824206255894</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-295.3426593807647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3882,8 +3930,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525109504"/>
-        <c:axId val="525107968"/>
+        <c:axId val="421716352"/>
+        <c:axId val="421710464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3908,7 +3956,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4040,6 +4088,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,7 +4100,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4181,6 +4232,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,11 +4251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525100544"/>
-        <c:axId val="525102080"/>
+        <c:axId val="421707136"/>
+        <c:axId val="421708928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525100544"/>
+        <c:axId val="421707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,14 +4298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525102080"/>
+        <c:crossAx val="421708928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525102080"/>
+        <c:axId val="421708928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4302,12 +4356,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525100544"/>
+        <c:crossAx val="421707136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525107968"/>
+        <c:axId val="421710464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,12 +4398,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525109504"/>
+        <c:crossAx val="421716352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525109504"/>
+        <c:axId val="421716352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525107968"/>
+        <c:crossAx val="421710464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4508,7 +4562,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4640,6 +4694,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,7 +4706,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4780,6 +4837,9 @@
                   <c:v>9322156.0793799553</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -4823,7 +4883,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4955,6 +5015,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4964,7 +5027,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5096,6 +5159,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10409491.022322454</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11022598.084584303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5138,7 +5204,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5270,6 +5336,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5279,7 +5348,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5411,6 +5480,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1082198.8574219774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1695305.9196838271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5432,11 +5504,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525193216"/>
-        <c:axId val="525194752"/>
+        <c:axId val="425207680"/>
+        <c:axId val="425209216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525193216"/>
+        <c:axId val="425207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,14 +5551,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525194752"/>
+        <c:crossAx val="425209216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525194752"/>
+        <c:axId val="425209216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5537,7 +5609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525193216"/>
+        <c:crossAx val="425207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5698,7 +5770,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5830,6 +5902,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5844,8 +5919,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525350400"/>
-        <c:axId val="525348864"/>
+        <c:axId val="425237888"/>
+        <c:axId val="425236352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5870,7 +5945,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6002,6 +6077,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,7 +6089,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6143,6 +6221,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6159,11 +6240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525345536"/>
-        <c:axId val="525347072"/>
+        <c:axId val="425228928"/>
+        <c:axId val="425234816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525345536"/>
+        <c:axId val="425228928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6206,14 +6287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525347072"/>
+        <c:crossAx val="425234816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525347072"/>
+        <c:axId val="425234816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6264,12 +6345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525345536"/>
+        <c:crossAx val="425228928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525348864"/>
+        <c:axId val="425236352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,12 +6387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525350400"/>
+        <c:crossAx val="425237888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525350400"/>
+        <c:axId val="425237888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6320,7 +6401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525348864"/>
+        <c:crossAx val="425236352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6452,7 +6533,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6584,6 +6665,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6598,8 +6682,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="428930560"/>
-        <c:axId val="428929024"/>
+        <c:axId val="525571200"/>
+        <c:axId val="525523968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6624,7 +6708,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6756,6 +6840,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6765,7 +6852,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6897,6 +6984,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,11 +7003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428925696"/>
-        <c:axId val="428927232"/>
+        <c:axId val="525340032"/>
+        <c:axId val="525522048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428925696"/>
+        <c:axId val="525340032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6960,14 +7050,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428927232"/>
+        <c:crossAx val="525522048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428927232"/>
+        <c:axId val="525522048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7018,12 +7108,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428925696"/>
+        <c:crossAx val="525340032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428929024"/>
+        <c:axId val="525523968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7060,12 +7150,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428930560"/>
+        <c:crossAx val="525571200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="428930560"/>
+        <c:axId val="525571200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,7 +7164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428929024"/>
+        <c:crossAx val="525523968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7224,7 +7314,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7356,6 +7446,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7365,7 +7458,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7496,6 +7589,9 @@
                   <c:v>1314950.131030737</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1315850.9648179819</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1315850.9648179819</c:v>
                 </c:pt>
               </c:numCache>
@@ -7539,7 +7635,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7671,6 +7767,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7680,7 +7779,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7812,6 +7911,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1415689.9377799064</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1499072.4486985093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +7956,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7986,6 +8088,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7995,7 +8100,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8127,6 +8232,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>99838.972961924504</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>183221.48388052732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8148,11 +8256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467930112"/>
-        <c:axId val="467931904"/>
+        <c:axId val="527077760"/>
+        <c:axId val="527079680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467930112"/>
+        <c:axId val="527077760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8195,14 +8303,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467931904"/>
+        <c:crossAx val="527079680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467931904"/>
+        <c:axId val="527079680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8253,7 +8361,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467930112"/>
+        <c:crossAx val="527077760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8423,7 +8531,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8555,6 +8663,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>900.83378724507645</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-408.18818627675978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8569,8 +8680,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="467949056"/>
-        <c:axId val="467947520"/>
+        <c:axId val="663172992"/>
+        <c:axId val="663171072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8595,7 +8706,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8727,6 +8838,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8736,7 +8850,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8868,6 +8982,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,11 +9001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467944192"/>
-        <c:axId val="467945728"/>
+        <c:axId val="616153472"/>
+        <c:axId val="616155392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467944192"/>
+        <c:axId val="616153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8931,14 +9048,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467945728"/>
+        <c:crossAx val="616155392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="467945728"/>
+        <c:axId val="616155392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8989,12 +9106,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467944192"/>
+        <c:crossAx val="616153472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="467947520"/>
+        <c:axId val="663171072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9031,12 +9148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467949056"/>
+        <c:crossAx val="663172992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="467949056"/>
+        <c:axId val="663172992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9045,7 +9162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="467947520"/>
+        <c:crossAx val="663171072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9195,7 +9312,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9327,6 +9444,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9336,7 +9456,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9467,6 +9587,9 @@
                   <c:v>10880000.025811484</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10881027.242915587</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
@@ -9510,7 +9633,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9642,6 +9765,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9651,7 +9777,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9783,6 +9909,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>12001371.920472054</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12708238.938801141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9825,7 +9954,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9957,6 +10086,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9966,7 +10098,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10098,6 +10230,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1120344.6775564663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1827211.695885554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10119,11 +10254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523971584"/>
-        <c:axId val="523973376"/>
+        <c:axId val="370336896"/>
+        <c:axId val="370338432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523971584"/>
+        <c:axId val="370336896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10166,14 +10301,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523973376"/>
+        <c:crossAx val="370338432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523973376"/>
+        <c:axId val="370338432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10224,7 +10359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523971584"/>
+        <c:crossAx val="370336896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10394,7 +10529,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10526,6 +10661,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1027.2171041041865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-210.90834862773511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10540,8 +10678,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524006528"/>
-        <c:axId val="524004736"/>
+        <c:axId val="387529728"/>
+        <c:axId val="387528192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10566,7 +10704,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10698,6 +10836,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10707,7 +10848,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10839,6 +10980,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10855,11 +10999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524001664"/>
-        <c:axId val="524003200"/>
+        <c:axId val="387520768"/>
+        <c:axId val="387526656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524001664"/>
+        <c:axId val="387520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10902,14 +11046,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524003200"/>
+        <c:crossAx val="387526656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524003200"/>
+        <c:axId val="387526656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10960,12 +11104,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524001664"/>
+        <c:crossAx val="387520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524004736"/>
+        <c:axId val="387528192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11002,12 +11146,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524006528"/>
+        <c:crossAx val="387529728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524006528"/>
+        <c:axId val="387529728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11016,7 +11160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524004736"/>
+        <c:crossAx val="387528192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11166,7 +11310,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11298,6 +11442,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11307,7 +11454,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11438,6 +11585,9 @@
                   <c:v>1318678.2594984123</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1318704.6065380645</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1318704.6065380645</c:v>
                 </c:pt>
               </c:numCache>
@@ -11481,7 +11631,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11613,6 +11763,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11622,7 +11775,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11754,6 +11907,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1584168.2060495415</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1677473.8934128189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11796,7 +11952,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11928,6 +12084,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11937,7 +12096,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12069,6 +12228,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>265463.59951147693</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>358769.28687475435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12090,11 +12252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524097792"/>
-        <c:axId val="524099584"/>
+        <c:axId val="412312320"/>
+        <c:axId val="412313856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524097792"/>
+        <c:axId val="412312320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12137,14 +12299,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524099584"/>
+        <c:crossAx val="412313856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524099584"/>
+        <c:axId val="412313856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12195,7 +12357,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524097792"/>
+        <c:crossAx val="412312320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12356,7 +12518,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12488,6 +12650,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>26.347039652375056</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.2247322865529409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12502,8 +12667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524111872"/>
-        <c:axId val="524110080"/>
+        <c:axId val="412338048"/>
+        <c:axId val="412336512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12528,7 +12693,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12660,6 +12825,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12669,7 +12837,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12801,6 +12969,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12817,11 +12988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467983360"/>
-        <c:axId val="524108544"/>
+        <c:axId val="412333184"/>
+        <c:axId val="412334720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467983360"/>
+        <c:axId val="412333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12864,14 +13035,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524108544"/>
+        <c:crossAx val="412334720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524108544"/>
+        <c:axId val="412334720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12922,12 +13093,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467983360"/>
+        <c:crossAx val="412333184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="524110080"/>
+        <c:axId val="412336512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12964,12 +13135,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524111872"/>
+        <c:crossAx val="412338048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524111872"/>
+        <c:axId val="412338048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12978,7 +13149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524110080"/>
+        <c:crossAx val="412336512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13128,7 +13299,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13260,6 +13431,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13269,7 +13443,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13400,6 +13574,9 @@
                   <c:v>1150104.4905512708</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1154608.6594874961</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1154608.6594874961</c:v>
                 </c:pt>
               </c:numCache>
@@ -13443,7 +13620,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13575,6 +13752,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13584,7 +13764,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13716,6 +13896,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1261609.5840448712</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1335916.9391438307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13758,7 +13941,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13890,6 +14073,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13899,7 +14085,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14031,6 +14217,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>107000.92455737502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>181308.27965633455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14052,11 +14241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525035008"/>
-        <c:axId val="525036544"/>
+        <c:axId val="421604736"/>
+        <c:axId val="421610624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525035008"/>
+        <c:axId val="421604736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14099,14 +14288,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525036544"/>
+        <c:crossAx val="421610624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525036544"/>
+        <c:axId val="421610624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14157,7 +14346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525035008"/>
+        <c:crossAx val="421604736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15009,7 +15198,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17050,6 +17239,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="32">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="31">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="29">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="29">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="30">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="30">
+        <v>1587393.879155457</v>
+      </c>
+      <c r="H47" s="30">
+        <v>1312774.7728802687</v>
+      </c>
+      <c r="I47" s="30">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J47" s="30">
+        <v>1314815.7138116525</v>
+      </c>
+      <c r="K47" s="30">
+        <v>176525.82073748508</v>
+      </c>
+      <c r="L47" s="29">
+        <v>2040.9409313837987</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17066,7 +17293,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19616,6 +19843,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-408.18818627675978</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-493.57699570784837</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1812169.5535225908</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1498664.2605122325</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1315850.9648179819</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1499072.4486985093</v>
+      </c>
+      <c r="K47" s="18">
+        <v>183221.48388052732</v>
+      </c>
+      <c r="L47" s="17">
+        <v>408.18818627675978</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19632,7 +19909,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22182,6 +22459,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-210.90834862773511</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-255.0282261593907</v>
+      </c>
+      <c r="G47" s="18">
+        <v>15366418.008945195</v>
+      </c>
+      <c r="H47" s="18">
+        <v>12708028.030452514</v>
+      </c>
+      <c r="I47" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J47" s="18">
+        <v>12708238.938801141</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1827211.695885554</v>
+      </c>
+      <c r="L47" s="17">
+        <v>210.90834862773511</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22198,7 +22525,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25024,6 +25351,62 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="47" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-8.2247322865529409</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-9.9452624769147384</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2028374.3944245894</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1677465.6686805324</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1318704.6065380645</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1677473.8934128189</v>
+      </c>
+      <c r="M47" s="18">
+        <v>358769.28687475435</v>
+      </c>
+      <c r="N47" s="17">
+        <v>8.2247322865529409</v>
+      </c>
+      <c r="O47" s="22">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="P47" s="22">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>78.66991867782771</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -25040,7 +25423,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -27741,6 +28124,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1612909.2658211289</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1333875.9982124469</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1154608.6594874961</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1335916.9391438307</v>
+      </c>
+      <c r="K47" s="18">
+        <v>181308.27965633455</v>
+      </c>
+      <c r="L47" s="17">
+        <v>2040.9409313837987</v>
+      </c>
+      <c r="M47" s="21">
+        <v>83.79310777156131</v>
+      </c>
+      <c r="N47" s="21">
+        <v>74.068612863656881</v>
+      </c>
+      <c r="O47" s="21">
+        <v>69.232502048120566</v>
+      </c>
+      <c r="P47" s="21">
+        <v>83.740834494729512</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -27757,7 +28193,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ46"/>
+  <dimension ref="A1:AJ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30071,6 +30507,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="17">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="17">
+        <v>-295.3426593807647</v>
+      </c>
+      <c r="H47" s="18">
+        <v>-357.12533439830196</v>
+      </c>
+      <c r="I47" s="18">
+        <v>12758523.075763296</v>
+      </c>
+      <c r="J47" s="18">
+        <v>10551298.863508189</v>
+      </c>
+      <c r="K47" s="18">
+        <v>8261600.0727247298</v>
+      </c>
+      <c r="L47" s="18">
+        <v>10551594.206167569</v>
+      </c>
+      <c r="M47" s="18">
+        <v>2289994.1334428396</v>
+      </c>
+      <c r="N47" s="17">
+        <v>295.3426593807647</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -30087,7 +30567,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32128,6 +32608,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="17">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="18">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="18">
+        <v>13327138.150564605</v>
+      </c>
+      <c r="H47" s="18">
+        <v>11021543.542841164</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J47" s="18">
+        <v>11022598.084584303</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1695305.9196838271</v>
+      </c>
+      <c r="L47" s="17">
+        <v>1054.5417431386754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -719,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +731,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -862,6 +865,9 @@
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -905,7 +911,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1040,6 +1046,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,7 +1058,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1184,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1314815.7138116525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1294179.5752163501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,7 +1238,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1361,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,7 +1385,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>176525.82073748508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155889.68214218272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,11 +1544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492523904"/>
-        <c:axId val="492526592"/>
+        <c:axId val="659874944"/>
+        <c:axId val="659876864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492523904"/>
+        <c:axId val="659874944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492526592"/>
+        <c:crossAx val="659876864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492526592"/>
+        <c:axId val="659876864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492523904"/>
+        <c:crossAx val="659874944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,7 +1810,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1927,6 +1945,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,8 +1962,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421631104"/>
-        <c:axId val="421629312"/>
+        <c:axId val="449768064"/>
+        <c:axId val="449766528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1967,7 +1988,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2102,6 +2123,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,7 +2135,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2246,6 +2270,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,11 +2289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421626240"/>
-        <c:axId val="421627776"/>
+        <c:axId val="449763200"/>
+        <c:axId val="449764736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421626240"/>
+        <c:axId val="449763200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,14 +2336,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421627776"/>
+        <c:crossAx val="449764736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421627776"/>
+        <c:axId val="449764736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,12 +2394,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421626240"/>
+        <c:crossAx val="449763200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421629312"/>
+        <c:axId val="449766528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,12 +2436,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421631104"/>
+        <c:crossAx val="449768064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="421631104"/>
+        <c:axId val="449768064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421629312"/>
+        <c:crossAx val="449766528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +2600,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2708,6 +2735,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2717,7 +2747,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2851,6 +2881,9 @@
                   <c:v>8261600.0727247298</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>8261600.0727247298</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8261600.0727247298</c:v>
                 </c:pt>
               </c:numCache>
@@ -2894,7 +2927,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3029,6 +3062,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,7 +3074,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3173,6 +3209,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>10551594.206167569</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10385733.260172937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3254,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3350,6 +3389,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,7 +3401,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3494,6 +3536,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2289994.1334428396</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2124133.1874482073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,11 +3560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421685888"/>
-        <c:axId val="421691776"/>
+        <c:axId val="451080576"/>
+        <c:axId val="451082112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421685888"/>
+        <c:axId val="451080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,14 +3607,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421691776"/>
+        <c:crossAx val="451082112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421691776"/>
+        <c:axId val="451082112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3665,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421685888"/>
+        <c:crossAx val="451080576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3781,7 +3826,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3916,6 +3961,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-295.3426593807647</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.0445561652667319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3930,8 +3978,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421716352"/>
-        <c:axId val="421710464"/>
+        <c:axId val="451626880"/>
+        <c:axId val="451625344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3956,7 +4004,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4091,6 +4139,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,7 +4151,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4235,6 +4286,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,11 +4305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421707136"/>
-        <c:axId val="421708928"/>
+        <c:axId val="451622016"/>
+        <c:axId val="451623552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421707136"/>
+        <c:axId val="451622016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4298,14 +4352,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421708928"/>
+        <c:crossAx val="451623552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421708928"/>
+        <c:axId val="451623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,12 +4410,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421707136"/>
+        <c:crossAx val="451622016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421710464"/>
+        <c:axId val="451625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,12 +4452,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421716352"/>
+        <c:crossAx val="451626880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="421716352"/>
+        <c:axId val="451626880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421710464"/>
+        <c:crossAx val="451625344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4562,7 +4616,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4697,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4706,7 +4763,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4840,6 +4897,9 @@
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9327292.1649004761</c:v>
                 </c:pt>
               </c:numCache>
@@ -4883,7 +4943,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5018,6 +5078,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5027,7 +5090,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5162,6 +5225,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11022598.084584303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10849345.136109971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,7 +5270,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5339,6 +5405,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5348,7 +5417,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5483,6 +5552,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1695305.9196838271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1522052.9712094944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5504,11 +5576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425207680"/>
-        <c:axId val="425209216"/>
+        <c:axId val="451652992"/>
+        <c:axId val="451654784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425207680"/>
+        <c:axId val="451652992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5551,14 +5623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425209216"/>
+        <c:crossAx val="451654784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425209216"/>
+        <c:axId val="451654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +5681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425207680"/>
+        <c:crossAx val="451652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5770,7 +5842,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5905,6 +5977,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,8 +5994,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="425237888"/>
-        <c:axId val="425236352"/>
+        <c:axId val="454964352"/>
+        <c:axId val="454962560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5945,7 +6020,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6080,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,7 +6167,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6224,6 +6302,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,11 +6321,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="425228928"/>
-        <c:axId val="425234816"/>
+        <c:axId val="454959488"/>
+        <c:axId val="454961024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="425228928"/>
+        <c:axId val="454959488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6287,14 +6368,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425234816"/>
+        <c:crossAx val="454961024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="425234816"/>
+        <c:axId val="454961024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,12 +6426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425228928"/>
+        <c:crossAx val="454959488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="425236352"/>
+        <c:axId val="454962560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6387,12 +6468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425237888"/>
+        <c:crossAx val="454964352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="425237888"/>
+        <c:axId val="454964352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="425236352"/>
+        <c:crossAx val="454962560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6533,7 +6614,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6668,6 +6749,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6682,8 +6766,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525571200"/>
-        <c:axId val="525523968"/>
+        <c:axId val="696480512"/>
+        <c:axId val="687565824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6708,7 +6792,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6843,6 +6927,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6852,7 +6939,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6987,6 +7074,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7003,11 +7093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525340032"/>
-        <c:axId val="525522048"/>
+        <c:axId val="687410560"/>
+        <c:axId val="687563904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="525340032"/>
+        <c:axId val="687410560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7050,14 +7140,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525522048"/>
+        <c:crossAx val="687563904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="525522048"/>
+        <c:axId val="687563904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7108,12 +7198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525340032"/>
+        <c:crossAx val="687410560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="525523968"/>
+        <c:axId val="687565824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,12 +7240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525571200"/>
+        <c:crossAx val="696480512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525571200"/>
+        <c:axId val="696480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7164,7 +7254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525523968"/>
+        <c:crossAx val="687565824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7314,7 +7404,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7449,6 +7539,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7458,7 +7551,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7592,6 +7685,9 @@
                   <c:v>1315850.9648179819</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1315850.9648179819</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1315850.9648179819</c:v>
                 </c:pt>
               </c:numCache>
@@ -7635,7 +7731,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7770,6 +7866,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7779,7 +7878,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7914,6 +8013,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1499072.4486985093</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1475514.2237640808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7956,7 +8058,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8091,6 +8193,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8100,7 +8205,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8235,6 +8340,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>183221.48388052732</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>159663.25894609885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8256,11 +8364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527077760"/>
-        <c:axId val="527079680"/>
+        <c:axId val="442964608"/>
+        <c:axId val="442970496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527077760"/>
+        <c:axId val="442964608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8303,14 +8411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527079680"/>
+        <c:crossAx val="442970496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527079680"/>
+        <c:axId val="442970496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8361,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527077760"/>
+        <c:crossAx val="442964608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8531,7 +8639,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8666,6 +8774,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-408.18818627675978</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-41.785769766438428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8680,8 +8791,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="663172992"/>
-        <c:axId val="663171072"/>
+        <c:axId val="442991360"/>
+        <c:axId val="442989568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8706,7 +8817,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8841,6 +8952,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8850,7 +8964,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8985,6 +9099,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9001,11 +9118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616153472"/>
-        <c:axId val="616155392"/>
+        <c:axId val="442986496"/>
+        <c:axId val="442988032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616153472"/>
+        <c:axId val="442986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9048,14 +9165,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616155392"/>
+        <c:crossAx val="442988032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616155392"/>
+        <c:axId val="442988032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,12 +9223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616153472"/>
+        <c:crossAx val="442986496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="663171072"/>
+        <c:axId val="442989568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9148,12 +9265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663172992"/>
+        <c:crossAx val="442991360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="663172992"/>
+        <c:axId val="442991360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9162,7 +9279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="663171072"/>
+        <c:crossAx val="442989568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9312,7 +9429,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9447,6 +9564,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,7 +9576,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9590,6 +9710,9 @@
                   <c:v>10881027.242915587</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>10881027.242915587</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>10881027.242915587</c:v>
                 </c:pt>
               </c:numCache>
@@ -9633,7 +9756,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9768,6 +9891,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9777,7 +9903,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9912,6 +10038,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12708238.938801141</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12508475.328830155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9954,7 +10083,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10089,6 +10218,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10098,7 +10230,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10233,6 +10365,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1827211.695885554</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1627448.0859145671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10254,11 +10389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370336896"/>
-        <c:axId val="370338432"/>
+        <c:axId val="443017856"/>
+        <c:axId val="443019648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370336896"/>
+        <c:axId val="443017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10301,14 +10436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370338432"/>
+        <c:crossAx val="443019648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370338432"/>
+        <c:axId val="443019648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10359,7 +10494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370336896"/>
+        <c:crossAx val="443017856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10529,7 +10664,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10664,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-210.90834862773511</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.2101905759162022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10678,8 +10816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="387529728"/>
-        <c:axId val="387528192"/>
+        <c:axId val="448344832"/>
+        <c:axId val="448343040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10704,7 +10842,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10839,6 +10977,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10848,7 +10989,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10983,6 +11124,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10999,11 +11143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387520768"/>
-        <c:axId val="387526656"/>
+        <c:axId val="448339968"/>
+        <c:axId val="448341504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387520768"/>
+        <c:axId val="448339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11046,14 +11190,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387526656"/>
+        <c:crossAx val="448341504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387526656"/>
+        <c:axId val="448341504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11104,12 +11248,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387520768"/>
+        <c:crossAx val="448339968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387528192"/>
+        <c:axId val="448343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11146,12 +11290,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387529728"/>
+        <c:crossAx val="448344832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="387529728"/>
+        <c:axId val="448344832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11160,7 +11304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="387528192"/>
+        <c:crossAx val="448343040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11310,7 +11454,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11445,6 +11589,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11454,7 +11601,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11588,6 +11735,9 @@
                   <c:v>1318704.6065380645</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1318704.6065380645</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1318704.6065380645</c:v>
                 </c:pt>
               </c:numCache>
@@ -11631,7 +11781,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11766,6 +11916,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11775,7 +11928,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11910,6 +12063,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1677473.8934128189</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1651105.0030723966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11952,7 +12108,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12087,6 +12243,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12096,7 +12255,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12231,6 +12390,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>358769.28687475435</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>332400.39653433207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12252,11 +12414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412312320"/>
-        <c:axId val="412313856"/>
+        <c:axId val="448395136"/>
+        <c:axId val="448396672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="412312320"/>
+        <c:axId val="448395136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12299,14 +12461,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412313856"/>
+        <c:crossAx val="448396672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="412313856"/>
+        <c:axId val="448396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12357,7 +12519,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412312320"/>
+        <c:crossAx val="448395136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12518,7 +12680,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12653,6 +12815,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-8.2247322865529409</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.19617751346312418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12667,8 +12832,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="412338048"/>
-        <c:axId val="412336512"/>
+        <c:axId val="449711488"/>
+        <c:axId val="449709952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12693,7 +12858,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12828,6 +12993,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12837,7 +13005,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -12972,6 +13140,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12988,11 +13159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412333184"/>
-        <c:axId val="412334720"/>
+        <c:axId val="449575552"/>
+        <c:axId val="449708416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="412333184"/>
+        <c:axId val="449575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13035,14 +13206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412334720"/>
+        <c:crossAx val="449708416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="412334720"/>
+        <c:axId val="449708416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13093,12 +13264,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412333184"/>
+        <c:crossAx val="449575552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412336512"/>
+        <c:axId val="449709952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13135,12 +13306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412338048"/>
+        <c:crossAx val="449711488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="412338048"/>
+        <c:axId val="449711488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13149,7 +13320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412336512"/>
+        <c:crossAx val="449709952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13299,7 +13470,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13434,6 +13605,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13443,7 +13617,7 @@
               <c:f>'model2(1)&amp;KDJ'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13577,6 +13751,9 @@
                   <c:v>1154608.6594874961</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1154608.6594874961</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1154608.6594874961</c:v>
                 </c:pt>
               </c:numCache>
@@ -13620,7 +13797,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -13755,6 +13932,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13764,7 +13944,7 @@
               <c:f>'model2(1)&amp;KDJ'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13899,6 +14079,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1335916.9391438307</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1314949.1002298743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13941,7 +14124,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -14076,6 +14259,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14085,7 +14271,7 @@
               <c:f>'model2(1)&amp;KDJ'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14220,6 +14406,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>181308.27965633455</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>160340.44074237812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14241,11 +14430,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421604736"/>
-        <c:axId val="421610624"/>
+        <c:axId val="449733760"/>
+        <c:axId val="449735296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421604736"/>
+        <c:axId val="449733760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14288,14 +14477,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421610624"/>
+        <c:crossAx val="449735296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421610624"/>
+        <c:axId val="449735296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14346,7 +14535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421604736"/>
+        <c:crossAx val="449733760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15198,7 +15387,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17277,6 +17466,44 @@
         <v>2040.9409313837987</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="32">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="31">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="29">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="29">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="30">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="30">
+        <v>1587137.2098113052</v>
+      </c>
+      <c r="H48" s="30">
+        <v>1291929.7054361342</v>
+      </c>
+      <c r="I48" s="30">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J48" s="30">
+        <v>1294179.5752163501</v>
+      </c>
+      <c r="K48" s="30">
+        <v>155889.68214218272</v>
+      </c>
+      <c r="L48" s="29">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17293,7 +17520,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19893,6 +20120,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-41.785769766438428</v>
+      </c>
+      <c r="F48" s="18">
+        <v>-51.333868830374342</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1812118.2196537603</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1475064.2498080377</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1315850.9648179819</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1475514.2237640808</v>
+      </c>
+      <c r="K48" s="18">
+        <v>159663.25894609885</v>
+      </c>
+      <c r="L48" s="17">
+        <v>449.9739560431982</v>
+      </c>
+      <c r="M48" s="22">
+        <v>1.9024824606509089E-2</v>
+      </c>
+      <c r="N48" s="22">
+        <v>2.6349767941920243E-2</v>
+      </c>
+      <c r="O48" s="22">
+        <v>72.201108747687343</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19909,7 +20186,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22509,6 +22786,56 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-2.2101905759162022</v>
+      </c>
+      <c r="F48" s="18">
+        <v>-2.7152218027424961</v>
+      </c>
+      <c r="G48" s="18">
+        <v>15366415.293723391</v>
+      </c>
+      <c r="H48" s="18">
+        <v>12508262.210290952</v>
+      </c>
+      <c r="I48" s="18">
+        <v>10881027.242915587</v>
+      </c>
+      <c r="J48" s="18">
+        <v>12508475.328830155</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1627448.0859145671</v>
+      </c>
+      <c r="L48" s="17">
+        <v>213.11853920365132</v>
+      </c>
+      <c r="M48" s="22">
+        <v>1.9024824606509089E-2</v>
+      </c>
+      <c r="N48" s="22">
+        <v>2.6349767941920243E-2</v>
+      </c>
+      <c r="O48" s="22">
+        <v>72.201108747687343</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22525,7 +22852,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25407,6 +25734,62 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="48" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>2900300</v>
+      </c>
+      <c r="F48" s="17">
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="G48" s="17">
+        <v>-0.19617751346312418</v>
+      </c>
+      <c r="H48" s="18">
+        <v>-0.24100431318782348</v>
+      </c>
+      <c r="I48" s="18">
+        <v>2028374.1534202762</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1651096.5821625965</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1318704.6065380645</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1651105.0030723966</v>
+      </c>
+      <c r="M48" s="18">
+        <v>332400.39653433207</v>
+      </c>
+      <c r="N48" s="17">
+        <v>8.4209098000160658</v>
+      </c>
+      <c r="O48" s="22">
+        <v>1.9024824606509089E-2</v>
+      </c>
+      <c r="P48" s="22">
+        <v>2.6349767941920243E-2</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>72.201108747687343</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -25423,7 +25806,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -28177,6 +28560,59 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="18">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1612652.596476977</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1312699.2304496584</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1154608.6594874961</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1314949.1002298743</v>
+      </c>
+      <c r="K48" s="18">
+        <v>160340.44074237812</v>
+      </c>
+      <c r="L48" s="17">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M48" s="21">
+        <v>79.31034553632152</v>
+      </c>
+      <c r="N48" s="21">
+        <v>75.815857087878427</v>
+      </c>
+      <c r="O48" s="21">
+        <v>71.426953728039848</v>
+      </c>
+      <c r="P48" s="21">
+        <v>84.593663807555572</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -28193,7 +28629,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -30551,6 +30987,50 @@
         <v>295.3426593807647</v>
       </c>
     </row>
+    <row r="48" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>2900300</v>
+      </c>
+      <c r="F48" s="17">
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="G48" s="17">
+        <v>-7.0445561652667319</v>
+      </c>
+      <c r="H48" s="18">
+        <v>-8.6542457917445699</v>
+      </c>
+      <c r="I48" s="18">
+        <v>12758514.421517504</v>
+      </c>
+      <c r="J48" s="18">
+        <v>10385430.872957392</v>
+      </c>
+      <c r="K48" s="18">
+        <v>8261600.0727247298</v>
+      </c>
+      <c r="L48" s="18">
+        <v>10385733.260172937</v>
+      </c>
+      <c r="M48" s="18">
+        <v>2124133.1874482073</v>
+      </c>
+      <c r="N48" s="17">
+        <v>302.38721554603143</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J2">
@@ -30567,7 +31047,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -32646,6 +33126,44 @@
         <v>1054.5417431386754</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="17">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="18">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="18">
+        <v>13327124.574455591</v>
+      </c>
+      <c r="H48" s="18">
+        <v>10848279.543413952</v>
+      </c>
+      <c r="I48" s="18">
+        <v>9327292.1649004761</v>
+      </c>
+      <c r="J48" s="18">
+        <v>10849345.136109971</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1522052.9712094944</v>
+      </c>
+      <c r="L48" s="17">
+        <v>1065.5926960182564</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(RSI&KDJ).xlsx
@@ -584,7 +584,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -722,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -731,7 +734,7 @@
               <c:f>'model2(1)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -869,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1144330.9676563484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,7 +917,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1049,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1067,7 @@
               <c:f>'model2(1)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1196,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1294179.5752163501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1228799.4488688125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,7 +1250,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1376,6 +1388,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1400,7 @@
               <c:f>'model2(1)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1523,6 +1538,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>155889.68214218272</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84468.481212464161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,11 +1562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="659874944"/>
-        <c:axId val="659876864"/>
+        <c:axId val="468651392"/>
+        <c:axId val="501007488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="659874944"/>
+        <c:axId val="468651392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659876864"/>
+        <c:crossAx val="501007488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="659876864"/>
+        <c:axId val="501007488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659874944"/>
+        <c:crossAx val="468651392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,7 +1828,7 @@
               <c:f>'model2(1)&amp;KDJ'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1948,6 +1966,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,8 +1983,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449768064"/>
-        <c:axId val="449766528"/>
+        <c:axId val="438043776"/>
+        <c:axId val="433323392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1988,7 +2009,7 @@
               <c:f>'model2(1)&amp;KDJ'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2126,6 +2147,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2159,7 @@
               <c:f>'model2(1)&amp;KDJ'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2273,6 +2297,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2289,11 +2316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449763200"/>
-        <c:axId val="449764736"/>
+        <c:axId val="433320320"/>
+        <c:axId val="433321856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449763200"/>
+        <c:axId val="433320320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,14 +2363,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449764736"/>
+        <c:crossAx val="433321856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449764736"/>
+        <c:axId val="433321856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,12 +2421,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449763200"/>
+        <c:crossAx val="433320320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449766528"/>
+        <c:axId val="433323392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,12 +2463,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449768064"/>
+        <c:crossAx val="438043776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="449768064"/>
+        <c:axId val="438043776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449766528"/>
+        <c:crossAx val="433323392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2627,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2738,6 +2765,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,7 +2777,7 @@
               <c:f>'model2(2)vol'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2885,6 +2915,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>8261600.0727247298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8265363.9058102081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,7 +2960,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3065,6 +3098,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,7 +3110,7 @@
               <c:f>'model2(2)vol'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3212,6 +3248,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10385733.260172937</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9815363.7313594464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3254,7 +3293,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3392,6 +3431,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,7 +3443,7 @@
               <c:f>'model2(2)vol'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3539,6 +3581,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2124133.1874482073</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1549999.8255492384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3560,11 +3605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451080576"/>
-        <c:axId val="451082112"/>
+        <c:axId val="438078080"/>
+        <c:axId val="438079872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451080576"/>
+        <c:axId val="438078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,14 +3652,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451082112"/>
+        <c:crossAx val="438079872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451082112"/>
+        <c:axId val="438079872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3710,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451080576"/>
+        <c:crossAx val="438078080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3826,7 +3871,7 @@
               <c:f>'model2(2)vol'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3964,6 +4009,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-7.0445561652667319</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3763.8330854783617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,8 +4026,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="451626880"/>
-        <c:axId val="451625344"/>
+        <c:axId val="438096256"/>
+        <c:axId val="438094464"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4004,7 +4052,7 @@
               <c:f>'model2(2)vol'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4142,6 +4190,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,7 +4202,7 @@
               <c:f>'model2(2)vol'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4289,6 +4340,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,11 +4359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451622016"/>
-        <c:axId val="451623552"/>
+        <c:axId val="438091136"/>
+        <c:axId val="438092928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451622016"/>
+        <c:axId val="438091136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4352,14 +4406,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451623552"/>
+        <c:crossAx val="438092928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451623552"/>
+        <c:axId val="438092928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,12 +4464,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451622016"/>
+        <c:crossAx val="438091136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451625344"/>
+        <c:axId val="438094464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,12 +4506,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451626880"/>
+        <c:crossAx val="438096256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="451626880"/>
+        <c:axId val="438096256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451625344"/>
+        <c:crossAx val="438094464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4616,7 +4670,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4754,6 +4808,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4763,7 +4820,7 @@
               <c:f>'model2(2)'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4901,6 +4958,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9327292.1649004761</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9336531.2996112294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,7 +5003,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5081,6 +5141,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5090,7 +5153,7 @@
               <c:f>'model2(2)'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5228,6 +5291,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10849345.136109971</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10258863.442549834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5270,7 +5336,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5408,6 +5474,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,7 +5486,7 @@
               <c:f>'model2(2)'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5555,6 +5624,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1522052.9712094944</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>922332.14293860458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,11 +5648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451652992"/>
-        <c:axId val="451654784"/>
+        <c:axId val="448219008"/>
+        <c:axId val="448220544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451652992"/>
+        <c:axId val="448219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5623,14 +5695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451654784"/>
+        <c:crossAx val="448220544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="451654784"/>
+        <c:axId val="448220544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,7 +5753,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451652992"/>
+        <c:crossAx val="448219008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5842,7 +5914,7 @@
               <c:f>'model2(2)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5980,6 +6052,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5994,8 +6069,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="454964352"/>
-        <c:axId val="454962560"/>
+        <c:axId val="448236928"/>
+        <c:axId val="448235392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6020,7 +6095,7 @@
               <c:f>'model2(2)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6158,6 +6233,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +6245,7 @@
               <c:f>'model2(2)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6305,6 +6383,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6321,11 +6402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454959488"/>
-        <c:axId val="454961024"/>
+        <c:axId val="448232064"/>
+        <c:axId val="448233856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454959488"/>
+        <c:axId val="448232064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,14 +6449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454961024"/>
+        <c:crossAx val="448233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="454961024"/>
+        <c:axId val="448233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,12 +6507,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454959488"/>
+        <c:crossAx val="448232064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="454962560"/>
+        <c:axId val="448235392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,12 +6549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454964352"/>
+        <c:crossAx val="448236928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="454964352"/>
+        <c:axId val="448236928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6482,7 +6563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="454962560"/>
+        <c:crossAx val="448235392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6614,7 +6695,7 @@
               <c:f>'model2(1)'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6752,6 +6833,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6766,8 +6850,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="696480512"/>
-        <c:axId val="687565824"/>
+        <c:axId val="532901248"/>
+        <c:axId val="532899328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6792,7 +6876,7 @@
               <c:f>'model2(1)'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6930,6 +7014,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6939,7 +7026,7 @@
               <c:f>'model2(1)'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7077,6 +7164,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7093,11 +7183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="687410560"/>
-        <c:axId val="687563904"/>
+        <c:axId val="530974976"/>
+        <c:axId val="532897792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="687410560"/>
+        <c:axId val="530974976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7140,14 +7230,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="687563904"/>
+        <c:crossAx val="532897792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="687563904"/>
+        <c:axId val="532897792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7198,12 +7288,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="687410560"/>
+        <c:crossAx val="530974976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="687565824"/>
+        <c:axId val="532899328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7240,12 +7330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696480512"/>
+        <c:crossAx val="532901248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="696480512"/>
+        <c:axId val="532901248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,7 +7344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="687565824"/>
+        <c:crossAx val="532899328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7404,7 +7494,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7542,6 +7632,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7551,7 +7644,7 @@
               <c:f>'model2(1)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7689,6 +7782,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1315850.9648179819</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1317059.1797344182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,7 +7827,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7869,6 +7965,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7878,7 +7977,7 @@
               <c:f>'model2(1)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8016,6 +8115,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1475514.2237640808</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1395177.0885531122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8058,7 +8160,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8196,6 +8298,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8205,7 +8310,7 @@
               <c:f>'model2(1)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8343,6 +8448,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>159663.25894609885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78117.908818694064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,11 +8472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442964608"/>
-        <c:axId val="442970496"/>
+        <c:axId val="113001600"/>
+        <c:axId val="113003136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442964608"/>
+        <c:axId val="113001600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,14 +8519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442970496"/>
+        <c:crossAx val="113003136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442970496"/>
+        <c:axId val="113003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442964608"/>
+        <c:crossAx val="113001600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8639,7 +8747,7 @@
               <c:f>'model2(1)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8777,6 +8885,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-41.785769766438428</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1208.2149164361979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,8 +8902,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="442991360"/>
-        <c:axId val="442989568"/>
+        <c:axId val="113028096"/>
+        <c:axId val="113026560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8817,7 +8928,7 @@
               <c:f>'model2(1)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8955,6 +9066,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8964,7 +9078,7 @@
               <c:f>'model2(1)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9102,6 +9216,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9118,11 +9235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442986496"/>
-        <c:axId val="442988032"/>
+        <c:axId val="113023232"/>
+        <c:axId val="113025024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442986496"/>
+        <c:axId val="113023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9165,14 +9282,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442988032"/>
+        <c:crossAx val="113025024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442988032"/>
+        <c:axId val="113025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9223,12 +9340,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442986496"/>
+        <c:crossAx val="113023232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="442989568"/>
+        <c:axId val="113026560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9265,12 +9382,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442991360"/>
+        <c:crossAx val="113028096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="442991360"/>
+        <c:axId val="113028096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9279,7 +9396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442989568"/>
+        <c:crossAx val="113026560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9429,7 +9546,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9567,6 +9684,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9576,7 +9696,7 @@
               <c:f>'model2(2)&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9714,6 +9834,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10881027.242915587</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10882875.069857739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9756,7 +9879,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9894,6 +10017,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9903,7 +10029,7 @@
               <c:f>'model2(2)&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10041,6 +10167,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12508475.328830155</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11818834.211100031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10083,7 +10212,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10221,6 +10350,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10230,7 +10362,7 @@
               <c:f>'model2(2)&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10368,6 +10500,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1627448.0859145671</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>935959.14124229178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10389,11 +10524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443017856"/>
-        <c:axId val="443019648"/>
+        <c:axId val="428749568"/>
+        <c:axId val="428751104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443017856"/>
+        <c:axId val="428749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10436,14 +10571,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443019648"/>
+        <c:crossAx val="428751104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="443019648"/>
+        <c:axId val="428751104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10494,7 +10629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443017856"/>
+        <c:crossAx val="428749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10664,7 +10799,7 @@
               <c:f>'model2(2)&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10802,6 +10937,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-2.2101905759162022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1847.8269421505427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10816,8 +10954,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448344832"/>
-        <c:axId val="448343040"/>
+        <c:axId val="428780544"/>
+        <c:axId val="428779008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10842,7 +10980,7 @@
               <c:f>'model2(2)&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10980,6 +11118,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10989,7 +11130,7 @@
               <c:f>'model2(2)&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -11127,6 +11268,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11143,11 +11287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448339968"/>
-        <c:axId val="448341504"/>
+        <c:axId val="428775680"/>
+        <c:axId val="428777472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448339968"/>
+        <c:axId val="428775680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11190,14 +11334,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448341504"/>
+        <c:crossAx val="428777472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448341504"/>
+        <c:axId val="428777472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11248,12 +11392,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448339968"/>
+        <c:crossAx val="428775680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448343040"/>
+        <c:axId val="428779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11290,12 +11434,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448344832"/>
+        <c:crossAx val="428780544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448344832"/>
+        <c:axId val="428780544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11304,7 +11448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448343040"/>
+        <c:crossAx val="428779008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11454,7 +11598,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11592,6 +11736,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11601,7 +11748,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11739,6 +11886,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1318704.6065380645</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1318809.4221429767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11781,7 +11931,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11919,6 +12069,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11928,7 +12081,7 @@
               <c:f>'model2(2)vol&amp;RSI'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12066,6 +12219,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1651105.0030723966</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1559932.9479212505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12108,7 +12264,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12246,6 +12402,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12255,7 +12414,7 @@
               <c:f>'model2(2)vol&amp;RSI'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12393,6 +12552,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>332400.39653433207</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>241123.52577827382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12414,11 +12576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448395136"/>
-        <c:axId val="448396672"/>
+        <c:axId val="428798336"/>
+        <c:axId val="428799872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448395136"/>
+        <c:axId val="428798336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12461,14 +12623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448396672"/>
+        <c:crossAx val="428799872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448396672"/>
+        <c:axId val="428799872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12519,7 +12681,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448395136"/>
+        <c:crossAx val="428798336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12680,7 +12842,7 @@
               <c:f>'model2(2)vol&amp;RSI'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12818,6 +12980,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.19617751346312418</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104.81560491205566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12832,8 +12997,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449711488"/>
-        <c:axId val="449709952"/>
+        <c:axId val="432039808"/>
+        <c:axId val="432038272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12858,7 +13023,7 @@
               <c:f>'model2(2)vol&amp;RSI'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -12996,6 +13161,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13005,7 +13173,7 @@
               <c:f>'model2(2)vol&amp;RSI'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -13143,6 +13311,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13159,11 +13330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449575552"/>
-        <c:axId val="449708416"/>
+        <c:axId val="432034944"/>
+        <c:axId val="432036480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449575552"/>
+        <c:axId val="432034944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13206,14 +13377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449708416"/>
+        <c:crossAx val="432036480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449708416"/>
+        <c:axId val="432036480"/>
         <c:scaling>
        